--- a/output/freight_outward.xlsx
+++ b/output/freight_outward.xlsx
@@ -381,7 +381,7 @@
         <v>827.432609597449</v>
       </c>
       <c r="B1" s="0" t="n">
-        <v>827.432609597449</v>
+        <v>778.5150842666409</v>
       </c>
       <c r="C1" s="0" t="n">
         <v>827.432609597449</v>
@@ -390,19 +390,19 @@
         <v>827.432609597449</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>827.432609597449</v>
+        <v>778.5150842666409</v>
       </c>
       <c r="F1" s="0" t="n">
         <v>827.432609597449</v>
       </c>
       <c r="G1" s="0" t="n">
+        <v>778.5150842666409</v>
+      </c>
+      <c r="H1" s="0" t="n">
         <v>827.432609597449</v>
       </c>
-      <c r="H1" s="0" t="n">
-        <v>778.5150842666409</v>
-      </c>
       <c r="I1" s="0" t="n">
-        <v>778.5150842666409</v>
+        <v>827.432609597449</v>
       </c>
       <c r="J1" s="0" t="n">
         <v>827.432609597449</v>
@@ -680,34 +680,34 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="n">
-        <v>853.0322158641276</v>
+        <v>802.6012508</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>802.6012508</v>
+        <v>802.6012508000001</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>802.6012508</v>
       </c>
       <c r="D2" s="0" t="n">
+        <v>802.6012508</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>802.6012508000001</v>
+      </c>
+      <c r="F2" s="0" t="n">
         <v>853.0322158641276</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="G2" s="0" t="n">
+        <v>755.1517466818966</v>
+      </c>
+      <c r="H2" s="0" t="n">
         <v>802.6012508</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="I2" s="0" t="n">
+        <v>853.0322158641276</v>
+      </c>
+      <c r="J2" s="0" t="n">
         <v>802.6012508</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>853.0322158641276</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>802.6012508000001</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>755.1517466818966</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>853.0322158641276</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>755.1517466818966</v>
@@ -982,34 +982,34 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="n">
-        <v>879.4238381009379</v>
+        <v>827.432609597449</v>
       </c>
       <c r="B3" s="0" t="n">
+        <v>778.515084266641</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>778.5150842666409</v>
+      </c>
+      <c r="D3" s="0" t="n">
         <v>827.432609597449</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="E3" s="0" t="n">
+        <v>778.515084266641</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>827.4326095974491</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>778.515084266641</v>
+      </c>
+      <c r="H3" s="0" t="n">
         <v>827.432609597449</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="I3" s="0" t="n">
         <v>827.4326095974491</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>827.432609597449</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>827.432609597449</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>879.4238381009379</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>778.515084266641</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>778.515084266641</v>
-      </c>
       <c r="J3" s="0" t="n">
-        <v>879.4238381009379</v>
+        <v>778.5150842666409</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>778.515084266641</v>
@@ -1284,34 +1284,34 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
-        <v>906.6319801729164</v>
+        <v>802.6012508</v>
       </c>
       <c r="B4" s="0" t="n">
+        <v>755.1517466818967</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>755.1517466818966</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>853.0322158641276</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>755.1517466818967</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>802.6012508000001</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>755.1517466818967</v>
+      </c>
+      <c r="H4" s="0" t="n">
         <v>802.6012508</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>853.0322158641276</v>
-      </c>
-      <c r="D4" s="0" t="n">
+      <c r="I4" s="0" t="n">
         <v>802.6012508000001</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <v>853.0322158641276</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>802.6012508</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>853.0322158641276</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>802.6012508000002</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>755.1517466818967</v>
-      </c>
       <c r="J4" s="0" t="n">
-        <v>853.0322158641276</v>
+        <v>755.1517466818966</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>802.6012508000002</v>
@@ -1586,34 +1586,34 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
-        <v>879.4238381009379</v>
+        <v>778.5150842666409</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>778.5150842666409</v>
+        <v>732.4895458562595</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>827.4326095974491</v>
+        <v>778.515084266641</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>827.4326095974491</v>
       </c>
       <c r="E5" s="0" t="n">
+        <v>732.4895458562595</v>
+      </c>
+      <c r="F5" s="0" t="n">
         <v>827.4326095974491</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="G5" s="0" t="n">
+        <v>732.4895458562595</v>
+      </c>
+      <c r="H5" s="0" t="n">
         <v>778.5150842666409</v>
       </c>
-      <c r="G5" s="0" t="n">
-        <v>879.4238381009379</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>778.5150842666411</v>
-      </c>
       <c r="I5" s="0" t="n">
-        <v>732.4895458562595</v>
+        <v>778.515084266641</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>879.4238381009379</v>
+        <v>778.515084266641</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>778.5150842666411</v>
@@ -1888,34 +1888,34 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="n">
-        <v>906.6319801729164</v>
+        <v>802.6012508000001</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>802.6012508000001</v>
+        <v>710.5074405856126</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>802.6012508000001</v>
+        <v>802.6012508000002</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>802.6012508000001</v>
       </c>
       <c r="E6" s="0" t="n">
+        <v>710.5074405856126</v>
+      </c>
+      <c r="F6" s="0" t="n">
         <v>853.0322158641277</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="G6" s="0" t="n">
+        <v>710.5074405856126</v>
+      </c>
+      <c r="H6" s="0" t="n">
         <v>802.6012508000001</v>
       </c>
-      <c r="G6" s="0" t="n">
-        <v>853.0322158641276</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>802.6012508000003</v>
-      </c>
       <c r="I6" s="0" t="n">
-        <v>710.5074405856126</v>
+        <v>755.1517466818967</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>906.6319801729164</v>
+        <v>755.1517466818967</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>802.6012508000003</v>
@@ -2190,34 +2190,34 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="n">
-        <v>934.6819040603704</v>
+        <v>778.515084266641</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>778.515084266641</v>
+        <v>689.1850211150748</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>827.4326095974491</v>
+        <v>778.5150842666411</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>778.515084266641</v>
       </c>
       <c r="E7" s="0" t="n">
+        <v>689.1850211150748</v>
+      </c>
+      <c r="F7" s="0" t="n">
         <v>879.423838100938</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="G7" s="0" t="n">
+        <v>732.4895458562595</v>
+      </c>
+      <c r="H7" s="0" t="n">
         <v>827.4326095974491</v>
       </c>
-      <c r="G7" s="0" t="n">
-        <v>827.4326095974491</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>778.5150842666412</v>
-      </c>
       <c r="I7" s="0" t="n">
-        <v>732.4895458562595</v>
+        <v>778.5150842666411</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>879.4238381009379</v>
+        <v>778.5150842666411</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>827.4326095974493</v>
@@ -2492,34 +2492,34 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>906.6319801729164</v>
+        <v>755.1517466818967</v>
       </c>
       <c r="B8" s="0" t="n">
+        <v>710.5074405856126</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>755.1517466818968</v>
+      </c>
+      <c r="D8" s="0" t="n">
         <v>755.1517466818967</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>802.6012508000001</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>802.6012508000002</v>
-      </c>
       <c r="E8" s="0" t="n">
-        <v>853.0322158641277</v>
+        <v>668.5024901891284</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>853.0322158641277</v>
       </c>
       <c r="G8" s="0" t="n">
+        <v>710.5074405856126</v>
+      </c>
+      <c r="H8" s="0" t="n">
         <v>802.6012508000001</v>
       </c>
-      <c r="H8" s="0" t="n">
-        <v>802.6012508000005</v>
-      </c>
       <c r="I8" s="0" t="n">
-        <v>710.5074405856126</v>
+        <v>755.1517466818968</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>853.0322158641276</v>
+        <v>802.6012508000003</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>853.0322158641279</v>
@@ -2794,34 +2794,34 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>879.4238381009379</v>
+        <v>778.5150842666411</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>732.4895458562595</v>
       </c>
       <c r="C9" s="0" t="n">
+        <v>778.5150842666412</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>778.5150842666411</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>689.185021115075</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>879.423838100938</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>689.1850211150748</v>
+      </c>
+      <c r="H9" s="0" t="n">
         <v>778.515084266641</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>827.4326095974492</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>879.423838100938</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>827.4326095974492</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>827.4326095974491</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>827.4326095974495</v>
-      </c>
       <c r="I9" s="0" t="n">
-        <v>689.1850211150748</v>
+        <v>778.5150842666412</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>827.4326095974491</v>
+        <v>778.5150842666412</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>879.4238381009384</v>
@@ -3096,34 +3096,34 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>906.6319801729164</v>
+        <v>755.1517466818968</v>
       </c>
       <c r="B10" s="0" t="n">
+        <v>755.1517466818967</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>755.151746681897</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>755.1517466818968</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>710.5074405856127</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>853.0322158641277</v>
+      </c>
+      <c r="G10" s="0" t="n">
         <v>710.5074405856126</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="H10" s="0" t="n">
         <v>755.1517466818967</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>802.6012508000002</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>853.0322158641277</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>802.6012508000002</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>802.6012508000001</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>853.0322158641281</v>
-      </c>
       <c r="I10" s="0" t="n">
-        <v>668.5024901891284</v>
+        <v>802.6012508000005</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>802.6012508000001</v>
+        <v>755.151746681897</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>906.631980172917</v>
@@ -3398,34 +3398,34 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>879.4238381009379</v>
+        <v>778.5150842666412</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>732.4895458562595</v>
       </c>
       <c r="C11" s="0" t="n">
+        <v>778.5150842666413</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>778.5150842666412</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>689.185021115075</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>879.423838100938</v>
+      </c>
+      <c r="G11" s="0" t="n">
         <v>732.4895458562595</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>778.5150842666411</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>879.423838100938</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>827.4326095974492</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>827.4326095974491</v>
-      </c>
       <c r="H11" s="0" t="n">
-        <v>879.4238381009386</v>
+        <v>732.4895458562595</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>689.185021115075</v>
+        <v>778.5150842666413</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>827.4326095974491</v>
+        <v>778.5150842666413</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>879.4238381009385</v>
@@ -3700,34 +3700,34 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>906.6319801729164</v>
+        <v>802.6012508000005</v>
       </c>
       <c r="B12" s="0" t="n">
+        <v>710.5074405856126</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>755.1517466818971</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>755.151746681897</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>668.5024901891285</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>906.6319801729165</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>710.5074405856126</v>
+      </c>
+      <c r="H12" s="0" t="n">
         <v>755.1517466818967</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <v>755.1517466818967</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>755.1517466818968</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>906.6319801729165</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>802.6012508000002</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>853.0322158641277</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>853.0322158641283</v>
-      </c>
       <c r="I12" s="0" t="n">
-        <v>710.5074405856127</v>
+        <v>802.6012508000006</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>802.6012508000001</v>
+        <v>755.1517466818971</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>853.0322158641281</v>
@@ -4002,34 +4002,34 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>934.6819040603704</v>
+        <v>827.4326095974495</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>732.4895458562595</v>
+        <v>689.1850211150748</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>732.4895458562595</v>
+        <v>778.5150842666415</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>732.4895458562596</v>
+        <v>732.4895458562597</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>934.6819040603705</v>
+        <v>689.1850211150751</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>827.4326095974492</v>
+        <v>879.423838100938</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>879.423838100938</v>
+        <v>689.1850211150748</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>879.4238381009387</v>
+        <v>778.5150842666411</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>732.4895458562596</v>
+        <v>778.5150842666415</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>778.515084266641</v>
+        <v>778.5150842666415</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>827.4326095974495</v>
@@ -4304,34 +4304,34 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>906.6319801729164</v>
+        <v>853.0322158641281</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>710.5074405856126</v>
       </c>
       <c r="C14" s="0" t="n">
+        <v>802.6012508000007</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>710.5074405856128</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>710.5074405856128</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>853.0322158641277</v>
+      </c>
+      <c r="G14" s="0" t="n">
         <v>710.5074405856126</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="H14" s="0" t="n">
         <v>755.1517466818968</v>
       </c>
-      <c r="E14" s="0" t="n">
-        <v>963.5996533139029</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>853.0322158641278</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>906.6319801729165</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>906.6319801729173</v>
-      </c>
       <c r="I14" s="0" t="n">
-        <v>710.5074405856127</v>
+        <v>755.1517466818972</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>802.6012508000002</v>
+        <v>755.1517466818972</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>802.6012508000006</v>
@@ -4606,34 +4606,34 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>934.6819040603704</v>
+        <v>827.4326095974495</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>732.4895458562595</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>732.4895458562595</v>
+        <v>827.4326095974498</v>
       </c>
       <c r="D15" s="0" t="n">
+        <v>732.4895458562597</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>732.4895458562597</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>879.423838100938</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>689.1850211150748</v>
+      </c>
+      <c r="H15" s="0" t="n">
         <v>778.5150842666412</v>
       </c>
-      <c r="E15" s="0" t="n">
-        <v>934.6819040603706</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>879.4238381009382</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>879.423838100938</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>879.4238381009388</v>
-      </c>
       <c r="I15" s="0" t="n">
-        <v>689.185021115075</v>
+        <v>732.48954585626</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>827.4326095974492</v>
+        <v>778.5150842666416</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>778.5150842666415</v>
@@ -4908,34 +4908,34 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>963.5996533139028</v>
+        <v>853.0322158641281</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>710.5074405856126</v>
+        <v>755.1517466818967</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>710.5074405856126</v>
+        <v>802.6012508000008</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>802.6012508000005</v>
+        <v>710.5074405856128</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>906.6319801729167</v>
+        <v>755.151746681897</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>853.0322158641278</v>
+        <v>853.0322158641277</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>853.0322158641277</v>
+        <v>668.5024901891284</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>853.0322158641285</v>
+        <v>755.151746681897</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>710.5074405856127</v>
+        <v>755.1517466818972</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>853.0322158641278</v>
+        <v>802.6012508000008</v>
       </c>
       <c r="K16" s="0" t="n">
         <v>755.1517466818972</v>
@@ -5210,34 +5210,34 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>934.6819040603705</v>
+        <v>879.4238381009386</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>689.1850211150748</v>
+        <v>778.5150842666411</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>732.4895458562595</v>
+        <v>778.5150842666417</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>778.5150842666413</v>
+        <v>732.4895458562597</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>879.4238381009382</v>
+        <v>732.4895458562597</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>827.4326095974493</v>
+        <v>827.4326095974492</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>827.4326095974492</v>
+        <v>689.185021115075</v>
       </c>
       <c r="H17" s="0" t="n">
+        <v>732.4895458562597</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>778.5150842666416</v>
+      </c>
+      <c r="J17" s="0" t="n">
         <v>827.4326095974499</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>689.185021115075</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>879.4238381009382</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>778.5150842666416</v>
@@ -5512,34 +5512,34 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>963.5996533139029</v>
+        <v>906.6319801729172</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>710.5074405856126</v>
+        <v>802.6012508000003</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>710.5074405856126</v>
+        <v>755.1517466818974</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>755.1517466818971</v>
+        <v>710.5074405856128</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>906.6319801729168</v>
+        <v>755.151746681897</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>853.0322158641279</v>
+        <v>802.6012508000002</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>802.6012508000002</v>
+        <v>668.5024901891285</v>
       </c>
       <c r="H18" s="0" t="n">
+        <v>755.151746681897</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>802.6012508000008</v>
+      </c>
+      <c r="J18" s="0" t="n">
         <v>802.6012508000009</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>710.5074405856127</v>
-      </c>
-      <c r="J18" s="0" t="n">
-        <v>906.6319801729168</v>
       </c>
       <c r="K18" s="0" t="n">
         <v>802.6012508000008</v>
@@ -5814,34 +5814,34 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>934.6819040603706</v>
+        <v>879.4238381009387</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>689.1850211150748</v>
+        <v>827.4326095974493</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>689.1850211150748</v>
+        <v>778.5150842666418</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>778.5150842666415</v>
+        <v>732.4895458562597</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>879.4238381009383</v>
+        <v>778.5150842666413</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>879.4238381009384</v>
+        <v>827.4326095974492</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>778.5150842666411</v>
+        <v>648.4406446704339</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>778.5150842666418</v>
+        <v>732.4895458562597</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>689.185021115075</v>
+        <v>778.5150842666417</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>879.4238381009383</v>
+        <v>827.43260959745</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>827.4326095974499</v>
@@ -6116,34 +6116,34 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>963.599653313903</v>
+        <v>906.6319801729173</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>668.5024901891284</v>
+        <v>802.6012508000003</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>710.5074405856126</v>
+        <v>802.601250800001</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>802.6012508000007</v>
+        <v>710.5074405856128</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>853.0322158641279</v>
+        <v>802.6012508000006</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>906.631980172917</v>
+        <v>802.6012508000002</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>802.6012508000003</v>
+        <v>668.5024901891286</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>755.1517466818975</v>
+        <v>710.5074405856128</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>710.5074405856127</v>
+        <v>802.6012508000009</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>906.6319801729169</v>
+        <v>853.0322158641286</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>853.0322158641285</v>
@@ -6418,34 +6418,34 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>993.4120772351031</v>
+        <v>879.4238381009388</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>689.185021115075</v>
+        <v>778.5150842666412</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>732.4895458562595</v>
+        <v>778.5150842666419</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>778.5150842666416</v>
+        <v>689.1850211150751</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>827.4326095974493</v>
+        <v>778.5150842666415</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>879.4238381009385</v>
+        <v>778.5150842666411</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>778.5150842666412</v>
+        <v>689.1850211150752</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>732.4895458562603</v>
+        <v>689.1850211150751</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>732.4895458562596</v>
+        <v>827.43260959745</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>934.6819040603708</v>
+        <v>827.43260959745</v>
       </c>
       <c r="K21" s="0" t="n">
         <v>879.423838100939</v>
@@ -6720,34 +6720,34 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>1024.146855805353</v>
+        <v>906.6319801729175</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>668.5024901891285</v>
+        <v>802.6012508000005</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>710.5074405856126</v>
+        <v>802.6012508000011</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>755.1517466818973</v>
+        <v>668.5024901891286</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>853.0322158641279</v>
+        <v>802.6012508000007</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>853.0322158641281</v>
+        <v>755.1517466818968</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>802.6012508000005</v>
+        <v>668.5024901891287</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>755.1517466818975</v>
+        <v>710.5074405856128</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>755.1517466818968</v>
+        <v>802.601250800001</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>906.6319801729169</v>
+        <v>802.601250800001</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>906.6319801729176</v>
@@ -7022,34 +7022,34 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>993.4120772351032</v>
+        <v>934.6819040603715</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>689.1850211150751</v>
+        <v>778.5150842666413</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>732.4895458562595</v>
+        <v>778.515084266642</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>778.5150842666417</v>
+        <v>648.440644670434</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>879.4238381009384</v>
+        <v>778.5150842666416</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>879.4238381009386</v>
+        <v>778.5150842666412</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>778.5150842666413</v>
+        <v>689.1850211150753</v>
       </c>
       <c r="H23" s="0" t="n">
+        <v>732.4895458562597</v>
+      </c>
+      <c r="I23" s="0" t="n">
         <v>778.5150842666419</v>
       </c>
-      <c r="I23" s="0" t="n">
-        <v>778.5150842666412</v>
-      </c>
       <c r="J23" s="0" t="n">
-        <v>879.4238381009384</v>
+        <v>778.5150842666419</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>934.6819040603716</v>
@@ -7324,34 +7324,34 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>963.5996533139032</v>
+        <v>963.5996533139039</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>668.5024901891286</v>
+        <v>802.6012508000006</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>710.5074405856126</v>
+        <v>802.6012508000013</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>755.1517466818974</v>
+        <v>668.5024901891287</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>853.032215864128</v>
+        <v>755.1517466818973</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>906.6319801729172</v>
+        <v>755.151746681897</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>802.6012508000006</v>
+        <v>668.5024901891288</v>
       </c>
       <c r="H24" s="0" t="n">
+        <v>755.151746681897</v>
+      </c>
+      <c r="I24" s="0" t="n">
         <v>802.6012508000011</v>
       </c>
-      <c r="I24" s="0" t="n">
-        <v>755.151746681897</v>
-      </c>
       <c r="J24" s="0" t="n">
-        <v>906.631980172917</v>
+        <v>755.1517466818975</v>
       </c>
       <c r="K24" s="0" t="n">
         <v>906.6319801729177</v>
@@ -7626,34 +7626,34 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>934.6819040603709</v>
+        <v>934.6819040603716</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>689.1850211150752</v>
+        <v>778.5150842666415</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>689.1850211150748</v>
+        <v>778.5150842666421</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>732.4895458562602</v>
+        <v>648.4406446704342</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>879.4238381009385</v>
+        <v>778.5150842666417</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>879.4238381009387</v>
+        <v>778.5150842666413</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>827.4326095974496</v>
+        <v>689.1850211150754</v>
       </c>
       <c r="H25" s="0" t="n">
+        <v>778.5150842666413</v>
+      </c>
+      <c r="I25" s="0" t="n">
         <v>827.4326095974502</v>
       </c>
-      <c r="I25" s="0" t="n">
-        <v>778.5150842666413</v>
-      </c>
       <c r="J25" s="0" t="n">
-        <v>934.681904060371</v>
+        <v>778.5150842666419</v>
       </c>
       <c r="K25" s="0" t="n">
         <v>934.6819040603717</v>
@@ -7928,34 +7928,34 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>906.631980172917</v>
+        <v>906.6319801729177</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>710.5074405856129</v>
+        <v>755.1517466818972</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>710.5074405856126</v>
+        <v>802.6012508000014</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>755.1517466818974</v>
+        <v>628.9808577102681</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>906.6319801729171</v>
+        <v>802.6012508000009</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>906.6319801729173</v>
+        <v>755.1517466818971</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>853.0322158641283</v>
+        <v>710.5074405856132</v>
       </c>
       <c r="H26" s="0" t="n">
+        <v>802.6012508000006</v>
+      </c>
+      <c r="I26" s="0" t="n">
         <v>802.6012508000013</v>
       </c>
-      <c r="I26" s="0" t="n">
-        <v>755.1517466818971</v>
-      </c>
       <c r="J26" s="0" t="n">
-        <v>963.5996533139034</v>
+        <v>755.1517466818975</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>906.6319801729178</v>
@@ -8230,34 +8230,34 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>879.4238381009385</v>
+        <v>934.6819040603717</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>732.48954585626</v>
+        <v>778.5150842666416</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>732.4895458562595</v>
+        <v>827.4326095974504</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>778.5150842666418</v>
+        <v>610.1050614540276</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>934.6819040603712</v>
+        <v>827.43260959745</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>879.4238381009388</v>
+        <v>732.4895458562598</v>
       </c>
       <c r="G27" s="0" t="n">
+        <v>689.1850211150754</v>
+      </c>
+      <c r="H27" s="0" t="n">
         <v>827.4326095974496</v>
       </c>
-      <c r="H27" s="0" t="n">
-        <v>827.4326095974503</v>
-      </c>
       <c r="I27" s="0" t="n">
-        <v>732.4895458562598</v>
+        <v>778.5150842666421</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>993.4120772351035</v>
+        <v>778.5150842666419</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>934.6819040603718</v>
@@ -8532,34 +8532,34 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>906.6319801729171</v>
+        <v>963.5996533139041</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>755.1517466818972</v>
+        <v>755.1517466818973</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>710.5074405856126</v>
+        <v>853.0322158641292</v>
       </c>
       <c r="D28" s="0" t="n">
+        <v>628.9808577102681</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>853.0322158641286</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>710.5074405856129</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>668.5024901891289</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>853.0322158641283</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>802.6012508000014</v>
+      </c>
+      <c r="J28" s="0" t="n">
         <v>755.1517466818975</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>963.5996533139036</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>906.6319801729175</v>
-      </c>
-      <c r="G28" s="0" t="n">
-        <v>853.0322158641283</v>
-      </c>
-      <c r="H28" s="0" t="n">
-        <v>853.0322158641291</v>
-      </c>
-      <c r="I28" s="0" t="n">
-        <v>755.1517466818971</v>
-      </c>
-      <c r="J28" s="0" t="n">
-        <v>1024.146855805354</v>
       </c>
       <c r="K28" s="0" t="n">
         <v>906.6319801729179</v>
@@ -8834,34 +8834,34 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>934.6819040603712</v>
+        <v>993.4120772351042</v>
       </c>
       <c r="B29" s="0" t="n">
+        <v>732.4895458562601</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>879.4238381009396</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>610.1050614540276</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>879.4238381009391</v>
+      </c>
+      <c r="F29" s="0" t="n">
         <v>732.48954585626</v>
       </c>
-      <c r="C29" s="0" t="n">
-        <v>732.4895458562595</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>732.4895458562603</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>934.6819040603713</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>879.423838100939</v>
-      </c>
       <c r="G29" s="0" t="n">
+        <v>648.4406446704344</v>
+      </c>
+      <c r="H29" s="0" t="n">
         <v>879.4238381009387</v>
       </c>
-      <c r="H29" s="0" t="n">
-        <v>879.4238381009395</v>
-      </c>
       <c r="I29" s="0" t="n">
-        <v>732.4895458562598</v>
+        <v>778.5150842666422</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>1055.8325253859</v>
+        <v>778.5150842666419</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>879.4238381009394</v>
@@ -9136,34 +9136,34 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>906.6319801729172</v>
+        <v>963.5996533139042</v>
       </c>
       <c r="B30" s="0" t="n">
+        <v>710.5074405856132</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>906.6319801729182</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>628.9808577102681</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>906.6319801729177</v>
+      </c>
+      <c r="F30" s="0" t="n">
         <v>710.507440585613</v>
       </c>
-      <c r="C30" s="0" t="n">
-        <v>710.5074405856126</v>
-      </c>
-      <c r="D30" s="0" t="n">
+      <c r="G30" s="0" t="n">
+        <v>628.9808577102683</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>906.6319801729173</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>755.1517466818979</v>
+      </c>
+      <c r="J30" s="0" t="n">
         <v>755.1517466818975</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>906.6319801729173</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>853.0322158641286</v>
-      </c>
-      <c r="G30" s="0" t="n">
-        <v>853.0322158641284</v>
-      </c>
-      <c r="H30" s="0" t="n">
-        <v>853.0322158641292</v>
-      </c>
-      <c r="I30" s="0" t="n">
-        <v>710.5074405856129</v>
-      </c>
-      <c r="J30" s="0" t="n">
-        <v>1024.146855805354</v>
       </c>
       <c r="K30" s="0" t="n">
         <v>853.0322158641291</v>
@@ -9438,34 +9438,34 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>934.6819040603713</v>
+        <v>934.6819040603719</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>689.1850211150753</v>
+        <v>689.1850211150754</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>732.4895458562595</v>
+        <v>879.4238381009397</v>
       </c>
       <c r="D31" s="0" t="n">
+        <v>610.1050614540276</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>879.4238381009392</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>732.4895458562601</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>648.4406446704345</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>934.6819040603714</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>778.5150842666422</v>
+      </c>
+      <c r="J31" s="0" t="n">
         <v>732.4895458562603</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>934.6819040603714</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>827.43260959745</v>
-      </c>
-      <c r="G31" s="0" t="n">
-        <v>879.4238381009388</v>
-      </c>
-      <c r="H31" s="0" t="n">
-        <v>879.4238381009396</v>
-      </c>
-      <c r="I31" s="0" t="n">
-        <v>732.48954585626</v>
-      </c>
-      <c r="J31" s="0" t="n">
-        <v>1055.8325253859</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>879.4238381009395</v>
@@ -9740,34 +9740,34 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>906.6319801729173</v>
+        <v>963.5996533139044</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>668.5024901891288</v>
+        <v>710.5074405856132</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>710.5074405856126</v>
+        <v>906.6319801729184</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>755.1517466818975</v>
+        <v>628.9808577102681</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>906.6319801729175</v>
+        <v>906.6319801729178</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>853.0322158641286</v>
+        <v>755.1517466818973</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>853.0322158641285</v>
+        <v>628.9808577102684</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>906.6319801729182</v>
+        <v>963.5996533139038</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>710.507440585613</v>
+        <v>802.6012508000015</v>
       </c>
       <c r="J32" s="0" t="n">
-        <v>1088.498505213045</v>
+        <v>710.5074405856134</v>
       </c>
       <c r="K32" s="0" t="n">
         <v>853.0322158641292</v>
@@ -10042,34 +10042,34 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>879.4238381009388</v>
+        <v>993.4120772351044</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>689.1850211150754</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>732.4895458562595</v>
+        <v>934.6819040603724</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>778.5150842666419</v>
+        <v>648.4406446704343</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>879.423838100939</v>
+        <v>879.4238381009393</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>827.43260959745</v>
+        <v>778.5150842666417</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>827.4326095974499</v>
+        <v>648.4406446704346</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>879.4238381009397</v>
+        <v>934.6819040603715</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>689.1850211150753</v>
+        <v>827.4326095974506</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>1122.175124713066</v>
+        <v>732.4895458562604</v>
       </c>
       <c r="K33" s="0" t="n">
         <v>879.4238381009396</v>
@@ -10344,34 +10344,34 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>906.6319801729175</v>
+        <v>963.5996533139045</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>710.5074405856132</v>
+        <v>668.5024901891289</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>710.5074405856126</v>
+        <v>906.6319801729185</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>802.6012508000011</v>
+        <v>628.9808577102682</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>853.0322158641286</v>
+        <v>853.0322158641289</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>802.601250800001</v>
+        <v>802.6012508000009</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>853.0322158641285</v>
+        <v>628.9808577102685</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>853.0322158641294</v>
+        <v>963.5996533139039</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>668.5024901891288</v>
+        <v>802.6012508000016</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>1156.893651662217</v>
+        <v>710.5074405856135</v>
       </c>
       <c r="K34" s="0" t="n">
         <v>906.6319801729182</v>
@@ -10646,34 +10646,34 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
-        <v>934.6819040603715</v>
+        <v>934.6819040603722</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>732.4895458562602</v>
+        <v>648.4406446704344</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>689.1850211150748</v>
+        <v>879.42383810094</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>778.515084266642</v>
+        <v>648.4406446704344</v>
       </c>
       <c r="E35" s="0" t="n">
+        <v>827.4326095974503</v>
+      </c>
+      <c r="F35" s="0" t="n">
         <v>827.43260959745</v>
       </c>
-      <c r="F35" s="0" t="n">
-        <v>827.4326095974501</v>
-      </c>
       <c r="G35" s="0" t="n">
-        <v>827.4326095974499</v>
+        <v>648.4406446704347</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>879.4238381009399</v>
+        <v>934.6819040603716</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>689.1850211150754</v>
+        <v>827.4326095974507</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>1192.686321217966</v>
+        <v>732.4895458562605</v>
       </c>
       <c r="K35" s="0" t="n">
         <v>879.4238381009397</v>
@@ -10948,34 +10948,34 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>906.6319801729176</v>
+        <v>963.5996533139046</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>755.1517466818974</v>
+        <v>628.9808577102683</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>710.5074405856126</v>
+        <v>906.6319801729186</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>802.6012508000013</v>
+        <v>628.9808577102683</v>
       </c>
       <c r="E36" s="0" t="n">
+        <v>853.0322158641291</v>
+      </c>
+      <c r="F36" s="0" t="n">
         <v>853.0322158641286</v>
       </c>
-      <c r="F36" s="0" t="n">
-        <v>853.0322158641288</v>
-      </c>
       <c r="G36" s="0" t="n">
-        <v>802.6012508000009</v>
+        <v>628.9808577102687</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>906.6319801729185</v>
+        <v>906.6319801729177</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>668.5024901891289</v>
+        <v>853.0322158641294</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>1156.893651662217</v>
+        <v>710.5074405856136</v>
       </c>
       <c r="K36" s="0" t="n">
         <v>906.6319801729184</v>
@@ -11250,34 +11250,34 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
-        <v>934.6819040603716</v>
+        <v>934.6819040603723</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>732.4895458562602</v>
+        <v>648.4406446704345</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>689.1850211150748</v>
+        <v>879.4238381009401</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>827.4326095974503</v>
+        <v>648.4406446704345</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>827.43260959745</v>
+        <v>827.4326095974504</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>827.4326095974502</v>
+        <v>879.4238381009391</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>778.5150842666418</v>
+        <v>648.4406446704348</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>934.6819040603725</v>
+        <v>934.6819040603717</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>689.1850211150755</v>
+        <v>879.4238381009399</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>1192.686321217966</v>
+        <v>689.1850211150759</v>
       </c>
       <c r="K37" s="0" t="n">
         <v>934.6819040603724</v>
@@ -11552,34 +11552,34 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
-        <v>963.599653313904</v>
+        <v>906.6319801729184</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>710.5074405856133</v>
+        <v>668.5024901891292</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>710.5074405856126</v>
+        <v>906.6319801729187</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>802.6012508000014</v>
+        <v>628.9808577102684</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>802.601250800001</v>
+        <v>853.0322158641292</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>802.6012508000013</v>
+        <v>906.6319801729177</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>802.601250800001</v>
+        <v>668.5024901891295</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>963.5996533139049</v>
+        <v>906.6319801729178</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>668.502490189129</v>
+        <v>906.6319801729185</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>1156.893651662217</v>
+        <v>668.5024901891294</v>
       </c>
       <c r="K38" s="0" t="n">
         <v>963.5996533139048</v>
@@ -11854,34 +11854,34 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
-        <v>993.4120772351041</v>
+        <v>934.6819040603724</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>689.1850211150755</v>
+        <v>689.1850211150758</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>689.1850211150748</v>
+        <v>934.6819040603727</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>827.4326095974504</v>
+        <v>648.4406446704346</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>778.5150842666419</v>
+        <v>827.4326095974506</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>827.4326095974503</v>
+        <v>934.6819040603717</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>827.4326095974501</v>
+        <v>648.4406446704349</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>934.6819040603725</v>
+        <v>934.6819040603718</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>648.4406446704345</v>
+        <v>879.42383810094</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>1122.175124713066</v>
+        <v>648.4406446704348</v>
       </c>
       <c r="K39" s="0" t="n">
         <v>934.6819040603724</v>
@@ -12156,34 +12156,34 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>1024.146855805355</v>
+        <v>906.6319801729185</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>710.5074405856133</v>
+        <v>668.5024901891293</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>668.5024901891284</v>
+        <v>906.6319801729188</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>802.6012508000015</v>
+        <v>668.5024901891293</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>802.6012508000011</v>
+        <v>802.6012508000016</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>802.6012508000014</v>
+        <v>963.5996533139041</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>853.0322158641288</v>
+        <v>628.9808577102689</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>963.5996533139049</v>
+        <v>963.5996533139042</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>668.5024901891292</v>
+        <v>853.0322158641296</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>1088.498505213046</v>
+        <v>668.5024901891295</v>
       </c>
       <c r="K40" s="0" t="n">
         <v>906.6319801729185</v>
@@ -12458,34 +12458,34 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
-        <v>1055.832525385901</v>
+        <v>879.42383810094</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>689.1850211150755</v>
+        <v>689.1850211150759</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>648.4406446704338</v>
+        <v>934.6819040603729</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>827.4326095974506</v>
+        <v>689.1850211150759</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>827.4326095974502</v>
+        <v>778.5150842666425</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>827.4326095974504</v>
+        <v>934.6819040603718</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>879.4238381009393</v>
+        <v>648.4406446704351</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>934.6819040603725</v>
+        <v>934.6819040603719</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>689.1850211150758</v>
+        <v>879.4238381009401</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>1122.175124713066</v>
+        <v>648.4406446704349</v>
       </c>
       <c r="K41" s="0" t="n">
         <v>879.42383810094</v>
@@ -12760,34 +12760,34 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>1088.498505213046</v>
+        <v>906.6319801729186</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>710.5074405856133</v>
+        <v>668.5024901891294</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>628.9808577102677</v>
+        <v>963.5996533139054</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>802.6012508000016</v>
+        <v>710.5074405856137</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>853.0322158641289</v>
+        <v>802.6012508000017</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>853.0322158641292</v>
+        <v>963.5996533139042</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>853.0322158641289</v>
+        <v>668.5024901891297</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>906.6319801729186</v>
+        <v>906.631980172918</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>668.5024901891293</v>
+        <v>906.6319801729187</v>
       </c>
       <c r="J42" s="0" t="n">
-        <v>1088.498505213046</v>
+        <v>668.5024901891296</v>
       </c>
       <c r="K42" s="0" t="n">
         <v>906.6319801729186</v>
@@ -13062,34 +13062,34 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
-        <v>1122.175124713066</v>
+        <v>879.4238381009401</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>732.4895458562603</v>
+        <v>689.185021115076</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>610.1050614540272</v>
+        <v>993.4120772351055</v>
       </c>
       <c r="D43" s="0" t="n">
+        <v>732.4895458562607</v>
+      </c>
+      <c r="E43" s="0" t="n">
         <v>778.5150842666425</v>
       </c>
-      <c r="E43" s="0" t="n">
-        <v>879.4238381009394</v>
-      </c>
       <c r="F43" s="0" t="n">
-        <v>827.4326095974506</v>
+        <v>934.6819040603719</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>827.4326095974503</v>
+        <v>689.1850211150763</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>934.6819040603726</v>
+        <v>879.4238381009395</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>648.4406446704347</v>
+        <v>879.4238381009402</v>
       </c>
       <c r="J43" s="0" t="n">
-        <v>1055.832525385901</v>
+        <v>689.1850211150762</v>
       </c>
       <c r="K43" s="0" t="n">
         <v>879.4238381009401</v>
@@ -13364,34 +13364,34 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
-        <v>1088.498505213046</v>
+        <v>853.0322158641297</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>710.5074405856134</v>
+        <v>668.5024901891295</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>628.9808577102677</v>
+        <v>1024.146855805356</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>802.6012508000017</v>
+        <v>755.1517466818981</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>853.0322158641291</v>
+        <v>755.1517466818981</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>853.0322158641293</v>
+        <v>906.631980172918</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>802.6012508000014</v>
+        <v>668.5024901891298</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>963.599653313905</v>
+        <v>906.6319801729181</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>668.5024901891294</v>
+        <v>853.0322158641299</v>
       </c>
       <c r="J44" s="0" t="n">
-        <v>1024.146855805355</v>
+        <v>710.5074405856141</v>
       </c>
       <c r="K44" s="0" t="n">
         <v>853.0322158641297</v>
@@ -13666,34 +13666,34 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
-        <v>1055.832525385901</v>
+        <v>879.4238381009402</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>689.1850211150756</v>
+        <v>648.4406446704349</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>610.1050614540272</v>
+        <v>1055.832525385902</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>827.4326095974508</v>
+        <v>778.5150842666425</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>827.4326095974504</v>
+        <v>732.4895458562609</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>827.4326095974507</v>
+        <v>934.6819040603721</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>778.5150842666422</v>
+        <v>648.4406446704353</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>934.6819040603726</v>
+        <v>879.4238381009396</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>689.185021115076</v>
+        <v>827.4326095974512</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>1055.832525385901</v>
+        <v>732.4895458562611</v>
       </c>
       <c r="K45" s="0" t="n">
         <v>827.4326095974511</v>
@@ -13968,34 +13968,34 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>1024.146855805355</v>
+        <v>853.0322158641299</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>668.5024901891292</v>
+        <v>668.5024901891296</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>628.9808577102677</v>
+        <v>1024.146855805356</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>853.0322158641295</v>
+        <v>802.6012508000017</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>853.0322158641292</v>
+        <v>710.5074405856139</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>853.0322158641294</v>
+        <v>963.5996533139045</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>755.1517466818979</v>
+        <v>668.50249018913</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>906.6319801729187</v>
+        <v>853.0322158641293</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>668.5024901891295</v>
+        <v>853.03221586413</v>
       </c>
       <c r="J46" s="0" t="n">
-        <v>1024.146855805355</v>
+        <v>755.1517466818984</v>
       </c>
       <c r="K46" s="0" t="n">
         <v>802.6012508000022</v>
@@ -14270,34 +14270,34 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
-        <v>993.4120772351047</v>
+        <v>827.4326095974512</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>689.1850211150758</v>
+        <v>689.1850211150762</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>648.4406446704339</v>
+        <v>993.4120772351056</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>827.4326095974509</v>
+        <v>778.5150842666425</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>827.4326095974506</v>
+        <v>689.1850211150762</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>879.4238381009399</v>
+        <v>934.6819040603722</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>778.5150842666422</v>
+        <v>689.1850211150766</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>934.6819040603727</v>
+        <v>827.4326095974507</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>689.1850211150761</v>
+        <v>879.4238381009404</v>
       </c>
       <c r="J47" s="0" t="n">
-        <v>993.4120772351047</v>
+        <v>732.4895458562612</v>
       </c>
       <c r="K47" s="0" t="n">
         <v>827.4326095974512</v>
@@ -14572,34 +14572,34 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>963.5996533139047</v>
+        <v>853.03221586413</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>710.5074405856136</v>
+        <v>710.5074405856141</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>628.9808577102679</v>
+        <v>963.5996533139056</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>802.6012508000019</v>
+        <v>802.6012508000017</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>853.0322158641293</v>
+        <v>668.5024901891297</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>906.6319801729185</v>
+        <v>963.5996533139046</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>802.6012508000015</v>
+        <v>668.5024901891301</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>963.5996533139052</v>
+        <v>802.6012508000017</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>668.5024901891296</v>
+        <v>853.0322158641301</v>
       </c>
       <c r="J48" s="0" t="n">
-        <v>963.5996533139047</v>
+        <v>755.1517466818985</v>
       </c>
       <c r="K48" s="0" t="n">
         <v>802.6012508000023</v>
@@ -14874,34 +14874,34 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="n">
-        <v>993.4120772351048</v>
+        <v>827.4326095974513</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>689.1850211150759</v>
+        <v>732.4895458562611</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>610.1050614540274</v>
+        <v>934.6819040603732</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>778.5150842666427</v>
+        <v>827.4326095974508</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>879.4238381009397</v>
+        <v>648.4406446704352</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>879.42383810094</v>
+        <v>993.4120772351047</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>827.4326095974506</v>
+        <v>689.1850211150767</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>934.6819040603727</v>
+        <v>778.5150842666425</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>648.4406446704351</v>
+        <v>827.4326095974515</v>
       </c>
       <c r="J49" s="0" t="n">
-        <v>993.4120772351048</v>
+        <v>732.4895458562613</v>
       </c>
       <c r="K49" s="0" t="n">
         <v>827.4326095974513</v>
@@ -15176,34 +15176,34 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="n">
-        <v>963.5996533139048</v>
+        <v>853.0322158641301</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>668.5024901891294</v>
+        <v>755.1517466818984</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>591.7957302657449</v>
+        <v>963.5996533139057</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>802.6012508000019</v>
+        <v>802.6012508000018</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>853.0322158641294</v>
+        <v>668.5024901891298</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>853.0322158641296</v>
+        <v>1024.146855805355</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>802.6012508000016</v>
+        <v>710.5074405856145</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>963.5996533139052</v>
+        <v>802.6012508000017</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>628.980857710269</v>
+        <v>802.6012508000025</v>
       </c>
       <c r="J50" s="0" t="n">
-        <v>963.5996533139048</v>
+        <v>710.5074405856144</v>
       </c>
       <c r="K50" s="0" t="n">
         <v>802.6012508000024</v>
@@ -15478,34 +15478,34 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="n">
-        <v>934.6819040603724</v>
+        <v>879.4238381009405</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>689.185021115076</v>
+        <v>732.4895458562612</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>574.0358644560371</v>
+        <v>934.6819040603733</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>778.5150842666427</v>
+        <v>827.4326095974509</v>
       </c>
       <c r="E51" s="0" t="n">
+        <v>648.4406446704353</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>993.4120772351047</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>732.4895458562615</v>
+      </c>
+      <c r="H51" s="0" t="n">
         <v>827.4326095974508</v>
       </c>
-      <c r="F51" s="0" t="n">
-        <v>827.432609597451</v>
-      </c>
-      <c r="G51" s="0" t="n">
-        <v>827.4326095974507</v>
-      </c>
-      <c r="H51" s="0" t="n">
-        <v>993.4120772351052</v>
-      </c>
       <c r="I51" s="0" t="n">
-        <v>610.1050614540285</v>
+        <v>827.4326095974516</v>
       </c>
       <c r="J51" s="0" t="n">
-        <v>934.6819040603724</v>
+        <v>732.4895458562614</v>
       </c>
       <c r="K51" s="0" t="n">
         <v>827.4326095974515</v>
@@ -15780,34 +15780,34 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="n">
-        <v>963.5996533139048</v>
+        <v>906.6319801729192</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>668.5024901891295</v>
+        <v>755.1517466818985</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>556.8089744983808</v>
+        <v>906.6319801729194</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>755.1517466818983</v>
+        <v>853.0322158641296</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>802.6012508000018</v>
+        <v>668.50249018913</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>853.0322158641297</v>
+        <v>963.5996533139047</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>853.0322158641294</v>
+        <v>710.5074405856146</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>1024.146855805356</v>
+        <v>853.0322158641295</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>628.9808577102691</v>
+        <v>802.6012508000026</v>
       </c>
       <c r="J52" s="0" t="n">
-        <v>963.5996533139048</v>
+        <v>755.1517466818988</v>
       </c>
       <c r="K52" s="0" t="n">
         <v>853.0322158641302</v>
@@ -16082,34 +16082,34 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="n">
+        <v>879.4238381009407</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>778.5150842666429</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>934.6819040603734</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>827.432609597451</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>689.1850211150766</v>
+      </c>
+      <c r="F53" s="0" t="n">
         <v>934.6819040603724</v>
       </c>
-      <c r="B53" s="0" t="n">
-        <v>689.1850211150761</v>
-      </c>
-      <c r="C53" s="0" t="n">
-        <v>574.0358644560372</v>
-      </c>
-      <c r="D53" s="0" t="n">
-        <v>778.5150842666427</v>
-      </c>
-      <c r="E53" s="0" t="n">
-        <v>827.4326095974509</v>
-      </c>
-      <c r="F53" s="0" t="n">
-        <v>879.4238381009402</v>
-      </c>
       <c r="G53" s="0" t="n">
-        <v>827.4326095974508</v>
+        <v>689.1850211150769</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>993.4120772351054</v>
+        <v>879.42383810094</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>610.1050614540286</v>
+        <v>827.4326095974517</v>
       </c>
       <c r="J53" s="0" t="n">
-        <v>993.4120772351049</v>
+        <v>732.4895458562615</v>
       </c>
       <c r="K53" s="0" t="n">
         <v>879.4238381009407</v>
@@ -16384,34 +16384,34 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="n">
-        <v>963.5996533139048</v>
+        <v>853.0322158641303</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>668.5024901891296</v>
+        <v>755.1517466818985</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>591.795730265745</v>
+        <v>906.6319801729195</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>755.1517466818983</v>
+        <v>802.601250800002</v>
       </c>
       <c r="E54" s="0" t="n">
+        <v>668.5024901891301</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>906.6319801729185</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>710.5074405856147</v>
+      </c>
+      <c r="H54" s="0" t="n">
         <v>853.0322158641296</v>
       </c>
-      <c r="F54" s="0" t="n">
-        <v>853.0322158641299</v>
-      </c>
-      <c r="G54" s="0" t="n">
-        <v>853.0322158641295</v>
-      </c>
-      <c r="H54" s="0" t="n">
-        <v>1024.146855805356</v>
-      </c>
       <c r="I54" s="0" t="n">
-        <v>628.9808577102692</v>
+        <v>853.0322158641304</v>
       </c>
       <c r="J54" s="0" t="n">
-        <v>963.5996533139049</v>
+        <v>710.5074405856146</v>
       </c>
       <c r="K54" s="0" t="n">
         <v>906.6319801729193</v>
@@ -16686,34 +16686,34 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="n">
-        <v>993.4120772351049</v>
+        <v>879.4238381009408</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>689.1850211150762</v>
+        <v>732.4895458562613</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>610.1050614540276</v>
+        <v>879.423838100941</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>732.4895458562611</v>
+        <v>778.5150842666428</v>
       </c>
       <c r="E55" s="0" t="n">
+        <v>689.1850211150767</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>879.42383810094</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>732.4895458562618</v>
+      </c>
+      <c r="H55" s="0" t="n">
         <v>827.432609597451</v>
       </c>
-      <c r="F55" s="0" t="n">
-        <v>827.4326095974512</v>
-      </c>
-      <c r="G55" s="0" t="n">
-        <v>827.4326095974509</v>
-      </c>
-      <c r="H55" s="0" t="n">
-        <v>1055.832525385902</v>
-      </c>
       <c r="I55" s="0" t="n">
-        <v>648.4406446704354</v>
+        <v>879.4238381009409</v>
       </c>
       <c r="J55" s="0" t="n">
-        <v>993.412077235105</v>
+        <v>732.4895458562617</v>
       </c>
       <c r="K55" s="0" t="n">
         <v>934.6819040603733</v>
@@ -16988,34 +16988,34 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="n">
-        <v>1024.146855805355</v>
+        <v>853.0322158641304</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>710.5074405856141</v>
+        <v>755.1517466818987</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>628.9808577102681</v>
+        <v>906.6319801729196</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>755.1517466818984</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>853.0322158641297</v>
+        <v>668.5024901891302</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>802.6012508000023</v>
+        <v>853.0322158641296</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>853.0322158641296</v>
+        <v>755.1517466818991</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>1024.146855805356</v>
+        <v>802.601250800002</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>668.5024901891301</v>
+        <v>906.6319801729195</v>
       </c>
       <c r="J56" s="0" t="n">
-        <v>963.599653313905</v>
+        <v>710.5074405856147</v>
       </c>
       <c r="K56" s="0" t="n">
         <v>906.6319801729194</v>
@@ -17290,34 +17290,34 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="n">
-        <v>1055.832525385902</v>
+        <v>827.4326095974518</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>689.1850211150763</v>
+        <v>778.5150842666432</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>610.1050614540276</v>
+        <v>879.4238381009411</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>732.4895458562612</v>
+        <v>778.5150842666428</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>879.4238381009402</v>
+        <v>648.4406446704356</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>827.4326095974513</v>
+        <v>879.4238381009401</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>879.4238381009401</v>
+        <v>732.4895458562619</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>1055.832525385902</v>
+        <v>827.4326095974511</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>689.1850211150767</v>
+        <v>934.6819040603735</v>
       </c>
       <c r="J57" s="0" t="n">
-        <v>934.6819040603726</v>
+        <v>689.185021115077</v>
       </c>
       <c r="K57" s="0" t="n">
         <v>934.6819040603734</v>
@@ -17592,34 +17592,34 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="n">
-        <v>1088.498505213046</v>
+        <v>853.0322158641305</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>710.5074405856142</v>
+        <v>755.1517466818988</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>628.9808577102681</v>
+        <v>906.6319801729197</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>755.1517466818985</v>
+        <v>802.601250800002</v>
       </c>
       <c r="E58" s="0" t="n">
+        <v>628.9808577102696</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>906.6319801729187</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <v>755.1517466818992</v>
+      </c>
+      <c r="H58" s="0" t="n">
         <v>853.0322158641299</v>
       </c>
-      <c r="F58" s="0" t="n">
-        <v>802.6012508000024</v>
-      </c>
-      <c r="G58" s="0" t="n">
-        <v>853.0322158641297</v>
-      </c>
-      <c r="H58" s="0" t="n">
-        <v>1024.146855805356</v>
-      </c>
       <c r="I58" s="0" t="n">
-        <v>710.5074405856145</v>
+        <v>963.5996533139061</v>
       </c>
       <c r="J58" s="0" t="n">
-        <v>906.6319801729187</v>
+        <v>668.5024901891305</v>
       </c>
       <c r="K58" s="0" t="n">
         <v>906.6319801729195</v>
@@ -17894,34 +17894,34 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="n">
-        <v>1122.175124713067</v>
+        <v>827.4326095974519</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>689.1850211150764</v>
+        <v>732.4895458562615</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>610.1050614540276</v>
+        <v>934.6819040603738</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>732.4895458562613</v>
+        <v>827.4326095974511</v>
       </c>
       <c r="E59" s="0" t="n">
+        <v>648.4406446704357</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>879.4238381009402</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>732.489545856262</v>
+      </c>
+      <c r="H59" s="0" t="n">
         <v>827.4326095974512</v>
       </c>
-      <c r="F59" s="0" t="n">
-        <v>778.5150842666432</v>
-      </c>
-      <c r="G59" s="0" t="n">
-        <v>879.4238381009402</v>
-      </c>
-      <c r="H59" s="0" t="n">
-        <v>993.4120772351054</v>
-      </c>
       <c r="I59" s="0" t="n">
-        <v>732.4895458562615</v>
+        <v>993.4120772351062</v>
       </c>
       <c r="J59" s="0" t="n">
-        <v>879.4238381009402</v>
+        <v>648.4406446704359</v>
       </c>
       <c r="K59" s="0" t="n">
         <v>879.423838100941</v>
@@ -18196,34 +18196,34 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="n">
-        <v>1156.893651662218</v>
+        <v>802.601250800003</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>710.5074405856143</v>
+        <v>710.5074405856146</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>628.9808577102681</v>
+        <v>906.6319801729198</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>755.1517466818987</v>
+        <v>802.6012508000022</v>
       </c>
       <c r="E60" s="0" t="n">
+        <v>668.5024901891304</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>853.0322158641299</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <v>710.5074405856151</v>
+      </c>
+      <c r="H60" s="0" t="n">
         <v>853.03221586413</v>
       </c>
-      <c r="F60" s="0" t="n">
-        <v>755.1517466818988</v>
-      </c>
-      <c r="G60" s="0" t="n">
-        <v>906.6319801729188</v>
-      </c>
-      <c r="H60" s="0" t="n">
-        <v>1024.146855805356</v>
-      </c>
       <c r="I60" s="0" t="n">
-        <v>755.1517466818989</v>
+        <v>1024.146855805357</v>
       </c>
       <c r="J60" s="0" t="n">
-        <v>906.6319801729188</v>
+        <v>628.9808577102697</v>
       </c>
       <c r="K60" s="0" t="n">
         <v>853.0322158641306</v>
@@ -18498,34 +18498,34 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="n">
-        <v>1122.175124713067</v>
+        <v>827.432609597452</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>689.1850211150766</v>
+        <v>732.4895458562617</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>610.1050614540276</v>
+        <v>934.6819040603739</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>778.5150842666432</v>
+        <v>827.4326095974512</v>
       </c>
       <c r="E61" s="0" t="n">
+        <v>689.185021115077</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>827.4326095974512</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <v>732.4895458562621</v>
+      </c>
+      <c r="H61" s="0" t="n">
         <v>827.4326095974513</v>
       </c>
-      <c r="F61" s="0" t="n">
-        <v>732.4895458562615</v>
-      </c>
-      <c r="G61" s="0" t="n">
-        <v>879.4238381009403</v>
-      </c>
-      <c r="H61" s="0" t="n">
-        <v>993.4120772351054</v>
-      </c>
       <c r="I61" s="0" t="n">
-        <v>778.5150842666434</v>
+        <v>993.4120772351063</v>
       </c>
       <c r="J61" s="0" t="n">
-        <v>934.6819040603729</v>
+        <v>648.4406446704359</v>
       </c>
       <c r="K61" s="0" t="n">
         <v>827.432609597452</v>
@@ -18800,34 +18800,34 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="n">
-        <v>1156.893651662218</v>
+        <v>853.0322158641308</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>668.5024901891301</v>
+        <v>710.5074405856147</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>591.7957302657451</v>
+        <v>963.5996533139064</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>755.1517466818988</v>
+        <v>802.6012508000023</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>802.6012508000024</v>
+        <v>710.5074405856149</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>710.5074405856146</v>
+        <v>802.6012508000023</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>853.03221586413</v>
+        <v>710.5074405856152</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>963.5996533139054</v>
+        <v>853.0322158641301</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>755.151746681899</v>
+        <v>963.5996533139063</v>
       </c>
       <c r="J62" s="0" t="n">
-        <v>963.5996533139054</v>
+        <v>668.5024901891305</v>
       </c>
       <c r="K62" s="0" t="n">
         <v>853.0322158641308</v>
@@ -19102,34 +19102,34 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="n">
-        <v>1122.175124713067</v>
+        <v>879.4238381009412</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>689.1850211150767</v>
+        <v>732.4895458562618</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>610.1050614540277</v>
+        <v>934.681904060374</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>732.4895458562615</v>
+        <v>778.515084266643</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>827.4326095974515</v>
+        <v>732.4895458562619</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>732.4895458562617</v>
+        <v>778.515084266643</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>827.4326095974513</v>
+        <v>732.4895458562622</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>993.4120772351055</v>
+        <v>879.4238381009405</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>778.5150842666435</v>
+        <v>993.4120772351064</v>
       </c>
       <c r="J63" s="0" t="n">
-        <v>993.4120772351055</v>
+        <v>648.4406446704359</v>
       </c>
       <c r="K63" s="0" t="n">
         <v>879.4238381009412</v>
@@ -19404,34 +19404,34 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="n">
-        <v>1088.498505213047</v>
+        <v>906.6319801729198</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>710.5074405856145</v>
+        <v>710.5074405856149</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>591.7957302657452</v>
+        <v>963.5996533139065</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>710.5074405856146</v>
+        <v>802.6012508000023</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>853.0322158641302</v>
+        <v>755.1517466818992</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>710.5074405856147</v>
+        <v>802.6012508000023</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>802.6012508000024</v>
+        <v>755.1517466818996</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>1024.146855805356</v>
+        <v>906.6319801729192</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>755.1517466818991</v>
+        <v>1024.146855805357</v>
       </c>
       <c r="J64" s="0" t="n">
-        <v>1024.146855805356</v>
+        <v>668.5024901891305</v>
       </c>
       <c r="K64" s="0" t="n">
         <v>906.6319801729198</v>
@@ -19706,34 +19706,34 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="n">
-        <v>1122.175124713068</v>
+        <v>934.6819040603739</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>732.4895458562615</v>
+        <v>732.4895458562619</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>574.0358644560374</v>
+        <v>993.4120772351066</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>689.1850211150769</v>
+        <v>778.515084266643</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>827.4326095974516</v>
+        <v>778.5150842666437</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>732.4895458562618</v>
+        <v>778.515084266643</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>827.4326095974515</v>
+        <v>732.4895458562623</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>1055.832525385902</v>
+        <v>879.4238381009407</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>732.4895458562619</v>
+        <v>993.4120772351065</v>
       </c>
       <c r="J65" s="0" t="n">
-        <v>1055.832525385902</v>
+        <v>648.4406446704359</v>
       </c>
       <c r="K65" s="0" t="n">
         <v>879.4238381009412</v>
@@ -20008,34 +20008,34 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="n">
-        <v>1156.893651662219</v>
+        <v>906.63198017292</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>710.5074405856146</v>
+        <v>755.1517466818992</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>556.8089744983812</v>
+        <v>963.5996533139065</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>668.5024901891304</v>
+        <v>802.6012508000023</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>802.6012508000026</v>
+        <v>802.6012508000031</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>755.1517466818991</v>
+        <v>802.6012508000023</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>802.6012508000025</v>
+        <v>710.5074405856153</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>1088.498505213047</v>
+        <v>853.0322158641303</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>710.507440585615</v>
+        <v>963.5996533139064</v>
       </c>
       <c r="J66" s="0" t="n">
-        <v>1024.146855805356</v>
+        <v>628.9808577102697</v>
       </c>
       <c r="K66" s="0" t="n">
         <v>906.6319801729198</v>
@@ -20310,34 +20310,34 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="n">
-        <v>1192.686321217968</v>
+        <v>879.4238381009413</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>732.4895458562617</v>
+        <v>778.5150842666437</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>540.0990657190601</v>
+        <v>993.4120772351066</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>648.4406446704357</v>
+        <v>827.4326095974513</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>778.5150842666434</v>
+        <v>778.5150842666438</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>778.5150842666436</v>
+        <v>827.4326095974513</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>827.4326095974516</v>
+        <v>732.4895458562623</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>1122.175124713068</v>
+        <v>827.4326095974517</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>732.489545856262</v>
+        <v>993.4120772351065</v>
       </c>
       <c r="J67" s="0" t="n">
-        <v>993.4120772351056</v>
+        <v>648.4406446704359</v>
       </c>
       <c r="K67" s="0" t="n">
         <v>934.6819040603739</v>
@@ -20612,34 +20612,34 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="n">
-        <v>1156.893651662219</v>
+        <v>906.63198017292</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>710.5074405856147</v>
+        <v>802.6012508000031</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>556.8089744983812</v>
+        <v>963.5996533139065</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>668.5024901891304</v>
+        <v>802.6012508000024</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>802.6012508000026</v>
+        <v>802.6012508000032</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>802.601250800003</v>
+        <v>802.6012508000024</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>853.0322158641303</v>
+        <v>710.5074405856153</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>1156.893651662219</v>
+        <v>802.6012508000027</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>710.5074405856151</v>
+        <v>1024.146855805357</v>
       </c>
       <c r="J68" s="0" t="n">
-        <v>963.5996533139056</v>
+        <v>668.5024901891305</v>
       </c>
       <c r="K68" s="0" t="n">
         <v>906.63198017292</v>
@@ -20914,34 +20914,34 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="n">
-        <v>1122.175124713068</v>
+        <v>934.681904060374</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>689.185021115077</v>
+        <v>778.5150842666438</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>574.0358644560375</v>
+        <v>993.4120772351066</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>689.185021115077</v>
+        <v>827.4326095974515</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>778.5150842666434</v>
+        <v>778.515084266644</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>778.5150842666437</v>
+        <v>827.4326095974515</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>879.4238381009408</v>
+        <v>732.4895458562623</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>1192.686321217968</v>
+        <v>827.4326095974518</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>732.4895458562621</v>
+        <v>1055.832525385903</v>
       </c>
       <c r="J69" s="0" t="n">
-        <v>934.6819040603732</v>
+        <v>648.4406446704359</v>
       </c>
       <c r="K69" s="0" t="n">
         <v>934.681904060374</v>
@@ -21216,34 +21216,34 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="n">
-        <v>1088.498505213048</v>
+        <v>906.6319801729201</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>710.5074405856149</v>
+        <v>755.1517466818995</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>556.8089744983813</v>
+        <v>1024.146855805357</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>710.5074405856149</v>
+        <v>802.6012508000025</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>802.6012508000026</v>
+        <v>755.1517466818996</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>802.6012508000031</v>
+        <v>853.0322158641302</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>853.0322158641304</v>
+        <v>710.5074405856153</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>1229.586365848416</v>
+        <v>802.6012508000028</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>755.1517466818995</v>
+        <v>1024.146855805357</v>
       </c>
       <c r="J70" s="0" t="n">
-        <v>906.6319801729193</v>
+        <v>628.9808577102697</v>
       </c>
       <c r="K70" s="0" t="n">
         <v>906.6319801729201</v>
@@ -21518,34 +21518,34 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="n">
-        <v>1122.175124713068</v>
+        <v>879.4238381009415</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>732.4895458562619</v>
+        <v>732.4895458562622</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>540.0990657190603</v>
+        <v>993.4120772351067</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>732.4895458562619</v>
+        <v>778.5150842666433</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>827.4326095974517</v>
+        <v>778.5150842666441</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>827.4326095974521</v>
+        <v>827.4326095974516</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>827.4326095974518</v>
+        <v>689.1850211150776</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>1267.628046187687</v>
+        <v>778.5150842666436</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>732.4895458562622</v>
+        <v>1055.832525385903</v>
       </c>
       <c r="J71" s="0" t="n">
-        <v>879.4238381009408</v>
+        <v>648.4406446704359</v>
       </c>
       <c r="K71" s="0" t="n">
         <v>879.4238381009415</v>
@@ -21820,34 +21820,34 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="n">
-        <v>1156.89365166222</v>
+        <v>853.032215864131</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>710.507440585615</v>
+        <v>755.1517466818996</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>556.8089744983813</v>
+        <v>1024.146855805357</v>
       </c>
       <c r="D72" s="0" t="n">
+        <v>802.6012508000025</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>802.6012508000034</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>853.0322158641303</v>
+      </c>
+      <c r="G72" s="0" t="n">
+        <v>668.502490189131</v>
+      </c>
+      <c r="H72" s="0" t="n">
         <v>755.1517466818992</v>
       </c>
-      <c r="E72" s="0" t="n">
-        <v>853.0322158641304</v>
-      </c>
-      <c r="F72" s="0" t="n">
-        <v>853.0322158641309</v>
-      </c>
-      <c r="G72" s="0" t="n">
-        <v>802.6012508000028</v>
-      </c>
-      <c r="H72" s="0" t="n">
-        <v>1229.586365848416</v>
-      </c>
       <c r="I72" s="0" t="n">
-        <v>710.5074405856153</v>
+        <v>1088.498505213048</v>
       </c>
       <c r="J72" s="0" t="n">
-        <v>853.0322158641304</v>
+        <v>668.5024901891305</v>
       </c>
       <c r="K72" s="0" t="n">
         <v>906.6319801729201</v>
@@ -22122,34 +22122,34 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="n">
+        <v>827.4326095974524</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>732.4895458562623</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>993.4120772351069</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>827.4326095974516</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>827.4326095974525</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>827.4326095974517</v>
+      </c>
+      <c r="G73" s="0" t="n">
+        <v>648.4406446704363</v>
+      </c>
+      <c r="H73" s="0" t="n">
+        <v>778.5150842666437</v>
+      </c>
+      <c r="I73" s="0" t="n">
         <v>1122.175124713068</v>
       </c>
-      <c r="B73" s="0" t="n">
-        <v>732.489545856262</v>
-      </c>
-      <c r="C73" s="0" t="n">
-        <v>574.0358644560376</v>
-      </c>
-      <c r="D73" s="0" t="n">
-        <v>778.5150842666437</v>
-      </c>
-      <c r="E73" s="0" t="n">
-        <v>879.4238381009409</v>
-      </c>
-      <c r="F73" s="0" t="n">
-        <v>879.4238381009413</v>
-      </c>
-      <c r="G73" s="0" t="n">
-        <v>827.4326095974519</v>
-      </c>
-      <c r="H73" s="0" t="n">
-        <v>1267.628046187687</v>
-      </c>
-      <c r="I73" s="0" t="n">
-        <v>732.4895458562623</v>
-      </c>
       <c r="J73" s="0" t="n">
-        <v>827.4326095974518</v>
+        <v>648.4406446704359</v>
       </c>
       <c r="K73" s="0" t="n">
         <v>934.6819040603741</v>
@@ -22424,34 +22424,34 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="n">
-        <v>1088.498505213048</v>
+        <v>853.0322158641311</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>710.5074405856151</v>
+        <v>755.1517466818997</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>591.7957302657455</v>
+        <v>963.5996533139069</v>
       </c>
       <c r="D74" s="0" t="n">
+        <v>853.0322158641303</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>853.0322158641312</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>802.6012508000027</v>
+      </c>
+      <c r="G74" s="0" t="n">
+        <v>668.502490189131</v>
+      </c>
+      <c r="H74" s="0" t="n">
         <v>802.6012508000031</v>
       </c>
-      <c r="E74" s="0" t="n">
-        <v>853.0322158641305</v>
-      </c>
-      <c r="F74" s="0" t="n">
-        <v>853.0322158641309</v>
-      </c>
-      <c r="G74" s="0" t="n">
-        <v>853.0322158641306</v>
-      </c>
-      <c r="H74" s="0" t="n">
-        <v>1229.586365848416</v>
-      </c>
       <c r="I74" s="0" t="n">
-        <v>710.5074405856153</v>
+        <v>1156.89365166222</v>
       </c>
       <c r="J74" s="0" t="n">
-        <v>853.0322158641305</v>
+        <v>628.9808577102697</v>
       </c>
       <c r="K74" s="0" t="n">
         <v>963.5996533139066</v>
@@ -22726,34 +22726,34 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="n">
+        <v>827.4326095974525</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <v>732.4895458562625</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>993.4120772351071</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>827.4326095974517</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>879.4238381009417</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>778.5150842666435</v>
+      </c>
+      <c r="G75" s="0" t="n">
+        <v>648.4406446704363</v>
+      </c>
+      <c r="H75" s="0" t="n">
+        <v>827.4326095974521</v>
+      </c>
+      <c r="I75" s="0" t="n">
         <v>1122.175124713069</v>
       </c>
-      <c r="B75" s="0" t="n">
-        <v>689.1850211150773</v>
-      </c>
-      <c r="C75" s="0" t="n">
-        <v>610.1050614540281</v>
-      </c>
-      <c r="D75" s="0" t="n">
-        <v>778.5150842666438</v>
-      </c>
-      <c r="E75" s="0" t="n">
-        <v>879.423838100941</v>
-      </c>
-      <c r="F75" s="0" t="n">
-        <v>879.4238381009413</v>
-      </c>
-      <c r="G75" s="0" t="n">
-        <v>827.432609597452</v>
-      </c>
-      <c r="H75" s="0" t="n">
-        <v>1192.686321217968</v>
-      </c>
-      <c r="I75" s="0" t="n">
-        <v>732.4895458562623</v>
-      </c>
       <c r="J75" s="0" t="n">
-        <v>879.423838100941</v>
+        <v>648.4406446704359</v>
       </c>
       <c r="K75" s="0" t="n">
         <v>993.4120772351068</v>
@@ -23028,34 +23028,34 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="n">
+        <v>853.0322158641312</v>
+      </c>
+      <c r="B76" s="0" t="n">
+        <v>755.1517466818998</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>963.599653313907</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>802.6012508000027</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>906.6319801729203</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>755.1517466818991</v>
+      </c>
+      <c r="G76" s="0" t="n">
+        <v>628.9808577102701</v>
+      </c>
+      <c r="H76" s="0" t="n">
+        <v>853.0322158641309</v>
+      </c>
+      <c r="I76" s="0" t="n">
         <v>1088.498505213048</v>
       </c>
-      <c r="B76" s="0" t="n">
-        <v>710.5074405856152</v>
-      </c>
-      <c r="C76" s="0" t="n">
-        <v>591.7957302657456</v>
-      </c>
-      <c r="D76" s="0" t="n">
-        <v>755.1517466818995</v>
-      </c>
-      <c r="E76" s="0" t="n">
-        <v>853.0322158641306</v>
-      </c>
-      <c r="F76" s="0" t="n">
-        <v>906.63198017292</v>
-      </c>
-      <c r="G76" s="0" t="n">
-        <v>853.0322158641308</v>
-      </c>
-      <c r="H76" s="0" t="n">
-        <v>1156.893651662219</v>
-      </c>
-      <c r="I76" s="0" t="n">
-        <v>755.1517466818997</v>
-      </c>
       <c r="J76" s="0" t="n">
-        <v>853.0322158641306</v>
+        <v>668.5024901891305</v>
       </c>
       <c r="K76" s="0" t="n">
         <v>1024.146855805357</v>
@@ -23330,34 +23330,34 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="n">
-        <v>1055.832525385903</v>
+        <v>827.4326095974526</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>732.4895458562622</v>
+        <v>732.4895458562626</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>610.1050614540283</v>
+        <v>934.6819040603746</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>732.4895458562622</v>
+        <v>778.5150842666435</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>827.432609597452</v>
+        <v>934.6819040603743</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>934.681904060374</v>
+        <v>778.5150842666436</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>879.4238381009412</v>
+        <v>648.4406446704363</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>1192.686321217969</v>
+        <v>827.4326095974523</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>778.5150842666442</v>
+        <v>1122.175124713069</v>
       </c>
       <c r="J77" s="0" t="n">
-        <v>827.432609597452</v>
+        <v>648.4406446704359</v>
       </c>
       <c r="K77" s="0" t="n">
         <v>993.4120772351069</v>
@@ -23632,34 +23632,34 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="n">
-        <v>1024.146855805357</v>
+        <v>802.6012508000035</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>755.1517466818996</v>
+        <v>755.1517466818999</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>591.7957302657458</v>
+        <v>906.6319801729205</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>710.5074405856153</v>
+        <v>755.1517466818991</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>853.0322158641308</v>
+        <v>963.5996533139069</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>906.6319801729201</v>
+        <v>755.1517466818992</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>906.6319801729198</v>
+        <v>628.9808577102701</v>
       </c>
       <c r="H78" s="0" t="n">
+        <v>802.6012508000033</v>
+      </c>
+      <c r="I78" s="0" t="n">
         <v>1156.89365166222</v>
       </c>
-      <c r="I78" s="0" t="n">
-        <v>755.1517466818998</v>
-      </c>
       <c r="J78" s="0" t="n">
-        <v>853.0322158641308</v>
+        <v>668.5024901891305</v>
       </c>
       <c r="K78" s="0" t="n">
         <v>1024.146855805358</v>
@@ -23934,34 +23934,34 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="n">
-        <v>993.4120772351067</v>
+        <v>778.5150842666443</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>732.4895458562623</v>
+        <v>732.4895458562627</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>610.1050614540284</v>
+        <v>934.6819040603746</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>689.1850211150776</v>
+        <v>778.5150842666436</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>827.4326095974521</v>
+        <v>993.4120772351071</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>879.4238381009415</v>
+        <v>732.489545856262</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>879.4238381009412</v>
+        <v>648.4406446704363</v>
       </c>
       <c r="H79" s="0" t="n">
+        <v>827.4326095974524</v>
+      </c>
+      <c r="I79" s="0" t="n">
         <v>1192.686321217969</v>
       </c>
-      <c r="I79" s="0" t="n">
-        <v>778.5150842666443</v>
-      </c>
       <c r="J79" s="0" t="n">
-        <v>827.4326095974521</v>
+        <v>648.4406446704359</v>
       </c>
       <c r="K79" s="0" t="n">
         <v>993.4120772351072</v>
@@ -24236,34 +24236,34 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="n">
-        <v>1024.146855805357</v>
+        <v>755.1517466818999</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>755.1517466818997</v>
+        <v>710.5074405856157</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>591.7957302657458</v>
+        <v>963.5996533139071</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>710.5074405856154</v>
+        <v>755.1517466818992</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>802.6012508000032</v>
+        <v>1024.146855805358</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>853.032215864131</v>
+        <v>710.5074405856151</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>906.6319801729198</v>
+        <v>668.502490189131</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>1156.89365166222</v>
+        <v>853.0322158641311</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>755.1517466818999</v>
+        <v>1229.586365848417</v>
       </c>
       <c r="J80" s="0" t="n">
-        <v>853.0322158641309</v>
+        <v>628.9808577102697</v>
       </c>
       <c r="K80" s="0" t="n">
         <v>1024.146855805358</v>
@@ -24538,34 +24538,34 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="n">
-        <v>993.4120772351069</v>
+        <v>778.5150842666444</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>778.5150842666442</v>
+        <v>732.4895458562627</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>574.035864456038</v>
+        <v>993.4120772351073</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>732.4895458562625</v>
+        <v>778.5150842666437</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>827.4326095974523</v>
+        <v>993.4120772351072</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>827.4326095974524</v>
+        <v>689.1850211150773</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>934.6819040603739</v>
+        <v>648.4406446704363</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>1122.175124713068</v>
+        <v>827.4326095974525</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>778.5150842666444</v>
+        <v>1267.628046187689</v>
       </c>
       <c r="J81" s="0" t="n">
-        <v>827.4326095974523</v>
+        <v>610.1050614540292</v>
       </c>
       <c r="K81" s="0" t="n">
         <v>1055.832525385904</v>
@@ -24840,34 +24840,34 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="n">
-        <v>963.5996533139069</v>
+        <v>755.1517466819</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>802.6012508000035</v>
+        <v>755.1517466819</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>591.7957302657459</v>
+        <v>963.5996533139072</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>710.5074405856154</v>
+        <v>802.6012508000031</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>853.032215864131</v>
+        <v>963.5996533139071</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>853.0322158641311</v>
+        <v>668.5024901891308</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>963.5996533139064</v>
+        <v>668.502490189131</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>1088.498505213048</v>
+        <v>802.6012508000034</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>802.6012508000038</v>
+        <v>1229.586365848417</v>
       </c>
       <c r="J82" s="0" t="n">
-        <v>853.032215864131</v>
+        <v>591.7957302657466</v>
       </c>
       <c r="K82" s="0" t="n">
         <v>1088.498505213049</v>
@@ -25142,34 +25142,34 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="n">
-        <v>993.4120772351071</v>
+        <v>732.4895458562628</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>827.4326095974526</v>
+        <v>778.5150842666445</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>574.0358644560381</v>
+        <v>993.4120772351074</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>689.1850211150777</v>
+        <v>827.4326095974521</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>827.4326095974524</v>
+        <v>993.4120772351073</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>879.4238381009416</v>
+        <v>648.4406446704361</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>993.4120772351065</v>
+        <v>648.4406446704363</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>1122.175124713069</v>
+        <v>778.5150842666442</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>778.5150842666445</v>
+        <v>1267.628046187689</v>
       </c>
       <c r="J83" s="0" t="n">
-        <v>879.4238381009415</v>
+        <v>610.1050614540292</v>
       </c>
       <c r="K83" s="0" t="n">
         <v>1122.17512471307</v>
@@ -25444,34 +25444,34 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="n">
+        <v>710.5074405856158</v>
+      </c>
+      <c r="B84" s="0" t="n">
+        <v>755.1517466819001</v>
+      </c>
+      <c r="C84" s="0" t="n">
         <v>1024.146855805358</v>
       </c>
-      <c r="B84" s="0" t="n">
-        <v>802.6012508000035</v>
-      </c>
-      <c r="C84" s="0" t="n">
-        <v>556.8089744983818</v>
-      </c>
       <c r="D84" s="0" t="n">
-        <v>668.5024901891311</v>
+        <v>853.0322158641309</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>802.6012508000033</v>
+        <v>1024.146855805358</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>906.6319801729202</v>
+        <v>668.5024901891308</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>1024.146855805357</v>
+        <v>628.9808577102701</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>1156.89365166222</v>
+        <v>755.1517466818998</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>755.1517466819001</v>
+        <v>1306.846682845956</v>
       </c>
       <c r="J84" s="0" t="n">
-        <v>906.6319801729201</v>
+        <v>628.9808577102698</v>
       </c>
       <c r="K84" s="0" t="n">
         <v>1156.893651662221</v>
@@ -25746,34 +25746,34 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="n">
-        <v>993.4120772351072</v>
+        <v>689.185021115078</v>
       </c>
       <c r="B85" s="0" t="n">
+        <v>778.5150842666446</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>993.4120772351076</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>879.4238381009413</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>993.4120772351074</v>
+      </c>
+      <c r="F85" s="0" t="n">
+        <v>648.4406446704361</v>
+      </c>
+      <c r="G85" s="0" t="n">
+        <v>610.1050614540296</v>
+      </c>
+      <c r="H85" s="0" t="n">
         <v>778.5150842666443</v>
       </c>
-      <c r="C85" s="0" t="n">
-        <v>574.0358644560381</v>
-      </c>
-      <c r="D85" s="0" t="n">
-        <v>648.4406446704364</v>
-      </c>
-      <c r="E85" s="0" t="n">
-        <v>827.4326095974524</v>
-      </c>
-      <c r="F85" s="0" t="n">
-        <v>879.4238381009416</v>
-      </c>
-      <c r="G85" s="0" t="n">
-        <v>1055.832525385903</v>
-      </c>
-      <c r="H85" s="0" t="n">
-        <v>1192.686321217969</v>
-      </c>
       <c r="I85" s="0" t="n">
-        <v>778.5150842666446</v>
+        <v>1347.278689203607</v>
       </c>
       <c r="J85" s="0" t="n">
-        <v>934.6819040603741</v>
+        <v>648.440644670436</v>
       </c>
       <c r="K85" s="0" t="n">
         <v>1192.68632121797</v>
@@ -26048,34 +26048,34 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="n">
-        <v>963.5996533139071</v>
+        <v>668.5024901891314</v>
       </c>
       <c r="B86" s="0" t="n">
+        <v>802.601250800004</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>1024.146855805358</v>
+      </c>
+      <c r="D86" s="0" t="n">
+        <v>906.63198017292</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>1024.146855805358</v>
+      </c>
+      <c r="F86" s="0" t="n">
+        <v>628.9808577102699</v>
+      </c>
+      <c r="G86" s="0" t="n">
+        <v>628.9808577102702</v>
+      </c>
+      <c r="H86" s="0" t="n">
         <v>755.1517466818999</v>
       </c>
-      <c r="C86" s="0" t="n">
-        <v>591.795730265746</v>
-      </c>
-      <c r="D86" s="0" t="n">
-        <v>628.9808577102702</v>
-      </c>
-      <c r="E86" s="0" t="n">
-        <v>802.6012508000033</v>
-      </c>
-      <c r="F86" s="0" t="n">
-        <v>853.0322158641311</v>
-      </c>
-      <c r="G86" s="0" t="n">
-        <v>1088.498505213048</v>
-      </c>
-      <c r="H86" s="0" t="n">
-        <v>1156.89365166222</v>
-      </c>
       <c r="I86" s="0" t="n">
-        <v>755.1517466819002</v>
+        <v>1306.846682845956</v>
       </c>
       <c r="J86" s="0" t="n">
-        <v>906.6319801729201</v>
+        <v>668.5024901891306</v>
       </c>
       <c r="K86" s="0" t="n">
         <v>1229.586365848418</v>
@@ -26350,34 +26350,34 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="n">
-        <v>934.6819040603747</v>
+        <v>689.185021115078</v>
       </c>
       <c r="B87" s="0" t="n">
+        <v>778.5150842666447</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>1055.832525385905</v>
+      </c>
+      <c r="D87" s="0" t="n">
+        <v>879.4238381009413</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>1055.832525385905</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>648.4406446704361</v>
+      </c>
+      <c r="G87" s="0" t="n">
+        <v>648.4406446704364</v>
+      </c>
+      <c r="H87" s="0" t="n">
         <v>732.4895458562627</v>
       </c>
-      <c r="C87" s="0" t="n">
-        <v>574.0358644560382</v>
-      </c>
-      <c r="D87" s="0" t="n">
-        <v>648.4406446704364</v>
-      </c>
-      <c r="E87" s="0" t="n">
-        <v>778.5150842666441</v>
-      </c>
-      <c r="F87" s="0" t="n">
-        <v>879.4238381009416</v>
-      </c>
-      <c r="G87" s="0" t="n">
-        <v>1122.175124713068</v>
-      </c>
-      <c r="H87" s="0" t="n">
-        <v>1192.686321217969</v>
-      </c>
       <c r="I87" s="0" t="n">
-        <v>778.5150842666447</v>
+        <v>1267.628046187689</v>
       </c>
       <c r="J87" s="0" t="n">
-        <v>934.6819040603741</v>
+        <v>648.440644670436</v>
       </c>
       <c r="K87" s="0" t="n">
         <v>1192.68632121797</v>
@@ -26652,34 +26652,34 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="n">
-        <v>963.5996533139072</v>
+        <v>668.5024901891314</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>755.1517466819</v>
+        <v>802.6012508000041</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>591.7957302657461</v>
+        <v>1088.49850521305</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>628.9808577102702</v>
+        <v>853.0322158641309</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>802.6012508000034</v>
+        <v>1088.498505213049</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>853.0322158641311</v>
+        <v>628.9808577102699</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>1088.498505213048</v>
+        <v>668.5024901891311</v>
       </c>
       <c r="H88" s="0" t="n">
+        <v>710.5074405856157</v>
+      </c>
+      <c r="I88" s="0" t="n">
         <v>1229.586365848417</v>
       </c>
-      <c r="I88" s="0" t="n">
-        <v>802.6012508000041</v>
-      </c>
       <c r="J88" s="0" t="n">
-        <v>963.5996533139066</v>
+        <v>628.9808577102698</v>
       </c>
       <c r="K88" s="0" t="n">
         <v>1156.893651662221</v>
@@ -26954,34 +26954,34 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="n">
-        <v>934.6819040603748</v>
+        <v>689.185021115078</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>732.4895458562628</v>
+        <v>827.4326095974532</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>610.1050614540287</v>
+        <v>1055.832525385905</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>648.4406446704364</v>
+        <v>827.4326095974523</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>778.5150842666442</v>
+        <v>1122.17512471307</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>827.4326095974525</v>
+        <v>648.4406446704361</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>1122.175124713069</v>
+        <v>689.1850211150777</v>
       </c>
       <c r="H89" s="0" t="n">
+        <v>732.4895458562627</v>
+      </c>
+      <c r="I89" s="0" t="n">
         <v>1267.628046187689</v>
       </c>
-      <c r="I89" s="0" t="n">
-        <v>827.4326095974532</v>
-      </c>
       <c r="J89" s="0" t="n">
-        <v>934.6819040603742</v>
+        <v>648.440644670436</v>
       </c>
       <c r="K89" s="0" t="n">
         <v>1192.68632121797</v>
@@ -27256,34 +27256,34 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="n">
-        <v>963.5996533139073</v>
+        <v>668.5024901891314</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>755.1517466819001</v>
+        <v>853.0322158641319</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>628.9808577102693</v>
+        <v>1024.146855805358</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>668.5024901891311</v>
+        <v>853.032215864131</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>755.1517466818998</v>
+        <v>1156.893651662221</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>853.0322158641312</v>
+        <v>668.5024901891308</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>1088.498505213048</v>
+        <v>710.5074405856155</v>
       </c>
       <c r="H90" s="0" t="n">
+        <v>710.5074405856157</v>
+      </c>
+      <c r="I90" s="0" t="n">
         <v>1306.846682845956</v>
       </c>
-      <c r="I90" s="0" t="n">
-        <v>853.0322158641319</v>
-      </c>
       <c r="J90" s="0" t="n">
-        <v>963.5996533139067</v>
+        <v>668.5024901891306</v>
       </c>
       <c r="K90" s="0" t="n">
         <v>1156.893651662221</v>
@@ -27558,34 +27558,34 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="n">
-        <v>934.6819040603749</v>
+        <v>689.185021115078</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>732.4895458562629</v>
+        <v>879.4238381009425</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>648.4406446704355</v>
+        <v>1055.832525385905</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>648.4406446704364</v>
+        <v>879.4238381009415</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>778.5150842666443</v>
+        <v>1122.17512471307</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>879.4238381009417</v>
+        <v>689.1850211150773</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>1122.175124713069</v>
+        <v>732.4895458562626</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>1347.278689203606</v>
+        <v>732.4895458562627</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>879.4238381009425</v>
+        <v>1267.628046187689</v>
       </c>
       <c r="J91" s="0" t="n">
-        <v>993.4120772351069</v>
+        <v>648.440644670436</v>
       </c>
       <c r="K91" s="0" t="n">
         <v>1192.68632121797</v>
@@ -27860,34 +27860,34 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="n">
-        <v>906.6319801729209</v>
+        <v>668.5024901891314</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>755.1517466819002</v>
+        <v>853.032215864132</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>628.9808577102694</v>
+        <v>1024.146855805359</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>668.5024901891311</v>
+        <v>853.032215864131</v>
       </c>
       <c r="E92" s="0" t="n">
+        <v>1088.49850521305</v>
+      </c>
+      <c r="F92" s="0" t="n">
+        <v>668.5024901891308</v>
+      </c>
+      <c r="G92" s="0" t="n">
         <v>755.1517466818999</v>
       </c>
-      <c r="F92" s="0" t="n">
-        <v>853.0322158641312</v>
-      </c>
-      <c r="G92" s="0" t="n">
-        <v>1088.498505213048</v>
-      </c>
       <c r="H92" s="0" t="n">
-        <v>1306.846682845956</v>
+        <v>710.5074405856157</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>906.6319801729212</v>
+        <v>1229.586365848417</v>
       </c>
       <c r="J92" s="0" t="n">
-        <v>963.5996533139069</v>
+        <v>668.5024901891306</v>
       </c>
       <c r="K92" s="0" t="n">
         <v>1156.893651662221</v>
@@ -28162,34 +28162,34 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="n">
-        <v>879.4238381009422</v>
+        <v>689.185021115078</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>732.489545856263</v>
+        <v>827.4326095974533</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>648.4406446704356</v>
+        <v>993.4120772351083</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>648.4406446704364</v>
+        <v>879.4238381009415</v>
       </c>
       <c r="E93" s="0" t="n">
+        <v>1122.17512471307</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <v>648.4406446704361</v>
+      </c>
+      <c r="G93" s="0" t="n">
         <v>732.4895458562627</v>
       </c>
-      <c r="F93" s="0" t="n">
-        <v>827.4326095974526</v>
-      </c>
-      <c r="G93" s="0" t="n">
-        <v>1055.832525385903</v>
-      </c>
       <c r="H93" s="0" t="n">
-        <v>1347.278689203606</v>
+        <v>732.4895458562627</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>879.4238381009426</v>
+        <v>1192.68632121797</v>
       </c>
       <c r="J93" s="0" t="n">
-        <v>993.4120772351071</v>
+        <v>689.1850211150772</v>
       </c>
       <c r="K93" s="0" t="n">
         <v>1122.17512471307</v>
@@ -28464,34 +28464,34 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="n">
-        <v>853.0322158641318</v>
+        <v>668.5024901891314</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>755.1517466819004</v>
+        <v>853.032215864132</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>628.9808577102696</v>
+        <v>963.5996533139082</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>628.9808577102702</v>
+        <v>853.032215864131</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>755.1517466819</v>
+        <v>1088.49850521305</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>802.6012508000035</v>
+        <v>628.9808577102699</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>1024.146855805357</v>
+        <v>710.5074405856157</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>1306.846682845956</v>
+        <v>710.5074405856157</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>906.6319801729213</v>
+        <v>1156.893651662221</v>
       </c>
       <c r="J94" s="0" t="n">
-        <v>963.599653313907</v>
+        <v>710.5074405856151</v>
       </c>
       <c r="K94" s="0" t="n">
         <v>1088.498505213049</v>
@@ -28766,34 +28766,34 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="n">
-        <v>879.4238381009424</v>
+        <v>648.4406446704368</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>732.4895458562631</v>
+        <v>827.4326095974533</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>610.1050614540291</v>
+        <v>993.4120772351084</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>648.4406446704364</v>
+        <v>827.4326095974524</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>732.4895458562628</v>
+        <v>1122.17512471307</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>827.4326095974526</v>
+        <v>648.4406446704361</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>993.4120772351067</v>
+        <v>689.1850211150779</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>1347.278689203606</v>
+        <v>689.1850211150779</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>934.6819040603755</v>
+        <v>1122.17512471307</v>
       </c>
       <c r="J95" s="0" t="n">
-        <v>993.4120772351072</v>
+        <v>732.4895458562621</v>
       </c>
       <c r="K95" s="0" t="n">
         <v>1122.17512471307</v>
@@ -29068,34 +29068,34 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="n">
-        <v>906.6319801729211</v>
+        <v>668.5024901891314</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>710.5074405856161</v>
+        <v>802.6012508000042</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>628.9808577102697</v>
+        <v>1024.146855805359</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>628.9808577102702</v>
+        <v>802.6012508000033</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>755.1517466819001</v>
+        <v>1156.893651662221</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>802.6012508000035</v>
+        <v>668.5024901891308</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>1024.146855805357</v>
+        <v>710.5074405856158</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>1388.961605220028</v>
+        <v>668.5024901891313</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>906.6319801729214</v>
+        <v>1088.498505213049</v>
       </c>
       <c r="J96" s="0" t="n">
-        <v>963.5996533139071</v>
+        <v>755.1517466818995</v>
       </c>
       <c r="K96" s="0" t="n">
         <v>1088.498505213049</v>
@@ -29370,34 +29370,34 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="n">
-        <v>934.6819040603752</v>
+        <v>648.4406446704368</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>689.1850211150783</v>
+        <v>827.4326095974534</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>648.4406446704359</v>
+        <v>993.4120772351084</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>610.1050614540297</v>
+        <v>778.5150842666441</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>732.4895458562629</v>
+        <v>1192.686321217971</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>827.4326095974526</v>
+        <v>689.1850211150773</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>1055.832525385904</v>
+        <v>732.4895458562628</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>1347.278689203606</v>
+        <v>689.1850211150779</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>879.4238381009428</v>
+        <v>1122.17512471307</v>
       </c>
       <c r="J97" s="0" t="n">
-        <v>993.4120772351073</v>
+        <v>778.515084266644</v>
       </c>
       <c r="K97" s="0" t="n">
         <v>1122.17512471307</v>
@@ -29672,34 +29672,34 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="n">
-        <v>906.6319801729212</v>
+        <v>628.9808577102706</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>710.5074405856161</v>
+        <v>802.6012508000043</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>628.9808577102697</v>
+        <v>963.5996533139083</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>628.9808577102704</v>
+        <v>755.1517466818997</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>710.5074405856159</v>
+        <v>1156.893651662221</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>802.6012508000035</v>
+        <v>668.5024901891308</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>1088.498505213048</v>
+        <v>755.1517466819001</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>1306.846682845956</v>
+        <v>668.5024901891313</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>853.0322158641324</v>
+        <v>1088.498505213049</v>
       </c>
       <c r="J98" s="0" t="n">
-        <v>1024.146855805358</v>
+        <v>755.1517466818996</v>
       </c>
       <c r="K98" s="0" t="n">
         <v>1156.893651662221</v>
@@ -29974,34 +29974,34 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="n">
-        <v>879.4238381009426</v>
+        <v>648.4406446704368</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>732.4895458562631</v>
+        <v>778.5150842666451</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>648.4406446704359</v>
+        <v>934.6819040603759</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>610.1050614540299</v>
+        <v>732.4895458562625</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>689.185021115078</v>
+        <v>1122.17512471307</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>827.4326095974526</v>
+        <v>648.4406446704361</v>
       </c>
       <c r="G99" s="0" t="n">
+        <v>778.5150842666446</v>
+      </c>
+      <c r="H99" s="0" t="n">
+        <v>689.1850211150779</v>
+      </c>
+      <c r="I99" s="0" t="n">
         <v>1055.832525385904</v>
       </c>
-      <c r="H99" s="0" t="n">
-        <v>1267.628046187689</v>
-      </c>
-      <c r="I99" s="0" t="n">
-        <v>879.4238381009429</v>
-      </c>
       <c r="J99" s="0" t="n">
-        <v>993.4120772351074</v>
+        <v>778.5150842666441</v>
       </c>
       <c r="K99" s="0" t="n">
         <v>1192.686321217971</v>
@@ -30276,34 +30276,34 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="n">
-        <v>853.0322158641321</v>
+        <v>628.9808577102706</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>710.5074405856161</v>
+        <v>802.6012508000044</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>668.5024901891305</v>
+        <v>906.6319801729219</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>628.9808577102705</v>
+        <v>755.1517466818998</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>668.5024901891314</v>
+        <v>1156.893651662222</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>853.0322158641313</v>
+        <v>668.5024901891308</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>1088.498505213048</v>
+        <v>755.1517466819002</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>1306.846682845956</v>
+        <v>668.5024901891313</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>853.0322158641325</v>
+        <v>1024.146855805358</v>
       </c>
       <c r="J100" s="0" t="n">
-        <v>1024.146855805358</v>
+        <v>755.1517466818997</v>
       </c>
       <c r="K100" s="0" t="n">
         <v>1156.893651662221</v>
@@ -30578,34 +30578,34 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="n">
-        <v>827.4326095974534</v>
+        <v>648.4406446704368</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>732.4895458562631</v>
+        <v>778.5150842666452</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>648.4406446704359</v>
+        <v>934.681904060376</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>610.1050614540299</v>
+        <v>778.5150842666443</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>648.4406446704368</v>
+        <v>1192.686321217971</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>827.4326095974527</v>
+        <v>648.4406446704361</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>1122.175124713069</v>
+        <v>778.5150842666447</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>1267.628046187689</v>
+        <v>648.4406446704367</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>827.4326095974537</v>
+        <v>993.4120772351076</v>
       </c>
       <c r="J101" s="0" t="n">
-        <v>993.4120772351076</v>
+        <v>732.4895458562625</v>
       </c>
       <c r="K101" s="0" t="n">
         <v>1192.686321217971</v>
@@ -30880,34 +30880,34 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="n">
-        <v>802.6012508000043</v>
+        <v>628.9808577102706</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>710.5074405856161</v>
+        <v>802.6012508000046</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>628.9808577102697</v>
+        <v>963.5996533139086</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>591.7957302657472</v>
+        <v>755.1517466818999</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>628.9808577102706</v>
+        <v>1229.586365848418</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>802.6012508000036</v>
+        <v>628.9808577102699</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>1088.498505213048</v>
+        <v>755.1517466819004</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>1306.846682845956</v>
+        <v>628.9808577102705</v>
       </c>
       <c r="I102" s="0" t="n">
-        <v>853.0322158641326</v>
+        <v>1024.146855805358</v>
       </c>
       <c r="J102" s="0" t="n">
-        <v>963.5996533139075</v>
+        <v>710.5074405856154</v>
       </c>
       <c r="K102" s="0" t="n">
         <v>1229.586365848418</v>
@@ -31182,34 +31182,34 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="n">
-        <v>778.5150842666451</v>
+        <v>648.4406446704368</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>732.4895458562631</v>
+        <v>827.4326095974537</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>648.4406446704359</v>
+        <v>993.4120772351088</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>574.0358644560393</v>
+        <v>732.4895458562627</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>610.10506145403</v>
+        <v>1267.62804618769</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>778.5150842666444</v>
+        <v>648.4406446704361</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>1055.832525385904</v>
+        <v>778.5150842666449</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>1267.628046187689</v>
+        <v>648.4406446704367</v>
       </c>
       <c r="I103" s="0" t="n">
-        <v>827.4326095974538</v>
+        <v>993.4120772351079</v>
       </c>
       <c r="J103" s="0" t="n">
-        <v>934.6819040603751</v>
+        <v>732.4895458562625</v>
       </c>
       <c r="K103" s="0" t="n">
         <v>1267.62804618769</v>
@@ -31484,34 +31484,34 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="n">
-        <v>755.1517466819007</v>
+        <v>628.9808577102706</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>710.5074405856161</v>
+        <v>853.0322158641326</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>628.9808577102697</v>
+        <v>1024.146855805359</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>556.808974498383</v>
+        <v>755.1517466819</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>628.9808577102706</v>
+        <v>1229.586365848419</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>755.1517466819</v>
+        <v>628.9808577102699</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>1024.146855805357</v>
+        <v>802.6012508000042</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>1229.586365848417</v>
+        <v>628.9808577102705</v>
       </c>
       <c r="I104" s="0" t="n">
-        <v>853.0322158641327</v>
+        <v>963.5996533139078</v>
       </c>
       <c r="J104" s="0" t="n">
-        <v>963.5996533139077</v>
+        <v>755.1517466818998</v>
       </c>
       <c r="K104" s="0" t="n">
         <v>1229.586365848418</v>
@@ -31786,34 +31786,34 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="n">
-        <v>778.5150842666452</v>
+        <v>648.4406446704368</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>732.4895458562631</v>
+        <v>879.4238381009432</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>610.1050614540292</v>
+        <v>993.4120772351089</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>574.0358644560393</v>
+        <v>732.4895458562628</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>648.4406446704368</v>
+        <v>1267.628046187691</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>732.4895458562628</v>
+        <v>610.1050614540294</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>993.4120772351069</v>
+        <v>827.4326095974534</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>1267.628046187689</v>
+        <v>648.4406446704367</v>
       </c>
       <c r="I105" s="0" t="n">
-        <v>827.432609597454</v>
+        <v>934.6819040603754</v>
       </c>
       <c r="J105" s="0" t="n">
-        <v>934.6819040603752</v>
+        <v>732.4895458562626</v>
       </c>
       <c r="K105" s="0" t="n">
         <v>1192.686321217971</v>
@@ -32088,34 +32088,34 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="n">
-        <v>802.6012508000046</v>
+        <v>628.9808577102706</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>755.1517466819005</v>
+        <v>853.0322158641327</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>628.9808577102698</v>
+        <v>1024.146855805359</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>591.7957302657472</v>
+        <v>710.5074405856158</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>668.5024901891314</v>
+        <v>1229.586365848419</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>755.1517466819001</v>
+        <v>591.7957302657468</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>963.5996533139069</v>
+        <v>802.6012508000043</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>1229.586365848417</v>
+        <v>668.5024901891313</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>802.6012508000049</v>
+        <v>906.6319801729213</v>
       </c>
       <c r="J106" s="0" t="n">
-        <v>906.6319801729212</v>
+        <v>755.1517466818999</v>
       </c>
       <c r="K106" s="0" t="n">
         <v>1156.893651662221</v>
@@ -32390,34 +32390,34 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="n">
-        <v>778.5150842666453</v>
+        <v>648.4406446704368</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>732.4895458562631</v>
+        <v>879.4238381009433</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>648.440644670436</v>
+        <v>993.4120772351089</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>574.0358644560393</v>
+        <v>732.4895458562628</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>648.4406446704368</v>
+        <v>1267.628046187691</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>732.4895458562629</v>
+        <v>610.1050614540294</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>993.4120772351071</v>
+        <v>778.5150842666451</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>1192.68632121797</v>
+        <v>648.4406446704367</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>778.5150842666457</v>
+        <v>879.4238381009427</v>
       </c>
       <c r="J107" s="0" t="n">
-        <v>879.4238381009426</v>
+        <v>778.5150842666444</v>
       </c>
       <c r="K107" s="0" t="n">
         <v>1122.17512471307</v>
@@ -32692,34 +32692,34 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="n">
-        <v>755.1517466819009</v>
+        <v>668.5024901891314</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>755.1517466819005</v>
+        <v>853.0322158641328</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>668.5024901891306</v>
+        <v>1024.146855805359</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>556.808974498383</v>
+        <v>755.1517466819001</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>668.5024901891314</v>
+        <v>1306.846682845958</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>710.5074405856159</v>
+        <v>591.7957302657468</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>963.599653313907</v>
+        <v>802.6012508000044</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>1229.586365848417</v>
+        <v>668.5024901891313</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>802.601250800005</v>
+        <v>853.0322158641322</v>
       </c>
       <c r="J108" s="0" t="n">
-        <v>906.6319801729213</v>
+        <v>802.6012508000038</v>
       </c>
       <c r="K108" s="0" t="n">
         <v>1156.893651662222</v>
@@ -32994,34 +32994,34 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="n">
-        <v>778.5150842666454</v>
+        <v>648.4406446704368</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>732.4895458562631</v>
+        <v>827.4326095974541</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>689.1850211150772</v>
+        <v>993.4120772351089</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>540.099065719062</v>
+        <v>732.4895458562629</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>689.185021115078</v>
+        <v>1267.628046187691</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>689.185021115078</v>
+        <v>610.1050614540294</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>934.6819040603746</v>
+        <v>778.5150842666452</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>1192.68632121797</v>
+        <v>689.1850211150779</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>778.5150842666458</v>
+        <v>827.4326095974535</v>
       </c>
       <c r="J109" s="0" t="n">
-        <v>879.4238381009427</v>
+        <v>827.4326095974528</v>
       </c>
       <c r="K109" s="0" t="n">
         <v>1122.175124713071</v>
@@ -33296,34 +33296,34 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="n">
-        <v>802.6012508000048</v>
+        <v>668.5024901891314</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>710.5074405856161</v>
+        <v>853.0322158641329</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>668.5024901891306</v>
+        <v>1024.146855805359</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>556.8089744983831</v>
+        <v>710.5074405856159</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>668.5024901891314</v>
+        <v>1306.846682845958</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>668.5024901891314</v>
+        <v>591.7957302657468</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>963.5996533139071</v>
+        <v>802.6012508000046</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>1156.89365166222</v>
+        <v>668.5024901891313</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>755.1517466819013</v>
+        <v>853.0322158641322</v>
       </c>
       <c r="J110" s="0" t="n">
-        <v>853.0322158641322</v>
+        <v>853.0322158641316</v>
       </c>
       <c r="K110" s="0" t="n">
         <v>1156.893651662222</v>
@@ -33598,34 +33598,34 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="n">
-        <v>778.5150842666455</v>
+        <v>689.185021115078</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>689.1850211150783</v>
+        <v>879.4238381009435</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>689.1850211150772</v>
+        <v>1055.832525385906</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>574.0358644560395</v>
+        <v>689.185021115078</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>689.185021115078</v>
+        <v>1267.628046187691</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>689.185021115078</v>
+        <v>610.1050614540294</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>934.6819040603747</v>
+        <v>778.5150842666453</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>1192.68632121797</v>
+        <v>689.1850211150779</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>778.5150842666458</v>
+        <v>879.4238381009428</v>
       </c>
       <c r="J111" s="0" t="n">
-        <v>827.4326095974535</v>
+        <v>827.4326095974529</v>
       </c>
       <c r="K111" s="0" t="n">
         <v>1192.686321217971</v>
@@ -33900,34 +33900,34 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="n">
-        <v>755.1517466819012</v>
+        <v>668.5024901891314</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>710.5074405856161</v>
+        <v>906.6319801729222</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>710.5074405856151</v>
+        <v>1088.498505213051</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>556.8089744983831</v>
+        <v>710.5074405856159</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>668.5024901891314</v>
+        <v>1229.586365848419</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>668.5024901891314</v>
+        <v>591.7957302657468</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>963.5996533139072</v>
+        <v>755.1517466819009</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>1156.89365166222</v>
+        <v>668.5024901891313</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>802.6012508000051</v>
+        <v>906.6319801729215</v>
       </c>
       <c r="J112" s="0" t="n">
-        <v>802.6012508000044</v>
+        <v>802.6012508000039</v>
       </c>
       <c r="K112" s="0" t="n">
         <v>1156.893651662222</v>
@@ -34202,34 +34202,34 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="n">
-        <v>732.4895458562638</v>
+        <v>648.4406446704368</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>732.4895458562631</v>
+        <v>879.4238381009436</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>732.4895458562621</v>
+        <v>1055.832525385906</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>574.0358644560395</v>
+        <v>689.185021115078</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>648.4406446704368</v>
+        <v>1192.686321217972</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>648.4406446704368</v>
+        <v>610.1050614540294</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>934.6819040603748</v>
+        <v>732.4895458562636</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>1122.175124713069</v>
+        <v>648.4406446704367</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>778.5150842666459</v>
+        <v>879.4238381009429</v>
       </c>
       <c r="J113" s="0" t="n">
-        <v>778.5150842666452</v>
+        <v>827.4326095974529</v>
       </c>
       <c r="K113" s="0" t="n">
         <v>1192.686321217971</v>
@@ -34504,34 +34504,34 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="n">
-        <v>710.5074405856168</v>
+        <v>628.9808577102706</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>755.1517466819005</v>
+        <v>853.0322158641331</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>710.5074405856152</v>
+        <v>1024.14685580536</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>556.8089744983831</v>
+        <v>668.5024901891314</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>668.5024901891314</v>
+        <v>1156.893651662222</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>628.9808577102706</v>
+        <v>628.98085771027</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>906.6319801729207</v>
+        <v>755.1517466819009</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>1088.498505213049</v>
+        <v>668.5024901891313</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>802.6012508000052</v>
+        <v>906.6319801729217</v>
       </c>
       <c r="J114" s="0" t="n">
-        <v>755.1517466819008</v>
+        <v>802.6012508000039</v>
       </c>
       <c r="K114" s="0" t="n">
         <v>1156.893651662222</v>
@@ -34806,34 +34806,34 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="n">
-        <v>689.1850211150789</v>
+        <v>610.10506145403</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>732.4895458562631</v>
+        <v>879.4238381009437</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>689.1850211150775</v>
+        <v>1055.832525385906</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>574.0358644560395</v>
+        <v>648.4406446704368</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>648.4406446704368</v>
+        <v>1122.175124713071</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>648.4406446704368</v>
+        <v>648.4406446704362</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>934.6819040603749</v>
+        <v>732.4895458562636</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>1122.175124713069</v>
+        <v>648.4406446704367</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>778.515084266646</v>
+        <v>879.423838100943</v>
       </c>
       <c r="J115" s="0" t="n">
-        <v>732.4895458562635</v>
+        <v>778.5150842666446</v>
       </c>
       <c r="K115" s="0" t="n">
         <v>1192.686321217971</v>
@@ -35108,34 +35108,34 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="n">
-        <v>710.5074405856168</v>
+        <v>591.7957302657474</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>710.5074405856161</v>
+        <v>906.6319801729225</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>710.5074405856153</v>
+        <v>1024.14685580536</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>556.8089744983831</v>
+        <v>628.9808577102706</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>668.5024901891314</v>
+        <v>1156.893651662222</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>668.5024901891314</v>
+        <v>628.98085771027</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>906.6319801729209</v>
+        <v>710.5074405856166</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>1088.498505213049</v>
+        <v>668.5024901891313</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>755.1517466819015</v>
+        <v>853.0322158641326</v>
       </c>
       <c r="J116" s="0" t="n">
-        <v>755.1517466819008</v>
+        <v>755.1517466819002</v>
       </c>
       <c r="K116" s="0" t="n">
         <v>1156.893651662222</v>
@@ -35410,34 +35410,34 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="n">
-        <v>732.4895458562639</v>
+        <v>574.0358644560395</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>689.1850211150783</v>
+        <v>879.4238381009438</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>689.1850211150776</v>
+        <v>1055.832525385907</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>540.0990657190621</v>
+        <v>648.4406446704368</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>689.185021115078</v>
+        <v>1192.686321217972</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>648.4406446704368</v>
+        <v>648.4406446704362</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>934.681904060375</v>
+        <v>689.1850211150787</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>1055.832525385904</v>
+        <v>689.1850211150779</v>
       </c>
       <c r="I117" s="0" t="n">
-        <v>732.4895458562642</v>
+        <v>827.4326095974538</v>
       </c>
       <c r="J117" s="0" t="n">
-        <v>732.4895458562635</v>
+        <v>732.489545856263</v>
       </c>
       <c r="K117" s="0" t="n">
         <v>1122.175124713071</v>
@@ -35712,34 +35712,34 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="n">
-        <v>755.1517466819013</v>
+        <v>591.7957302657474</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>668.5024901891317</v>
+        <v>906.6319801729226</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>668.502490189131</v>
+        <v>1024.14685580536</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>556.8089744983832</v>
+        <v>628.9808577102706</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>710.5074405856159</v>
+        <v>1229.586365848419</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>628.9808577102706</v>
+        <v>628.98085771027</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>963.5996533139075</v>
+        <v>710.5074405856166</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>1088.498505213049</v>
+        <v>668.5024901891313</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>755.1517466819015</v>
+        <v>853.0322158641327</v>
       </c>
       <c r="J118" s="0" t="n">
-        <v>755.1517466819008</v>
+        <v>755.1517466819004</v>
       </c>
       <c r="K118" s="0" t="n">
         <v>1156.893651662222</v>
@@ -36014,34 +36014,34 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="n">
-        <v>778.5150842666458</v>
+        <v>610.10506145403</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>689.1850211150783</v>
+        <v>879.423838100944</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>648.4406446704363</v>
+        <v>1055.832525385907</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>540.0990657190622</v>
+        <v>648.4406446704368</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>732.4895458562629</v>
+        <v>1192.686321217972</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>648.4406446704368</v>
+        <v>610.1050614540295</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>934.6819040603751</v>
+        <v>732.4895458562637</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>1122.175124713069</v>
+        <v>648.4406446704367</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>732.4895458562642</v>
+        <v>827.432609597454</v>
       </c>
       <c r="J119" s="0" t="n">
-        <v>778.5150842666453</v>
+        <v>778.5150842666449</v>
       </c>
       <c r="K119" s="0" t="n">
         <v>1122.175124713071</v>
@@ -36316,34 +36316,34 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="n">
-        <v>802.6012508000051</v>
+        <v>628.9808577102706</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>668.5024901891317</v>
+        <v>906.6319801729227</v>
       </c>
       <c r="C120" s="0" t="n">
+        <v>1088.498505213052</v>
+      </c>
+      <c r="D120" s="0" t="n">
+        <v>628.9808577102706</v>
+      </c>
+      <c r="E120" s="0" t="n">
+        <v>1229.586365848419</v>
+      </c>
+      <c r="F120" s="0" t="n">
         <v>628.9808577102701</v>
       </c>
-      <c r="D120" s="0" t="n">
-        <v>556.8089744983833</v>
-      </c>
-      <c r="E120" s="0" t="n">
-        <v>710.5074405856159</v>
-      </c>
-      <c r="F120" s="0" t="n">
-        <v>668.5024901891314</v>
-      </c>
       <c r="G120" s="0" t="n">
-        <v>963.5996533139077</v>
+        <v>710.5074405856167</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>1088.498505213049</v>
+        <v>668.5024901891313</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>710.5074405856171</v>
+        <v>802.6012508000049</v>
       </c>
       <c r="J120" s="0" t="n">
-        <v>802.6012508000047</v>
+        <v>755.1517466819005</v>
       </c>
       <c r="K120" s="0" t="n">
         <v>1088.49850521305</v>
@@ -36618,34 +36618,34 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="n">
-        <v>778.5150842666459</v>
+        <v>610.10506145403</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>648.440644670437</v>
+        <v>934.6819040603768</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>610.1050614540296</v>
+        <v>1122.175124713073</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>574.0358644560398</v>
+        <v>610.10506145403</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>732.4895458562629</v>
+        <v>1267.628046187691</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>689.185021115078</v>
+        <v>648.4406446704363</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>934.6819040603752</v>
+        <v>732.4895458562638</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>1122.175124713069</v>
+        <v>648.4406446704367</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>732.4895458562643</v>
+        <v>827.4326095974541</v>
       </c>
       <c r="J121" s="0" t="n">
-        <v>778.5150842666454</v>
+        <v>778.515084266645</v>
       </c>
       <c r="K121" s="0" t="n">
         <v>1122.175124713071</v>
@@ -36920,34 +36920,34 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="n">
-        <v>802.6012508000052</v>
+        <v>591.7957302657474</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>628.9808577102708</v>
+        <v>906.6319801729228</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>628.9808577102702</v>
+        <v>1088.498505213052</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>591.7957302657477</v>
+        <v>628.9808577102706</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>755.1517466819002</v>
+        <v>1306.846682845958</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>668.5024901891314</v>
+        <v>628.9808577102701</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>906.6319801729212</v>
+        <v>710.5074405856168</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>1088.498505213049</v>
+        <v>628.9808577102705</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>710.5074405856172</v>
+        <v>853.0322158641329</v>
       </c>
       <c r="J122" s="0" t="n">
-        <v>755.151746681901</v>
+        <v>802.6012508000043</v>
       </c>
       <c r="K122" s="0" t="n">
         <v>1088.49850521305</v>
@@ -37222,34 +37222,34 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="n">
-        <v>827.4326095974544</v>
+        <v>574.0358644560395</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>610.1050614540302</v>
+        <v>934.681904060377</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>648.4406446704364</v>
+        <v>1122.175124713073</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>574.0358644560398</v>
+        <v>610.10506145403</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>732.489545856263</v>
+        <v>1347.278689203609</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>689.185021115078</v>
+        <v>648.4406446704363</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>934.6819040603754</v>
+        <v>732.4895458562639</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>1055.832525385904</v>
+        <v>648.4406446704367</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>732.4895458562644</v>
+        <v>827.4326095974542</v>
       </c>
       <c r="J123" s="0" t="n">
-        <v>732.4895458562637</v>
+        <v>778.5150842666451</v>
       </c>
       <c r="K123" s="0" t="n">
         <v>1055.832525385905</v>
@@ -37524,34 +37524,34 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="n">
-        <v>853.0322158641333</v>
+        <v>591.7957302657474</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>628.9808577102708</v>
+        <v>906.6319801729229</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>628.9808577102702</v>
+        <v>1088.498505213052</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>556.8089744983835</v>
+        <v>628.9808577102706</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>710.507440585616</v>
+        <v>1388.961605220031</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>710.5074405856159</v>
+        <v>628.9808577102701</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>963.5996533139079</v>
+        <v>755.1517466819013</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>1024.146855805358</v>
+        <v>668.5024901891313</v>
       </c>
       <c r="I124" s="0" t="n">
-        <v>755.1517466819018</v>
+        <v>853.032215864133</v>
       </c>
       <c r="J124" s="0" t="n">
-        <v>710.5074405856167</v>
+        <v>802.6012508000044</v>
       </c>
       <c r="K124" s="0" t="n">
         <v>1024.146855805359</v>
@@ -37826,34 +37826,34 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="n">
-        <v>827.4326095974545</v>
+        <v>574.0358644560395</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>648.440644670437</v>
+        <v>934.6819040603771</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>648.4406446704364</v>
+        <v>1122.175124713073</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>574.0358644560399</v>
+        <v>610.10506145403</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>732.489545856263</v>
+        <v>1347.278689203609</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>689.185021115078</v>
+        <v>610.1050614540296</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>934.6819040603755</v>
+        <v>732.4895458562639</v>
       </c>
       <c r="H125" s="0" t="n">
-        <v>1055.832525385904</v>
+        <v>648.4406446704367</v>
       </c>
       <c r="I125" s="0" t="n">
-        <v>778.5150842666463</v>
+        <v>879.4238381009436</v>
       </c>
       <c r="J125" s="0" t="n">
-        <v>689.1850211150788</v>
+        <v>827.4326095974536</v>
       </c>
       <c r="K125" s="0" t="n">
         <v>993.4120772351084</v>
@@ -38128,34 +38128,34 @@
     </row>
     <row r="126">
       <c r="A126" s="0" t="n">
-        <v>802.6012508000055</v>
+        <v>591.7957302657474</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>668.5024901891317</v>
+        <v>963.5996533139097</v>
       </c>
       <c r="C126" s="0" t="n">
+        <v>1088.498505213053</v>
+      </c>
+      <c r="D126" s="0" t="n">
+        <v>628.9808577102706</v>
+      </c>
+      <c r="E126" s="0" t="n">
+        <v>1388.961605220031</v>
+      </c>
+      <c r="F126" s="0" t="n">
         <v>628.9808577102702</v>
       </c>
-      <c r="D126" s="0" t="n">
-        <v>556.8089744983836</v>
-      </c>
-      <c r="E126" s="0" t="n">
-        <v>755.1517466819004</v>
-      </c>
-      <c r="F126" s="0" t="n">
-        <v>710.5074405856159</v>
-      </c>
       <c r="G126" s="0" t="n">
-        <v>906.6319801729214</v>
+        <v>710.5074405856169</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>1024.146855805358</v>
+        <v>628.9808577102705</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>755.1517466819018</v>
+        <v>906.6319801729223</v>
       </c>
       <c r="J126" s="0" t="n">
-        <v>710.5074405856167</v>
+        <v>802.6012508000046</v>
       </c>
       <c r="K126" s="0" t="n">
         <v>963.5996533139083</v>
@@ -38430,34 +38430,34 @@
     </row>
     <row r="127">
       <c r="A127" s="0" t="n">
-        <v>778.5150842666461</v>
+        <v>574.0358644560395</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>689.1850211150783</v>
+        <v>934.6819040603772</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>610.1050614540297</v>
+        <v>1055.832525385908</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>574.03586445604</v>
+        <v>648.4406446704368</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>778.5150842666449</v>
+        <v>1347.278689203609</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>689.185021115078</v>
+        <v>648.4406446704364</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>879.4238381009428</v>
+        <v>689.1850211150791</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>993.4120772351076</v>
+        <v>648.4406446704367</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>732.4895458562645</v>
+        <v>879.4238381009437</v>
       </c>
       <c r="J127" s="0" t="n">
-        <v>732.4895458562638</v>
+        <v>778.5150842666453</v>
       </c>
       <c r="K127" s="0" t="n">
         <v>993.4120772351085</v>
@@ -38732,34 +38732,34 @@
     </row>
     <row r="128">
       <c r="A128" s="0" t="n">
-        <v>802.6012508000055</v>
+        <v>591.7957302657474</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>668.5024901891317</v>
+        <v>963.5996533139098</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>591.7957302657471</v>
+        <v>1088.498505213053</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>591.7957302657479</v>
+        <v>628.9808577102706</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>802.6012508000042</v>
+        <v>1388.961605220032</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>668.5024901891314</v>
+        <v>668.5024901891311</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>906.6319801729215</v>
+        <v>668.5024901891325</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>1024.146855805358</v>
+        <v>628.9808577102705</v>
       </c>
       <c r="I128" s="0" t="n">
-        <v>710.5074405856175</v>
+        <v>906.6319801729225</v>
       </c>
       <c r="J128" s="0" t="n">
-        <v>710.5074405856168</v>
+        <v>755.1517466819009</v>
       </c>
       <c r="K128" s="0" t="n">
         <v>963.5996533139084</v>
@@ -39034,34 +39034,34 @@
     </row>
     <row r="129">
       <c r="A129" s="0" t="n">
-        <v>827.4326095974546</v>
+        <v>610.10506145403</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>648.440644670437</v>
+        <v>934.6819040603773</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>610.1050614540297</v>
+        <v>1055.832525385908</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>610.1050614540306</v>
+        <v>648.4406446704368</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>827.4326095974534</v>
+        <v>1347.27868920361</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>648.4406446704368</v>
+        <v>648.4406446704364</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>879.4238381009429</v>
+        <v>648.4406446704378</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>993.4120772351079</v>
+        <v>648.4406446704367</v>
       </c>
       <c r="I129" s="0" t="n">
-        <v>732.4895458562646</v>
+        <v>934.6819040603766</v>
       </c>
       <c r="J129" s="0" t="n">
-        <v>732.4895458562639</v>
+        <v>778.5150842666454</v>
       </c>
       <c r="K129" s="0" t="n">
         <v>934.681904060376</v>
@@ -39336,34 +39336,34 @@
     </row>
     <row r="130">
       <c r="A130" s="0" t="n">
-        <v>802.6012508000056</v>
+        <v>628.9808577102706</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>628.9808577102708</v>
+        <v>963.5996533139099</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>628.9808577102704</v>
+        <v>1024.146855805361</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>591.795730265748</v>
+        <v>668.5024901891314</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>853.0322158641321</v>
+        <v>1388.961605220032</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>628.9808577102706</v>
+        <v>628.9808577102702</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>853.0322158641325</v>
+        <v>668.5024901891326</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>1024.146855805358</v>
+        <v>668.5024901891313</v>
       </c>
       <c r="I130" s="0" t="n">
-        <v>755.1517466819021</v>
+        <v>963.5996533139092</v>
       </c>
       <c r="J130" s="0" t="n">
-        <v>755.1517466819013</v>
+        <v>755.151746681901</v>
       </c>
       <c r="K130" s="0" t="n">
         <v>963.5996533139086</v>
@@ -39638,34 +39638,34 @@
     </row>
     <row r="131">
       <c r="A131" s="0" t="n">
-        <v>827.4326095974548</v>
+        <v>648.4406446704368</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>648.440644670437</v>
+        <v>934.6819040603774</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>648.4406446704365</v>
+        <v>1055.832525385908</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>610.1050614540308</v>
+        <v>648.4406446704368</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>827.4326095974534</v>
+        <v>1431.934132288388</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>648.4406446704368</v>
+        <v>648.4406446704364</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>879.423838100943</v>
+        <v>689.1850211150793</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>993.4120772351081</v>
+        <v>648.4406446704367</v>
       </c>
       <c r="I131" s="0" t="n">
-        <v>778.5150842666466</v>
+        <v>993.4120772351095</v>
       </c>
       <c r="J131" s="0" t="n">
-        <v>732.4895458562639</v>
+        <v>732.4895458562637</v>
       </c>
       <c r="K131" s="0" t="n">
         <v>993.4120772351088</v>
@@ -39940,34 +39940,34 @@
     </row>
     <row r="132">
       <c r="A132" s="0" t="n">
-        <v>853.0322158641336</v>
+        <v>628.9808577102706</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>628.9808577102708</v>
+        <v>906.6319801729234</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>668.5024901891312</v>
+        <v>1024.146855805361</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>628.9808577102714</v>
+        <v>628.9808577102706</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>853.0322158641321</v>
+        <v>1388.961605220032</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>628.9808577102706</v>
+        <v>668.5024901891311</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>853.0322158641326</v>
+        <v>668.5024901891327</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>1024.146855805359</v>
+        <v>668.5024901891313</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>802.6012508000059</v>
+        <v>963.5996533139094</v>
       </c>
       <c r="J132" s="0" t="n">
-        <v>755.1517466819013</v>
+        <v>710.5074405856167</v>
       </c>
       <c r="K132" s="0" t="n">
         <v>1024.146855805359</v>
@@ -40242,34 +40242,34 @@
     </row>
     <row r="133">
       <c r="A133" s="0" t="n">
-        <v>879.4238381009442</v>
+        <v>648.4406446704368</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>610.1050614540302</v>
+        <v>934.6819040603775</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>689.1850211150778</v>
+        <v>993.4120772351109</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>648.4406446704377</v>
+        <v>648.4406446704368</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>879.4238381009427</v>
+        <v>1347.27868920361</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>610.10506145403</v>
+        <v>689.1850211150777</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>827.4326095974538</v>
+        <v>648.440644670438</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>1055.832525385905</v>
+        <v>648.4406446704367</v>
       </c>
       <c r="I133" s="0" t="n">
-        <v>778.5150842666466</v>
+        <v>993.4120772351096</v>
       </c>
       <c r="J133" s="0" t="n">
-        <v>778.5150842666458</v>
+        <v>689.1850211150788</v>
       </c>
       <c r="K133" s="0" t="n">
         <v>993.4120772351089</v>
@@ -40544,34 +40544,34 @@
     </row>
     <row r="134">
       <c r="A134" s="0" t="n">
-        <v>906.6319801729229</v>
+        <v>628.9808577102706</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>591.7957302657476</v>
+        <v>906.6319801729235</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>710.5074405856157</v>
+        <v>963.5996533139107</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>628.9808577102715</v>
+        <v>668.5024901891314</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>853.0322158641322</v>
+        <v>1388.961605220032</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>591.7957302657474</v>
+        <v>710.5074405856155</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>802.6012508000048</v>
+        <v>628.9808577102718</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>1024.146855805359</v>
+        <v>668.5024901891313</v>
       </c>
       <c r="I134" s="0" t="n">
-        <v>755.1517466819021</v>
+        <v>963.5996533139095</v>
       </c>
       <c r="J134" s="0" t="n">
-        <v>802.6012508000051</v>
+        <v>668.5024901891322</v>
       </c>
       <c r="K134" s="0" t="n">
         <v>1024.146855805359</v>
@@ -40846,34 +40846,34 @@
     </row>
     <row r="135">
       <c r="A135" s="0" t="n">
-        <v>879.4238381009443</v>
+        <v>648.4406446704368</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>574.0358644560397</v>
+        <v>934.6819040603776</v>
       </c>
       <c r="C135" s="0" t="n">
+        <v>934.6819040603782</v>
+      </c>
+      <c r="D135" s="0" t="n">
+        <v>689.185021115078</v>
+      </c>
+      <c r="E135" s="0" t="n">
+        <v>1347.27868920361</v>
+      </c>
+      <c r="F135" s="0" t="n">
+        <v>689.1850211150778</v>
+      </c>
+      <c r="G135" s="0" t="n">
+        <v>610.1050614540312</v>
+      </c>
+      <c r="H135" s="0" t="n">
         <v>689.1850211150779</v>
       </c>
-      <c r="D135" s="0" t="n">
-        <v>648.4406446704378</v>
-      </c>
-      <c r="E135" s="0" t="n">
-        <v>879.4238381009428</v>
-      </c>
-      <c r="F135" s="0" t="n">
-        <v>610.10506145403</v>
-      </c>
-      <c r="G135" s="0" t="n">
-        <v>827.432609597454</v>
-      </c>
-      <c r="H135" s="0" t="n">
-        <v>993.4120772351084</v>
-      </c>
       <c r="I135" s="0" t="n">
-        <v>778.5150842666466</v>
+        <v>993.4120772351097</v>
       </c>
       <c r="J135" s="0" t="n">
-        <v>827.4326095974543</v>
+        <v>689.1850211150789</v>
       </c>
       <c r="K135" s="0" t="n">
         <v>993.4120772351089</v>
@@ -41148,34 +41148,34 @@
     </row>
     <row r="136">
       <c r="A136" s="0" t="n">
-        <v>906.631980172923</v>
+        <v>628.9808577102706</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>556.8089744983833</v>
+        <v>963.5996533139103</v>
       </c>
       <c r="C136" s="0" t="n">
+        <v>906.631980172924</v>
+      </c>
+      <c r="D136" s="0" t="n">
+        <v>710.5074405856159</v>
+      </c>
+      <c r="E136" s="0" t="n">
+        <v>1388.961605220032</v>
+      </c>
+      <c r="F136" s="0" t="n">
+        <v>668.5024901891312</v>
+      </c>
+      <c r="G136" s="0" t="n">
+        <v>628.9808577102718</v>
+      </c>
+      <c r="H136" s="0" t="n">
         <v>710.5074405856158</v>
       </c>
-      <c r="D136" s="0" t="n">
-        <v>668.5024901891326</v>
-      </c>
-      <c r="E136" s="0" t="n">
-        <v>906.6319801729215</v>
-      </c>
-      <c r="F136" s="0" t="n">
-        <v>591.7957302657474</v>
-      </c>
-      <c r="G136" s="0" t="n">
-        <v>802.6012508000049</v>
-      </c>
-      <c r="H136" s="0" t="n">
-        <v>1024.146855805359</v>
-      </c>
       <c r="I136" s="0" t="n">
-        <v>755.1517466819021</v>
+        <v>1024.14685580536</v>
       </c>
       <c r="J136" s="0" t="n">
-        <v>802.6012508000052</v>
+        <v>710.5074405856168</v>
       </c>
       <c r="K136" s="0" t="n">
         <v>963.5996533139088</v>
@@ -41450,34 +41450,34 @@
     </row>
     <row r="137">
       <c r="A137" s="0" t="n">
-        <v>879.4238381009444</v>
+        <v>610.10506145403</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>540.0990657190623</v>
+        <v>993.4120772351105</v>
       </c>
       <c r="C137" s="0" t="n">
+        <v>879.4238381009453</v>
+      </c>
+      <c r="D137" s="0" t="n">
+        <v>732.4895458562629</v>
+      </c>
+      <c r="E137" s="0" t="n">
+        <v>1347.278689203611</v>
+      </c>
+      <c r="F137" s="0" t="n">
+        <v>689.1850211150778</v>
+      </c>
+      <c r="G137" s="0" t="n">
+        <v>610.1050614540312</v>
+      </c>
+      <c r="H137" s="0" t="n">
         <v>732.4895458562628</v>
       </c>
-      <c r="D137" s="0" t="n">
-        <v>689.1850211150793</v>
-      </c>
-      <c r="E137" s="0" t="n">
-        <v>934.6819040603757</v>
-      </c>
-      <c r="F137" s="0" t="n">
-        <v>610.10506145403</v>
-      </c>
-      <c r="G137" s="0" t="n">
-        <v>778.5150842666457</v>
-      </c>
-      <c r="H137" s="0" t="n">
-        <v>993.4120772351084</v>
-      </c>
       <c r="I137" s="0" t="n">
-        <v>732.4895458562647</v>
+        <v>993.4120772351098</v>
       </c>
       <c r="J137" s="0" t="n">
-        <v>778.515084266646</v>
+        <v>689.1850211150789</v>
       </c>
       <c r="K137" s="0" t="n">
         <v>934.6819040603763</v>
@@ -41752,34 +41752,34 @@
     </row>
     <row r="138">
       <c r="A138" s="0" t="n">
-        <v>853.0322158641339</v>
+        <v>628.9808577102706</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>556.8089744983835</v>
+        <v>1024.146855805361</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>710.5074405856158</v>
+        <v>853.0322158641347</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>710.5074405856171</v>
+        <v>755.1517466819002</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>963.5996533139082</v>
+        <v>1306.84668284596</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>628.9808577102706</v>
+        <v>710.5074405856157</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>755.1517466819013</v>
+        <v>628.9808577102718</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>963.5996533139083</v>
+        <v>755.1517466819001</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>755.1517466819022</v>
+        <v>1024.14685580536</v>
       </c>
       <c r="J138" s="0" t="n">
-        <v>755.1517466819015</v>
+        <v>668.5024901891323</v>
       </c>
       <c r="K138" s="0" t="n">
         <v>906.6319801729222</v>
@@ -42054,34 +42054,34 @@
     </row>
     <row r="139">
       <c r="A139" s="0" t="n">
-        <v>827.4326095974552</v>
+        <v>648.4406446704368</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>540.0990657190624</v>
+        <v>1055.832525385908</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>732.4895458562628</v>
+        <v>879.4238381009453</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>732.4895458562643</v>
+        <v>778.5150842666447</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>993.4120772351084</v>
+        <v>1267.628046187693</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>648.4406446704368</v>
+        <v>732.4895458562627</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>778.5150842666458</v>
+        <v>648.4406446704381</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>934.6819040603759</v>
+        <v>778.5150842666446</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>732.4895458562648</v>
+        <v>993.4120772351098</v>
       </c>
       <c r="J139" s="0" t="n">
-        <v>732.4895458562642</v>
+        <v>689.1850211150791</v>
       </c>
       <c r="K139" s="0" t="n">
         <v>879.4238381009436</v>
@@ -42356,34 +42356,34 @@
     </row>
     <row r="140">
       <c r="A140" s="0" t="n">
-        <v>802.6012508000061</v>
+        <v>668.5024901891314</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>523.8906234465712</v>
+        <v>1088.498505213053</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>755.1517466819001</v>
+        <v>853.0322158641347</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>710.5074405856172</v>
+        <v>755.1517466819004</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>963.5996533139083</v>
+        <v>1306.84668284596</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>668.5024901891314</v>
+        <v>755.1517466819</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>802.6012508000051</v>
+        <v>668.5024901891329</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>906.6319801729219</v>
+        <v>755.1517466819002</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>755.1517466819023</v>
+        <v>1024.14685580536</v>
       </c>
       <c r="J140" s="0" t="n">
-        <v>755.1517466819015</v>
+        <v>710.5074405856169</v>
       </c>
       <c r="K140" s="0" t="n">
         <v>906.6319801729223</v>
@@ -42658,34 +42658,34 @@
     </row>
     <row r="141">
       <c r="A141" s="0" t="n">
-        <v>827.4326095974553</v>
+        <v>689.185021115078</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>508.1685986066874</v>
+        <v>1122.175124713074</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>778.5150842666446</v>
+        <v>879.4238381009453</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>689.1850211150794</v>
+        <v>732.4895458562631</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>934.6819040603759</v>
+        <v>1347.278689203611</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>648.4406446704368</v>
+        <v>778.5150842666445</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>827.4326095974543</v>
+        <v>689.1850211150796</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>879.4238381009433</v>
+        <v>732.489545856263</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>778.5150842666469</v>
+        <v>993.4120772351098</v>
       </c>
       <c r="J141" s="0" t="n">
-        <v>778.515084266646</v>
+        <v>689.1850211150791</v>
       </c>
       <c r="K141" s="0" t="n">
         <v>934.6819040603765</v>
@@ -42960,34 +42960,34 @@
     </row>
     <row r="142">
       <c r="A142" s="0" t="n">
-        <v>802.6012508000063</v>
+        <v>668.5024901891314</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>492.918393749837</v>
+        <v>1088.498505213053</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>755.1517466819002</v>
+        <v>853.0322158641347</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>710.5074405856174</v>
+        <v>755.1517466819005</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>906.6319801729219</v>
+        <v>1388.961605220033</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>628.9808577102706</v>
+        <v>755.1517466819001</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>802.6012508000052</v>
+        <v>668.502490189133</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>906.631980172922</v>
+        <v>755.1517466819004</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>802.6012508000063</v>
+        <v>963.5996533139097</v>
       </c>
       <c r="J142" s="0" t="n">
-        <v>755.1517466819015</v>
+        <v>710.5074405856169</v>
       </c>
       <c r="K142" s="0" t="n">
         <v>906.6319801729225</v>
@@ -43262,34 +43262,34 @@
     </row>
     <row r="143">
       <c r="A143" s="0" t="n">
-        <v>827.4326095974554</v>
+        <v>648.4406446704368</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>508.1685986066875</v>
+        <v>1055.832525385908</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>732.489545856263</v>
+        <v>879.4238381009453</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>732.4895458562645</v>
+        <v>778.515084266645</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>934.681904060376</v>
+        <v>1431.934132288389</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>648.4406446704368</v>
+        <v>732.4895458562629</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>827.4326095974544</v>
+        <v>648.4406446704384</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>879.4238381009434</v>
+        <v>778.5150842666449</v>
       </c>
       <c r="I143" s="0" t="n">
-        <v>778.5150842666469</v>
+        <v>934.6819040603772</v>
       </c>
       <c r="J143" s="0" t="n">
-        <v>732.4895458562642</v>
+        <v>732.489545856264</v>
       </c>
       <c r="K143" s="0" t="n">
         <v>879.4238381009438</v>
@@ -43564,34 +43564,34 @@
     </row>
     <row r="144">
       <c r="A144" s="0" t="n">
-        <v>802.6012508000064</v>
+        <v>628.9808577102706</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>492.918393749837</v>
+        <v>1024.146855805362</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>755.1517466819004</v>
+        <v>906.631980172924</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>710.5074405856175</v>
+        <v>755.1517466819006</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>906.631980172922</v>
+        <v>1476.236169168752</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>668.5024901891314</v>
+        <v>710.5074405856159</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>802.6012508000053</v>
+        <v>668.5024901891331</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>906.6319801729221</v>
+        <v>802.6012508000042</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>802.6012508000063</v>
+        <v>963.5996533139098</v>
       </c>
       <c r="J144" s="0" t="n">
-        <v>710.5074405856171</v>
+        <v>710.507440585617</v>
       </c>
       <c r="K144" s="0" t="n">
         <v>906.6319801729226</v>
@@ -43866,34 +43866,34 @@
     </row>
     <row r="145">
       <c r="A145" s="0" t="n">
-        <v>778.515084266647</v>
+        <v>610.10506145403</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>508.1685986066875</v>
+        <v>993.4120772351112</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>732.4895458562631</v>
+        <v>934.6819040603782</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>732.4895458562646</v>
+        <v>732.4895458562632</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>879.4238381009434</v>
+        <v>1521.908849032959</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>648.4406446704368</v>
+        <v>689.185021115078</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>778.5150842666461</v>
+        <v>689.1850211150798</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>934.6819040603763</v>
+        <v>778.515084266645</v>
       </c>
       <c r="I145" s="0" t="n">
-        <v>827.4326095974554</v>
+        <v>993.41207723511</v>
       </c>
       <c r="J145" s="0" t="n">
-        <v>732.4895458562643</v>
+        <v>732.4895458562642</v>
       </c>
       <c r="K145" s="0" t="n">
         <v>879.423838100944</v>
@@ -44168,34 +44168,34 @@
     </row>
     <row r="146">
       <c r="A146" s="0" t="n">
-        <v>755.1517466819025</v>
+        <v>628.9808577102706</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>492.918393749837</v>
+        <v>1024.146855805362</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>710.5074405856161</v>
+        <v>906.631980172924</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>710.5074405856176</v>
+        <v>755.1517466819006</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>906.6319801729221</v>
+        <v>1568.994577655587</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>628.9808577102706</v>
+        <v>710.5074405856159</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>802.6012508000055</v>
+        <v>710.5074405856178</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>906.6319801729222</v>
+        <v>802.6012508000043</v>
       </c>
       <c r="I146" s="0" t="n">
-        <v>802.6012508000064</v>
+        <v>1024.14685580536</v>
       </c>
       <c r="J146" s="0" t="n">
-        <v>755.1517466819017</v>
+        <v>755.1517466819015</v>
       </c>
       <c r="K146" s="0" t="n">
         <v>906.6319801729227</v>
@@ -44470,34 +44470,34 @@
     </row>
     <row r="147">
       <c r="A147" s="0" t="n">
-        <v>778.5150842666471</v>
+        <v>610.10506145403</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>478.125849497781</v>
+        <v>993.4120772351114</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>732.4895458562631</v>
+        <v>934.6819040603782</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>689.1850211150797</v>
+        <v>778.5150842666451</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>934.6819040603763</v>
+        <v>1617.537072786492</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>648.4406446704368</v>
+        <v>732.4895458562629</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>778.5150842666461</v>
+        <v>732.489545856265</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>934.6819040603764</v>
+        <v>778.5150842666451</v>
       </c>
       <c r="I147" s="0" t="n">
-        <v>778.515084266647</v>
+        <v>993.41207723511</v>
       </c>
       <c r="J147" s="0" t="n">
-        <v>732.4895458562644</v>
+        <v>732.4895458562642</v>
       </c>
       <c r="K147" s="0" t="n">
         <v>934.6819040603768</v>
@@ -44772,34 +44772,34 @@
     </row>
     <row r="148">
       <c r="A148" s="0" t="n">
-        <v>755.1517466819026</v>
+        <v>591.7957302657474</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>492.918393749837</v>
+        <v>963.5996533139112</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>710.5074405856161</v>
+        <v>963.5996533139108</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>710.5074405856177</v>
+        <v>755.1517466819007</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>963.5996533139088</v>
+        <v>1667.581404741497</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>628.9808577102706</v>
+        <v>755.1517466819002</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>755.1517466819016</v>
+        <v>755.1517466819024</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>963.5996533139089</v>
+        <v>755.1517466819007</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>755.1517466819025</v>
+        <v>963.5996533139099</v>
       </c>
       <c r="J148" s="0" t="n">
-        <v>755.1517466819018</v>
+        <v>755.1517466819015</v>
       </c>
       <c r="K148" s="0" t="n">
         <v>906.6319801729228</v>
@@ -45074,34 +45074,34 @@
     </row>
     <row r="149">
       <c r="A149" s="0" t="n">
-        <v>732.4895458562653</v>
+        <v>574.0358644560395</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>478.1258494977811</v>
+        <v>993.4120772351115</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>689.1850211150783</v>
+        <v>934.6819040603783</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>689.1850211150798</v>
+        <v>732.4895458562634</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>993.412077235109</v>
+        <v>1719.174038248878</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>610.10506145403</v>
+        <v>732.489545856263</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>732.4895458562643</v>
+        <v>778.515084266647</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>993.4120772351091</v>
+        <v>778.5150842666452</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>778.5150842666471</v>
+        <v>993.4120772351101</v>
       </c>
       <c r="J149" s="0" t="n">
-        <v>778.5150842666463</v>
+        <v>732.4895458562642</v>
       </c>
       <c r="K149" s="0" t="n">
         <v>879.4238381009442</v>
@@ -45376,34 +45376,34 @@
     </row>
     <row r="150">
       <c r="A150" s="0" t="n">
-        <v>710.5074405856183</v>
+        <v>591.7957302657474</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>492.9183937498371</v>
+        <v>1024.146855805362</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>668.5024901891317</v>
+        <v>963.5996533139109</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>710.5074405856178</v>
+        <v>755.1517466819007</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>1024.14685580536</v>
+        <v>1772.362875590542</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>591.7957302657474</v>
+        <v>710.507440585616</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>755.1517466819017</v>
+        <v>802.6012508000064</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>1024.14685580536</v>
+        <v>755.1517466819008</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>755.1517466819026</v>
+        <v>1024.146855805361</v>
       </c>
       <c r="J150" s="0" t="n">
-        <v>802.6012508000057</v>
+        <v>710.5074405856171</v>
       </c>
       <c r="K150" s="0" t="n">
         <v>853.0322158641337</v>
@@ -45678,34 +45678,34 @@
     </row>
     <row r="151">
       <c r="A151" s="0" t="n">
-        <v>689.1850211150804</v>
+        <v>610.10506145403</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>508.1685986066876</v>
+        <v>1055.832525385909</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>648.440644670437</v>
+        <v>993.4120772351113</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>689.18502111508</v>
+        <v>778.5150842666452</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>1055.832525385906</v>
+        <v>1719.174038248878</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>574.0358644560395</v>
+        <v>689.1850211150781</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>778.5150842666462</v>
+        <v>827.4326095974556</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>993.4120772351091</v>
+        <v>732.4895458562635</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>732.4895458562653</v>
+        <v>1055.832525385907</v>
       </c>
       <c r="J151" s="0" t="n">
-        <v>778.5150842666463</v>
+        <v>689.1850211150793</v>
       </c>
       <c r="K151" s="0" t="n">
         <v>827.432609597455</v>
@@ -45980,34 +45980,34 @@
     </row>
     <row r="152">
       <c r="A152" s="0" t="n">
-        <v>668.5024901891338</v>
+        <v>591.7957302657474</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>492.9183937498371</v>
+        <v>1088.498505213054</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>628.9808577102708</v>
+        <v>1024.146855805362</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>668.5024901891334</v>
+        <v>802.6012508000046</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>1024.14685580536</v>
+        <v>1667.581404741497</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>591.7957302657474</v>
+        <v>710.507440585616</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>802.6012508000056</v>
+        <v>853.0322158641344</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>963.599653313909</v>
+        <v>710.5074405856165</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>710.5074405856183</v>
+        <v>1024.146855805361</v>
       </c>
       <c r="J152" s="0" t="n">
-        <v>802.6012508000057</v>
+        <v>710.5074405856171</v>
       </c>
       <c r="K152" s="0" t="n">
         <v>802.6012508000059</v>
@@ -46282,34 +46282,34 @@
     </row>
     <row r="153">
       <c r="A153" s="0" t="n">
-        <v>648.4406446704392</v>
+        <v>610.10506145403</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>478.1258494977811</v>
+        <v>1122.175124713074</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>610.1050614540302</v>
+        <v>1055.832525385908</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>648.4406446704387</v>
+        <v>778.5150842666453</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>993.4120772351093</v>
+        <v>1617.537072786493</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>610.10506145403</v>
+        <v>732.489545856263</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>827.4326095974548</v>
+        <v>827.4326095974557</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>934.6819040603765</v>
+        <v>689.1850211150786</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>689.1850211150804</v>
+        <v>1055.832525385908</v>
       </c>
       <c r="J153" s="0" t="n">
-        <v>827.4326095974549</v>
+        <v>732.4895458562643</v>
       </c>
       <c r="K153" s="0" t="n">
         <v>827.4326095974551</v>
@@ -46584,34 +46584,34 @@
     </row>
     <row r="154">
       <c r="A154" s="0" t="n">
-        <v>668.5024901891339</v>
+        <v>591.7957302657474</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>463.7772313970387</v>
+        <v>1088.498505213054</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>628.9808577102708</v>
+        <v>1088.498505213053</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>668.5024901891335</v>
+        <v>755.1517466819009</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>963.5996533139092</v>
+        <v>1568.994577655588</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>591.7957302657474</v>
+        <v>710.507440585616</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>802.6012508000057</v>
+        <v>802.6012508000066</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>963.599653313909</v>
+        <v>710.5074405856165</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>668.5024901891338</v>
+        <v>1024.146855805361</v>
       </c>
       <c r="J154" s="0" t="n">
-        <v>853.0322158641337</v>
+        <v>710.5074405856172</v>
       </c>
       <c r="K154" s="0" t="n">
         <v>802.601250800006</v>
@@ -46886,34 +46886,34 @@
     </row>
     <row r="155">
       <c r="A155" s="0" t="n">
-        <v>648.4406446704393</v>
+        <v>610.10506145403</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>478.1258494977812</v>
+        <v>1122.175124713075</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>610.1050614540302</v>
+        <v>1055.832525385909</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>689.1850211150802</v>
+        <v>732.4895458562636</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>934.6819040603767</v>
+        <v>1617.537072786493</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>574.0358644560395</v>
+        <v>732.489545856263</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>778.5150842666463</v>
+        <v>827.4326095974558</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>934.6819040603765</v>
+        <v>689.1850211150786</v>
       </c>
       <c r="I155" s="0" t="n">
-        <v>648.4406446704392</v>
+        <v>993.4120772351107</v>
       </c>
       <c r="J155" s="0" t="n">
-        <v>827.432609597455</v>
+        <v>732.4895458562644</v>
       </c>
       <c r="K155" s="0" t="n">
         <v>778.5150842666467</v>
@@ -47188,34 +47188,34 @@
     </row>
     <row r="156">
       <c r="A156" s="0" t="n">
-        <v>628.9808577102731</v>
+        <v>591.7957302657474</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>463.7772313970388</v>
+        <v>1156.893651662226</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>628.9808577102708</v>
+        <v>1024.146855805362</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>710.5074405856182</v>
+        <v>710.5074405856166</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>906.6319801729227</v>
+        <v>1667.581404741498</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>591.7957302657474</v>
+        <v>710.507440585616</v>
       </c>
       <c r="G156" s="0" t="n">
+        <v>802.6012508000067</v>
+      </c>
+      <c r="H156" s="0" t="n">
+        <v>710.5074405856165</v>
+      </c>
+      <c r="I156" s="0" t="n">
+        <v>1024.146855805361</v>
+      </c>
+      <c r="J156" s="0" t="n">
         <v>755.1517466819018</v>
-      </c>
-      <c r="H156" s="0" t="n">
-        <v>963.599653313909</v>
-      </c>
-      <c r="I156" s="0" t="n">
-        <v>628.980857710273</v>
-      </c>
-      <c r="J156" s="0" t="n">
-        <v>802.6012508000059</v>
       </c>
       <c r="K156" s="0" t="n">
         <v>755.1517466819022</v>
@@ -47490,34 +47490,34 @@
     </row>
     <row r="157">
       <c r="A157" s="0" t="n">
-        <v>610.1050614540325</v>
+        <v>610.10506145403</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>478.1258494977812</v>
+        <v>1192.686321217976</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>648.440644670437</v>
+        <v>993.4120772351116</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>689.1850211150803</v>
+        <v>732.4895458562637</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>934.6819040603768</v>
+        <v>1617.537072786494</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>610.10506145403</v>
+        <v>732.489545856263</v>
       </c>
       <c r="G157" s="0" t="n">
+        <v>827.4326095974559</v>
+      </c>
+      <c r="H157" s="0" t="n">
+        <v>689.1850211150786</v>
+      </c>
+      <c r="I157" s="0" t="n">
+        <v>1055.832525385908</v>
+      </c>
+      <c r="J157" s="0" t="n">
         <v>778.5150842666463</v>
-      </c>
-      <c r="H157" s="0" t="n">
-        <v>934.6819040603765</v>
-      </c>
-      <c r="I157" s="0" t="n">
-        <v>648.4406446704393</v>
-      </c>
-      <c r="J157" s="0" t="n">
-        <v>827.4326095974551</v>
       </c>
       <c r="K157" s="0" t="n">
         <v>732.4895458562648</v>
@@ -47792,34 +47792,34 @@
     </row>
     <row r="158">
       <c r="A158" s="0" t="n">
-        <v>591.7957302657497</v>
+        <v>628.9808577102706</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>492.9183937498373</v>
+        <v>1156.893651662226</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>628.9808577102708</v>
+        <v>963.5996533139114</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>668.5024901891337</v>
+        <v>755.151746681901</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>963.5996533139095</v>
+        <v>1667.581404741498</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>628.9808577102706</v>
+        <v>755.1517466819004</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>755.1517466819018</v>
+        <v>853.0322158641347</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>963.599653313909</v>
+        <v>710.5074405856165</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>628.9808577102731</v>
+        <v>1088.498505213053</v>
       </c>
       <c r="J158" s="0" t="n">
-        <v>802.601250800006</v>
+        <v>802.6012508000057</v>
       </c>
       <c r="K158" s="0" t="n">
         <v>755.1517466819023</v>
@@ -48094,34 +48094,34 @@
     </row>
     <row r="159">
       <c r="A159" s="0" t="n">
-        <v>610.1050614540325</v>
+        <v>610.10506145403</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>478.1258494977813</v>
+        <v>1122.175124713075</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>648.440644670437</v>
+        <v>993.4120772351117</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>689.1850211150804</v>
+        <v>778.5150842666455</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>934.681904060377</v>
+        <v>1719.174038248879</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>610.10506145403</v>
+        <v>778.5150842666449</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>778.5150842666463</v>
+        <v>879.4238381009453</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>934.6819040603765</v>
+        <v>732.4895458562635</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>610.1050614540325</v>
+        <v>1055.832525385908</v>
       </c>
       <c r="J159" s="0" t="n">
-        <v>827.4326095974552</v>
+        <v>827.4326095974549</v>
       </c>
       <c r="K159" s="0" t="n">
         <v>778.5150842666469</v>
@@ -48396,34 +48396,34 @@
     </row>
     <row r="160">
       <c r="A160" s="0" t="n">
-        <v>628.9808577102732</v>
+        <v>628.9808577102706</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>463.7772313970389</v>
+        <v>1156.893651662227</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>668.5024901891317</v>
+        <v>1024.146855805362</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>710.5074405856184</v>
+        <v>755.1517466819012</v>
       </c>
       <c r="E160" s="0" t="n">
-        <v>906.6319801729229</v>
+        <v>1772.362875590543</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>628.9808577102706</v>
+        <v>802.6012508000042</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>755.1517466819018</v>
+        <v>853.0322158641347</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>906.6319801729225</v>
+        <v>755.1517466819008</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>591.7957302657497</v>
+        <v>1088.498505213053</v>
       </c>
       <c r="J160" s="0" t="n">
-        <v>853.0322158641341</v>
+        <v>853.0322158641337</v>
       </c>
       <c r="K160" s="0" t="n">
         <v>802.6012508000063</v>
@@ -48698,34 +48698,34 @@
     </row>
     <row r="161">
       <c r="A161" s="0" t="n">
-        <v>648.4406446704395</v>
+        <v>610.10506145403</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>449.8592171668407</v>
+        <v>1122.175124713075</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>648.440644670437</v>
+        <v>993.4120772351118</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>689.1850211150805</v>
+        <v>732.4895458562638</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>879.4238381009443</v>
+        <v>1827.197301077919</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>610.10506145403</v>
+        <v>827.4326095974534</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>732.4895458562645</v>
+        <v>879.4238381009453</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>934.6819040603766</v>
+        <v>732.4895458562635</v>
       </c>
       <c r="I161" s="0" t="n">
-        <v>610.1050614540325</v>
+        <v>1122.175124713074</v>
       </c>
       <c r="J161" s="0" t="n">
-        <v>879.4238381009446</v>
+        <v>827.432609597455</v>
       </c>
       <c r="K161" s="0" t="n">
         <v>778.5150842666469</v>
@@ -49000,34 +49000,34 @@
     </row>
     <row r="162">
       <c r="A162" s="0" t="n">
-        <v>628.9808577102732</v>
+        <v>591.7957302657474</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>436.3588843297726</v>
+        <v>1088.498505213055</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>628.9808577102708</v>
+        <v>963.5996533139116</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>710.5074405856185</v>
+        <v>710.5074405856168</v>
       </c>
       <c r="E162" s="0" t="n">
+        <v>1883.728226903877</v>
+      </c>
+      <c r="F162" s="0" t="n">
+        <v>853.0322158641321</v>
+      </c>
+      <c r="G162" s="0" t="n">
+        <v>906.631980172924</v>
+      </c>
+      <c r="H162" s="0" t="n">
+        <v>755.1517466819008</v>
+      </c>
+      <c r="I162" s="0" t="n">
+        <v>1088.498505213053</v>
+      </c>
+      <c r="J162" s="0" t="n">
         <v>853.0322158641338</v>
-      </c>
-      <c r="F162" s="0" t="n">
-        <v>591.7957302657474</v>
-      </c>
-      <c r="G162" s="0" t="n">
-        <v>755.151746681902</v>
-      </c>
-      <c r="H162" s="0" t="n">
-        <v>906.6319801729226</v>
-      </c>
-      <c r="I162" s="0" t="n">
-        <v>591.7957302657497</v>
-      </c>
-      <c r="J162" s="0" t="n">
-        <v>906.6319801729234</v>
       </c>
       <c r="K162" s="0" t="n">
         <v>755.1517466819024</v>
@@ -49302,34 +49302,34 @@
     </row>
     <row r="163">
       <c r="A163" s="0" t="n">
-        <v>610.1050614540326</v>
+        <v>610.10506145403</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>423.2636982136265</v>
+        <v>1055.83252538591</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>610.1050614540302</v>
+        <v>993.412077235112</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>689.1850211150806</v>
+        <v>732.4895458562639</v>
       </c>
       <c r="E163" s="0" t="n">
+        <v>1827.197301077919</v>
+      </c>
+      <c r="F163" s="0" t="n">
+        <v>879.4238381009427</v>
+      </c>
+      <c r="G163" s="0" t="n">
+        <v>934.6819040603782</v>
+      </c>
+      <c r="H163" s="0" t="n">
+        <v>732.4895458562635</v>
+      </c>
+      <c r="I163" s="0" t="n">
+        <v>1122.175124713074</v>
+      </c>
+      <c r="J163" s="0" t="n">
         <v>879.4238381009444</v>
-      </c>
-      <c r="F163" s="0" t="n">
-        <v>610.10506145403</v>
-      </c>
-      <c r="G163" s="0" t="n">
-        <v>778.5150842666465</v>
-      </c>
-      <c r="H163" s="0" t="n">
-        <v>879.423838100944</v>
-      </c>
-      <c r="I163" s="0" t="n">
-        <v>610.1050614540325</v>
-      </c>
-      <c r="J163" s="0" t="n">
-        <v>934.6819040603775</v>
       </c>
       <c r="K163" s="0" t="n">
         <v>778.515084266647</v>
@@ -49604,34 +49604,34 @@
     </row>
     <row r="164">
       <c r="A164" s="0" t="n">
-        <v>591.7957302657499</v>
+        <v>591.7957302657474</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>436.3588843297726</v>
+        <v>1024.146855805363</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>591.7957302657476</v>
+        <v>963.5996533139117</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>668.5024901891341</v>
+        <v>710.5074405856169</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>906.6319801729231</v>
+        <v>1883.728226903877</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>628.9808577102706</v>
+        <v>906.6319801729214</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>802.6012508000058</v>
+        <v>963.5996533139108</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>906.6319801729227</v>
+        <v>710.5074405856165</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>628.9808577102732</v>
+        <v>1088.498505213054</v>
       </c>
       <c r="J164" s="0" t="n">
-        <v>963.5996533139102</v>
+        <v>853.0322158641339</v>
       </c>
       <c r="K164" s="0" t="n">
         <v>802.6012508000064</v>
@@ -49906,34 +49906,34 @@
     </row>
     <row r="165">
       <c r="A165" s="0" t="n">
-        <v>610.1050614540326</v>
+        <v>610.10506145403</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>449.8592171668407</v>
+        <v>1055.83252538591</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>574.0358644560397</v>
+        <v>934.6819040603792</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>648.4406446704394</v>
+        <v>732.489545856264</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>879.4238381009445</v>
+        <v>1942.008140413242</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>610.10506145403</v>
+        <v>934.6819040603756</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>778.5150842666465</v>
+        <v>934.6819040603783</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>879.4238381009441</v>
+        <v>732.4895458562635</v>
       </c>
       <c r="I165" s="0" t="n">
-        <v>610.1050614540326</v>
+        <v>1055.832525385909</v>
       </c>
       <c r="J165" s="0" t="n">
-        <v>934.6819040603776</v>
+        <v>827.4326095974552</v>
       </c>
       <c r="K165" s="0" t="n">
         <v>827.4326095974556</v>
@@ -50208,34 +50208,34 @@
     </row>
     <row r="166">
       <c r="A166" s="0" t="n">
-        <v>628.9808577102733</v>
+        <v>628.9808577102706</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>436.3588843297727</v>
+        <v>1024.146855805363</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>556.8089744983833</v>
+        <v>906.6319801729251</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>628.9808577102732</v>
+        <v>755.1517466819014</v>
       </c>
       <c r="E166" s="0" t="n">
+        <v>2002.091152835789</v>
+      </c>
+      <c r="F166" s="0" t="n">
+        <v>906.6319801729215</v>
+      </c>
+      <c r="G166" s="0" t="n">
+        <v>963.5996533139109</v>
+      </c>
+      <c r="H166" s="0" t="n">
+        <v>755.1517466819008</v>
+      </c>
+      <c r="I166" s="0" t="n">
+        <v>1024.146855805362</v>
+      </c>
+      <c r="J166" s="0" t="n">
         <v>853.0322158641341</v>
-      </c>
-      <c r="F166" s="0" t="n">
-        <v>591.7957302657474</v>
-      </c>
-      <c r="G166" s="0" t="n">
-        <v>802.6012508000058</v>
-      </c>
-      <c r="H166" s="0" t="n">
-        <v>853.0322158641336</v>
-      </c>
-      <c r="I166" s="0" t="n">
-        <v>591.7957302657499</v>
-      </c>
-      <c r="J166" s="0" t="n">
-        <v>963.5996533139103</v>
       </c>
       <c r="K166" s="0" t="n">
         <v>853.0322158641344</v>
@@ -50510,34 +50510,34 @@
     </row>
     <row r="167">
       <c r="A167" s="0" t="n">
-        <v>648.4406446704396</v>
+        <v>648.4406446704368</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>449.8592171668408</v>
+        <v>993.4120772351126</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>540.0990657190623</v>
+        <v>934.6819040603793</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>610.1050614540326</v>
+        <v>732.489545856264</v>
       </c>
       <c r="E167" s="0" t="n">
+        <v>2064.033049526967</v>
+      </c>
+      <c r="F167" s="0" t="n">
+        <v>879.4238381009429</v>
+      </c>
+      <c r="G167" s="0" t="n">
+        <v>993.4120772351113</v>
+      </c>
+      <c r="H167" s="0" t="n">
+        <v>732.4895458562635</v>
+      </c>
+      <c r="I167" s="0" t="n">
+        <v>993.4120772351118</v>
+      </c>
+      <c r="J167" s="0" t="n">
         <v>879.4238381009446</v>
-      </c>
-      <c r="F167" s="0" t="n">
-        <v>574.0358644560395</v>
-      </c>
-      <c r="G167" s="0" t="n">
-        <v>778.5150842666465</v>
-      </c>
-      <c r="H167" s="0" t="n">
-        <v>827.4326095974549</v>
-      </c>
-      <c r="I167" s="0" t="n">
-        <v>574.035864456042</v>
-      </c>
-      <c r="J167" s="0" t="n">
-        <v>934.6819040603777</v>
       </c>
       <c r="K167" s="0" t="n">
         <v>827.4326095974557</v>
@@ -50812,34 +50812,34 @@
     </row>
     <row r="168">
       <c r="A168" s="0" t="n">
-        <v>628.9808577102733</v>
+        <v>628.9808577102706</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>463.7772313970391</v>
+        <v>963.5996533139124</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>523.8906234465711</v>
+        <v>963.599653313912</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>591.7957302657499</v>
+        <v>710.507440585617</v>
       </c>
       <c r="E168" s="0" t="n">
+        <v>2002.091152835789</v>
+      </c>
+      <c r="F168" s="0" t="n">
+        <v>906.6319801729217</v>
+      </c>
+      <c r="G168" s="0" t="n">
+        <v>963.5996533139111</v>
+      </c>
+      <c r="H168" s="0" t="n">
+        <v>755.1517466819008</v>
+      </c>
+      <c r="I168" s="0" t="n">
+        <v>1024.146855805363</v>
+      </c>
+      <c r="J168" s="0" t="n">
         <v>853.0322158641342</v>
-      </c>
-      <c r="F168" s="0" t="n">
-        <v>556.8089744983831</v>
-      </c>
-      <c r="G168" s="0" t="n">
-        <v>802.6012508000058</v>
-      </c>
-      <c r="H168" s="0" t="n">
-        <v>802.6012508000058</v>
-      </c>
-      <c r="I168" s="0" t="n">
-        <v>556.8089744983855</v>
-      </c>
-      <c r="J168" s="0" t="n">
-        <v>906.6319801729237</v>
       </c>
       <c r="K168" s="0" t="n">
         <v>853.0322158641345</v>
@@ -51114,34 +51114,34 @@
     </row>
     <row r="169">
       <c r="A169" s="0" t="n">
-        <v>610.1050614540327</v>
+        <v>648.4406446704368</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>478.1258494977815</v>
+        <v>993.4120772351127</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>540.0990657190623</v>
+        <v>993.4120772351123</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>610.1050614540326</v>
+        <v>732.4895458562642</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>879.4238381009447</v>
+        <v>1942.008140413243</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>574.0358644560395</v>
+        <v>934.6819040603758</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>778.5150842666465</v>
+        <v>934.6819040603785</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>778.5150842666465</v>
+        <v>778.5150842666453</v>
       </c>
       <c r="I169" s="0" t="n">
-        <v>540.0990657190644</v>
+        <v>1055.832525385909</v>
       </c>
       <c r="J169" s="0" t="n">
-        <v>879.423838100945</v>
+        <v>827.4326095974554</v>
       </c>
       <c r="K169" s="0" t="n">
         <v>827.4326095974558</v>
@@ -51416,34 +51416,34 @@
     </row>
     <row r="170">
       <c r="A170" s="0" t="n">
-        <v>591.79573026575</v>
+        <v>668.5024901891314</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>492.9183937498375</v>
+        <v>963.5996533139125</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>523.8906234465711</v>
+        <v>963.5996533139121</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>628.9808577102733</v>
+        <v>710.5074405856171</v>
       </c>
       <c r="E170" s="0" t="n">
+        <v>2002.09115283579</v>
+      </c>
+      <c r="F170" s="0" t="n">
+        <v>906.6319801729218</v>
+      </c>
+      <c r="G170" s="0" t="n">
+        <v>906.6319801729244</v>
+      </c>
+      <c r="H170" s="0" t="n">
+        <v>755.1517466819009</v>
+      </c>
+      <c r="I170" s="0" t="n">
+        <v>1024.146855805363</v>
+      </c>
+      <c r="J170" s="0" t="n">
         <v>853.0322158641343</v>
-      </c>
-      <c r="F170" s="0" t="n">
-        <v>591.7957302657474</v>
-      </c>
-      <c r="G170" s="0" t="n">
-        <v>755.151746681902</v>
-      </c>
-      <c r="H170" s="0" t="n">
-        <v>755.151746681902</v>
-      </c>
-      <c r="I170" s="0" t="n">
-        <v>556.8089744983855</v>
-      </c>
-      <c r="J170" s="0" t="n">
-        <v>853.0322158641345</v>
       </c>
       <c r="K170" s="0" t="n">
         <v>802.6012508000067</v>
@@ -51718,34 +51718,34 @@
     </row>
     <row r="171">
       <c r="A171" s="0" t="n">
-        <v>610.1050614540327</v>
+        <v>648.4406446704368</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>508.1685986066881</v>
+        <v>993.4120772351129</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>540.0990657190623</v>
+        <v>934.6819040603796</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>610.1050614540327</v>
+        <v>689.1850211150793</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>827.4326095974556</v>
+        <v>2064.033049526968</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>574.0358644560395</v>
+        <v>879.4238381009432</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>778.5150842666465</v>
+        <v>879.4238381009457</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>732.4895458562646</v>
+        <v>732.4895458562636</v>
       </c>
       <c r="I171" s="0" t="n">
-        <v>574.035864456042</v>
+        <v>993.412077235112</v>
       </c>
       <c r="J171" s="0" t="n">
-        <v>827.4326095974558</v>
+        <v>879.4238381009449</v>
       </c>
       <c r="K171" s="0" t="n">
         <v>827.4326095974559</v>
@@ -52020,34 +52020,34 @@
     </row>
     <row r="172">
       <c r="A172" s="0" t="n">
-        <v>628.9808577102734</v>
+        <v>668.5024901891314</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>523.890623446572</v>
+        <v>963.5996533139127</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>523.8906234465711</v>
+        <v>963.5996533139122</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>591.79573026575</v>
+        <v>710.5074405856171</v>
       </c>
       <c r="E172" s="0" t="n">
+        <v>2002.09115283579</v>
+      </c>
+      <c r="F172" s="0" t="n">
+        <v>906.6319801729219</v>
+      </c>
+      <c r="G172" s="0" t="n">
+        <v>853.0322158641351</v>
+      </c>
+      <c r="H172" s="0" t="n">
+        <v>755.1517466819009</v>
+      </c>
+      <c r="I172" s="0" t="n">
+        <v>963.5996533139117</v>
+      </c>
+      <c r="J172" s="0" t="n">
         <v>853.0322158641344</v>
-      </c>
-      <c r="F172" s="0" t="n">
-        <v>556.8089744983831</v>
-      </c>
-      <c r="G172" s="0" t="n">
-        <v>755.151746681902</v>
-      </c>
-      <c r="H172" s="0" t="n">
-        <v>710.5074405856176</v>
-      </c>
-      <c r="I172" s="0" t="n">
-        <v>556.8089744983855</v>
-      </c>
-      <c r="J172" s="0" t="n">
-        <v>853.0322158641346</v>
       </c>
       <c r="K172" s="0" t="n">
         <v>802.6012508000068</v>
@@ -52322,34 +52322,34 @@
     </row>
     <row r="173">
       <c r="A173" s="0" t="n">
-        <v>648.4406446704397</v>
+        <v>648.4406446704368</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>540.0990657190633</v>
+        <v>934.68190406038</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>540.0990657190623</v>
+        <v>993.4120772351125</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>610.1050614540327</v>
+        <v>732.4895458562643</v>
       </c>
       <c r="E173" s="0" t="n">
+        <v>2064.033049526968</v>
+      </c>
+      <c r="F173" s="0" t="n">
+        <v>879.4238381009433</v>
+      </c>
+      <c r="G173" s="0" t="n">
+        <v>827.4326095974563</v>
+      </c>
+      <c r="H173" s="0" t="n">
+        <v>732.4895458562636</v>
+      </c>
+      <c r="I173" s="0" t="n">
+        <v>934.6819040603792</v>
+      </c>
+      <c r="J173" s="0" t="n">
         <v>879.423838100945</v>
-      </c>
-      <c r="F173" s="0" t="n">
-        <v>540.0990657190621</v>
-      </c>
-      <c r="G173" s="0" t="n">
-        <v>778.5150842666465</v>
-      </c>
-      <c r="H173" s="0" t="n">
-        <v>732.4895458562647</v>
-      </c>
-      <c r="I173" s="0" t="n">
-        <v>574.035864456042</v>
-      </c>
-      <c r="J173" s="0" t="n">
-        <v>879.4238381009452</v>
       </c>
       <c r="K173" s="0" t="n">
         <v>778.5150842666475</v>
@@ -52624,34 +52624,34 @@
     </row>
     <row r="174">
       <c r="A174" s="0" t="n">
-        <v>628.9808577102734</v>
+        <v>628.9808577102706</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>523.8906234465721</v>
+        <v>963.5996533139127</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>556.8089744983835</v>
+        <v>963.5996533139123</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>628.9808577102734</v>
+        <v>710.5074405856172</v>
       </c>
       <c r="E174" s="0" t="n">
+        <v>2002.09115283579</v>
+      </c>
+      <c r="F174" s="0" t="n">
+        <v>906.631980172922</v>
+      </c>
+      <c r="G174" s="0" t="n">
+        <v>802.6012508000072</v>
+      </c>
+      <c r="H174" s="0" t="n">
+        <v>755.1517466819009</v>
+      </c>
+      <c r="I174" s="0" t="n">
+        <v>963.5996533139119</v>
+      </c>
+      <c r="J174" s="0" t="n">
         <v>906.6319801729237</v>
-      </c>
-      <c r="F174" s="0" t="n">
-        <v>523.8906234465709</v>
-      </c>
-      <c r="G174" s="0" t="n">
-        <v>755.151746681902</v>
-      </c>
-      <c r="H174" s="0" t="n">
-        <v>755.1517466819022</v>
-      </c>
-      <c r="I174" s="0" t="n">
-        <v>556.8089744983855</v>
-      </c>
-      <c r="J174" s="0" t="n">
-        <v>853.0322158641346</v>
       </c>
       <c r="K174" s="0" t="n">
         <v>755.151746681903</v>
@@ -52926,34 +52926,34 @@
     </row>
     <row r="175">
       <c r="A175" s="0" t="n">
-        <v>610.1050614540328</v>
+        <v>610.10506145403</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>508.1685986066882</v>
+        <v>993.412077235113</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>574.0358644560399</v>
+        <v>934.6819040603798</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>610.1050614540328</v>
+        <v>689.1850211150794</v>
       </c>
       <c r="E175" s="0" t="n">
+        <v>1942.008140413243</v>
+      </c>
+      <c r="F175" s="0" t="n">
+        <v>934.6819040603762</v>
+      </c>
+      <c r="G175" s="0" t="n">
+        <v>778.5150842666478</v>
+      </c>
+      <c r="H175" s="0" t="n">
+        <v>732.4895458562636</v>
+      </c>
+      <c r="I175" s="0" t="n">
+        <v>934.6819040603793</v>
+      </c>
+      <c r="J175" s="0" t="n">
         <v>879.423838100945</v>
-      </c>
-      <c r="F175" s="0" t="n">
-        <v>508.1685986066871</v>
-      </c>
-      <c r="G175" s="0" t="n">
-        <v>732.4895458562646</v>
-      </c>
-      <c r="H175" s="0" t="n">
-        <v>732.4895458562648</v>
-      </c>
-      <c r="I175" s="0" t="n">
-        <v>540.0990657190644</v>
-      </c>
-      <c r="J175" s="0" t="n">
-        <v>879.4238381009452</v>
       </c>
       <c r="K175" s="0" t="n">
         <v>778.5150842666476</v>
@@ -53228,34 +53228,34 @@
     </row>
     <row r="176">
       <c r="A176" s="0" t="n">
-        <v>628.9808577102735</v>
+        <v>628.9808577102706</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>492.9183937498378</v>
+        <v>1024.146855805364</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>591.7957302657478</v>
+        <v>963.5996533139124</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>591.7957302657501</v>
+        <v>710.5074405856174</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>906.6319801729237</v>
+        <v>1883.728226903878</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>492.9183937498366</v>
+        <v>906.6319801729221</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>710.5074405856176</v>
+        <v>755.1517466819033</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>755.1517466819023</v>
+        <v>755.1517466819009</v>
       </c>
       <c r="I176" s="0" t="n">
-        <v>523.8906234465732</v>
+        <v>906.6319801729252</v>
       </c>
       <c r="J176" s="0" t="n">
-        <v>906.6319801729239</v>
+        <v>853.0322158641345</v>
       </c>
       <c r="K176" s="0" t="n">
         <v>755.1517466819031</v>
@@ -53530,34 +53530,34 @@
     </row>
     <row r="177">
       <c r="A177" s="0" t="n">
-        <v>610.1050614540329</v>
+        <v>648.4406446704368</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>508.1685986066883</v>
+        <v>1055.83252538591</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>610.1050614540305</v>
+        <v>993.4120772351127</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>574.0358644560422</v>
+        <v>689.1850211150795</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>934.6819040603779</v>
+        <v>1827.19730107792</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>508.1685986066871</v>
+        <v>934.6819040603763</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>689.1850211150797</v>
+        <v>778.5150842666479</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>732.489545856265</v>
+        <v>778.5150842666454</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>508.1685986066893</v>
+        <v>934.6819040603795</v>
       </c>
       <c r="J177" s="0" t="n">
-        <v>934.6819040603781</v>
+        <v>879.4238381009451</v>
       </c>
       <c r="K177" s="0" t="n">
         <v>778.5150842666477</v>
@@ -53832,34 +53832,34 @@
     </row>
     <row r="178">
       <c r="A178" s="0" t="n">
-        <v>628.9808577102737</v>
+        <v>668.5024901891314</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>523.8906234465722</v>
+        <v>1024.146855805364</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>628.9808577102712</v>
+        <v>1024.146855805363</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>591.7957302657502</v>
+        <v>710.5074405856175</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>963.5996533139105</v>
+        <v>1772.362875590544</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>492.9183937498367</v>
+        <v>963.5996533139088</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>668.5024901891331</v>
+        <v>755.1517466819034</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>710.5074405856179</v>
+        <v>802.6012508000048</v>
       </c>
       <c r="I178" s="0" t="n">
-        <v>523.8906234465733</v>
+        <v>906.6319801729253</v>
       </c>
       <c r="J178" s="0" t="n">
-        <v>906.6319801729239</v>
+        <v>853.0322158641345</v>
       </c>
       <c r="K178" s="0" t="n">
         <v>802.6012508000072</v>
@@ -54134,34 +54134,34 @@
     </row>
     <row r="179">
       <c r="A179" s="0" t="n">
-        <v>610.105061454033</v>
+        <v>689.185021115078</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>540.0990657190636</v>
+        <v>993.4120772351131</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>648.4406446704375</v>
+        <v>993.4120772351129</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>610.1050614540329</v>
+        <v>732.4895458562646</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>993.4120772351108</v>
+        <v>1719.17403824888</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>508.1685986066872</v>
+        <v>993.412077235109</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>689.1850211150798</v>
+        <v>778.515084266648</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>689.1850211150801</v>
+        <v>827.432609597454</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>508.1685986066893</v>
+        <v>879.4238381009466</v>
       </c>
       <c r="J179" s="0" t="n">
-        <v>879.4238381009452</v>
+        <v>827.4326095974558</v>
       </c>
       <c r="K179" s="0" t="n">
         <v>827.4326095974563</v>
@@ -54436,34 +54436,34 @@
     </row>
     <row r="180">
       <c r="A180" s="0" t="n">
-        <v>628.9808577102738</v>
+        <v>668.5024901891314</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>556.8089744983847</v>
+        <v>1024.146855805364</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>668.5024901891322</v>
+        <v>963.5996533139127</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>591.7957302657502</v>
+        <v>755.1517466819021</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>963.5996533139106</v>
+        <v>1772.362875590544</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>492.9183937498368</v>
+        <v>963.5996533139089</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>668.5024901891333</v>
+        <v>755.1517466819035</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>710.507440585618</v>
+        <v>853.0322158641328</v>
       </c>
       <c r="I180" s="0" t="n">
-        <v>492.9183937498389</v>
+        <v>853.032215864136</v>
       </c>
       <c r="J180" s="0" t="n">
-        <v>853.0322158641346</v>
+        <v>802.6012508000067</v>
       </c>
       <c r="K180" s="0" t="n">
         <v>853.0322158641352</v>

--- a/output/freight_outward.xlsx
+++ b/output/freight_outward.xlsx
@@ -381,7 +381,7 @@
         <v>778.5150842666409</v>
       </c>
       <c r="B1" s="0" t="n">
-        <v>778.5150842666409</v>
+        <v>827.432609597449</v>
       </c>
       <c r="C1" s="0" t="n">
         <v>778.5150842666409</v>
@@ -393,10 +393,10 @@
         <v>827.432609597449</v>
       </c>
       <c r="F1" s="0" t="n">
+        <v>778.5150842666409</v>
+      </c>
+      <c r="G1" s="0" t="n">
         <v>827.432609597449</v>
-      </c>
-      <c r="G1" s="0" t="n">
-        <v>778.5150842666409</v>
       </c>
       <c r="H1" s="0" t="n">
         <v>827.432609597449</v>
@@ -680,28 +680,28 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="n">
-        <v>755.1517466818966</v>
+        <v>802.6012508000001</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>755.1517466818966</v>
+        <v>802.6012508</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>755.1517466818966</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>802.6012508000001</v>
+        <v>755.1517466818966</v>
       </c>
       <c r="E2" s="0" t="n">
+        <v>802.6012508</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>755.1517466818966</v>
+      </c>
+      <c r="G2" s="0" t="n">
         <v>853.0322158641276</v>
       </c>
-      <c r="F2" s="0" t="n">
-        <v>853.0322158641276</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>755.1517466818966</v>
-      </c>
       <c r="H2" s="0" t="n">
-        <v>853.0322158641276</v>
+        <v>802.6012508</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>802.6012508</v>
@@ -982,34 +982,34 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="n">
-        <v>732.4895458562594</v>
+        <v>827.4326095974491</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>778.515084266641</v>
+        <v>827.432609597449</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>778.515084266641</v>
       </c>
       <c r="D3" s="0" t="n">
+        <v>778.515084266641</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>778.5150842666409</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>732.4895458562594</v>
+      </c>
+      <c r="G3" s="0" t="n">
         <v>827.4326095974491</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>879.4238381009379</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>879.4238381009379</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>778.515084266641</v>
-      </c>
       <c r="H3" s="0" t="n">
-        <v>827.4326095974491</v>
+        <v>827.432609597449</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>827.432609597449</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>778.5150842666409</v>
+        <v>827.432609597449</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>778.515084266641</v>
@@ -1284,34 +1284,34 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
-        <v>755.1517466818966</v>
+        <v>802.6012508000001</v>
       </c>
       <c r="B4" s="0" t="n">
+        <v>802.6012508</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <v>802.6012508000002</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="D4" s="0" t="n">
         <v>755.1517466818967</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="E4" s="0" t="n">
         <v>802.6012508000001</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="F4" s="0" t="n">
+        <v>710.5074405856125</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>802.6012508000001</v>
+      </c>
+      <c r="H4" s="0" t="n">
         <v>853.0322158641276</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <v>906.6319801729164</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>802.6012508000002</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>853.0322158641277</v>
-      </c>
       <c r="I4" s="0" t="n">
+        <v>802.6012508</v>
+      </c>
+      <c r="J4" s="0" t="n">
         <v>853.0322158641276</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>755.1517466818966</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>802.6012508000002</v>
@@ -1586,34 +1586,34 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
-        <v>778.515084266641</v>
+        <v>827.4326095974491</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>827.4326095974492</v>
+        <v>827.432609597449</v>
       </c>
       <c r="C5" s="0" t="n">
+        <v>778.5150842666411</v>
+      </c>
+      <c r="D5" s="0" t="n">
         <v>732.4895458562595</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>778.515084266641</v>
-      </c>
       <c r="E5" s="0" t="n">
+        <v>827.4326095974491</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>732.4895458562594</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>827.4326095974491</v>
+      </c>
+      <c r="H5" s="0" t="n">
         <v>879.4238381009379</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>934.6819040603704</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>827.4326095974492</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>879.423838100938</v>
-      </c>
       <c r="I5" s="0" t="n">
+        <v>827.432609597449</v>
+      </c>
+      <c r="J5" s="0" t="n">
         <v>879.4238381009379</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>732.4895458562594</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>778.5150842666411</v>
@@ -1888,34 +1888,34 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="n">
-        <v>755.1517466818967</v>
+        <v>802.6012508000001</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>853.0322158641278</v>
+        <v>802.6012508</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>755.1517466818967</v>
+        <v>755.1517466818968</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>755.1517466818967</v>
+        <v>710.5074405856126</v>
       </c>
       <c r="E6" s="0" t="n">
+        <v>802.6012508000001</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>755.1517466818966</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>802.6012508000001</v>
+      </c>
+      <c r="H6" s="0" t="n">
         <v>906.6319801729164</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <v>963.5996533139028</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>802.6012508000002</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>906.6319801729165</v>
-      </c>
       <c r="I6" s="0" t="n">
+        <v>802.6012508</v>
+      </c>
+      <c r="J6" s="0" t="n">
         <v>853.0322158641276</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>755.1517466818966</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>755.1517466818968</v>
@@ -2190,34 +2190,34 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="n">
-        <v>778.5150842666411</v>
+        <v>778.515084266641</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>879.4238381009382</v>
+        <v>827.432609597449</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>778.5150842666411</v>
+        <v>732.4895458562596</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>732.4895458562595</v>
       </c>
       <c r="E7" s="0" t="n">
+        <v>778.515084266641</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>778.515084266641</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>778.515084266641</v>
+      </c>
+      <c r="H7" s="0" t="n">
         <v>879.4238381009379</v>
       </c>
-      <c r="F7" s="0" t="n">
-        <v>993.4120772351027</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>827.4326095974492</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>879.423838100938</v>
-      </c>
       <c r="I7" s="0" t="n">
+        <v>778.5150842666409</v>
+      </c>
+      <c r="J7" s="0" t="n">
         <v>827.4326095974491</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>732.4895458562594</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>778.5150842666412</v>
@@ -2492,10 +2492,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>755.1517466818968</v>
+        <v>802.6012508000002</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>906.6319801729168</v>
+        <v>802.6012508</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>755.1517466818968</v>
@@ -2504,22 +2504,22 @@
         <v>710.5074405856126</v>
       </c>
       <c r="E8" s="0" t="n">
+        <v>802.6012508000002</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>755.1517466818967</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>802.6012508000002</v>
+      </c>
+      <c r="H8" s="0" t="n">
         <v>906.6319801729164</v>
       </c>
-      <c r="F8" s="0" t="n">
-        <v>963.5996533139028</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>853.0322158641278</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>853.0322158641277</v>
-      </c>
       <c r="I8" s="0" t="n">
-        <v>853.0322158641277</v>
+        <v>755.1517466818966</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>755.1517466818966</v>
+        <v>802.6012508000001</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>802.6012508000005</v>
@@ -2794,34 +2794,34 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>778.5150842666412</v>
+        <v>778.5150842666411</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>879.4238381009383</v>
+        <v>827.432609597449</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>732.4895458562596</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>689.1850211150748</v>
+        <v>732.4895458562595</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>879.4238381009379</v>
+        <v>778.5150842666411</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>993.4120772351027</v>
+        <v>778.5150842666411</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>879.4238381009382</v>
+        <v>778.5150842666411</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>879.423838100938</v>
+        <v>934.6819040603704</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>879.423838100938</v>
+        <v>778.515084266641</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>778.515084266641</v>
+        <v>827.4326095974491</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>827.4326095974495</v>
@@ -3096,34 +3096,34 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>755.151746681897</v>
+        <v>755.1517466818968</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>906.6319801729169</v>
+        <v>802.6012508</v>
       </c>
       <c r="C10" s="0" t="n">
+        <v>710.5074405856127</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>710.5074405856126</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>802.6012508000003</v>
+      </c>
+      <c r="F10" s="0" t="n">
         <v>755.1517466818968</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>668.5024901891284</v>
-      </c>
-      <c r="E10" s="0" t="n">
+      <c r="G10" s="0" t="n">
+        <v>802.6012508000003</v>
+      </c>
+      <c r="H10" s="0" t="n">
         <v>906.6319801729164</v>
       </c>
-      <c r="F10" s="0" t="n">
-        <v>1024.146855805353</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>906.6319801729168</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>906.6319801729165</v>
-      </c>
       <c r="I10" s="0" t="n">
-        <v>853.0322158641277</v>
+        <v>755.1517466818967</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>802.6012508000002</v>
+        <v>802.6012508000001</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>853.0322158641281</v>
@@ -3398,34 +3398,34 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>778.5150842666413</v>
+        <v>732.4895458562596</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>879.4238381009384</v>
+        <v>778.5150842666409</v>
       </c>
       <c r="C11" s="0" t="n">
+        <v>732.4895458562596</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>732.4895458562595</v>
+      </c>
+      <c r="E11" s="0" t="n">
         <v>778.5150842666412</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>689.185021115075</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>879.4238381009379</v>
-      </c>
       <c r="F11" s="0" t="n">
-        <v>993.4120772351027</v>
+        <v>732.4895458562596</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>934.6819040603707</v>
+        <v>827.4326095974493</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>879.423838100938</v>
+        <v>934.6819040603704</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>827.4326095974492</v>
+        <v>732.4895458562595</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>778.5150842666411</v>
+        <v>827.4326095974491</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>879.4238381009386</v>
@@ -3700,34 +3700,34 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>802.6012508000006</v>
+        <v>710.5074405856127</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>853.032215864128</v>
+        <v>755.1517466818966</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>802.6012508000005</v>
+        <v>755.1517466818968</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>710.5074405856127</v>
+        <v>710.5074405856126</v>
       </c>
       <c r="E12" s="0" t="n">
+        <v>755.151746681897</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>755.1517466818968</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>853.0322158641279</v>
+      </c>
+      <c r="H12" s="0" t="n">
         <v>906.6319801729164</v>
       </c>
-      <c r="F12" s="0" t="n">
-        <v>1024.146855805353</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>906.6319801729168</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>853.0322158641277</v>
-      </c>
       <c r="I12" s="0" t="n">
-        <v>802.6012508000002</v>
+        <v>755.1517466818967</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>802.6012508000003</v>
+        <v>802.6012508000001</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>906.6319801729172</v>
@@ -4002,34 +4002,34 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>827.4326095974496</v>
+        <v>732.4895458562596</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>827.4326095974494</v>
+        <v>732.4895458562594</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>778.5150842666413</v>
+        <v>732.4895458562596</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>689.185021115075</v>
+        <v>689.1850211150748</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>879.4238381009379</v>
+        <v>732.4895458562597</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>993.4120772351027</v>
+        <v>732.4895458562596</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>879.4238381009383</v>
+        <v>827.4326095974493</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>827.4326095974492</v>
+        <v>934.6819040603704</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>778.5150842666411</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>827.4326095974493</v>
+        <v>827.4326095974491</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>879.4238381009387</v>
@@ -4304,34 +4304,34 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>853.0322158641283</v>
+        <v>710.5074405856127</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>802.6012508000005</v>
+        <v>755.1517466818966</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>755.1517466818971</v>
+        <v>710.5074405856127</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>668.5024901891285</v>
+        <v>710.5074405856126</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>853.0322158641276</v>
+        <v>710.5074405856128</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>963.5996533139028</v>
+        <v>755.1517466818968</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>853.0322158641279</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>802.6012508000002</v>
+        <v>906.6319801729164</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>802.6012508000003</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>853.0322158641279</v>
+        <v>853.0322158641277</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>906.6319801729173</v>
@@ -4606,34 +4606,34 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>879.4238381009387</v>
+        <v>732.4895458562596</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>778.5150842666413</v>
+        <v>732.4895458562594</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>778.5150842666415</v>
+        <v>732.4895458562596</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>648.4406446704339</v>
+        <v>689.1850211150748</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>879.4238381009379</v>
+        <v>732.4895458562597</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>934.6819040603705</v>
+        <v>778.5150842666412</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>879.4238381009384</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>827.4326095974492</v>
+        <v>934.6819040603704</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>778.5150842666412</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>827.4326095974493</v>
+        <v>879.423838100938</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>934.6819040603714</v>
@@ -4908,34 +4908,34 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>853.0322158641284</v>
+        <v>710.5074405856127</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>802.6012508000006</v>
+        <v>755.1517466818966</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>755.1517466818972</v>
+        <v>710.5074405856127</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>628.9808577102679</v>
+        <v>710.5074405856126</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>853.0322158641276</v>
+        <v>755.151746681897</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>963.5996533139029</v>
+        <v>755.151746681897</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>853.032215864128</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>802.6012508000002</v>
+        <v>906.6319801729164</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>755.151746681897</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>802.6012508000003</v>
+        <v>906.6319801729165</v>
       </c>
       <c r="K16" s="0" t="n">
         <v>906.6319801729175</v>
@@ -5210,34 +5210,34 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>879.4238381009388</v>
+        <v>689.185021115075</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>827.4326095974496</v>
+        <v>732.4895458562594</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>778.5150842666416</v>
+        <v>732.4895458562596</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>610.1050614540274</v>
+        <v>689.1850211150748</v>
       </c>
       <c r="E17" s="0" t="n">
+        <v>778.5150842666413</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>778.5150842666413</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>879.4238381009385</v>
+      </c>
+      <c r="H17" s="0" t="n">
         <v>879.4238381009379</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>934.6819040603706</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>827.4326095974494</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>827.4326095974492</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>732.4895458562597</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>778.5150842666412</v>
+        <v>879.423838100938</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>879.423838100939</v>
@@ -5512,34 +5512,34 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>853.0322158641285</v>
+        <v>668.5024901891285</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>853.0322158641283</v>
+        <v>710.5074405856125</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>802.6012508000008</v>
+        <v>710.5074405856127</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>591.7957302657449</v>
+        <v>668.5024901891284</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>906.6319801729164</v>
+        <v>802.6012508000006</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>906.6319801729167</v>
+        <v>755.1517466818971</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>802.6012508000005</v>
+        <v>853.0322158641281</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>853.0322158641278</v>
+        <v>853.0322158641276</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>710.5074405856128</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>755.151746681897</v>
+        <v>906.6319801729165</v>
       </c>
       <c r="K18" s="0" t="n">
         <v>906.6319801729176</v>
@@ -5814,34 +5814,34 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>827.4326095974499</v>
+        <v>689.1850211150751</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>827.4326095974496</v>
+        <v>689.1850211150747</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>827.4326095974499</v>
+        <v>689.185021115075</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>574.0358644560371</v>
+        <v>648.4406446704338</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>934.6819040603704</v>
+        <v>778.5150842666415</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>934.6819040603706</v>
+        <v>778.5150842666415</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>827.4326095974495</v>
+        <v>879.4238381009386</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>879.4238381009382</v>
+        <v>827.4326095974491</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>732.4895458562597</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>778.5150842666413</v>
+        <v>879.423838100938</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>879.4238381009391</v>
@@ -6116,34 +6116,34 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>802.6012508000009</v>
+        <v>710.5074405856128</v>
       </c>
       <c r="B20" s="0" t="n">
+        <v>668.5024901891283</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>668.5024901891285</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>668.5024901891285</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>755.1517466818972</v>
+      </c>
+      <c r="F20" s="0" t="n">
         <v>802.6012508000007</v>
       </c>
-      <c r="C20" s="0" t="n">
-        <v>802.6012508000009</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>556.8089744983808</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>963.5996533139028</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>963.599653313903</v>
-      </c>
       <c r="G20" s="0" t="n">
-        <v>853.0322158641281</v>
+        <v>853.0322158641283</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>853.0322158641278</v>
+        <v>802.6012508000001</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>710.5074405856128</v>
+        <v>755.151746681897</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>802.6012508000006</v>
+        <v>906.6319801729165</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>906.6319801729177</v>
@@ -6418,34 +6418,34 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>778.5150842666418</v>
+        <v>689.1850211150751</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>778.5150842666416</v>
+        <v>648.4406446704337</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>778.5150842666418</v>
+        <v>648.4406446704339</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>574.0358644560372</v>
+        <v>648.4406446704339</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>993.4120772351027</v>
+        <v>732.48954585626</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>993.4120772351031</v>
+        <v>827.4326095974498</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>879.4238381009386</v>
+        <v>827.4326095974496</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>879.4238381009382</v>
+        <v>827.4326095974491</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>689.1850211150751</v>
+        <v>732.4895458562597</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>778.5150842666415</v>
+        <v>934.6819040603705</v>
       </c>
       <c r="K21" s="0" t="n">
         <v>879.4238381009392</v>
@@ -6720,34 +6720,34 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>755.1517466818975</v>
+        <v>668.5024901891286</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>755.1517466818973</v>
+        <v>628.9808577102676</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>755.1517466818975</v>
+        <v>628.9808577102679</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>591.795730265745</v>
+        <v>668.5024901891286</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>963.5996533139028</v>
+        <v>755.1517466818972</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>963.5996533139031</v>
+        <v>802.6012508000008</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>906.6319801729172</v>
+        <v>853.0322158641283</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>906.6319801729168</v>
+        <v>853.0322158641277</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>668.5024901891286</v>
+        <v>755.151746681897</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>802.6012508000007</v>
+        <v>963.5996533139029</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>906.6319801729178</v>
@@ -7022,34 +7022,34 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>732.4895458562603</v>
+        <v>689.1850211150752</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>778.5150842666417</v>
+        <v>648.4406446704338</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>732.4895458562603</v>
+        <v>610.1050614540274</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>610.1050614540276</v>
+        <v>648.440644670434</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>934.6819040603705</v>
+        <v>732.48954585626</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>934.6819040603708</v>
+        <v>827.4326095974499</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>934.6819040603713</v>
+        <v>879.4238381009387</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>879.4238381009383</v>
+        <v>879.423838100938</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>689.1850211150752</v>
+        <v>732.4895458562597</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>827.4326095974498</v>
+        <v>993.4120772351029</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>934.6819040603718</v>
@@ -7324,34 +7324,34 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>755.1517466818975</v>
+        <v>710.5074405856129</v>
       </c>
       <c r="B24" s="0" t="n">
+        <v>628.9808577102677</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>591.7957302657449</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>668.5024901891287</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>710.507440585613</v>
+      </c>
+      <c r="F24" s="0" t="n">
         <v>802.6012508000009</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>755.1517466818975</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>628.9808577102681</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>963.5996533139029</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>963.5996533139032</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>906.6319801729173</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>906.6319801729169</v>
+        <v>906.6319801729165</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>710.5074405856129</v>
+        <v>710.5074405856128</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>853.0322158641284</v>
+        <v>963.5996533139029</v>
       </c>
       <c r="K24" s="0" t="n">
         <v>963.5996533139042</v>
@@ -7626,34 +7626,34 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>732.4895458562603</v>
+        <v>689.1850211150752</v>
       </c>
       <c r="B25" s="0" t="n">
+        <v>648.4406446704339</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>574.0358644560371</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>689.1850211150753</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>689.1850211150753</v>
+      </c>
+      <c r="F25" s="0" t="n">
         <v>827.43260959745</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>732.4895458562603</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>610.1050614540276</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>993.4120772351029</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>993.4120772351033</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>879.4238381009388</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>934.6819040603708</v>
+        <v>934.6819040603705</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>732.48954585626</v>
+        <v>689.1850211150751</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>879.4238381009388</v>
+        <v>993.4120772351029</v>
       </c>
       <c r="K25" s="0" t="n">
         <v>993.4120772351043</v>
@@ -7928,34 +7928,34 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>710.5074405856134</v>
+        <v>710.5074405856129</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>802.601250800001</v>
+        <v>628.9808577102679</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>755.1517466818975</v>
+        <v>556.8089744983808</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>591.7957302657451</v>
+        <v>710.507440585613</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>1024.146855805353</v>
+        <v>668.5024901891288</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>1024.146855805354</v>
+        <v>853.0322158641286</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>853.0322158641285</v>
+        <v>906.6319801729175</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>906.6319801729169</v>
+        <v>906.6319801729165</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>755.1517466818972</v>
+        <v>710.5074405856128</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>906.6319801729175</v>
+        <v>963.5996533139029</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>1024.146855805355</v>
@@ -8230,34 +8230,34 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>732.4895458562604</v>
+        <v>689.1850211150752</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>778.5150842666419</v>
+        <v>648.440644670434</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>778.5150842666419</v>
+        <v>574.0358644560372</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>574.0358644560373</v>
+        <v>732.4895458562601</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>1055.8325253859</v>
+        <v>648.4406446704343</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>1055.8325253859</v>
+        <v>827.43260959745</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>827.4326095974499</v>
+        <v>879.423838100939</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>934.6819040603708</v>
+        <v>934.6819040603705</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>732.48954585626</v>
+        <v>689.1850211150751</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>879.423838100939</v>
+        <v>993.4120772351029</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>993.4120772351046</v>
@@ -8532,34 +8532,34 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>710.5074405856135</v>
+        <v>710.5074405856129</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>802.6012508000011</v>
+        <v>668.5024901891287</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>802.6012508000011</v>
+        <v>591.795730265745</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>591.7957302657452</v>
+        <v>755.1517466818973</v>
       </c>
       <c r="E28" s="0" t="n">
+        <v>668.5024901891289</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>853.0322158641286</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>906.6319801729176</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>963.5996533139029</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>710.5074405856128</v>
+      </c>
+      <c r="J28" s="0" t="n">
         <v>1024.146855805353</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>1088.498505213045</v>
-      </c>
-      <c r="G28" s="0" t="n">
-        <v>853.0322158641285</v>
-      </c>
-      <c r="H28" s="0" t="n">
-        <v>906.6319801729169</v>
-      </c>
-      <c r="I28" s="0" t="n">
-        <v>710.507440585613</v>
-      </c>
-      <c r="J28" s="0" t="n">
-        <v>906.6319801729176</v>
       </c>
       <c r="K28" s="0" t="n">
         <v>1024.146855805355</v>
@@ -8834,34 +8834,34 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>732.4895458562605</v>
+        <v>689.1850211150752</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>778.515084266642</v>
+        <v>689.1850211150753</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>778.515084266642</v>
+        <v>610.1050614540276</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>574.0358644560374</v>
+        <v>778.5150842666417</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>993.4120772351032</v>
+        <v>648.4406446704344</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>1122.175124713065</v>
+        <v>879.4238381009391</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>827.4326095974499</v>
+        <v>934.6819040603716</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>934.6819040603708</v>
+        <v>934.6819040603706</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>689.1850211150753</v>
+        <v>732.4895458562597</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>879.4238381009391</v>
+        <v>993.412077235103</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>993.4120772351047</v>
@@ -9136,34 +9136,34 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>755.1517466818977</v>
+        <v>710.5074405856129</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>755.1517466818976</v>
+        <v>668.5024901891288</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>755.1517466818976</v>
+        <v>591.7957302657451</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>556.8089744983812</v>
+        <v>755.1517466818974</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>1024.146855805354</v>
+        <v>628.9808577102683</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>1088.498505213045</v>
+        <v>906.6319801729177</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>853.0322158641285</v>
+        <v>906.6319801729177</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>906.6319801729169</v>
+        <v>906.6319801729167</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>668.5024901891288</v>
+        <v>710.5074405856128</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>906.6319801729177</v>
+        <v>963.599653313903</v>
       </c>
       <c r="K30" s="0" t="n">
         <v>963.5996533139047</v>
@@ -9438,34 +9438,34 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>778.5150842666421</v>
+        <v>732.48954585626</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>732.4895458562604</v>
+        <v>648.4406446704343</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>732.4895458562604</v>
+        <v>610.1050614540277</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>574.0358644560375</v>
+        <v>778.5150842666418</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>1055.8325253859</v>
+        <v>610.1050614540278</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>1055.8325253859</v>
+        <v>934.6819040603717</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>827.4326095974499</v>
+        <v>934.6819040603717</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>934.6819040603708</v>
+        <v>934.6819040603706</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>689.1850211150754</v>
+        <v>689.1850211150751</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>934.6819040603717</v>
+        <v>993.4120772351031</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>993.4120772351048</v>
@@ -9740,34 +9740,34 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>755.1517466818977</v>
+        <v>755.1517466818972</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>755.1517466818976</v>
+        <v>668.5024901891289</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>710.5074405856135</v>
+        <v>591.7957302657452</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>556.8089744983813</v>
+        <v>802.601250800001</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>1088.498505213045</v>
+        <v>591.7957302657453</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>1024.146855805354</v>
+        <v>906.6319801729178</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>853.0322158641285</v>
+        <v>963.5996533139041</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>963.5996533139032</v>
+        <v>963.599653313903</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>710.5074405856132</v>
+        <v>668.5024901891286</v>
       </c>
       <c r="J32" s="0" t="n">
-        <v>906.6319801729178</v>
+        <v>963.5996533139031</v>
       </c>
       <c r="K32" s="0" t="n">
         <v>963.5996533139048</v>
@@ -10042,34 +10042,34 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>778.5150842666421</v>
+        <v>778.5150842666416</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>732.4895458562604</v>
+        <v>689.1850211150755</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>732.4895458562605</v>
+        <v>610.1050614540278</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>574.0358644560376</v>
+        <v>778.5150842666419</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>1055.8325253859</v>
+        <v>610.1050614540279</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>1055.8325253859</v>
+        <v>879.4238381009393</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>827.4326095974499</v>
+        <v>993.4120772351042</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>993.4120772351033</v>
+        <v>934.6819040603707</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>689.1850211150754</v>
+        <v>648.440644670434</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>879.4238381009393</v>
+        <v>993.4120772351032</v>
       </c>
       <c r="K33" s="0" t="n">
         <v>934.6819040603724</v>
@@ -10344,34 +10344,34 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>755.1517466818977</v>
+        <v>802.6012508000008</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>755.1517466818976</v>
+        <v>710.5074405856133</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>755.1517466818977</v>
+        <v>591.7957302657453</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>556.8089744983814</v>
+        <v>755.1517466818975</v>
       </c>
       <c r="E34" s="0" t="n">
+        <v>591.7957302657454</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>906.6319801729179</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>963.5996533139042</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>963.5996533139031</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>668.5024901891287</v>
+      </c>
+      <c r="J34" s="0" t="n">
         <v>1024.146855805354</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>1024.146855805354</v>
-      </c>
-      <c r="G34" s="0" t="n">
-        <v>853.0322158641285</v>
-      </c>
-      <c r="H34" s="0" t="n">
-        <v>1024.146855805354</v>
-      </c>
-      <c r="I34" s="0" t="n">
-        <v>710.5074405856132</v>
-      </c>
-      <c r="J34" s="0" t="n">
-        <v>853.0322158641289</v>
       </c>
       <c r="K34" s="0" t="n">
         <v>906.6319801729185</v>
@@ -10646,34 +10646,34 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
-        <v>732.4895458562605</v>
+        <v>778.5150842666417</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>778.515084266642</v>
+        <v>732.4895458562603</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>732.4895458562605</v>
+        <v>574.0358644560375</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>574.0358644560378</v>
+        <v>778.5150842666419</v>
       </c>
       <c r="E35" s="0" t="n">
+        <v>610.105061454028</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>934.6819040603719</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>934.6819040603719</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>934.6819040603708</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>689.1850211150753</v>
+      </c>
+      <c r="J35" s="0" t="n">
         <v>1055.8325253859</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>993.4120772351039</v>
-      </c>
-      <c r="G35" s="0" t="n">
-        <v>879.423838100939</v>
-      </c>
-      <c r="H35" s="0" t="n">
-        <v>993.4120772351034</v>
-      </c>
-      <c r="I35" s="0" t="n">
-        <v>732.4895458562602</v>
-      </c>
-      <c r="J35" s="0" t="n">
-        <v>879.4238381009394</v>
       </c>
       <c r="K35" s="0" t="n">
         <v>879.42383810094</v>
@@ -10948,34 +10948,34 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>755.1517466818977</v>
+        <v>802.6012508000009</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>755.1517466818976</v>
+        <v>755.1517466818975</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>710.5074405856136</v>
+        <v>556.8089744983813</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>556.8089744983814</v>
+        <v>755.1517466818975</v>
       </c>
       <c r="E36" s="0" t="n">
+        <v>628.9808577102687</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>963.5996533139044</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>906.631980172918</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>963.5996533139032</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>710.507440585613</v>
+      </c>
+      <c r="J36" s="0" t="n">
         <v>1088.498505213045</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>1024.146855805354</v>
-      </c>
-      <c r="G36" s="0" t="n">
-        <v>853.0322158641286</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>1024.146855805354</v>
-      </c>
-      <c r="I36" s="0" t="n">
-        <v>710.5074405856133</v>
-      </c>
-      <c r="J36" s="0" t="n">
-        <v>906.631980172918</v>
       </c>
       <c r="K36" s="0" t="n">
         <v>906.6319801729186</v>
@@ -11250,34 +11250,34 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
-        <v>778.5150842666421</v>
+        <v>778.5150842666418</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>732.4895458562604</v>
+        <v>732.4895458562603</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>689.1850211150759</v>
+        <v>574.0358644560376</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>540.0990657190604</v>
+        <v>778.5150842666419</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>1055.8325253859</v>
+        <v>610.1050614540281</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>993.4120772351041</v>
+        <v>934.6819040603721</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>879.4238381009391</v>
+        <v>934.6819040603721</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>993.4120772351037</v>
+        <v>934.6819040603709</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>732.4895458562603</v>
+        <v>689.1850211150753</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>934.6819040603721</v>
+        <v>1122.175124713065</v>
       </c>
       <c r="K37" s="0" t="n">
         <v>879.4238381009401</v>
@@ -11552,34 +11552,34 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
-        <v>802.6012508000014</v>
+        <v>802.601250800001</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>710.5074405856135</v>
+        <v>755.1517466818975</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>710.5074405856137</v>
+        <v>556.8089744983814</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>523.8906234465693</v>
+        <v>802.6012508000011</v>
       </c>
       <c r="E38" s="0" t="n">
+        <v>591.7957302657456</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>963.5996533139045</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>963.5996533139045</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>963.5996533139033</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>668.5024901891288</v>
+      </c>
+      <c r="J38" s="0" t="n">
         <v>1088.498505213045</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>1024.146855805355</v>
-      </c>
-      <c r="G38" s="0" t="n">
-        <v>906.6319801729177</v>
-      </c>
-      <c r="H38" s="0" t="n">
-        <v>1024.146855805354</v>
-      </c>
-      <c r="I38" s="0" t="n">
-        <v>710.5074405856134</v>
-      </c>
-      <c r="J38" s="0" t="n">
-        <v>906.6319801729181</v>
       </c>
       <c r="K38" s="0" t="n">
         <v>906.6319801729187</v>
@@ -11854,34 +11854,34 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
-        <v>778.5150842666422</v>
+        <v>827.4326095974501</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>689.1850211150758</v>
+        <v>778.5150842666419</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>689.185021115076</v>
+        <v>574.0358644560378</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>540.0990657190605</v>
+        <v>827.4326095974502</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>1055.832525385901</v>
+        <v>610.1050614540283</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>993.4120772351043</v>
+        <v>934.6819040603722</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>934.6819040603717</v>
+        <v>934.6819040603722</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>1055.8325253859</v>
+        <v>993.4120772351034</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>689.1850211150756</v>
+        <v>689.1850211150754</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>934.6819040603722</v>
+        <v>1122.175124713066</v>
       </c>
       <c r="K39" s="0" t="n">
         <v>934.6819040603727</v>
@@ -12156,34 +12156,34 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>755.1517466818979</v>
+        <v>802.6012508000011</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>668.5024901891293</v>
+        <v>802.6012508000011</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>710.5074405856138</v>
+        <v>556.8089744983814</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>523.8906234465694</v>
+        <v>853.0322158641289</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>1024.146855805354</v>
+        <v>628.9808577102689</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>963.5996533139044</v>
+        <v>906.6319801729182</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>963.5996533139041</v>
+        <v>963.5996533139046</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>1024.146855805354</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>710.5074405856134</v>
+        <v>668.5024901891289</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>906.6319801729182</v>
+        <v>1088.498505213045</v>
       </c>
       <c r="K40" s="0" t="n">
         <v>906.6319801729188</v>
@@ -12458,34 +12458,34 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
-        <v>732.4895458562606</v>
+        <v>827.4326095974502</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>648.4406446704347</v>
+        <v>778.515084266642</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>732.4895458562609</v>
+        <v>574.0358644560378</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>540.0990657190606</v>
+        <v>827.4326095974503</v>
       </c>
       <c r="E41" s="0" t="n">
+        <v>648.4406446704351</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>934.6819040603723</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>934.6819040603723</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>993.4120772351037</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>689.1850211150755</v>
+      </c>
+      <c r="J41" s="0" t="n">
         <v>1055.832525385901</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>993.4120772351044</v>
-      </c>
-      <c r="G41" s="0" t="n">
-        <v>993.4120772351042</v>
-      </c>
-      <c r="H41" s="0" t="n">
-        <v>993.4120772351039</v>
-      </c>
-      <c r="I41" s="0" t="n">
-        <v>689.1850211150756</v>
-      </c>
-      <c r="J41" s="0" t="n">
-        <v>934.6819040603723</v>
       </c>
       <c r="K41" s="0" t="n">
         <v>934.6819040603729</v>
@@ -12760,34 +12760,34 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>755.151746681898</v>
+        <v>802.6012508000013</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>628.9808577102687</v>
+        <v>755.1517466818976</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>755.1517466818982</v>
+        <v>556.8089744983814</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>523.8906234465695</v>
+        <v>802.6012508000014</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>1024.146855805354</v>
+        <v>668.5024901891297</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>963.5996533139045</v>
+        <v>963.5996533139047</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>1024.146855805355</v>
+        <v>906.6319801729184</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>1024.146855805354</v>
+        <v>963.5996533139037</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>710.5074405856134</v>
+        <v>710.5074405856133</v>
       </c>
       <c r="J42" s="0" t="n">
-        <v>963.5996533139047</v>
+        <v>1088.498505213046</v>
       </c>
       <c r="K42" s="0" t="n">
         <v>963.5996533139054</v>
@@ -13062,34 +13062,34 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
-        <v>732.4895458562607</v>
+        <v>827.4326095974503</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>648.4406446704348</v>
+        <v>778.515084266642</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>732.489545856261</v>
+        <v>540.0990657190604</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>540.0990657190607</v>
+        <v>778.5150842666422</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>993.4120772351041</v>
+        <v>689.1850211150763</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>993.4120772351046</v>
+        <v>993.4120772351048</v>
       </c>
       <c r="G43" s="0" t="n">
+        <v>934.6819040603724</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>934.6819040603714</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>732.4895458562603</v>
+      </c>
+      <c r="J43" s="0" t="n">
         <v>1055.832525385901</v>
-      </c>
-      <c r="H43" s="0" t="n">
-        <v>1055.832525385901</v>
-      </c>
-      <c r="I43" s="0" t="n">
-        <v>732.4895458562604</v>
-      </c>
-      <c r="J43" s="0" t="n">
-        <v>934.6819040603724</v>
       </c>
       <c r="K43" s="0" t="n">
         <v>993.4120772351055</v>
@@ -13364,34 +13364,34 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
-        <v>710.5074405856138</v>
+        <v>853.0322158641291</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>628.9808577102688</v>
+        <v>802.6012508000013</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>710.5074405856141</v>
+        <v>523.8906234465693</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>523.8906234465696</v>
+        <v>802.6012508000015</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>963.5996533139041</v>
+        <v>710.5074405856142</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>963.5996533139046</v>
+        <v>963.5996533139048</v>
       </c>
       <c r="G44" s="0" t="n">
+        <v>963.5996533139048</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>963.5996533139038</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>710.5074405856134</v>
+      </c>
+      <c r="J44" s="0" t="n">
         <v>1088.498505213046</v>
-      </c>
-      <c r="H44" s="0" t="n">
-        <v>1088.498505213046</v>
-      </c>
-      <c r="I44" s="0" t="n">
-        <v>755.1517466818976</v>
-      </c>
-      <c r="J44" s="0" t="n">
-        <v>963.5996533139048</v>
       </c>
       <c r="K44" s="0" t="n">
         <v>963.5996533139055</v>
@@ -13666,34 +13666,34 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
-        <v>689.1850211150761</v>
+        <v>827.4326095974504</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>648.4406446704349</v>
+        <v>827.4326095974503</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>689.1850211150763</v>
+        <v>540.0990657190605</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>540.0990657190608</v>
+        <v>778.5150842666424</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>934.6819040603718</v>
+        <v>732.4895458562612</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>993.4120772351047</v>
+        <v>934.6819040603724</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>1122.175124713066</v>
+        <v>993.4120772351049</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>1122.175124713066</v>
+        <v>993.4120772351039</v>
       </c>
       <c r="I45" s="0" t="n">
         <v>732.4895458562604</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>934.6819040603724</v>
+        <v>1055.832525385901</v>
       </c>
       <c r="K45" s="0" t="n">
         <v>934.6819040603731</v>
@@ -13968,34 +13968,34 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>668.5024901891296</v>
+        <v>802.6012508000015</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>628.9808577102689</v>
+        <v>853.0322158641291</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>710.5074405856142</v>
+        <v>523.8906234465694</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>556.8089744983819</v>
+        <v>755.151746681898</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>906.6319801729179</v>
+        <v>710.5074405856143</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>1024.146855805355</v>
+        <v>906.6319801729185</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>1156.893651662217</v>
+        <v>963.5996533139049</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>1088.498505213046</v>
+        <v>963.5996533139039</v>
       </c>
       <c r="I46" s="0" t="n">
         <v>710.5074405856135</v>
       </c>
       <c r="J46" s="0" t="n">
-        <v>963.5996533139048</v>
+        <v>1024.146855805355</v>
       </c>
       <c r="K46" s="0" t="n">
         <v>906.6319801729192</v>
@@ -14270,34 +14270,34 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
-        <v>689.1850211150762</v>
+        <v>827.4326095974506</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>610.1050614540284</v>
+        <v>827.4326095974504</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>689.1850211150764</v>
+        <v>540.0990657190606</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>574.0358644560382</v>
+        <v>778.5150842666424</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>879.4238381009394</v>
+        <v>732.4895458562613</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>993.4120772351047</v>
+        <v>934.6819040603725</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>1192.686321217967</v>
+        <v>934.6819040603725</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>1055.832525385901</v>
+        <v>993.412077235104</v>
       </c>
       <c r="I47" s="0" t="n">
         <v>732.4895458562605</v>
       </c>
       <c r="J47" s="0" t="n">
-        <v>993.4120772351049</v>
+        <v>1055.832525385901</v>
       </c>
       <c r="K47" s="0" t="n">
         <v>879.4238381009407</v>
@@ -14572,28 +14572,28 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>710.5074405856141</v>
+        <v>802.6012508000016</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>591.7957302657458</v>
+        <v>802.6012508000015</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>668.50249018913</v>
+        <v>556.8089744983816</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>591.7957302657461</v>
+        <v>755.151746681898</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>853.0322158641291</v>
+        <v>755.1517466818987</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>963.5996533139047</v>
+        <v>906.6319801729186</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>1229.586365848414</v>
+        <v>963.5996533139049</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>1024.146855805355</v>
+        <v>963.599653313904</v>
       </c>
       <c r="I48" s="0" t="n">
         <v>755.1517466818977</v>
@@ -14874,34 +14874,34 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="n">
-        <v>689.1850211150763</v>
+        <v>778.5150842666425</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>610.1050614540284</v>
+        <v>827.4326095974506</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>689.1850211150766</v>
+        <v>540.0990657190606</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>574.0358644560383</v>
+        <v>778.5150842666424</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>879.4238381009395</v>
+        <v>732.4895458562614</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>993.4120772351048</v>
+        <v>934.6819040603726</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>1192.686321217967</v>
+        <v>993.412077235105</v>
       </c>
       <c r="H49" s="0" t="n">
+        <v>993.4120772351041</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>732.4895458562605</v>
+      </c>
+      <c r="J49" s="0" t="n">
         <v>993.4120772351046</v>
-      </c>
-      <c r="I49" s="0" t="n">
-        <v>778.5150842666421</v>
-      </c>
-      <c r="J49" s="0" t="n">
-        <v>993.4120772351049</v>
       </c>
       <c r="K49" s="0" t="n">
         <v>934.6819040603733</v>
@@ -15176,34 +15176,34 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="n">
-        <v>710.5074405856142</v>
+        <v>755.1517466818981</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>628.980857710269</v>
+        <v>853.0322158641293</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>668.5024901891301</v>
+        <v>523.8906234465695</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>556.808974498382</v>
+        <v>802.6012508000016</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>906.6319801729181</v>
+        <v>710.5074405856145</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>963.5996533139048</v>
+        <v>963.599653313905</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>1156.893651662218</v>
+        <v>1024.146855805355</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>1024.146855805355</v>
+        <v>963.5996533139041</v>
       </c>
       <c r="I50" s="0" t="n">
         <v>755.1517466818977</v>
       </c>
       <c r="J50" s="0" t="n">
-        <v>1024.146855805355</v>
+        <v>963.5996533139046</v>
       </c>
       <c r="K50" s="0" t="n">
         <v>963.5996533139058</v>
@@ -15478,34 +15478,34 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="n">
-        <v>689.1850211150764</v>
+        <v>778.5150842666425</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>610.1050614540285</v>
+        <v>879.4238381009397</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>689.1850211150767</v>
+        <v>508.1685986066857</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>540.0990657190609</v>
+        <v>827.4326095974507</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>934.6819040603722</v>
+        <v>732.4895458562615</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>993.4120772351049</v>
+        <v>934.6819040603726</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>1192.686321217967</v>
+        <v>1055.832525385902</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>1055.832525385901</v>
+        <v>934.6819040603718</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>732.4895458562605</v>
+        <v>778.5150842666421</v>
       </c>
       <c r="J51" s="0" t="n">
-        <v>1055.832525385902</v>
+        <v>934.6819040603723</v>
       </c>
       <c r="K51" s="0" t="n">
         <v>993.4120772351059</v>
@@ -15780,34 +15780,34 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="n">
-        <v>668.50249018913</v>
+        <v>755.1517466818981</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>591.7957302657459</v>
+        <v>906.6319801729184</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>710.5074405856145</v>
+        <v>492.9183937498353</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>523.8906234465699</v>
+        <v>802.6012508000017</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>906.6319801729182</v>
+        <v>710.5074405856146</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>1024.146855805355</v>
+        <v>906.6319801729187</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>1229.586365848415</v>
+        <v>1088.498505213047</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>1024.146855805355</v>
+        <v>906.6319801729179</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>755.1517466818977</v>
+        <v>802.6012508000014</v>
       </c>
       <c r="J52" s="0" t="n">
-        <v>1088.498505213046</v>
+        <v>906.6319801729184</v>
       </c>
       <c r="K52" s="0" t="n">
         <v>963.5996533139059</v>
@@ -16082,34 +16082,34 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="n">
-        <v>648.4406446704354</v>
+        <v>732.4895458562609</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>574.0358644560381</v>
+        <v>879.4238381009399</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>732.4895458562615</v>
+        <v>478.1258494977794</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>540.0990657190611</v>
+        <v>778.5150842666425</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>879.4238381009397</v>
+        <v>732.4895458562617</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>1055.832525385902</v>
+        <v>934.6819040603727</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>1267.628046187686</v>
+        <v>1122.175124713067</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>993.4120772351047</v>
+        <v>879.4238381009394</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>778.5150842666421</v>
+        <v>827.4326095974504</v>
       </c>
       <c r="J53" s="0" t="n">
-        <v>1055.832525385902</v>
+        <v>934.6819040603724</v>
       </c>
       <c r="K53" s="0" t="n">
         <v>934.6819040603735</v>
@@ -16384,34 +16384,34 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="n">
-        <v>628.9808577102693</v>
+        <v>710.5074405856139</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>556.8089744983818</v>
+        <v>853.0322158641295</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>755.1517466818989</v>
+        <v>463.777231397037</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>523.89062344657</v>
+        <v>755.1517466818981</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>906.6319801729184</v>
+        <v>710.5074405856147</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>1088.498505213046</v>
+        <v>906.6319801729188</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>1306.846682845953</v>
+        <v>1156.893651662218</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>963.5996533139047</v>
+        <v>853.0322158641291</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>802.6012508000014</v>
+        <v>802.6012508000015</v>
       </c>
       <c r="J54" s="0" t="n">
-        <v>1088.498505213047</v>
+        <v>963.5996533139048</v>
       </c>
       <c r="K54" s="0" t="n">
         <v>906.6319801729196</v>
@@ -16686,34 +16686,34 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="n">
-        <v>610.1050614540288</v>
+        <v>689.1850211150762</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>574.0358644560381</v>
+        <v>879.42383810094</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>732.4895458562617</v>
+        <v>478.1258494977794</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>540.0990657190612</v>
+        <v>778.5150842666425</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>879.4238381009399</v>
+        <v>732.4895458562618</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>1055.832525385902</v>
+        <v>879.4238381009403</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>1267.628046187687</v>
+        <v>1192.686321217968</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>993.4120772351048</v>
+        <v>879.4238381009395</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>778.5150842666422</v>
+        <v>827.4326095974506</v>
       </c>
       <c r="J55" s="0" t="n">
-        <v>1122.175124713067</v>
+        <v>993.4120772351049</v>
       </c>
       <c r="K55" s="0" t="n">
         <v>879.4238381009411</v>
@@ -16988,34 +16988,34 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="n">
-        <v>591.7957302657462</v>
+        <v>710.5074405856141</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>556.8089744983818</v>
+        <v>906.6319801729186</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>710.5074405856147</v>
+        <v>463.7772313970371</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>556.8089744983822</v>
+        <v>755.1517466818981</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>853.0322158641295</v>
+        <v>710.5074405856149</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>1024.146855805355</v>
+        <v>906.6319801729189</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>1229.586365848415</v>
+        <v>1156.893651662219</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>1024.146855805355</v>
+        <v>853.0322158641292</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>755.1517466818979</v>
+        <v>802.6012508000016</v>
       </c>
       <c r="J56" s="0" t="n">
-        <v>1156.893651662218</v>
+        <v>963.5996533139049</v>
       </c>
       <c r="K56" s="0" t="n">
         <v>906.6319801729197</v>
@@ -17290,34 +17290,34 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="n">
-        <v>574.0358644560384</v>
+        <v>689.1850211150763</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>540.0990657190607</v>
+        <v>934.6819040603726</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>689.185021115077</v>
+        <v>449.8592171668389</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>574.0358644560386</v>
+        <v>778.5150842666425</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>879.42383810094</v>
+        <v>689.1850211150771</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>993.4120772351051</v>
+        <v>934.681904060373</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>1267.628046187687</v>
+        <v>1122.175124713068</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>993.4120772351049</v>
+        <v>879.4238381009396</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>732.4895458562606</v>
+        <v>778.5150842666425</v>
       </c>
       <c r="J57" s="0" t="n">
-        <v>1192.686321217968</v>
+        <v>934.6819040603725</v>
       </c>
       <c r="K57" s="0" t="n">
         <v>934.6819040603738</v>
@@ -17592,34 +17592,34 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="n">
-        <v>556.8089744983821</v>
+        <v>710.5074405856142</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>556.8089744983818</v>
+        <v>963.599653313905</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>710.5074405856149</v>
+        <v>436.3588843297709</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>556.8089744983822</v>
+        <v>802.6012508000017</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>853.0322158641296</v>
+        <v>710.507440585615</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>1024.146855805355</v>
+        <v>963.5996533139055</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>1306.846682845953</v>
+        <v>1088.498505213047</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>1024.146855805355</v>
+        <v>853.0322158641293</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>710.5074405856137</v>
+        <v>802.6012508000017</v>
       </c>
       <c r="J58" s="0" t="n">
-        <v>1156.893651662219</v>
+        <v>963.5996533139049</v>
       </c>
       <c r="K58" s="0" t="n">
         <v>963.5996533139063</v>
@@ -17894,34 +17894,34 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="n">
-        <v>574.0358644560384</v>
+        <v>689.1850211150764</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>540.0990657190607</v>
+        <v>993.4120772351051</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>689.1850211150771</v>
+        <v>449.859217166839</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>540.0990657190612</v>
+        <v>778.5150842666425</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>879.4238381009401</v>
+        <v>732.489545856262</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>1055.832525385902</v>
+        <v>934.6819040603731</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>1347.278689203604</v>
+        <v>1122.175124713068</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>1055.832525385902</v>
+        <v>879.4238381009397</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>689.185021115076</v>
+        <v>827.4326095974508</v>
       </c>
       <c r="J59" s="0" t="n">
-        <v>1122.175124713068</v>
+        <v>934.6819040603725</v>
       </c>
       <c r="K59" s="0" t="n">
         <v>993.4120772351064</v>
@@ -18196,34 +18196,34 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="n">
-        <v>591.7957302657463</v>
+        <v>668.50249018913</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>556.8089744983818</v>
+        <v>1024.146855805355</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>668.5024901891305</v>
+        <v>463.7772313970372</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>523.8906234465701</v>
+        <v>802.6012508000017</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>853.0322158641297</v>
+        <v>710.5074405856151</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>1088.498505213047</v>
+        <v>906.6319801729192</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>1306.846682845954</v>
+        <v>1156.893651662219</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>1088.498505213046</v>
+        <v>906.6319801729184</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>668.5024901891295</v>
+        <v>802.6012508000018</v>
       </c>
       <c r="J60" s="0" t="n">
-        <v>1088.498505213047</v>
+        <v>906.6319801729186</v>
       </c>
       <c r="K60" s="0" t="n">
         <v>963.5996533139063</v>
@@ -18498,34 +18498,34 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="n">
-        <v>574.0358644560386</v>
+        <v>689.1850211150766</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>574.0358644560381</v>
+        <v>1055.832525385902</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>689.1850211150771</v>
+        <v>449.859217166839</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>540.0990657190613</v>
+        <v>827.4326095974508</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>879.4238381009402</v>
+        <v>732.4895458562621</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>1122.175124713067</v>
+        <v>934.6819040603732</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>1267.628046187687</v>
+        <v>1192.686321217968</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>1122.175124713067</v>
+        <v>934.6819040603724</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>689.1850211150761</v>
+        <v>778.5150842666426</v>
       </c>
       <c r="J61" s="0" t="n">
-        <v>1122.175124713068</v>
+        <v>879.4238381009401</v>
       </c>
       <c r="K61" s="0" t="n">
         <v>993.4120772351064</v>
@@ -18800,34 +18800,34 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="n">
-        <v>591.7957302657464</v>
+        <v>668.5024901891301</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>591.795730265746</v>
+        <v>1088.498505213047</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>668.5024901891305</v>
+        <v>463.7772313970373</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>523.8906234465701</v>
+        <v>802.6012508000018</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>906.6319801729188</v>
+        <v>755.1517466818995</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>1156.893651662218</v>
+        <v>963.5996533139057</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>1229.586365848415</v>
+        <v>1156.893651662219</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>1156.893651662218</v>
+        <v>963.5996533139048</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>668.5024901891296</v>
+        <v>755.1517466818982</v>
       </c>
       <c r="J62" s="0" t="n">
-        <v>1156.893651662219</v>
+        <v>853.0322158641297</v>
       </c>
       <c r="K62" s="0" t="n">
         <v>1024.146855805357</v>
@@ -19102,34 +19102,34 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="n">
-        <v>574.0358644560387</v>
+        <v>689.1850211150767</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>574.0358644560382</v>
+        <v>1122.175124713067</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>689.1850211150771</v>
+        <v>449.8592171668391</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>508.1685986066863</v>
+        <v>778.5150842666426</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>934.6819040603729</v>
+        <v>778.515084266644</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>1122.175124713067</v>
+        <v>993.4120772351058</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>1192.686321217968</v>
+        <v>1192.686321217969</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>1122.175124713067</v>
+        <v>993.4120772351049</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>648.4406446704351</v>
+        <v>778.5150842666426</v>
       </c>
       <c r="J63" s="0" t="n">
-        <v>1192.686321217968</v>
+        <v>827.4326095974511</v>
       </c>
       <c r="K63" s="0" t="n">
         <v>1055.832525385903</v>
@@ -19404,34 +19404,34 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="n">
-        <v>556.8089744983823</v>
+        <v>710.5074405856145</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>556.8089744983819</v>
+        <v>1156.893651662218</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>668.5024901891305</v>
+        <v>436.3588843297711</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>492.9183937498358</v>
+        <v>802.6012508000018</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>906.6319801729189</v>
+        <v>755.1517466818996</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>1088.498505213047</v>
+        <v>1024.146855805356</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>1156.893651662219</v>
+        <v>1156.89365166222</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>1156.893651662218</v>
+        <v>1024.146855805355</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>668.5024901891297</v>
+        <v>802.6012508000018</v>
       </c>
       <c r="J64" s="0" t="n">
-        <v>1229.586365848416</v>
+        <v>802.6012508000022</v>
       </c>
       <c r="K64" s="0" t="n">
         <v>1088.498505213048</v>
@@ -19706,34 +19706,34 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="n">
-        <v>574.0358644560387</v>
+        <v>732.4895458562615</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>540.0990657190608</v>
+        <v>1192.686321217968</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>648.4406446704359</v>
+        <v>423.263698213625</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>478.1258494977799</v>
+        <v>778.5150842666426</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>934.681904060373</v>
+        <v>778.5150842666441</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>1055.832525385902</v>
+        <v>993.4120772351058</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>1192.686321217968</v>
+        <v>1192.686321217969</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>1122.175124713067</v>
+        <v>993.4120772351049</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>648.4406446704352</v>
+        <v>827.4326095974509</v>
       </c>
       <c r="J65" s="0" t="n">
-        <v>1267.628046187688</v>
+        <v>827.4326095974512</v>
       </c>
       <c r="K65" s="0" t="n">
         <v>1122.175124713068</v>
@@ -20008,34 +20008,34 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="n">
-        <v>591.7957302657466</v>
+        <v>755.1517466818989</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>523.8906234465697</v>
+        <v>1229.586365848415</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>668.5024901891305</v>
+        <v>410.5615003133139</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>463.7772313970376</v>
+        <v>802.6012508000018</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>963.5996533139055</v>
+        <v>802.6012508000034</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>1088.498505213047</v>
+        <v>963.5996533139058</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>1229.586365848416</v>
+        <v>1156.89365166222</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>1156.893651662219</v>
+        <v>1024.146855805355</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>668.5024901891298</v>
+        <v>802.6012508000019</v>
       </c>
       <c r="J66" s="0" t="n">
-        <v>1229.586365848416</v>
+        <v>853.03221586413</v>
       </c>
       <c r="K66" s="0" t="n">
         <v>1156.89365166222</v>
@@ -20310,34 +20310,34 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="n">
-        <v>574.0358644560388</v>
+        <v>732.4895458562617</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>508.1685986066859</v>
+        <v>1192.686321217968</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>689.1850211150771</v>
+        <v>398.2404970020489</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>478.12584949778</v>
+        <v>778.5150842666426</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>934.6819040603731</v>
+        <v>778.5150842666442</v>
       </c>
       <c r="F67" s="0" t="n">
+        <v>934.6819040603734</v>
+      </c>
+      <c r="G67" s="0" t="n">
         <v>1122.175124713068</v>
       </c>
-      <c r="G67" s="0" t="n">
-        <v>1267.628046187687</v>
-      </c>
       <c r="H67" s="0" t="n">
-        <v>1192.686321217968</v>
+        <v>993.4120772351049</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>648.4406446704353</v>
+        <v>778.5150842666427</v>
       </c>
       <c r="J67" s="0" t="n">
-        <v>1192.686321217969</v>
+        <v>879.4238381009404</v>
       </c>
       <c r="K67" s="0" t="n">
         <v>1192.686321217969</v>
@@ -20612,34 +20612,34 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="n">
-        <v>556.8089744983824</v>
+        <v>755.151746681899</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>523.8906234465697</v>
+        <v>1229.586365848415</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>710.507440585615</v>
+        <v>386.2892485812944</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>463.7772313970377</v>
+        <v>802.6012508000018</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>963.5996533139056</v>
+        <v>802.6012508000035</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>1088.498505213047</v>
+        <v>963.5996533139059</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>1306.846682845954</v>
+        <v>1088.498505213048</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>1229.586365848415</v>
+        <v>963.5996533139049</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>628.9808577102692</v>
+        <v>755.1517466818983</v>
       </c>
       <c r="J68" s="0" t="n">
-        <v>1156.89365166222</v>
+        <v>853.0322158641301</v>
       </c>
       <c r="K68" s="0" t="n">
         <v>1229.586365848417</v>
@@ -20914,34 +20914,34 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="n">
-        <v>540.0990657190614</v>
+        <v>732.4895458562618</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>508.1685986066859</v>
+        <v>1267.628046187687</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>689.1850211150772</v>
+        <v>398.2404970020489</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>478.1258494977801</v>
+        <v>778.5150842666426</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>993.4120772351057</v>
+        <v>778.5150842666443</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>1122.175124713068</v>
+        <v>993.412077235106</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>1347.278689203605</v>
+        <v>1122.175124713069</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>1267.628046187687</v>
+        <v>934.6819040603725</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>648.4406446704354</v>
+        <v>732.4895458562611</v>
       </c>
       <c r="J69" s="0" t="n">
-        <v>1192.686321217969</v>
+        <v>827.4326095974515</v>
       </c>
       <c r="K69" s="0" t="n">
         <v>1192.686321217969</v>
@@ -21216,34 +21216,34 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="n">
-        <v>556.8089744983824</v>
+        <v>755.1517466818991</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>523.8906234465697</v>
+        <v>1306.846682845954</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>668.5024901891306</v>
+        <v>410.561500313314</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>463.7772313970377</v>
+        <v>802.6012508000018</v>
       </c>
       <c r="E70" s="0" t="n">
+        <v>755.1517466818999</v>
+      </c>
+      <c r="F70" s="0" t="n">
         <v>1024.146855805356</v>
       </c>
-      <c r="F70" s="0" t="n">
+      <c r="G70" s="0" t="n">
         <v>1088.498505213048</v>
       </c>
-      <c r="G70" s="0" t="n">
-        <v>1388.961605220027</v>
-      </c>
       <c r="H70" s="0" t="n">
-        <v>1306.846682845954</v>
+        <v>963.5996533139049</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>668.5024901891301</v>
+        <v>710.5074405856142</v>
       </c>
       <c r="J70" s="0" t="n">
-        <v>1229.586365848416</v>
+        <v>853.0322158641302</v>
       </c>
       <c r="K70" s="0" t="n">
         <v>1156.89365166222</v>
@@ -21518,34 +21518,34 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="n">
-        <v>574.0358644560388</v>
+        <v>778.5150842666436</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>508.1685986066859</v>
+        <v>1347.278689203605</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>648.440644670436</v>
+        <v>423.2636982136252</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>449.8592171668395</v>
+        <v>778.5150842666426</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>1055.832525385902</v>
+        <v>732.4895458562627</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>1122.175124713068</v>
+        <v>1055.832525385903</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>1347.278689203605</v>
+        <v>1122.175124713069</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>1347.278689203605</v>
+        <v>993.412077235105</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>648.4406446704355</v>
+        <v>689.1850211150764</v>
       </c>
       <c r="J71" s="0" t="n">
-        <v>1192.686321217969</v>
+        <v>879.4238381009407</v>
       </c>
       <c r="K71" s="0" t="n">
         <v>1192.686321217969</v>
@@ -21820,34 +21820,34 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="n">
-        <v>591.7957302657467</v>
+        <v>802.601250800003</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>492.9183937498355</v>
+        <v>1388.961605220027</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>628.9808577102698</v>
+        <v>410.5615003133141</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>463.7772313970378</v>
+        <v>755.1517466818982</v>
       </c>
       <c r="E72" s="0" t="n">
+        <v>755.1517466819</v>
+      </c>
+      <c r="F72" s="0" t="n">
         <v>1024.146855805356</v>
       </c>
-      <c r="F72" s="0" t="n">
-        <v>1156.893651662219</v>
-      </c>
       <c r="G72" s="0" t="n">
-        <v>1306.846682845955</v>
+        <v>1156.89365166222</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>1388.961605220027</v>
+        <v>963.599653313905</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>628.9808577102694</v>
+        <v>668.50249018913</v>
       </c>
       <c r="J72" s="0" t="n">
-        <v>1156.89365166222</v>
+        <v>853.0322158641303</v>
       </c>
       <c r="K72" s="0" t="n">
         <v>1156.89365166222</v>
@@ -22122,34 +22122,34 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="n">
-        <v>610.1050614540293</v>
+        <v>827.432609597452</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>508.168598606686</v>
+        <v>1347.278689203605</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>648.440644670436</v>
+        <v>398.240497002049</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>478.1258494977802</v>
+        <v>778.5150842666426</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>1055.832525385902</v>
+        <v>732.4895458562628</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>1192.686321217969</v>
+        <v>1055.832525385903</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>1267.628046187688</v>
+        <v>1122.175124713069</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>1347.278689203605</v>
+        <v>934.6819040603726</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>610.1050614540289</v>
+        <v>689.1850211150766</v>
       </c>
       <c r="J73" s="0" t="n">
-        <v>1122.175124713069</v>
+        <v>827.4326095974517</v>
       </c>
       <c r="K73" s="0" t="n">
         <v>1192.686321217969</v>
@@ -22424,34 +22424,34 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="n">
-        <v>628.9808577102699</v>
+        <v>802.6012508000031</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>523.8906234465699</v>
+        <v>1388.961605220027</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>668.5024901891306</v>
+        <v>386.2892485812946</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>463.7772313970378</v>
+        <v>755.1517466818982</v>
       </c>
       <c r="E74" s="0" t="n">
+        <v>710.5074405856158</v>
+      </c>
+      <c r="F74" s="0" t="n">
         <v>1024.146855805356</v>
       </c>
-      <c r="F74" s="0" t="n">
-        <v>1229.586365848416</v>
-      </c>
       <c r="G74" s="0" t="n">
-        <v>1229.586365848416</v>
+        <v>1088.498505213048</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>1306.846682845955</v>
+        <v>963.599653313905</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>628.9808577102696</v>
+        <v>710.5074405856144</v>
       </c>
       <c r="J74" s="0" t="n">
-        <v>1088.498505213048</v>
+        <v>802.6012508000027</v>
       </c>
       <c r="K74" s="0" t="n">
         <v>1229.586365848417</v>
@@ -22726,34 +22726,34 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="n">
-        <v>648.4406446704361</v>
+        <v>778.5150842666438</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>540.0990657190611</v>
+        <v>1431.934132288382</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>689.1850211150772</v>
+        <v>398.2404970020491</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>478.1258494977802</v>
+        <v>778.5150842666426</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>1055.832525385902</v>
+        <v>689.185021115078</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>1192.686321217969</v>
+        <v>993.412077235106</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>1192.686321217969</v>
+        <v>1055.832525385904</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>1347.278689203605</v>
+        <v>993.4120772351051</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>648.4406446704357</v>
+        <v>732.4895458562614</v>
       </c>
       <c r="J75" s="0" t="n">
-        <v>1055.832525385903</v>
+        <v>827.4326095974518</v>
       </c>
       <c r="K75" s="0" t="n">
         <v>1267.628046187689</v>
@@ -23028,34 +23028,34 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="n">
-        <v>628.9808577102699</v>
+        <v>755.1517466818995</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>523.89062344657</v>
+        <v>1388.961605220027</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>710.5074405856151</v>
+        <v>386.2892485812946</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>492.9183937498362</v>
+        <v>755.1517466818982</v>
       </c>
       <c r="E76" s="0" t="n">
+        <v>668.5024901891314</v>
+      </c>
+      <c r="F76" s="0" t="n">
         <v>1024.146855805356</v>
       </c>
-      <c r="F76" s="0" t="n">
-        <v>1229.586365848416</v>
-      </c>
       <c r="G76" s="0" t="n">
-        <v>1229.586365848416</v>
+        <v>1088.498505213048</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>1306.846682845955</v>
+        <v>963.5996533139052</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>628.9808577102696</v>
+        <v>755.1517466818988</v>
       </c>
       <c r="J76" s="0" t="n">
-        <v>1024.146855805357</v>
+        <v>802.6012508000028</v>
       </c>
       <c r="K76" s="0" t="n">
         <v>1229.586365848417</v>
@@ -23330,34 +23330,34 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="n">
-        <v>648.4406446704361</v>
+        <v>778.515084266644</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>540.0990657190612</v>
+        <v>1347.278689203605</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>732.4895458562621</v>
+        <v>374.6966586593363</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>508.1685986066867</v>
+        <v>732.489545856261</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>1055.832525385902</v>
+        <v>689.185021115078</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>1267.628046187688</v>
+        <v>1055.832525385903</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>1192.686321217969</v>
+        <v>1055.832525385904</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>1347.278689203605</v>
+        <v>993.4120772351052</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>610.1050614540291</v>
+        <v>732.4895458562615</v>
       </c>
       <c r="J77" s="0" t="n">
-        <v>993.4120772351067</v>
+        <v>778.5150842666436</v>
       </c>
       <c r="K77" s="0" t="n">
         <v>1192.686321217969</v>
@@ -23632,34 +23632,34 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="n">
-        <v>628.9808577102699</v>
+        <v>802.6012508000033</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>556.8089744983822</v>
+        <v>1388.961605220027</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>710.5074405856152</v>
+        <v>363.451963848599</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>523.8906234465705</v>
+        <v>710.5074405856141</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>1088.498505213047</v>
+        <v>668.5024901891314</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>1229.586365848417</v>
+        <v>1088.498505213048</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>1156.89365166222</v>
+        <v>1088.498505213048</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>1306.846682845955</v>
+        <v>1024.146855805356</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>591.7957302657464</v>
+        <v>755.1517466818989</v>
       </c>
       <c r="J78" s="0" t="n">
-        <v>963.5996533139066</v>
+        <v>802.601250800003</v>
       </c>
       <c r="K78" s="0" t="n">
         <v>1156.89365166222</v>
@@ -23934,34 +23934,34 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="n">
-        <v>648.4406446704361</v>
+        <v>778.5150842666441</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>574.0358644560386</v>
+        <v>1347.278689203605</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>689.1850211150775</v>
+        <v>352.5447237721501</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>540.0990657190617</v>
+        <v>689.1850211150763</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>1122.175124713068</v>
+        <v>689.185021115078</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>1192.686321217969</v>
+        <v>1055.832525385903</v>
       </c>
       <c r="G79" s="0" t="n">
         <v>1122.175124713069</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>1347.278689203606</v>
+        <v>993.4120772351054</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>574.0358644560387</v>
+        <v>732.4895458562617</v>
       </c>
       <c r="J79" s="0" t="n">
-        <v>993.4120772351068</v>
+        <v>827.432609597452</v>
       </c>
       <c r="K79" s="0" t="n">
         <v>1122.175124713069</v>
@@ -24236,34 +24236,34 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="n">
-        <v>628.9808577102699</v>
+        <v>802.6012508000034</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>591.7957302657464</v>
+        <v>1388.961605220027</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>668.5024901891309</v>
+        <v>363.4519638485991</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>556.8089744983828</v>
+        <v>668.5024901891298</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>1156.893651662219</v>
+        <v>710.5074405856159</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>1229.586365848417</v>
+        <v>1024.146855805356</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>1156.89365166222</v>
+        <v>1088.498505213048</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>1306.846682845955</v>
+        <v>1024.146855805356</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>591.7957302657466</v>
+        <v>710.5074405856147</v>
       </c>
       <c r="J80" s="0" t="n">
-        <v>963.5996533139067</v>
+        <v>853.0322158641308</v>
       </c>
       <c r="K80" s="0" t="n">
         <v>1088.498505213048</v>
@@ -24538,34 +24538,34 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="n">
-        <v>648.4406446704361</v>
+        <v>827.4326095974525</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>610.1050614540291</v>
+        <v>1431.934132288383</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>648.4406446704362</v>
+        <v>352.5447237721502</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>540.0990657190617</v>
+        <v>648.4406446704353</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>1192.686321217968</v>
+        <v>732.4895458562629</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>1267.628046187689</v>
+        <v>1055.832525385903</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>1192.686321217969</v>
+        <v>1055.832525385904</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>1347.278689203606</v>
+        <v>1055.832525385902</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>610.1050614540292</v>
+        <v>689.185021115077</v>
       </c>
       <c r="J81" s="0" t="n">
-        <v>993.4120772351069</v>
+        <v>827.4326095974521</v>
       </c>
       <c r="K81" s="0" t="n">
         <v>1122.175124713069</v>
@@ -24840,34 +24840,34 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="n">
-        <v>668.5024901891308</v>
+        <v>853.0322158641312</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>591.7957302657464</v>
+        <v>1476.236169168745</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>628.98085771027</v>
+        <v>341.9648113701085</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>556.8089744983828</v>
+        <v>668.50249018913</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>1156.893651662219</v>
+        <v>710.5074405856159</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>1229.586365848417</v>
+        <v>1088.498505213048</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>1156.89365166222</v>
+        <v>1088.498505213048</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>1388.961605220028</v>
+        <v>1088.498505213047</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>591.7957302657466</v>
+        <v>710.5074405856149</v>
       </c>
       <c r="J82" s="0" t="n">
-        <v>1024.146855805358</v>
+        <v>802.6012508000032</v>
       </c>
       <c r="K82" s="0" t="n">
         <v>1088.498505213048</v>
@@ -25142,34 +25142,34 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="n">
-        <v>648.4406446704361</v>
+        <v>879.4238381009417</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>610.1050614540291</v>
+        <v>1431.934132288383</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>610.1050614540295</v>
+        <v>352.5447237721502</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>574.0358644560391</v>
+        <v>689.1850211150766</v>
       </c>
       <c r="E83" s="0" t="n">
+        <v>689.185021115078</v>
+      </c>
+      <c r="F83" s="0" t="n">
         <v>1122.175124713068</v>
       </c>
-      <c r="F83" s="0" t="n">
-        <v>1267.628046187689</v>
-      </c>
       <c r="G83" s="0" t="n">
-        <v>1192.686321217969</v>
+        <v>1122.175124713069</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>1347.278689203606</v>
+        <v>1055.832525385902</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>610.1050614540292</v>
+        <v>689.1850211150771</v>
       </c>
       <c r="J83" s="0" t="n">
-        <v>993.4120772351072</v>
+        <v>827.4326095974523</v>
       </c>
       <c r="K83" s="0" t="n">
         <v>1122.175124713069</v>
@@ -25444,34 +25444,34 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="n">
-        <v>668.5024901891308</v>
+        <v>853.0322158641312</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>628.9808577102697</v>
+        <v>1388.961605220027</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>628.9808577102701</v>
+        <v>363.4519638485991</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>556.8089744983828</v>
+        <v>668.5024901891301</v>
       </c>
       <c r="E84" s="0" t="n">
+        <v>668.5024901891314</v>
+      </c>
+      <c r="F84" s="0" t="n">
+        <v>1156.893651662219</v>
+      </c>
+      <c r="G84" s="0" t="n">
         <v>1156.89365166222</v>
       </c>
-      <c r="F84" s="0" t="n">
-        <v>1229.586365848417</v>
-      </c>
-      <c r="G84" s="0" t="n">
-        <v>1229.586365848417</v>
-      </c>
       <c r="H84" s="0" t="n">
-        <v>1306.846682845955</v>
+        <v>1088.498505213047</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>591.7957302657466</v>
+        <v>710.507440585615</v>
       </c>
       <c r="J84" s="0" t="n">
-        <v>1024.146855805358</v>
+        <v>802.6012508000033</v>
       </c>
       <c r="K84" s="0" t="n">
         <v>1156.89365166222</v>
@@ -25746,34 +25746,34 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="n">
-        <v>648.4406446704361</v>
+        <v>879.4238381009417</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>610.1050614540292</v>
+        <v>1431.934132288383</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>610.1050614540296</v>
+        <v>374.6966586593364</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>540.0990657190617</v>
+        <v>648.4406446704355</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>1192.686321217969</v>
+        <v>689.185021115078</v>
       </c>
       <c r="F85" s="0" t="n">
+        <v>1122.175124713068</v>
+      </c>
+      <c r="G85" s="0" t="n">
         <v>1192.68632121797</v>
       </c>
-      <c r="G85" s="0" t="n">
-        <v>1192.686321217969</v>
-      </c>
       <c r="H85" s="0" t="n">
-        <v>1267.628046187689</v>
+        <v>1055.832525385902</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>610.1050614540292</v>
+        <v>689.1850211150772</v>
       </c>
       <c r="J85" s="0" t="n">
-        <v>993.4120772351074</v>
+        <v>827.4326095974524</v>
       </c>
       <c r="K85" s="0" t="n">
         <v>1192.68632121797</v>
@@ -26048,34 +26048,34 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="n">
-        <v>628.9808577102699</v>
+        <v>906.6319801729203</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>628.9808577102698</v>
+        <v>1388.961605220027</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>591.795730265747</v>
+        <v>363.4519638485992</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>523.8906234465705</v>
+        <v>668.5024901891302</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>1156.89365166222</v>
+        <v>668.5024901891314</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>1229.586365848417</v>
+        <v>1088.498505213048</v>
       </c>
       <c r="G86" s="0" t="n">
         <v>1156.89365166222</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>1229.586365848417</v>
+        <v>1024.146855805356</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>628.9808577102698</v>
+        <v>668.5024901891306</v>
       </c>
       <c r="J86" s="0" t="n">
-        <v>1024.146855805358</v>
+        <v>853.0322158641311</v>
       </c>
       <c r="K86" s="0" t="n">
         <v>1156.89365166222</v>
@@ -26350,34 +26350,34 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="n">
-        <v>610.1050614540294</v>
+        <v>934.6819040603743</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>610.1050614540293</v>
+        <v>1347.278689203606</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>610.1050614540296</v>
+        <v>374.6966586593365</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>540.0990657190617</v>
+        <v>689.1850211150768</v>
       </c>
       <c r="E87" s="0" t="n">
+        <v>689.185021115078</v>
+      </c>
+      <c r="F87" s="0" t="n">
         <v>1122.175124713068</v>
-      </c>
-      <c r="F87" s="0" t="n">
-        <v>1267.628046187689</v>
       </c>
       <c r="G87" s="0" t="n">
         <v>1122.175124713069</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>1267.628046187689</v>
+        <v>993.4120772351054</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>610.1050614540293</v>
+        <v>689.1850211150772</v>
       </c>
       <c r="J87" s="0" t="n">
-        <v>993.4120772351076</v>
+        <v>879.4238381009416</v>
       </c>
       <c r="K87" s="0" t="n">
         <v>1192.68632121797</v>
@@ -26652,34 +26652,34 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="n">
-        <v>628.98085771027</v>
+        <v>963.5996533139069</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>591.7957302657467</v>
+        <v>1388.961605220028</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>591.795730265747</v>
+        <v>363.4519638485992</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>523.8906234465705</v>
+        <v>668.5024901891303</v>
       </c>
       <c r="E88" s="0" t="n">
+        <v>710.5074405856159</v>
+      </c>
+      <c r="F88" s="0" t="n">
         <v>1088.498505213048</v>
       </c>
-      <c r="F88" s="0" t="n">
-        <v>1306.846682845956</v>
-      </c>
       <c r="G88" s="0" t="n">
-        <v>1088.498505213048</v>
+        <v>1156.89365166222</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>1306.846682845956</v>
+        <v>963.5996533139054</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>628.9808577102699</v>
+        <v>710.5074405856151</v>
       </c>
       <c r="J88" s="0" t="n">
-        <v>963.5996533139075</v>
+        <v>906.6319801729202</v>
       </c>
       <c r="K88" s="0" t="n">
         <v>1156.89365166222</v>
@@ -26954,34 +26954,34 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="n">
-        <v>648.4406446704362</v>
+        <v>934.6819040603744</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>574.0358644560389</v>
+        <v>1431.934132288383</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>610.1050614540296</v>
+        <v>352.5447237721503</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>540.0990657190617</v>
+        <v>648.4406446704357</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>1122.175124713069</v>
+        <v>689.185021115078</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>1267.628046187689</v>
+        <v>1055.832525385903</v>
       </c>
       <c r="G89" s="0" t="n">
         <v>1122.175124713069</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>1347.278689203606</v>
+        <v>934.681904060373</v>
       </c>
       <c r="I89" s="0" t="n">
-        <v>610.1050614540294</v>
+        <v>689.1850211150773</v>
       </c>
       <c r="J89" s="0" t="n">
-        <v>993.4120772351077</v>
+        <v>934.6819040603742</v>
       </c>
       <c r="K89" s="0" t="n">
         <v>1122.175124713069</v>
@@ -27256,34 +27256,34 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="n">
-        <v>668.5024901891309</v>
+        <v>963.599653313907</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>591.7957302657468</v>
+        <v>1388.961605220028</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>591.795730265747</v>
+        <v>341.9648113701086</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>556.8089744983828</v>
+        <v>668.5024901891304</v>
       </c>
       <c r="E90" s="0" t="n">
+        <v>710.5074405856159</v>
+      </c>
+      <c r="F90" s="0" t="n">
         <v>1088.498505213048</v>
       </c>
-      <c r="F90" s="0" t="n">
-        <v>1229.586365848417</v>
-      </c>
       <c r="G90" s="0" t="n">
-        <v>1156.89365166222</v>
+        <v>1088.498505213049</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>1388.961605220028</v>
+        <v>963.5996533139055</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>591.7957302657468</v>
+        <v>710.5074405856152</v>
       </c>
       <c r="J90" s="0" t="n">
-        <v>1024.146855805358</v>
+        <v>963.5996533139067</v>
       </c>
       <c r="K90" s="0" t="n">
         <v>1088.498505213049</v>
@@ -27558,34 +27558,34 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="n">
+        <v>934.6819040603746</v>
+      </c>
+      <c r="B91" s="0" t="n">
+        <v>1431.934132288383</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>352.5447237721503</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>689.185021115077</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>732.4895458562629</v>
+      </c>
+      <c r="F91" s="0" t="n">
+        <v>1055.832525385903</v>
+      </c>
+      <c r="G91" s="0" t="n">
+        <v>1122.175124713069</v>
+      </c>
+      <c r="H91" s="0" t="n">
+        <v>934.6819040603731</v>
+      </c>
+      <c r="I91" s="0" t="n">
         <v>689.1850211150775</v>
       </c>
-      <c r="B91" s="0" t="n">
-        <v>610.1050614540294</v>
-      </c>
-      <c r="C91" s="0" t="n">
-        <v>574.0358644560392</v>
-      </c>
-      <c r="D91" s="0" t="n">
-        <v>540.0990657190617</v>
-      </c>
-      <c r="E91" s="0" t="n">
-        <v>1055.832525385903</v>
-      </c>
-      <c r="F91" s="0" t="n">
-        <v>1267.628046187689</v>
-      </c>
-      <c r="G91" s="0" t="n">
-        <v>1192.68632121797</v>
-      </c>
-      <c r="H91" s="0" t="n">
-        <v>1431.934132288384</v>
-      </c>
-      <c r="I91" s="0" t="n">
-        <v>574.035864456039</v>
-      </c>
       <c r="J91" s="0" t="n">
-        <v>1055.832525385905</v>
+        <v>993.4120772351069</v>
       </c>
       <c r="K91" s="0" t="n">
         <v>1055.832525385904</v>
@@ -27860,31 +27860,31 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="n">
+        <v>906.6319801729205</v>
+      </c>
+      <c r="B92" s="0" t="n">
+        <v>1388.961605220028</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>363.4519638485993</v>
+      </c>
+      <c r="D92" s="0" t="n">
+        <v>668.5024901891305</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>710.5074405856159</v>
+      </c>
+      <c r="F92" s="0" t="n">
+        <v>1088.498505213048</v>
+      </c>
+      <c r="G92" s="0" t="n">
+        <v>1088.498505213049</v>
+      </c>
+      <c r="H92" s="0" t="n">
+        <v>906.6319801729192</v>
+      </c>
+      <c r="I92" s="0" t="n">
         <v>668.5024901891309</v>
-      </c>
-      <c r="B92" s="0" t="n">
-        <v>591.7957302657468</v>
-      </c>
-      <c r="C92" s="0" t="n">
-        <v>556.8089744983829</v>
-      </c>
-      <c r="D92" s="0" t="n">
-        <v>556.8089744983828</v>
-      </c>
-      <c r="E92" s="0" t="n">
-        <v>1024.146855805357</v>
-      </c>
-      <c r="F92" s="0" t="n">
-        <v>1229.586365848417</v>
-      </c>
-      <c r="G92" s="0" t="n">
-        <v>1156.89365166222</v>
-      </c>
-      <c r="H92" s="0" t="n">
-        <v>1476.236169168746</v>
-      </c>
-      <c r="I92" s="0" t="n">
-        <v>556.8089744983827</v>
       </c>
       <c r="J92" s="0" t="n">
         <v>1024.146855805358</v>
@@ -28162,34 +28162,34 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="n">
+        <v>879.4238381009419</v>
+      </c>
+      <c r="B93" s="0" t="n">
+        <v>1431.934132288383</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>352.5447237721504</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>648.4406446704359</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>732.4895458562629</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <v>1122.175124713069</v>
+      </c>
+      <c r="G93" s="0" t="n">
+        <v>1122.175124713069</v>
+      </c>
+      <c r="H93" s="0" t="n">
+        <v>879.4238381009407</v>
+      </c>
+      <c r="I93" s="0" t="n">
         <v>648.4406446704362</v>
       </c>
-      <c r="B93" s="0" t="n">
-        <v>610.1050614540294</v>
-      </c>
-      <c r="C93" s="0" t="n">
-        <v>574.0358644560392</v>
-      </c>
-      <c r="D93" s="0" t="n">
-        <v>540.0990657190617</v>
-      </c>
-      <c r="E93" s="0" t="n">
-        <v>1055.832525385903</v>
-      </c>
-      <c r="F93" s="0" t="n">
-        <v>1267.62804618769</v>
-      </c>
-      <c r="G93" s="0" t="n">
-        <v>1192.68632121797</v>
-      </c>
-      <c r="H93" s="0" t="n">
-        <v>1521.908849032954</v>
-      </c>
-      <c r="I93" s="0" t="n">
-        <v>540.0990657190616</v>
-      </c>
       <c r="J93" s="0" t="n">
-        <v>993.4120772351081</v>
+        <v>1055.832525385904</v>
       </c>
       <c r="K93" s="0" t="n">
         <v>1122.175124713069</v>
@@ -28464,34 +28464,34 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="n">
+        <v>853.0322158641314</v>
+      </c>
+      <c r="B94" s="0" t="n">
+        <v>1388.961605220028</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>363.4519638485993</v>
+      </c>
+      <c r="D94" s="0" t="n">
+        <v>628.9808577102697</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>710.5074405856159</v>
+      </c>
+      <c r="F94" s="0" t="n">
+        <v>1088.498505213048</v>
+      </c>
+      <c r="G94" s="0" t="n">
+        <v>1156.893651662221</v>
+      </c>
+      <c r="H94" s="0" t="n">
+        <v>853.0322158641303</v>
+      </c>
+      <c r="I94" s="0" t="n">
         <v>628.98085771027</v>
       </c>
-      <c r="B94" s="0" t="n">
-        <v>591.7957302657468</v>
-      </c>
-      <c r="C94" s="0" t="n">
-        <v>556.8089744983829</v>
-      </c>
-      <c r="D94" s="0" t="n">
-        <v>523.8906234465705</v>
-      </c>
-      <c r="E94" s="0" t="n">
-        <v>1088.498505213048</v>
-      </c>
-      <c r="F94" s="0" t="n">
-        <v>1306.846682845956</v>
-      </c>
-      <c r="G94" s="0" t="n">
-        <v>1229.586365848417</v>
-      </c>
-      <c r="H94" s="0" t="n">
-        <v>1476.236169168747</v>
-      </c>
-      <c r="I94" s="0" t="n">
-        <v>556.8089744983827</v>
-      </c>
       <c r="J94" s="0" t="n">
-        <v>1024.146855805359</v>
+        <v>1088.498505213049</v>
       </c>
       <c r="K94" s="0" t="n">
         <v>1088.498505213049</v>
@@ -28766,34 +28766,34 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="n">
-        <v>610.1050614540295</v>
+        <v>879.4238381009419</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>574.035864456039</v>
+        <v>1347.278689203606</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>574.0358644560392</v>
+        <v>352.5447237721505</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>508.1685986066867</v>
+        <v>648.4406446704359</v>
       </c>
       <c r="E95" s="0" t="n">
+        <v>732.4895458562629</v>
+      </c>
+      <c r="F95" s="0" t="n">
         <v>1055.832525385903</v>
       </c>
-      <c r="F95" s="0" t="n">
-        <v>1347.278689203607</v>
-      </c>
       <c r="G95" s="0" t="n">
-        <v>1267.628046187689</v>
+        <v>1192.68632121797</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>1431.934132288384</v>
+        <v>879.4238381009408</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>574.035864456039</v>
+        <v>648.4406446704362</v>
       </c>
       <c r="J95" s="0" t="n">
-        <v>1055.832525385905</v>
+        <v>1122.175124713069</v>
       </c>
       <c r="K95" s="0" t="n">
         <v>1122.175124713069</v>
@@ -29068,34 +29068,34 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="n">
-        <v>591.7957302657469</v>
+        <v>906.6319801729206</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>591.7957302657469</v>
+        <v>1306.846682845955</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>556.8089744983829</v>
+        <v>341.9648113701087</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>492.9183937498363</v>
+        <v>668.5024901891305</v>
       </c>
       <c r="E96" s="0" t="n">
+        <v>710.5074405856159</v>
+      </c>
+      <c r="F96" s="0" t="n">
         <v>1088.498505213048</v>
-      </c>
-      <c r="F96" s="0" t="n">
-        <v>1306.846682845956</v>
       </c>
       <c r="G96" s="0" t="n">
         <v>1229.586365848417</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>1388.961605220029</v>
+        <v>906.6319801729194</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>556.8089744983827</v>
+        <v>668.5024901891309</v>
       </c>
       <c r="J96" s="0" t="n">
-        <v>1088.49850521305</v>
+        <v>1156.89365166222</v>
       </c>
       <c r="K96" s="0" t="n">
         <v>1156.89365166222</v>
@@ -29370,34 +29370,34 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="n">
-        <v>574.0358644560391</v>
+        <v>934.6819040603748</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>610.1050614540295</v>
+        <v>1347.278689203606</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>574.0358644560392</v>
+        <v>331.7024034969597</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>478.1258494977803</v>
+        <v>689.1850211150771</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>1055.832525385903</v>
+        <v>689.185021115078</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>1267.62804618769</v>
+        <v>1122.175124713069</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>1267.628046187689</v>
+        <v>1192.68632121797</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>1347.278689203607</v>
+        <v>934.6819040603734</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>540.0990657190616</v>
+        <v>689.1850211150775</v>
       </c>
       <c r="J97" s="0" t="n">
-        <v>1055.832525385905</v>
+        <v>1192.68632121797</v>
       </c>
       <c r="K97" s="0" t="n">
         <v>1192.68632121797</v>
@@ -29672,34 +29672,34 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="n">
-        <v>591.795730265747</v>
+        <v>963.5996533139073</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>591.7957302657469</v>
+        <v>1306.846682845955</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>591.7957302657471</v>
+        <v>321.7479718010463</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>463.777231397038</v>
+        <v>710.507440585615</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>1088.498505213048</v>
+        <v>710.5074405856159</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>1306.846682845956</v>
+        <v>1156.89365166222</v>
       </c>
       <c r="G98" s="0" t="n">
         <v>1229.586365848417</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>1388.961605220029</v>
+        <v>963.5996533139059</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>556.8089744983827</v>
+        <v>710.5074405856153</v>
       </c>
       <c r="J98" s="0" t="n">
-        <v>1024.146855805359</v>
+        <v>1156.89365166222</v>
       </c>
       <c r="K98" s="0" t="n">
         <v>1156.89365166222</v>
@@ -29974,34 +29974,34 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="n">
-        <v>610.1050614540296</v>
+        <v>934.6819040603749</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>610.1050614540295</v>
+        <v>1347.278689203606</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>610.1050614540297</v>
+        <v>312.0922738777675</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>478.1258494977803</v>
+        <v>689.1850211150772</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>1055.832525385903</v>
+        <v>689.185021115078</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>1347.278689203607</v>
+        <v>1122.175124713069</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>1192.68632121797</v>
+        <v>1267.62804618769</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>1347.278689203607</v>
+        <v>934.6819040603735</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>574.035864456039</v>
+        <v>689.1850211150776</v>
       </c>
       <c r="J99" s="0" t="n">
-        <v>1055.832525385905</v>
+        <v>1122.175124713069</v>
       </c>
       <c r="K99" s="0" t="n">
         <v>1192.68632121797</v>
@@ -30276,34 +30276,34 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="n">
-        <v>628.9808577102702</v>
+        <v>963.5996533139074</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>628.9808577102701</v>
+        <v>1306.846682845955</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>591.7957302657471</v>
+        <v>302.7263446882704</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>492.9183937498363</v>
+        <v>668.5024901891306</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>1088.498505213048</v>
+        <v>710.5074405856159</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>1388.961605220029</v>
+        <v>1156.89365166222</v>
       </c>
       <c r="G100" s="0" t="n">
+        <v>1306.846682845956</v>
+      </c>
+      <c r="H100" s="0" t="n">
+        <v>906.6319801729196</v>
+      </c>
+      <c r="I100" s="0" t="n">
+        <v>668.502490189131</v>
+      </c>
+      <c r="J100" s="0" t="n">
         <v>1156.893651662221</v>
-      </c>
-      <c r="H100" s="0" t="n">
-        <v>1306.846682845956</v>
-      </c>
-      <c r="I100" s="0" t="n">
-        <v>556.8089744983827</v>
-      </c>
-      <c r="J100" s="0" t="n">
-        <v>1024.146855805359</v>
       </c>
       <c r="K100" s="0" t="n">
         <v>1229.586365848417</v>
@@ -30578,34 +30578,34 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="n">
-        <v>648.4406446704364</v>
+        <v>993.4120772351076</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>648.4406446704363</v>
+        <v>1267.628046187689</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>610.1050614540297</v>
+        <v>312.0922738777676</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>478.1258494977803</v>
+        <v>648.440644670436</v>
       </c>
       <c r="E101" s="0" t="n">
+        <v>732.4895458562629</v>
+      </c>
+      <c r="F101" s="0" t="n">
         <v>1122.175124713069</v>
       </c>
-      <c r="F101" s="0" t="n">
-        <v>1347.278689203607</v>
-      </c>
       <c r="G101" s="0" t="n">
-        <v>1122.17512471307</v>
+        <v>1267.62804618769</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>1267.628046187689</v>
+        <v>879.4238381009411</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>540.0990657190616</v>
+        <v>689.1850211150776</v>
       </c>
       <c r="J101" s="0" t="n">
-        <v>1055.832525385906</v>
+        <v>1192.68632121797</v>
       </c>
       <c r="K101" s="0" t="n">
         <v>1267.628046187689</v>
@@ -30880,34 +30880,34 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="n">
-        <v>628.9808577102702</v>
+        <v>1024.146855805358</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>628.9808577102701</v>
+        <v>1306.846682845955</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>591.7957302657471</v>
+        <v>302.7263446882704</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>463.777231397038</v>
+        <v>628.9808577102698</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>1156.89365166222</v>
+        <v>710.5074405856159</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>1388.961605220029</v>
+        <v>1088.498505213049</v>
       </c>
       <c r="G102" s="0" t="n">
+        <v>1306.846682845956</v>
+      </c>
+      <c r="H102" s="0" t="n">
+        <v>906.6319801729197</v>
+      </c>
+      <c r="I102" s="0" t="n">
+        <v>710.5074405856154</v>
+      </c>
+      <c r="J102" s="0" t="n">
         <v>1156.893651662221</v>
-      </c>
-      <c r="H102" s="0" t="n">
-        <v>1306.846682845956</v>
-      </c>
-      <c r="I102" s="0" t="n">
-        <v>523.8906234465704</v>
-      </c>
-      <c r="J102" s="0" t="n">
-        <v>1024.146855805359</v>
       </c>
       <c r="K102" s="0" t="n">
         <v>1306.846682845956</v>
@@ -31182,34 +31182,34 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="n">
-        <v>648.4406446704364</v>
+        <v>993.4120772351079</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>648.4406446704363</v>
+        <v>1267.628046187689</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>610.1050614540297</v>
+        <v>312.0922738777676</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>449.8592171668398</v>
+        <v>610.1050614540293</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>1192.686321217969</v>
+        <v>732.4895458562629</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>1347.278689203607</v>
+        <v>1055.832525385904</v>
       </c>
       <c r="G103" s="0" t="n">
+        <v>1267.62804618769</v>
+      </c>
+      <c r="H103" s="0" t="n">
+        <v>934.6819040603738</v>
+      </c>
+      <c r="I103" s="0" t="n">
+        <v>689.1850211150777</v>
+      </c>
+      <c r="J103" s="0" t="n">
         <v>1122.17512471307</v>
-      </c>
-      <c r="H103" s="0" t="n">
-        <v>1347.278689203607</v>
-      </c>
-      <c r="I103" s="0" t="n">
-        <v>508.1685986066866</v>
-      </c>
-      <c r="J103" s="0" t="n">
-        <v>993.4120772351089</v>
       </c>
       <c r="K103" s="0" t="n">
         <v>1267.628046187689</v>
@@ -31484,34 +31484,34 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="n">
+        <v>1024.146855805358</v>
+      </c>
+      <c r="B104" s="0" t="n">
+        <v>1306.846682845955</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>302.7263446882705</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <v>628.9808577102699</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <v>755.1517466819002</v>
+      </c>
+      <c r="F104" s="0" t="n">
+        <v>1024.146855805358</v>
+      </c>
+      <c r="G104" s="0" t="n">
+        <v>1306.846682845956</v>
+      </c>
+      <c r="H104" s="0" t="n">
+        <v>963.5996533139063</v>
+      </c>
+      <c r="I104" s="0" t="n">
         <v>668.5024901891311</v>
       </c>
-      <c r="B104" s="0" t="n">
-        <v>628.9808577102701</v>
-      </c>
-      <c r="C104" s="0" t="n">
-        <v>628.9808577102704</v>
-      </c>
-      <c r="D104" s="0" t="n">
-        <v>436.3588843297718</v>
-      </c>
-      <c r="E104" s="0" t="n">
-        <v>1156.89365166222</v>
-      </c>
-      <c r="F104" s="0" t="n">
-        <v>1388.961605220029</v>
-      </c>
-      <c r="G104" s="0" t="n">
-        <v>1088.498505213049</v>
-      </c>
-      <c r="H104" s="0" t="n">
-        <v>1306.846682845956</v>
-      </c>
-      <c r="I104" s="0" t="n">
-        <v>523.8906234465705</v>
-      </c>
       <c r="J104" s="0" t="n">
-        <v>1024.146855805359</v>
+        <v>1156.893651662221</v>
       </c>
       <c r="K104" s="0" t="n">
         <v>1229.586365848417</v>
@@ -31786,34 +31786,34 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="n">
+        <v>1055.832525385905</v>
+      </c>
+      <c r="B105" s="0" t="n">
+        <v>1267.628046187689</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>293.6414882356686</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <v>610.1050614540294</v>
+      </c>
+      <c r="E105" s="0" t="n">
+        <v>732.489545856263</v>
+      </c>
+      <c r="F105" s="0" t="n">
+        <v>1055.832525385904</v>
+      </c>
+      <c r="G105" s="0" t="n">
+        <v>1347.278689203607</v>
+      </c>
+      <c r="H105" s="0" t="n">
+        <v>934.6819040603739</v>
+      </c>
+      <c r="I105" s="0" t="n">
         <v>648.4406446704364</v>
       </c>
-      <c r="B105" s="0" t="n">
-        <v>648.4406446704363</v>
-      </c>
-      <c r="C105" s="0" t="n">
-        <v>610.1050614540299</v>
-      </c>
-      <c r="D105" s="0" t="n">
-        <v>423.2636982136257</v>
-      </c>
-      <c r="E105" s="0" t="n">
-        <v>1122.175124713069</v>
-      </c>
-      <c r="F105" s="0" t="n">
-        <v>1431.934132288385</v>
-      </c>
-      <c r="G105" s="0" t="n">
+      <c r="J105" s="0" t="n">
         <v>1122.17512471307</v>
-      </c>
-      <c r="H105" s="0" t="n">
-        <v>1347.278689203607</v>
-      </c>
-      <c r="I105" s="0" t="n">
-        <v>540.0990657190617</v>
-      </c>
-      <c r="J105" s="0" t="n">
-        <v>1055.832525385906</v>
       </c>
       <c r="K105" s="0" t="n">
         <v>1192.68632121797</v>
@@ -32088,34 +32088,34 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="n">
-        <v>668.5024901891311</v>
+        <v>1088.49850521305</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>628.9808577102701</v>
+        <v>1229.586365848417</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>591.7957302657472</v>
+        <v>302.7263446882706</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>410.5615003133145</v>
+        <v>628.98085771027</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>1156.89365166222</v>
+        <v>710.507440585616</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>1476.236169168747</v>
+        <v>1088.498505213049</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>1088.498505213049</v>
+        <v>1388.961605220029</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>1388.961605220029</v>
+        <v>963.5996533139064</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>523.8906234465705</v>
+        <v>628.9808577102702</v>
       </c>
       <c r="J106" s="0" t="n">
-        <v>1088.498505213051</v>
+        <v>1156.893651662221</v>
       </c>
       <c r="K106" s="0" t="n">
         <v>1156.893651662221</v>
@@ -32390,34 +32390,34 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="n">
+        <v>1122.17512471307</v>
+      </c>
+      <c r="B107" s="0" t="n">
+        <v>1267.628046187689</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>293.6414882356686</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <v>610.1050614540295</v>
+      </c>
+      <c r="E107" s="0" t="n">
+        <v>689.1850211150781</v>
+      </c>
+      <c r="F107" s="0" t="n">
+        <v>1055.832525385904</v>
+      </c>
+      <c r="G107" s="0" t="n">
+        <v>1347.278689203607</v>
+      </c>
+      <c r="H107" s="0" t="n">
+        <v>993.4120772351065</v>
+      </c>
+      <c r="I107" s="0" t="n">
         <v>648.4406446704364</v>
       </c>
-      <c r="B107" s="0" t="n">
-        <v>648.4406446704363</v>
-      </c>
-      <c r="C107" s="0" t="n">
-        <v>610.1050614540299</v>
-      </c>
-      <c r="D107" s="0" t="n">
-        <v>423.2636982136257</v>
-      </c>
-      <c r="E107" s="0" t="n">
-        <v>1122.175124713069</v>
-      </c>
-      <c r="F107" s="0" t="n">
-        <v>1431.934132288385</v>
-      </c>
-      <c r="G107" s="0" t="n">
-        <v>1122.17512471307</v>
-      </c>
-      <c r="H107" s="0" t="n">
-        <v>1431.934132288384</v>
-      </c>
-      <c r="I107" s="0" t="n">
-        <v>540.0990657190617</v>
-      </c>
       <c r="J107" s="0" t="n">
-        <v>1122.175124713071</v>
+        <v>1192.686321217971</v>
       </c>
       <c r="K107" s="0" t="n">
         <v>1192.68632121797</v>
@@ -32692,34 +32692,34 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="n">
-        <v>628.9808577102702</v>
+        <v>1088.49850521305</v>
       </c>
       <c r="B108" s="0" t="n">
+        <v>1306.846682845956</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>302.7263446882706</v>
+      </c>
+      <c r="D108" s="0" t="n">
         <v>628.9808577102701</v>
       </c>
-      <c r="C108" s="0" t="n">
-        <v>591.7957302657472</v>
-      </c>
-      <c r="D108" s="0" t="n">
-        <v>436.3588843297719</v>
-      </c>
       <c r="E108" s="0" t="n">
-        <v>1088.498505213049</v>
+        <v>668.5024901891315</v>
       </c>
       <c r="F108" s="0" t="n">
+        <v>1024.146855805358</v>
+      </c>
+      <c r="G108" s="0" t="n">
         <v>1388.961605220029</v>
       </c>
-      <c r="G108" s="0" t="n">
-        <v>1088.498505213049</v>
-      </c>
       <c r="H108" s="0" t="n">
-        <v>1476.236169168747</v>
+        <v>963.5996533139064</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>556.8089744983828</v>
+        <v>668.5024901891311</v>
       </c>
       <c r="J108" s="0" t="n">
-        <v>1156.893651662223</v>
+        <v>1229.586365848418</v>
       </c>
       <c r="K108" s="0" t="n">
         <v>1229.586365848417</v>
@@ -32994,34 +32994,34 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="n">
-        <v>648.4406446704364</v>
+        <v>1122.17512471307</v>
       </c>
       <c r="B109" s="0" t="n">
+        <v>1267.628046187689</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>293.6414882356687</v>
+      </c>
+      <c r="D109" s="0" t="n">
         <v>648.4406446704363</v>
       </c>
-      <c r="C109" s="0" t="n">
-        <v>574.0358644560393</v>
-      </c>
-      <c r="D109" s="0" t="n">
-        <v>423.2636982136257</v>
-      </c>
       <c r="E109" s="0" t="n">
+        <v>689.1850211150781</v>
+      </c>
+      <c r="F109" s="0" t="n">
         <v>1055.832525385904</v>
       </c>
-      <c r="F109" s="0" t="n">
+      <c r="G109" s="0" t="n">
         <v>1347.278689203607</v>
       </c>
-      <c r="G109" s="0" t="n">
-        <v>1055.832525385905</v>
-      </c>
       <c r="H109" s="0" t="n">
-        <v>1431.934132288385</v>
+        <v>934.681904060374</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>574.0358644560391</v>
+        <v>689.1850211150777</v>
       </c>
       <c r="J109" s="0" t="n">
-        <v>1192.686321217972</v>
+        <v>1192.686321217971</v>
       </c>
       <c r="K109" s="0" t="n">
         <v>1267.62804618769</v>
@@ -33296,34 +33296,34 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="n">
-        <v>668.5024901891311</v>
+        <v>1156.893651662222</v>
       </c>
       <c r="B110" s="0" t="n">
+        <v>1229.586365848417</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>302.7263446882707</v>
+      </c>
+      <c r="D110" s="0" t="n">
         <v>628.9808577102701</v>
       </c>
-      <c r="C110" s="0" t="n">
-        <v>556.808974498383</v>
-      </c>
-      <c r="D110" s="0" t="n">
-        <v>436.3588843297719</v>
-      </c>
       <c r="E110" s="0" t="n">
+        <v>668.5024901891315</v>
+      </c>
+      <c r="F110" s="0" t="n">
         <v>1088.498505213049</v>
       </c>
-      <c r="F110" s="0" t="n">
-        <v>1306.846682845957</v>
-      </c>
       <c r="G110" s="0" t="n">
-        <v>1088.498505213049</v>
+        <v>1306.846682845956</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>1388.961605220029</v>
+        <v>963.5996533139065</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>591.795730265747</v>
+        <v>710.5074405856155</v>
       </c>
       <c r="J110" s="0" t="n">
-        <v>1156.893651662223</v>
+        <v>1229.586365848418</v>
       </c>
       <c r="K110" s="0" t="n">
         <v>1306.846682845956</v>
@@ -33598,34 +33598,34 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="n">
-        <v>689.1850211150777</v>
+        <v>1122.175124713071</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>610.1050614540296</v>
+        <v>1192.68632121797</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>540.099065719062</v>
+        <v>312.0922738777679</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>423.2636982136258</v>
+        <v>648.4406446704363</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>1122.175124713069</v>
+        <v>648.4406446704369</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>1267.62804618769</v>
+        <v>1055.832525385904</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>1055.832525385905</v>
+        <v>1347.278689203607</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>1431.934132288385</v>
+        <v>934.6819040603741</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>574.0358644560392</v>
+        <v>689.1850211150778</v>
       </c>
       <c r="J111" s="0" t="n">
-        <v>1122.175124713071</v>
+        <v>1192.686321217971</v>
       </c>
       <c r="K111" s="0" t="n">
         <v>1267.62804618769</v>
@@ -33900,34 +33900,34 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="n">
-        <v>710.5074405856155</v>
+        <v>1088.49850521305</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>591.795730265747</v>
+        <v>1229.586365848417</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>556.8089744983831</v>
+        <v>321.7479718010467</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>410.5615003133146</v>
+        <v>628.9808577102701</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>1156.89365166222</v>
+        <v>668.5024901891315</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>1306.846682845957</v>
+        <v>1088.498505213049</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>1024.146855805358</v>
+        <v>1306.846682845956</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>1476.236169168747</v>
+        <v>906.6319801729201</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>556.8089744983829</v>
+        <v>710.5074405856157</v>
       </c>
       <c r="J112" s="0" t="n">
-        <v>1088.498505213051</v>
+        <v>1229.586365848418</v>
       </c>
       <c r="K112" s="0" t="n">
         <v>1229.586365848418</v>
@@ -34202,34 +34202,34 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="n">
-        <v>732.4895458562626</v>
+        <v>1122.175124713071</v>
       </c>
       <c r="B113" s="0" t="n">
+        <v>1267.628046187689</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>312.0922738777679</v>
+      </c>
+      <c r="D113" s="0" t="n">
         <v>610.1050614540296</v>
       </c>
-      <c r="C113" s="0" t="n">
-        <v>540.0990657190621</v>
-      </c>
-      <c r="D113" s="0" t="n">
-        <v>398.2404970020496</v>
-      </c>
       <c r="E113" s="0" t="n">
-        <v>1122.175124713069</v>
+        <v>648.4406446704369</v>
       </c>
       <c r="F113" s="0" t="n">
+        <v>1055.832525385904</v>
+      </c>
+      <c r="G113" s="0" t="n">
         <v>1267.62804618769</v>
       </c>
-      <c r="G113" s="0" t="n">
-        <v>1055.832525385905</v>
-      </c>
       <c r="H113" s="0" t="n">
-        <v>1431.934132288385</v>
+        <v>934.6819040603741</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>574.0358644560392</v>
+        <v>689.1850211150779</v>
       </c>
       <c r="J113" s="0" t="n">
-        <v>1055.832525385906</v>
+        <v>1192.686321217971</v>
       </c>
       <c r="K113" s="0" t="n">
         <v>1192.68632121797</v>
@@ -34504,34 +34504,34 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="n">
-        <v>755.1517466818999</v>
+        <v>1156.893651662222</v>
       </c>
       <c r="B114" s="0" t="n">
+        <v>1229.586365848417</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>321.7479718010468</v>
+      </c>
+      <c r="D114" s="0" t="n">
         <v>591.795730265747</v>
       </c>
-      <c r="C114" s="0" t="n">
-        <v>523.8906234465709</v>
-      </c>
-      <c r="D114" s="0" t="n">
-        <v>386.2892485812951</v>
-      </c>
       <c r="E114" s="0" t="n">
+        <v>628.9808577102707</v>
+      </c>
+      <c r="F114" s="0" t="n">
+        <v>1024.146855805358</v>
+      </c>
+      <c r="G114" s="0" t="n">
+        <v>1306.846682845956</v>
+      </c>
+      <c r="H114" s="0" t="n">
+        <v>963.5996533139066</v>
+      </c>
+      <c r="I114" s="0" t="n">
+        <v>668.5024901891313</v>
+      </c>
+      <c r="J114" s="0" t="n">
         <v>1156.893651662221</v>
-      </c>
-      <c r="F114" s="0" t="n">
-        <v>1306.846682845957</v>
-      </c>
-      <c r="G114" s="0" t="n">
-        <v>1024.146855805358</v>
-      </c>
-      <c r="H114" s="0" t="n">
-        <v>1476.236169168748</v>
-      </c>
-      <c r="I114" s="0" t="n">
-        <v>556.8089744983829</v>
-      </c>
-      <c r="J114" s="0" t="n">
-        <v>1024.14685580536</v>
       </c>
       <c r="K114" s="0" t="n">
         <v>1156.893651662221</v>
@@ -34806,34 +34806,34 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="n">
-        <v>778.5150842666444</v>
+        <v>1192.686321217971</v>
       </c>
       <c r="B115" s="0" t="n">
+        <v>1267.628046187689</v>
+      </c>
+      <c r="C115" s="0" t="n">
+        <v>331.7024034969602</v>
+      </c>
+      <c r="D115" s="0" t="n">
         <v>574.0358644560392</v>
       </c>
-      <c r="C115" s="0" t="n">
-        <v>508.1685986066871</v>
-      </c>
-      <c r="D115" s="0" t="n">
-        <v>374.6966586593368</v>
-      </c>
       <c r="E115" s="0" t="n">
+        <v>610.1050614540301</v>
+      </c>
+      <c r="F115" s="0" t="n">
+        <v>1055.832525385904</v>
+      </c>
+      <c r="G115" s="0" t="n">
+        <v>1347.278689203607</v>
+      </c>
+      <c r="H115" s="0" t="n">
+        <v>993.4120772351068</v>
+      </c>
+      <c r="I115" s="0" t="n">
+        <v>689.1850211150779</v>
+      </c>
+      <c r="J115" s="0" t="n">
         <v>1122.17512471307</v>
-      </c>
-      <c r="F115" s="0" t="n">
-        <v>1347.278689203607</v>
-      </c>
-      <c r="G115" s="0" t="n">
-        <v>993.4120772351081</v>
-      </c>
-      <c r="H115" s="0" t="n">
-        <v>1521.908849032955</v>
-      </c>
-      <c r="I115" s="0" t="n">
-        <v>540.0990657190619</v>
-      </c>
-      <c r="J115" s="0" t="n">
-        <v>1055.832525385906</v>
       </c>
       <c r="K115" s="0" t="n">
         <v>1192.68632121797</v>
@@ -35108,34 +35108,34 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="n">
-        <v>802.6012508000038</v>
+        <v>1229.586365848419</v>
       </c>
       <c r="B116" s="0" t="n">
+        <v>1229.586365848417</v>
+      </c>
+      <c r="C116" s="0" t="n">
+        <v>321.7479718010468</v>
+      </c>
+      <c r="D116" s="0" t="n">
         <v>556.8089744983829</v>
       </c>
-      <c r="C116" s="0" t="n">
-        <v>523.890623446571</v>
-      </c>
-      <c r="D116" s="0" t="n">
-        <v>386.2892485812952</v>
-      </c>
       <c r="E116" s="0" t="n">
-        <v>1156.893651662221</v>
+        <v>628.9808577102707</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>1388.961605220029</v>
+        <v>1088.498505213049</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>1024.146855805359</v>
+        <v>1306.846682845956</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>1476.236169168748</v>
+        <v>1024.146855805357</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>556.8089744983829</v>
+        <v>668.5024901891313</v>
       </c>
       <c r="J116" s="0" t="n">
-        <v>1024.14685580536</v>
+        <v>1088.49850521305</v>
       </c>
       <c r="K116" s="0" t="n">
         <v>1229.586365848418</v>
@@ -35410,34 +35410,34 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="n">
-        <v>827.4326095974528</v>
+        <v>1192.686321217971</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>574.0358644560392</v>
+        <v>1192.68632121797</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>508.1685986066872</v>
+        <v>331.7024034969603</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>374.6966586593368</v>
+        <v>540.0990657190619</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>1122.17512471307</v>
+        <v>648.4406446704369</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>1347.278689203607</v>
+        <v>1122.175124713069</v>
       </c>
       <c r="G117" s="0" t="n">
+        <v>1267.62804618769</v>
+      </c>
+      <c r="H117" s="0" t="n">
+        <v>1055.832525385904</v>
+      </c>
+      <c r="I117" s="0" t="n">
+        <v>689.1850211150779</v>
+      </c>
+      <c r="J117" s="0" t="n">
         <v>1055.832525385905</v>
-      </c>
-      <c r="H117" s="0" t="n">
-        <v>1431.934132288385</v>
-      </c>
-      <c r="I117" s="0" t="n">
-        <v>574.0358644560392</v>
-      </c>
-      <c r="J117" s="0" t="n">
-        <v>1055.832525385907</v>
       </c>
       <c r="K117" s="0" t="n">
         <v>1267.62804618769</v>
@@ -35712,34 +35712,34 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="n">
-        <v>802.6012508000038</v>
+        <v>1229.586365848419</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>591.7957302657471</v>
+        <v>1229.586365848417</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>523.8906234465711</v>
+        <v>321.7479718010469</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>386.2892485812952</v>
+        <v>556.8089744983829</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>1156.893651662221</v>
+        <v>668.5024901891315</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>1306.846682845957</v>
+        <v>1088.498505213049</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>1024.146855805359</v>
+        <v>1229.586365848418</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>1388.96160522003</v>
+        <v>1024.146855805357</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>591.7957302657471</v>
+        <v>710.5074405856158</v>
       </c>
       <c r="J118" s="0" t="n">
-        <v>1024.14685580536</v>
+        <v>1088.49850521305</v>
       </c>
       <c r="K118" s="0" t="n">
         <v>1306.846682845957</v>
@@ -36014,34 +36014,34 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="n">
-        <v>827.4326095974528</v>
+        <v>1192.686321217971</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>574.0358644560392</v>
+        <v>1192.68632121797</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>508.1685986066873</v>
+        <v>331.7024034969604</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>374.6966586593369</v>
+        <v>540.0990657190619</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>1192.686321217971</v>
+        <v>689.1850211150781</v>
       </c>
       <c r="F119" s="0" t="n">
+        <v>1122.175124713069</v>
+      </c>
+      <c r="G119" s="0" t="n">
         <v>1267.62804618769</v>
       </c>
-      <c r="G119" s="0" t="n">
-        <v>993.4120772351084</v>
-      </c>
       <c r="H119" s="0" t="n">
-        <v>1431.934132288386</v>
+        <v>1055.832525385904</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>574.0358644560392</v>
+        <v>732.4895458562628</v>
       </c>
       <c r="J119" s="0" t="n">
-        <v>993.4120772351098</v>
+        <v>1055.832525385905</v>
       </c>
       <c r="K119" s="0" t="n">
         <v>1267.62804618769</v>
@@ -36316,34 +36316,34 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="n">
-        <v>853.0322158641316</v>
+        <v>1156.893651662222</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>591.7957302657471</v>
+        <v>1229.586365848417</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>492.9183937498369</v>
+        <v>341.9648113701094</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>363.4519638485996</v>
+        <v>523.8906234465707</v>
       </c>
       <c r="E120" s="0" t="n">
+        <v>710.507440585616</v>
+      </c>
+      <c r="F120" s="0" t="n">
+        <v>1088.498505213049</v>
+      </c>
+      <c r="G120" s="0" t="n">
         <v>1229.586365848418</v>
       </c>
-      <c r="F120" s="0" t="n">
-        <v>1306.846682845957</v>
-      </c>
-      <c r="G120" s="0" t="n">
-        <v>1024.146855805359</v>
-      </c>
       <c r="H120" s="0" t="n">
-        <v>1476.236169168748</v>
+        <v>1088.498505213048</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>556.8089744983829</v>
+        <v>710.5074405856158</v>
       </c>
       <c r="J120" s="0" t="n">
-        <v>1024.14685580536</v>
+        <v>1024.146855805358</v>
       </c>
       <c r="K120" s="0" t="n">
         <v>1229.586365848418</v>
@@ -36618,34 +36618,34 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="n">
-        <v>827.4326095974529</v>
+        <v>1192.686321217971</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>610.1050614540297</v>
+        <v>1192.68632121797</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>508.1685986066873</v>
+        <v>352.5447237721512</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>352.5447237721507</v>
+        <v>508.1685986066868</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>1192.686321217971</v>
+        <v>732.489545856263</v>
       </c>
       <c r="F121" s="0" t="n">
+        <v>1122.175124713069</v>
+      </c>
+      <c r="G121" s="0" t="n">
         <v>1267.62804618769</v>
       </c>
-      <c r="G121" s="0" t="n">
-        <v>993.4120772351084</v>
-      </c>
       <c r="H121" s="0" t="n">
-        <v>1521.908849032955</v>
+        <v>1122.175124713069</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>540.0990657190619</v>
+        <v>689.185021115078</v>
       </c>
       <c r="J121" s="0" t="n">
-        <v>1055.832525385907</v>
+        <v>993.4120772351081</v>
       </c>
       <c r="K121" s="0" t="n">
         <v>1267.62804618769</v>
@@ -36920,34 +36920,34 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="n">
-        <v>802.6012508000039</v>
+        <v>1229.586365848419</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>591.7957302657471</v>
+        <v>1156.893651662221</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>523.8906234465712</v>
+        <v>341.9648113701095</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>341.964811370109</v>
+        <v>523.8906234465708</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>1156.893651662221</v>
+        <v>755.1517466819004</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>1229.586365848418</v>
+        <v>1088.498505213049</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>1024.146855805359</v>
+        <v>1306.846682845957</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>1476.236169168748</v>
+        <v>1156.89365166222</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>523.8906234465707</v>
+        <v>710.5074405856159</v>
       </c>
       <c r="J122" s="0" t="n">
-        <v>1088.498505213052</v>
+        <v>963.599653313908</v>
       </c>
       <c r="K122" s="0" t="n">
         <v>1306.846682845957</v>
@@ -37222,34 +37222,34 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="n">
-        <v>827.4326095974529</v>
+        <v>1267.628046187691</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>574.0358644560392</v>
+        <v>1192.68632121797</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>508.1685986066874</v>
+        <v>352.5447237721513</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>352.5447237721507</v>
+        <v>540.099065719062</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>1192.686321217971</v>
+        <v>778.5150842666449</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>1192.686321217971</v>
+        <v>1122.175124713069</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>993.4120772351084</v>
+        <v>1267.62804618769</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>1431.934132288386</v>
+        <v>1122.175124713069</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>508.1685986066868</v>
+        <v>689.185021115078</v>
       </c>
       <c r="J123" s="0" t="n">
-        <v>1055.832525385907</v>
+        <v>934.6819040603756</v>
       </c>
       <c r="K123" s="0" t="n">
         <v>1267.62804618769</v>
@@ -37524,34 +37524,34 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="n">
-        <v>853.0322158641317</v>
+        <v>1229.586365848419</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>591.7957302657471</v>
+        <v>1229.586365848417</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>523.8906234465713</v>
+        <v>341.9648113701095</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>363.4519638485997</v>
+        <v>556.8089744983831</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>1156.893651662221</v>
+        <v>802.6012508000042</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>1156.893651662221</v>
+        <v>1088.498505213049</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>1024.146855805359</v>
+        <v>1229.586365848418</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>1388.96160522003</v>
+        <v>1156.89365166222</v>
       </c>
       <c r="I124" s="0" t="n">
-        <v>492.9183937498364</v>
+        <v>710.5074405856159</v>
       </c>
       <c r="J124" s="0" t="n">
-        <v>1088.498505213052</v>
+        <v>906.6319801729215</v>
       </c>
       <c r="K124" s="0" t="n">
         <v>1229.586365848418</v>
@@ -37826,34 +37826,34 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="n">
-        <v>879.4238381009422</v>
+        <v>1267.628046187691</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>610.1050614540297</v>
+        <v>1267.62804618769</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>508.1685986066875</v>
+        <v>352.5447237721513</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>352.5447237721507</v>
+        <v>540.0990657190621</v>
       </c>
       <c r="E125" s="0" t="n">
+        <v>827.4326095974534</v>
+      </c>
+      <c r="F125" s="0" t="n">
+        <v>1122.175124713069</v>
+      </c>
+      <c r="G125" s="0" t="n">
         <v>1192.686321217971</v>
       </c>
-      <c r="F125" s="0" t="n">
-        <v>1192.686321217971</v>
-      </c>
-      <c r="G125" s="0" t="n">
-        <v>993.4120772351084</v>
-      </c>
       <c r="H125" s="0" t="n">
-        <v>1347.278689203608</v>
+        <v>1122.175124713069</v>
       </c>
       <c r="I125" s="0" t="n">
-        <v>508.1685986066869</v>
+        <v>732.4895458562629</v>
       </c>
       <c r="J125" s="0" t="n">
-        <v>1055.832525385907</v>
+        <v>879.4238381009429</v>
       </c>
       <c r="K125" s="0" t="n">
         <v>1267.62804618769</v>
@@ -38128,34 +38128,34 @@
     </row>
     <row r="126">
       <c r="A126" s="0" t="n">
-        <v>853.0322158641318</v>
+        <v>1306.846682845958</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>628.9808577102704</v>
+        <v>1306.846682845956</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>492.918393749837</v>
+        <v>363.4519638486003</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>341.964811370109</v>
+        <v>523.8906234465709</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>1229.586365848418</v>
+        <v>853.0322158641321</v>
       </c>
       <c r="F126" s="0" t="n">
+        <v>1156.89365166222</v>
+      </c>
+      <c r="G126" s="0" t="n">
         <v>1156.893651662221</v>
       </c>
-      <c r="G126" s="0" t="n">
-        <v>963.5996533139083</v>
-      </c>
       <c r="H126" s="0" t="n">
-        <v>1306.846682845958</v>
+        <v>1088.498505213049</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>523.8906234465708</v>
+        <v>710.5074405856159</v>
       </c>
       <c r="J126" s="0" t="n">
-        <v>1088.498505213052</v>
+        <v>853.0322158641325</v>
       </c>
       <c r="K126" s="0" t="n">
         <v>1306.846682845957</v>
@@ -38430,34 +38430,34 @@
     </row>
     <row r="127">
       <c r="A127" s="0" t="n">
-        <v>827.4326095974531</v>
+        <v>1267.628046187691</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>610.1050614540299</v>
+        <v>1347.278689203607</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>508.1685986066875</v>
+        <v>374.6966586593376</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>331.70240349696</v>
+        <v>508.1685986066871</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>1192.686321217971</v>
+        <v>827.4326095974534</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>1192.686321217971</v>
+        <v>1122.175124713069</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>993.4120772351085</v>
+        <v>1122.17512471307</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>1347.278689203608</v>
+        <v>1122.175124713069</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>540.099065719062</v>
+        <v>732.4895458562629</v>
       </c>
       <c r="J127" s="0" t="n">
-        <v>1122.175124713073</v>
+        <v>879.423838100943</v>
       </c>
       <c r="K127" s="0" t="n">
         <v>1267.62804618769</v>
@@ -38732,34 +38732,34 @@
     </row>
     <row r="128">
       <c r="A128" s="0" t="n">
-        <v>802.601250800004</v>
+        <v>1229.586365848419</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>591.7957302657472</v>
+        <v>1306.846682845956</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>492.918393749837</v>
+        <v>386.289248581296</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>321.7479718010466</v>
+        <v>523.890623446571</v>
       </c>
       <c r="E128" s="0" t="n">
+        <v>802.6012508000043</v>
+      </c>
+      <c r="F128" s="0" t="n">
+        <v>1088.498505213049</v>
+      </c>
+      <c r="G128" s="0" t="n">
+        <v>1156.893651662222</v>
+      </c>
+      <c r="H128" s="0" t="n">
         <v>1156.893651662221</v>
       </c>
-      <c r="F128" s="0" t="n">
-        <v>1156.893651662221</v>
-      </c>
-      <c r="G128" s="0" t="n">
-        <v>963.5996533139084</v>
-      </c>
-      <c r="H128" s="0" t="n">
-        <v>1388.96160522003</v>
-      </c>
       <c r="I128" s="0" t="n">
-        <v>556.8089744983831</v>
+        <v>710.5074405856159</v>
       </c>
       <c r="J128" s="0" t="n">
-        <v>1156.893651662224</v>
+        <v>906.6319801729218</v>
       </c>
       <c r="K128" s="0" t="n">
         <v>1306.846682845957</v>
@@ -39034,34 +39034,34 @@
     </row>
     <row r="129">
       <c r="A129" s="0" t="n">
-        <v>827.4326095974531</v>
+        <v>1192.686321217972</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>610.1050614540299</v>
+        <v>1347.278689203607</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>508.1685986066875</v>
+        <v>374.6966586593377</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>331.7024034969601</v>
+        <v>540.0990657190622</v>
       </c>
       <c r="E129" s="0" t="n">
+        <v>778.5150842666451</v>
+      </c>
+      <c r="F129" s="0" t="n">
+        <v>1122.175124713069</v>
+      </c>
+      <c r="G129" s="0" t="n">
+        <v>1122.175124713071</v>
+      </c>
+      <c r="H129" s="0" t="n">
         <v>1122.17512471307</v>
       </c>
-      <c r="F129" s="0" t="n">
-        <v>1192.686321217971</v>
-      </c>
-      <c r="G129" s="0" t="n">
-        <v>993.4120772351087</v>
-      </c>
-      <c r="H129" s="0" t="n">
-        <v>1431.934132288386</v>
-      </c>
       <c r="I129" s="0" t="n">
-        <v>540.0990657190621</v>
+        <v>689.185021115078</v>
       </c>
       <c r="J129" s="0" t="n">
-        <v>1192.686321217974</v>
+        <v>879.4238381009432</v>
       </c>
       <c r="K129" s="0" t="n">
         <v>1267.62804618769</v>
@@ -39336,34 +39336,34 @@
     </row>
     <row r="130">
       <c r="A130" s="0" t="n">
-        <v>802.601250800004</v>
+        <v>1156.893651662222</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>591.7957302657472</v>
+        <v>1306.846682845956</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>523.8906234465713</v>
+        <v>363.4519638486004</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>321.7479718010467</v>
+        <v>556.8089744983833</v>
       </c>
       <c r="E130" s="0" t="n">
+        <v>802.6012508000044</v>
+      </c>
+      <c r="F130" s="0" t="n">
         <v>1156.893651662221</v>
       </c>
-      <c r="F130" s="0" t="n">
-        <v>1229.586365848418</v>
-      </c>
       <c r="G130" s="0" t="n">
-        <v>1024.146855805359</v>
+        <v>1088.49850521305</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>1388.96160522003</v>
+        <v>1088.498505213049</v>
       </c>
       <c r="I130" s="0" t="n">
-        <v>556.8089744983832</v>
+        <v>710.5074405856159</v>
       </c>
       <c r="J130" s="0" t="n">
-        <v>1156.893651662225</v>
+        <v>906.6319801729219</v>
       </c>
       <c r="K130" s="0" t="n">
         <v>1229.586365848418</v>
@@ -39638,34 +39638,34 @@
     </row>
     <row r="131">
       <c r="A131" s="0" t="n">
-        <v>778.5150842666447</v>
+        <v>1122.175124713071</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>610.1050614540299</v>
+        <v>1347.278689203607</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>508.1685986066875</v>
+        <v>352.5447237721514</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>331.7024034969601</v>
+        <v>574.0358644560398</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>1192.686321217971</v>
+        <v>827.4326095974536</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>1267.62804618769</v>
+        <v>1122.17512471307</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>993.4120772351087</v>
+        <v>1122.175124713071</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>1431.934132288386</v>
+        <v>1122.17512471307</v>
       </c>
       <c r="I131" s="0" t="n">
-        <v>574.0358644560397</v>
+        <v>689.185021115078</v>
       </c>
       <c r="J131" s="0" t="n">
-        <v>1192.686321217974</v>
+        <v>934.681904060376</v>
       </c>
       <c r="K131" s="0" t="n">
         <v>1192.686321217971</v>
@@ -39940,34 +39940,34 @@
     </row>
     <row r="132">
       <c r="A132" s="0" t="n">
-        <v>802.6012508000041</v>
+        <v>1156.893651662222</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>591.7957302657472</v>
+        <v>1388.961605220029</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>523.8906234465713</v>
+        <v>363.4519638486004</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>341.9648113701092</v>
+        <v>556.8089744983835</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>1229.586365848418</v>
+        <v>853.0322158641324</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>1306.846682845957</v>
+        <v>1088.498505213049</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>963.5996533139086</v>
+        <v>1088.49850521305</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>1476.236169168749</v>
+        <v>1088.498505213049</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>591.7957302657476</v>
+        <v>710.5074405856159</v>
       </c>
       <c r="J132" s="0" t="n">
-        <v>1229.586365848422</v>
+        <v>906.631980172922</v>
       </c>
       <c r="K132" s="0" t="n">
         <v>1156.893651662222</v>
@@ -40242,34 +40242,34 @@
     </row>
     <row r="133">
       <c r="A133" s="0" t="n">
-        <v>827.4326095974532</v>
+        <v>1192.686321217972</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>574.0358644560393</v>
+        <v>1431.934132288385</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>508.1685986066875</v>
+        <v>352.5447237721515</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>352.544723772151</v>
+        <v>574.0358644560399</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>1192.686321217971</v>
+        <v>879.4238381009429</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>1267.62804618769</v>
+        <v>1122.17512471307</v>
       </c>
       <c r="G133" s="0" t="n">
+        <v>1055.832525385905</v>
+      </c>
+      <c r="H133" s="0" t="n">
+        <v>1055.832525385904</v>
+      </c>
+      <c r="I133" s="0" t="n">
+        <v>732.4895458562629</v>
+      </c>
+      <c r="J133" s="0" t="n">
         <v>934.6819040603762</v>
-      </c>
-      <c r="H133" s="0" t="n">
-        <v>1521.908849032956</v>
-      </c>
-      <c r="I133" s="0" t="n">
-        <v>610.1050614540303</v>
-      </c>
-      <c r="J133" s="0" t="n">
-        <v>1192.686321217974</v>
       </c>
       <c r="K133" s="0" t="n">
         <v>1192.686321217971</v>
@@ -40544,34 +40544,34 @@
     </row>
     <row r="134">
       <c r="A134" s="0" t="n">
-        <v>802.6012508000041</v>
+        <v>1156.893651662222</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>591.7957302657472</v>
+        <v>1388.961605220029</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>492.918393749837</v>
+        <v>363.4519638486005</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>363.4519638485999</v>
+        <v>556.8089744983836</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>1229.586365848418</v>
+        <v>906.6319801729217</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>1229.586365848418</v>
+        <v>1156.893651662221</v>
       </c>
       <c r="G134" s="0" t="n">
+        <v>1088.49850521305</v>
+      </c>
+      <c r="H134" s="0" t="n">
+        <v>1024.146855805358</v>
+      </c>
+      <c r="I134" s="0" t="n">
+        <v>710.5074405856159</v>
+      </c>
+      <c r="J134" s="0" t="n">
         <v>906.6319801729221</v>
-      </c>
-      <c r="H134" s="0" t="n">
-        <v>1476.236169168749</v>
-      </c>
-      <c r="I134" s="0" t="n">
-        <v>628.9808577102709</v>
-      </c>
-      <c r="J134" s="0" t="n">
-        <v>1229.586365848422</v>
       </c>
       <c r="K134" s="0" t="n">
         <v>1229.586365848418</v>
@@ -40846,34 +40846,34 @@
     </row>
     <row r="135">
       <c r="A135" s="0" t="n">
-        <v>827.4326095974532</v>
+        <v>1192.686321217972</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>610.1050614540299</v>
+        <v>1431.934132288385</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>478.125849497781</v>
+        <v>374.6966586593379</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>374.6966586593372</v>
+        <v>540.0990657190625</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>1192.686321217971</v>
+        <v>879.423838100943</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>1267.62804618769</v>
+        <v>1192.68632121797</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>934.6819040603763</v>
+        <v>1122.175124713071</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>1521.908849032956</v>
+        <v>1055.832525385905</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>610.1050614540303</v>
+        <v>689.185021115078</v>
       </c>
       <c r="J135" s="0" t="n">
-        <v>1192.686321217975</v>
+        <v>879.4238381009435</v>
       </c>
       <c r="K135" s="0" t="n">
         <v>1267.62804618769</v>
@@ -41148,34 +41148,34 @@
     </row>
     <row r="136">
       <c r="A136" s="0" t="n">
-        <v>853.0322158641319</v>
+        <v>1156.893651662222</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>628.9808577102705</v>
+        <v>1388.961605220029</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>463.7772313970386</v>
+        <v>386.2892485812962</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>363.4519638485999</v>
+        <v>556.8089744983837</v>
       </c>
       <c r="E136" s="0" t="n">
+        <v>906.6319801729218</v>
+      </c>
+      <c r="F136" s="0" t="n">
         <v>1229.586365848418</v>
       </c>
-      <c r="F136" s="0" t="n">
-        <v>1306.846682845957</v>
-      </c>
       <c r="G136" s="0" t="n">
-        <v>963.5996533139088</v>
+        <v>1156.893651662222</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>1476.236169168749</v>
+        <v>1024.146855805358</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>591.7957302657477</v>
+        <v>710.5074405856159</v>
       </c>
       <c r="J136" s="0" t="n">
-        <v>1156.893651662225</v>
+        <v>906.6319801729222</v>
       </c>
       <c r="K136" s="0" t="n">
         <v>1229.586365848419</v>
@@ -41450,34 +41450,34 @@
     </row>
     <row r="137">
       <c r="A137" s="0" t="n">
-        <v>879.4238381009425</v>
+        <v>1192.686321217972</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>648.4406446704367</v>
+        <v>1347.278689203607</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>449.8592171668404</v>
+        <v>374.6966586593379</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>374.6966586593372</v>
+        <v>574.0358644560401</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>1267.62804618769</v>
+        <v>879.4238381009432</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>1267.62804618769</v>
+        <v>1192.68632121797</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>934.6819040603763</v>
+        <v>1192.686321217971</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>1521.908849032956</v>
+        <v>1055.832525385905</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>610.1050614540304</v>
+        <v>689.185021115078</v>
       </c>
       <c r="J137" s="0" t="n">
-        <v>1192.686321217975</v>
+        <v>879.4238381009436</v>
       </c>
       <c r="K137" s="0" t="n">
         <v>1192.686321217971</v>
@@ -41752,34 +41752,34 @@
     </row>
     <row r="138">
       <c r="A138" s="0" t="n">
-        <v>853.032215864132</v>
+        <v>1229.586365848419</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>628.9808577102705</v>
+        <v>1306.846682845957</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>436.3588843297724</v>
+        <v>386.2892485812962</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>363.4519638485999</v>
+        <v>556.8089744983838</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>1306.846682845957</v>
+        <v>906.6319801729219</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>1306.846682845957</v>
+        <v>1229.586365848418</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>906.6319801729222</v>
+        <v>1229.586365848419</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>1476.236169168749</v>
+        <v>1088.49850521305</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>591.7957302657478</v>
+        <v>710.5074405856159</v>
       </c>
       <c r="J138" s="0" t="n">
-        <v>1229.586365848422</v>
+        <v>853.0322158641331</v>
       </c>
       <c r="K138" s="0" t="n">
         <v>1156.893651662222</v>
@@ -42054,34 +42054,34 @@
     </row>
     <row r="139">
       <c r="A139" s="0" t="n">
-        <v>879.4238381009426</v>
+        <v>1267.628046187691</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>648.4406446704367</v>
+        <v>1267.62804618769</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>449.8592171668404</v>
+        <v>398.2404970020508</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>352.544723772151</v>
+        <v>540.0990657190628</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>1347.278689203608</v>
+        <v>879.4238381009433</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>1267.62804618769</v>
+        <v>1192.68632121797</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>879.4238381009436</v>
+        <v>1267.628046187691</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>1431.934132288386</v>
+        <v>1122.17512471307</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>610.1050614540305</v>
+        <v>732.4895458562629</v>
       </c>
       <c r="J139" s="0" t="n">
-        <v>1192.686321217975</v>
+        <v>827.4326095974544</v>
       </c>
       <c r="K139" s="0" t="n">
         <v>1122.175124713071</v>
@@ -42356,34 +42356,34 @@
     </row>
     <row r="140">
       <c r="A140" s="0" t="n">
-        <v>853.0322158641321</v>
+        <v>1306.846682845958</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>668.5024901891313</v>
+        <v>1306.846682845957</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>463.7772313970387</v>
+        <v>386.2892485812963</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>341.9648113701093</v>
+        <v>523.8906234465716</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>1306.846682845957</v>
+        <v>906.631980172922</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>1306.846682845957</v>
+        <v>1229.586365848418</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>906.6319801729223</v>
+        <v>1306.846682845958</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>1476.236169168749</v>
+        <v>1088.49850521305</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>591.7957302657479</v>
+        <v>755.1517466819002</v>
       </c>
       <c r="J140" s="0" t="n">
-        <v>1229.586365848423</v>
+        <v>802.6012508000053</v>
       </c>
       <c r="K140" s="0" t="n">
         <v>1156.893651662222</v>
@@ -42658,34 +42658,34 @@
     </row>
     <row r="141">
       <c r="A141" s="0" t="n">
-        <v>827.4326095974534</v>
+        <v>1347.278689203609</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>648.4406446704367</v>
+        <v>1347.278689203607</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>478.1258494977811</v>
+        <v>398.2404970020509</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>352.544723772151</v>
+        <v>508.1685986066877</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>1347.278689203608</v>
+        <v>934.6819040603762</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>1347.278689203608</v>
+        <v>1267.62804618769</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>934.6819040603765</v>
+        <v>1267.628046187691</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>1431.934132288386</v>
+        <v>1122.17512471307</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>574.03586445604</v>
+        <v>732.489545856263</v>
       </c>
       <c r="J141" s="0" t="n">
-        <v>1192.686321217975</v>
+        <v>778.5150842666461</v>
       </c>
       <c r="K141" s="0" t="n">
         <v>1192.686321217971</v>
@@ -42960,34 +42960,34 @@
     </row>
     <row r="142">
       <c r="A142" s="0" t="n">
-        <v>802.6012508000043</v>
+        <v>1388.961605220031</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>628.9808577102705</v>
+        <v>1306.846682845957</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>463.7772313970387</v>
+        <v>386.2892485812964</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>341.9648113701093</v>
+        <v>523.8906234465716</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>1388.961605220029</v>
+        <v>963.5996533139087</v>
       </c>
       <c r="F142" s="0" t="n">
         <v>1306.846682845957</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>906.6319801729225</v>
+        <v>1306.846682845958</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>1476.236169168749</v>
+        <v>1088.49850521305</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>591.7957302657479</v>
+        <v>755.1517466819004</v>
       </c>
       <c r="J142" s="0" t="n">
-        <v>1229.586365848423</v>
+        <v>755.1517466819016</v>
       </c>
       <c r="K142" s="0" t="n">
         <v>1156.893651662222</v>
@@ -43262,34 +43262,34 @@
     </row>
     <row r="143">
       <c r="A143" s="0" t="n">
-        <v>827.4326095974535</v>
+        <v>1431.934132288387</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>610.1050614540299</v>
+        <v>1347.278689203607</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>449.8592171668405</v>
+        <v>374.696658659338</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>331.7024034969602</v>
+        <v>508.1685986066877</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>1347.278689203608</v>
+        <v>993.4120772351089</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>1347.278689203608</v>
+        <v>1267.62804618769</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>879.4238381009438</v>
+        <v>1267.628046187691</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>1431.934132288386</v>
+        <v>1122.17512471307</v>
       </c>
       <c r="I143" s="0" t="n">
-        <v>610.1050614540306</v>
+        <v>732.4895458562631</v>
       </c>
       <c r="J143" s="0" t="n">
-        <v>1267.628046187695</v>
+        <v>732.4895458562643</v>
       </c>
       <c r="K143" s="0" t="n">
         <v>1192.686321217971</v>
@@ -43564,34 +43564,34 @@
     </row>
     <row r="144">
       <c r="A144" s="0" t="n">
-        <v>802.6012508000044</v>
+        <v>1476.236169168749</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>628.9808577102705</v>
+        <v>1306.846682845957</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>463.7772313970388</v>
+        <v>386.2892485812964</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>341.9648113701093</v>
+        <v>492.9183937498372</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>1306.846682845957</v>
+        <v>963.5996533139088</v>
       </c>
       <c r="F144" s="0" t="n">
         <v>1306.846682845957</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>853.0322158641334</v>
+        <v>1229.586365848419</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>1476.236169168749</v>
+        <v>1156.893651662221</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>628.9808577102713</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="J144" s="0" t="n">
-        <v>1306.846682845962</v>
+        <v>755.1517466819017</v>
       </c>
       <c r="K144" s="0" t="n">
         <v>1229.586365848419</v>
@@ -43866,34 +43866,34 @@
     </row>
     <row r="145">
       <c r="A145" s="0" t="n">
-        <v>827.4326095974536</v>
+        <v>1521.908849032957</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>610.1050614540299</v>
+        <v>1267.62804618769</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>449.8592171668406</v>
+        <v>398.2404970020509</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>331.7024034969602</v>
+        <v>478.1258494977812</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>1347.278689203608</v>
+        <v>934.6819040603763</v>
       </c>
       <c r="F145" s="0" t="n">
         <v>1267.62804618769</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>879.423838100944</v>
+        <v>1192.686321217971</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>1431.934132288386</v>
+        <v>1192.686321217971</v>
       </c>
       <c r="I145" s="0" t="n">
-        <v>648.4406446704376</v>
+        <v>732.4895458562631</v>
       </c>
       <c r="J145" s="0" t="n">
-        <v>1267.628046187695</v>
+        <v>778.5150842666462</v>
       </c>
       <c r="K145" s="0" t="n">
         <v>1192.686321217971</v>
@@ -44168,34 +44168,34 @@
     </row>
     <row r="146">
       <c r="A146" s="0" t="n">
-        <v>802.6012508000046</v>
+        <v>1476.236169168749</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>628.9808577102705</v>
+        <v>1306.846682845957</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>436.3588843297725</v>
+        <v>386.2892485812964</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>341.9648113701093</v>
+        <v>492.9183937498373</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>1388.961605220029</v>
+        <v>906.6319801729222</v>
       </c>
       <c r="F146" s="0" t="n">
         <v>1306.846682845957</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>853.0322158641335</v>
+        <v>1229.586365848419</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>1388.961605220031</v>
+        <v>1156.893651662221</v>
       </c>
       <c r="I146" s="0" t="n">
-        <v>668.5024901891323</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="J146" s="0" t="n">
-        <v>1306.846682845962</v>
+        <v>802.6012508000056</v>
       </c>
       <c r="K146" s="0" t="n">
         <v>1229.586365848419</v>
@@ -44470,34 +44470,34 @@
     </row>
     <row r="147">
       <c r="A147" s="0" t="n">
-        <v>778.5150842666453</v>
+        <v>1521.908849032957</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>648.4406446704367</v>
+        <v>1267.62804618769</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>449.8592171668406</v>
+        <v>374.696658659338</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>352.5447237721511</v>
+        <v>508.1685986066878</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>1431.934132288385</v>
+        <v>879.4238381009436</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>1347.278689203608</v>
+        <v>1347.278689203607</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>879.4238381009441</v>
+        <v>1267.628046187691</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>1431.934132288387</v>
+        <v>1122.17512471307</v>
       </c>
       <c r="I147" s="0" t="n">
-        <v>648.4406446704377</v>
+        <v>732.4895458562631</v>
       </c>
       <c r="J147" s="0" t="n">
-        <v>1267.628046187695</v>
+        <v>778.5150842666462</v>
       </c>
       <c r="K147" s="0" t="n">
         <v>1267.628046187691</v>
@@ -44772,34 +44772,34 @@
     </row>
     <row r="148">
       <c r="A148" s="0" t="n">
-        <v>802.6012508000047</v>
+        <v>1476.236169168749</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>628.9808577102705</v>
+        <v>1306.846682845957</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>436.3588843297726</v>
+        <v>386.2892485812964</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>341.9648113701094</v>
+        <v>492.9183937498373</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>1476.236169168748</v>
+        <v>853.0322158641331</v>
       </c>
       <c r="F148" s="0" t="n">
         <v>1306.846682845957</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>853.0322158641336</v>
+        <v>1229.586365848419</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>1388.961605220031</v>
+        <v>1156.893651662222</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>628.9808577102715</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="J148" s="0" t="n">
-        <v>1229.586365848423</v>
+        <v>755.1517466819017</v>
       </c>
       <c r="K148" s="0" t="n">
         <v>1306.846682845958</v>
@@ -45074,34 +45074,34 @@
     </row>
     <row r="149">
       <c r="A149" s="0" t="n">
-        <v>827.4326095974538</v>
+        <v>1431.934132288387</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>610.1050614540299</v>
+        <v>1267.62804618769</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>423.2636982136265</v>
+        <v>374.696658659338</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>352.5447237721511</v>
+        <v>508.1685986066879</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>1521.908849032955</v>
+        <v>879.4238381009437</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>1347.278689203608</v>
+        <v>1267.62804618769</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>827.4326095974549</v>
+        <v>1267.628046187691</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>1431.934132288387</v>
+        <v>1192.686321217971</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>648.4406446704378</v>
+        <v>732.4895458562631</v>
       </c>
       <c r="J149" s="0" t="n">
-        <v>1192.686321217976</v>
+        <v>778.5150842666462</v>
       </c>
       <c r="K149" s="0" t="n">
         <v>1267.628046187691</v>
@@ -45376,34 +45376,34 @@
     </row>
     <row r="150">
       <c r="A150" s="0" t="n">
-        <v>802.6012508000048</v>
+        <v>1388.961605220031</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>628.9808577102705</v>
+        <v>1306.846682845957</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>436.3588843297726</v>
+        <v>386.2892485812964</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>363.4519638486001</v>
+        <v>492.9183937498374</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>1476.236169168748</v>
+        <v>853.0322158641333</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>1388.96160522003</v>
+        <v>1306.846682845957</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>853.0322158641337</v>
+        <v>1229.586365848419</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>1476.236169168749</v>
+        <v>1229.586365848418</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>668.5024901891326</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="J150" s="0" t="n">
-        <v>1156.893651662227</v>
+        <v>755.1517466819017</v>
       </c>
       <c r="K150" s="0" t="n">
         <v>1306.846682845958</v>
@@ -45678,34 +45678,34 @@
     </row>
     <row r="151">
       <c r="A151" s="0" t="n">
-        <v>827.432609597454</v>
+        <v>1431.934132288387</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>610.1050614540299</v>
+        <v>1347.278689203607</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>423.2636982136265</v>
+        <v>398.240497002051</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>374.6966586593375</v>
+        <v>508.1685986066879</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>1521.908849032955</v>
+        <v>879.4238381009438</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>1431.934132288386</v>
+        <v>1267.62804618769</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>879.4238381009443</v>
+        <v>1192.686321217972</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>1521.908849032957</v>
+        <v>1192.686321217971</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>648.4406446704379</v>
+        <v>732.4895458562631</v>
       </c>
       <c r="J151" s="0" t="n">
-        <v>1122.175124713075</v>
+        <v>778.5150842666462</v>
       </c>
       <c r="K151" s="0" t="n">
         <v>1267.628046187691</v>
@@ -45980,34 +45980,34 @@
     </row>
     <row r="152">
       <c r="A152" s="0" t="n">
-        <v>853.0322158641328</v>
+        <v>1476.23616916875</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>591.7957302657472</v>
+        <v>1306.846682845957</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>410.5615003133153</v>
+        <v>410.5615003133161</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>386.2892485812959</v>
+        <v>523.8906234465718</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>1568.994577655583</v>
+        <v>906.6319801729226</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>1476.236169168748</v>
+        <v>1229.586365848418</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>906.631980172923</v>
+        <v>1229.586365848419</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>1476.236169168749</v>
+        <v>1229.586365848418</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>668.5024901891327</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="J152" s="0" t="n">
-        <v>1156.893651662227</v>
+        <v>755.1517466819017</v>
       </c>
       <c r="K152" s="0" t="n">
         <v>1229.586365848419</v>
@@ -46282,34 +46282,34 @@
     </row>
     <row r="153">
       <c r="A153" s="0" t="n">
-        <v>827.4326095974541</v>
+        <v>1431.934132288387</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>610.1050614540299</v>
+        <v>1267.62804618769</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>423.2636982136265</v>
+        <v>423.2636982136273</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>398.2404970020504</v>
+        <v>540.099065719063</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>1521.908849032955</v>
+        <v>934.6819040603767</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>1431.934132288386</v>
+        <v>1267.62804618769</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>879.4238381009444</v>
+        <v>1192.686321217972</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>1431.934132288387</v>
+        <v>1192.686321217971</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>648.440644670438</v>
+        <v>689.1850211150783</v>
       </c>
       <c r="J153" s="0" t="n">
-        <v>1192.686321217976</v>
+        <v>778.5150842666462</v>
       </c>
       <c r="K153" s="0" t="n">
         <v>1267.628046187691</v>
@@ -46584,34 +46584,34 @@
     </row>
     <row r="154">
       <c r="A154" s="0" t="n">
-        <v>802.601250800005</v>
+        <v>1388.961605220032</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>591.7957302657472</v>
+        <v>1306.846682845957</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>410.5615003133154</v>
+        <v>410.5615003133161</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>386.2892485812959</v>
+        <v>523.8906234465718</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>1568.994577655583</v>
+        <v>963.5996533139094</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>1476.236169168748</v>
+        <v>1306.846682845957</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>853.0322158641339</v>
+        <v>1156.893651662223</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>1388.961605220031</v>
+        <v>1156.893651662222</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>668.5024901891328</v>
+        <v>668.5024901891317</v>
       </c>
       <c r="J154" s="0" t="n">
-        <v>1229.586365848424</v>
+        <v>802.6012508000056</v>
       </c>
       <c r="K154" s="0" t="n">
         <v>1306.846682845958</v>
@@ -46886,34 +46886,34 @@
     </row>
     <row r="155">
       <c r="A155" s="0" t="n">
-        <v>827.4326095974542</v>
+        <v>1431.934132288387</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>610.1050614540299</v>
+        <v>1347.278689203607</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>398.2404970020503</v>
+        <v>423.2636982136273</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>374.6966586593376</v>
+        <v>540.099065719063</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>1521.908849032955</v>
+        <v>934.6819040603768</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>1431.934132288386</v>
+        <v>1267.62804618769</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>827.4326095974552</v>
+        <v>1192.686321217972</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>1347.278689203609</v>
+        <v>1122.175124713071</v>
       </c>
       <c r="I155" s="0" t="n">
-        <v>689.1850211150795</v>
+        <v>689.1850211150783</v>
       </c>
       <c r="J155" s="0" t="n">
-        <v>1192.686321217977</v>
+        <v>827.4326095974548</v>
       </c>
       <c r="K155" s="0" t="n">
         <v>1347.278689203608</v>
@@ -47188,34 +47188,34 @@
     </row>
     <row r="156">
       <c r="A156" s="0" t="n">
-        <v>853.032215864133</v>
+        <v>1476.23616916875</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>591.7957302657472</v>
+        <v>1388.961605220029</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>386.2892485812958</v>
+        <v>410.5615003133161</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>386.289248581296</v>
+        <v>523.8906234465718</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>1476.236169168748</v>
+        <v>906.6319801729228</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>1388.96160522003</v>
+        <v>1229.586365848418</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>853.0322158641341</v>
+        <v>1229.586365848419</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>1306.846682845959</v>
+        <v>1088.49850521305</v>
       </c>
       <c r="I156" s="0" t="n">
-        <v>668.5024901891329</v>
+        <v>668.5024901891317</v>
       </c>
       <c r="J156" s="0" t="n">
-        <v>1156.893651662227</v>
+        <v>853.0322158641336</v>
       </c>
       <c r="K156" s="0" t="n">
         <v>1388.96160522003</v>
@@ -47490,34 +47490,34 @@
     </row>
     <row r="157">
       <c r="A157" s="0" t="n">
-        <v>879.4238381009436</v>
+        <v>1431.934132288387</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>574.0358644560393</v>
+        <v>1431.934132288385</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>374.6966586593375</v>
+        <v>423.2636982136273</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>374.6966586593376</v>
+        <v>508.1685986066879</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>1431.934132288386</v>
+        <v>879.4238381009442</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>1431.934132288386</v>
+        <v>1267.62804618769</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>879.4238381009446</v>
+        <v>1267.628046187691</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>1347.278689203609</v>
+        <v>1055.832525385905</v>
       </c>
       <c r="I157" s="0" t="n">
-        <v>689.1850211150796</v>
+        <v>689.1850211150783</v>
       </c>
       <c r="J157" s="0" t="n">
-        <v>1122.175124713076</v>
+        <v>879.4238381009442</v>
       </c>
       <c r="K157" s="0" t="n">
         <v>1431.934132288386</v>
@@ -47792,34 +47792,34 @@
     </row>
     <row r="158">
       <c r="A158" s="0" t="n">
-        <v>853.0322158641331</v>
+        <v>1388.961605220032</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>591.7957302657472</v>
+        <v>1388.961605220029</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>363.4519638486001</v>
+        <v>410.5615003133161</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>363.4519638486003</v>
+        <v>523.8906234465718</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>1388.96160522003</v>
+        <v>906.6319801729229</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>1476.236169168748</v>
+        <v>1306.846682845957</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>906.6319801729234</v>
+        <v>1306.846682845958</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>1306.846682845959</v>
+        <v>1024.146855805359</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>710.5074405856176</v>
+        <v>668.5024901891317</v>
       </c>
       <c r="J158" s="0" t="n">
-        <v>1088.498505213055</v>
+        <v>853.0322158641337</v>
       </c>
       <c r="K158" s="0" t="n">
         <v>1388.96160522003</v>
@@ -48094,34 +48094,34 @@
     </row>
     <row r="159">
       <c r="A159" s="0" t="n">
-        <v>827.4326095974544</v>
+        <v>1347.27868920361</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>610.1050614540299</v>
+        <v>1347.278689203608</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>352.5447237721512</v>
+        <v>398.240497002051</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>352.5447237721514</v>
+        <v>540.099065719063</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>1431.934132288386</v>
+        <v>934.6819040603771</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>1431.934132288386</v>
+        <v>1267.62804618769</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>934.6819040603775</v>
+        <v>1267.628046187692</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>1267.628046187692</v>
+        <v>993.4120772351084</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>689.1850211150797</v>
+        <v>648.440644670437</v>
       </c>
       <c r="J159" s="0" t="n">
-        <v>1122.175124713076</v>
+        <v>827.432609597455</v>
       </c>
       <c r="K159" s="0" t="n">
         <v>1347.278689203609</v>
@@ -48396,34 +48396,34 @@
     </row>
     <row r="160">
       <c r="A160" s="0" t="n">
-        <v>802.6012508000053</v>
+        <v>1388.961605220032</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>591.7957302657472</v>
+        <v>1306.846682845957</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>341.9648113701095</v>
+        <v>386.2892485812965</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>363.4519638486004</v>
+        <v>556.8089744983841</v>
       </c>
       <c r="E160" s="0" t="n">
-        <v>1388.96160522003</v>
+        <v>906.631980172923</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>1388.96160522003</v>
+        <v>1229.586365848418</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>906.6319801729235</v>
+        <v>1306.846682845959</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>1306.846682845959</v>
+        <v>963.5996533139083</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>668.5024901891331</v>
+        <v>668.5024901891317</v>
       </c>
       <c r="J160" s="0" t="n">
-        <v>1088.498505213056</v>
+        <v>802.6012508000059</v>
       </c>
       <c r="K160" s="0" t="n">
         <v>1388.96160522003</v>
@@ -48698,34 +48698,34 @@
     </row>
     <row r="161">
       <c r="A161" s="0" t="n">
-        <v>778.5150842666461</v>
+        <v>1347.27868920361</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>574.0358644560393</v>
+        <v>1267.62804618769</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>331.7024034969604</v>
+        <v>398.240497002051</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>374.6966586593377</v>
+        <v>540.0990657190631</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>1347.278689203609</v>
+        <v>934.6819040603772</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>1431.934132288386</v>
+        <v>1267.62804618769</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>879.4238381009449</v>
+        <v>1267.628046187692</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>1267.628046187692</v>
+        <v>993.4120772351085</v>
       </c>
       <c r="I161" s="0" t="n">
-        <v>689.1850211150798</v>
+        <v>648.440644670437</v>
       </c>
       <c r="J161" s="0" t="n">
-        <v>1055.83252538591</v>
+        <v>778.5150842666466</v>
       </c>
       <c r="K161" s="0" t="n">
         <v>1347.278689203609</v>
@@ -49000,34 +49000,34 @@
     </row>
     <row r="162">
       <c r="A162" s="0" t="n">
-        <v>755.1517466819016</v>
+        <v>1306.84668284596</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>591.7957302657472</v>
+        <v>1229.586365848418</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>341.9648113701095</v>
+        <v>410.5615003133162</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>363.4519638486004</v>
+        <v>523.8906234465719</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>1306.846682845958</v>
+        <v>963.5996533139098</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>1476.236169168749</v>
+        <v>1229.586365848419</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>906.6319801729236</v>
+        <v>1306.846682845959</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>1229.58636584842</v>
+        <v>1024.146855805359</v>
       </c>
       <c r="I162" s="0" t="n">
-        <v>710.5074405856178</v>
+        <v>668.5024901891317</v>
       </c>
       <c r="J162" s="0" t="n">
-        <v>1088.498505213056</v>
+        <v>755.1517466819021</v>
       </c>
       <c r="K162" s="0" t="n">
         <v>1388.96160522003</v>
@@ -49302,34 +49302,34 @@
     </row>
     <row r="163">
       <c r="A163" s="0" t="n">
-        <v>778.5150842666461</v>
+        <v>1267.628046187693</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>610.1050614540299</v>
+        <v>1192.686321217971</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>352.5447237721513</v>
+        <v>423.2636982136274</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>374.6966586593377</v>
+        <v>508.168598606688</v>
       </c>
       <c r="E163" s="0" t="n">
+        <v>993.41207723511</v>
+      </c>
+      <c r="F163" s="0" t="n">
         <v>1267.628046187691</v>
       </c>
-      <c r="F163" s="0" t="n">
-        <v>1431.934132288386</v>
-      </c>
       <c r="G163" s="0" t="n">
-        <v>934.6819040603777</v>
+        <v>1347.27868920361</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>1267.628046187692</v>
+        <v>1055.832525385906</v>
       </c>
       <c r="I163" s="0" t="n">
-        <v>689.18502111508</v>
+        <v>689.1850211150783</v>
       </c>
       <c r="J163" s="0" t="n">
-        <v>1055.83252538591</v>
+        <v>732.4895458562647</v>
       </c>
       <c r="K163" s="0" t="n">
         <v>1347.278689203609</v>
@@ -49604,34 +49604,34 @@
     </row>
     <row r="164">
       <c r="A164" s="0" t="n">
-        <v>755.1517466819016</v>
+        <v>1229.586365848421</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>628.9808577102705</v>
+        <v>1229.586365848418</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>363.4519638486003</v>
+        <v>436.3588843297736</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>386.2892485812961</v>
+        <v>523.8906234465719</v>
       </c>
       <c r="E164" s="0" t="n">
+        <v>963.5996533139099</v>
+      </c>
+      <c r="F164" s="0" t="n">
         <v>1229.586365848419</v>
       </c>
-      <c r="F164" s="0" t="n">
-        <v>1476.236169168749</v>
-      </c>
       <c r="G164" s="0" t="n">
-        <v>906.6319801729237</v>
+        <v>1388.961605220032</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>1229.58636584842</v>
+        <v>1024.146855805359</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>710.5074405856179</v>
+        <v>668.5024901891317</v>
       </c>
       <c r="J164" s="0" t="n">
-        <v>1024.146855805364</v>
+        <v>755.1517466819022</v>
       </c>
       <c r="K164" s="0" t="n">
         <v>1388.96160522003</v>
@@ -49906,34 +49906,34 @@
     </row>
     <row r="165">
       <c r="A165" s="0" t="n">
-        <v>778.5150842666461</v>
+        <v>1192.686321217973</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>648.4406446704367</v>
+        <v>1192.686321217971</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>374.6966586593376</v>
+        <v>423.2636982136274</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>398.2404970020506</v>
+        <v>508.168598606688</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>1192.686321217972</v>
+        <v>934.6819040603774</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>1431.934132288386</v>
+        <v>1267.628046187691</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>879.423838100945</v>
+        <v>1347.27868920361</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>1267.628046187692</v>
+        <v>993.4120772351089</v>
       </c>
       <c r="I165" s="0" t="n">
-        <v>689.1850211150801</v>
+        <v>689.1850211150783</v>
       </c>
       <c r="J165" s="0" t="n">
-        <v>1055.83252538591</v>
+        <v>732.4895458562648</v>
       </c>
       <c r="K165" s="0" t="n">
         <v>1347.278689203609</v>
@@ -50208,34 +50208,34 @@
     </row>
     <row r="166">
       <c r="A166" s="0" t="n">
-        <v>755.1517466819016</v>
+        <v>1156.893651662224</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>668.5024901891313</v>
+        <v>1156.893651662222</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>386.289248581296</v>
+        <v>436.3588843297737</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>386.2892485812961</v>
+        <v>492.9183937498375</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>1156.893651662223</v>
+        <v>963.59965331391</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>1388.96160522003</v>
+        <v>1229.586365848419</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>853.0322158641345</v>
+        <v>1388.961605220032</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>1229.58636584842</v>
+        <v>963.5996533139088</v>
       </c>
       <c r="I166" s="0" t="n">
-        <v>668.5024901891335</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="J166" s="0" t="n">
-        <v>1024.146855805364</v>
+        <v>755.1517466819023</v>
       </c>
       <c r="K166" s="0" t="n">
         <v>1388.96160522003</v>
@@ -50510,34 +50510,34 @@
     </row>
     <row r="167">
       <c r="A167" s="0" t="n">
-        <v>732.4895458562643</v>
+        <v>1122.175124713073</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>648.4406446704367</v>
+        <v>1122.175124713071</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>374.6966586593376</v>
+        <v>449.8592171668417</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>398.2404970020507</v>
+        <v>508.1685986066881</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>1192.686321217972</v>
+        <v>934.6819040603775</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>1431.934132288386</v>
+        <v>1267.628046187691</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>879.4238381009451</v>
+        <v>1431.934132288388</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>1192.686321217973</v>
+        <v>993.412077235109</v>
       </c>
       <c r="I167" s="0" t="n">
-        <v>648.4406446704388</v>
+        <v>732.4895458562631</v>
       </c>
       <c r="J167" s="0" t="n">
-        <v>993.4120772351133</v>
+        <v>732.489545856265</v>
       </c>
       <c r="K167" s="0" t="n">
         <v>1431.934132288386</v>
@@ -50812,34 +50812,34 @@
     </row>
     <row r="168">
       <c r="A168" s="0" t="n">
-        <v>710.5074405856172</v>
+        <v>1156.893651662224</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>668.5024901891313</v>
+        <v>1156.893651662222</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>386.289248581296</v>
+        <v>436.3588843297737</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>410.5615003133158</v>
+        <v>492.9183937498376</v>
       </c>
       <c r="E168" s="0" t="n">
-        <v>1229.586365848419</v>
+        <v>963.5996533139102</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>1476.236169168749</v>
+        <v>1306.846682845958</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>906.6319801729238</v>
+        <v>1388.961605220032</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>1229.586365848421</v>
+        <v>1024.14685580536</v>
       </c>
       <c r="I168" s="0" t="n">
-        <v>628.9808577102726</v>
+        <v>755.1517466819005</v>
       </c>
       <c r="J168" s="0" t="n">
-        <v>1024.146855805364</v>
+        <v>755.1517466819024</v>
       </c>
       <c r="K168" s="0" t="n">
         <v>1388.961605220031</v>
@@ -51114,34 +51114,34 @@
     </row>
     <row r="169">
       <c r="A169" s="0" t="n">
-        <v>732.4895458562644</v>
+        <v>1192.686321217974</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>689.1850211150779</v>
+        <v>1122.175124713071</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>374.6966586593377</v>
+        <v>423.2636982136275</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>423.263698213627</v>
+        <v>478.1258494977816</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>1192.686321217972</v>
+        <v>993.4120772351104</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>1521.908849032956</v>
+        <v>1347.278689203609</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>934.681904060378</v>
+        <v>1347.27868920361</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>1192.686321217973</v>
+        <v>993.4120772351091</v>
       </c>
       <c r="I169" s="0" t="n">
-        <v>648.4406446704389</v>
+        <v>778.515084266645</v>
       </c>
       <c r="J169" s="0" t="n">
-        <v>1055.83252538591</v>
+        <v>732.4895458562651</v>
       </c>
       <c r="K169" s="0" t="n">
         <v>1431.934132288387</v>
@@ -51416,34 +51416,34 @@
     </row>
     <row r="170">
       <c r="A170" s="0" t="n">
-        <v>755.1517466819018</v>
+        <v>1229.586365848421</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>668.5024901891313</v>
+        <v>1156.893651662222</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>386.2892485812961</v>
+        <v>436.3588843297738</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>436.3588843297733</v>
+        <v>463.7772313970393</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>1156.893651662223</v>
+        <v>963.5996533139102</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>1568.994577655583</v>
+        <v>1388.961605220031</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>906.6319801729238</v>
+        <v>1306.84668284596</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>1156.893651662224</v>
+        <v>1024.14685580536</v>
       </c>
       <c r="I170" s="0" t="n">
-        <v>628.9808577102727</v>
+        <v>755.1517466819006</v>
       </c>
       <c r="J170" s="0" t="n">
-        <v>1088.498505213056</v>
+        <v>710.507440585618</v>
       </c>
       <c r="K170" s="0" t="n">
         <v>1388.961605220031</v>
@@ -51718,34 +51718,34 @@
     </row>
     <row r="171">
       <c r="A171" s="0" t="n">
-        <v>778.5150842666463</v>
+        <v>1267.628046187693</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>689.1850211150779</v>
+        <v>1122.175124713071</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>398.2404970020506</v>
+        <v>423.2636982136276</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>449.8592171668413</v>
+        <v>478.1258494977817</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>1122.175124713071</v>
+        <v>993.4120772351104</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>1521.908849032956</v>
+        <v>1347.278689203609</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>879.4238381009451</v>
+        <v>1267.628046187693</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>1122.175124713073</v>
+        <v>1055.832525385906</v>
       </c>
       <c r="I171" s="0" t="n">
-        <v>610.1050614540321</v>
+        <v>732.4895458562632</v>
       </c>
       <c r="J171" s="0" t="n">
-        <v>1122.175124713076</v>
+        <v>689.1850211150802</v>
       </c>
       <c r="K171" s="0" t="n">
         <v>1347.278689203609</v>
@@ -52020,34 +52020,34 @@
     </row>
     <row r="172">
       <c r="A172" s="0" t="n">
-        <v>755.1517466819018</v>
+        <v>1306.84668284596</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>668.5024901891313</v>
+        <v>1088.49850521305</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>410.5615003133158</v>
+        <v>410.5615003133164</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>463.7772313970397</v>
+        <v>463.7772313970393</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>1156.893651662223</v>
+        <v>963.5996533139102</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>1568.994577655583</v>
+        <v>1306.846682845959</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>906.6319801729238</v>
+        <v>1306.84668284596</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>1088.498505213052</v>
+        <v>1088.498505213051</v>
       </c>
       <c r="I172" s="0" t="n">
-        <v>591.7957302657494</v>
+        <v>755.1517466819006</v>
       </c>
       <c r="J172" s="0" t="n">
-        <v>1156.893651662228</v>
+        <v>668.5024901891336</v>
       </c>
       <c r="K172" s="0" t="n">
         <v>1306.846682845958</v>
@@ -52322,34 +52322,34 @@
     </row>
     <row r="173">
       <c r="A173" s="0" t="n">
-        <v>732.4895458562645</v>
+        <v>1267.628046187693</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>689.1850211150779</v>
+        <v>1055.832525385905</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>423.263698213627</v>
+        <v>423.2636982136276</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>449.8592171668414</v>
+        <v>478.1258494977818</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>1192.686321217972</v>
+        <v>934.6819040603776</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>1617.537072786489</v>
+        <v>1347.278689203609</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>879.4238381009451</v>
+        <v>1267.628046187693</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>1055.832525385907</v>
+        <v>1055.832525385906</v>
       </c>
       <c r="I173" s="0" t="n">
-        <v>574.0358644560415</v>
+        <v>778.5150842666451</v>
       </c>
       <c r="J173" s="0" t="n">
-        <v>1122.175124713076</v>
+        <v>648.4406446704389</v>
       </c>
       <c r="K173" s="0" t="n">
         <v>1347.278689203609</v>
@@ -52624,34 +52624,34 @@
     </row>
     <row r="174">
       <c r="A174" s="0" t="n">
-        <v>755.151746681902</v>
+        <v>1306.84668284596</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>710.5074405856158</v>
+        <v>1024.146855805359</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>410.5615003133158</v>
+        <v>436.3588843297738</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>436.3588843297734</v>
+        <v>463.7772313970394</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>1229.586365848419</v>
+        <v>963.5996533139103</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>1568.994577655583</v>
+        <v>1388.961605220032</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>906.6319801729238</v>
+        <v>1229.586365848421</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>1024.146855805361</v>
+        <v>1088.498505213051</v>
       </c>
       <c r="I174" s="0" t="n">
-        <v>556.8089744983852</v>
+        <v>755.1517466819007</v>
       </c>
       <c r="J174" s="0" t="n">
-        <v>1088.498505213056</v>
+        <v>668.5024901891337</v>
       </c>
       <c r="K174" s="0" t="n">
         <v>1306.846682845959</v>
@@ -52926,34 +52926,34 @@
     </row>
     <row r="175">
       <c r="A175" s="0" t="n">
-        <v>732.4895458562646</v>
+        <v>1267.628046187694</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>732.4895458562628</v>
+        <v>993.4120772351084</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>398.2404970020507</v>
+        <v>423.2636982136277</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>423.2636982136272</v>
+        <v>478.1258494977818</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>1192.686321217972</v>
+        <v>993.4120772351105</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>1521.908849032956</v>
+        <v>1347.27868920361</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>879.4238381009451</v>
+        <v>1192.686321217974</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>993.4120772351105</v>
+        <v>1122.175124713072</v>
       </c>
       <c r="I175" s="0" t="n">
-        <v>574.0358644560416</v>
+        <v>778.5150842666452</v>
       </c>
       <c r="J175" s="0" t="n">
-        <v>1122.175124713076</v>
+        <v>648.440644670439</v>
       </c>
       <c r="K175" s="0" t="n">
         <v>1347.278689203609</v>
@@ -53228,34 +53228,34 @@
     </row>
     <row r="176">
       <c r="A176" s="0" t="n">
-        <v>710.5074405856176</v>
+        <v>1229.586365848422</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>710.5074405856158</v>
+        <v>1024.146855805359</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>410.5615003133159</v>
+        <v>436.3588843297739</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>436.3588843297734</v>
+        <v>463.7772313970394</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>1229.586365848419</v>
+        <v>1024.146855805361</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>1568.994577655583</v>
+        <v>1306.846682845959</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>853.0322158641345</v>
+        <v>1156.893651662224</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>963.5996533139103</v>
+        <v>1088.498505213051</v>
       </c>
       <c r="I176" s="0" t="n">
-        <v>591.7957302657496</v>
+        <v>755.1517466819008</v>
       </c>
       <c r="J176" s="0" t="n">
-        <v>1156.893651662228</v>
+        <v>668.5024901891338</v>
       </c>
       <c r="K176" s="0" t="n">
         <v>1388.961605220032</v>
@@ -53530,34 +53530,34 @@
     </row>
     <row r="177">
       <c r="A177" s="0" t="n">
-        <v>732.4895458562647</v>
+        <v>1267.628046187694</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>732.4895458562628</v>
+        <v>993.4120772351084</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>398.2404970020508</v>
+        <v>449.859217166842</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>449.8592171668415</v>
+        <v>478.1258494977819</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>1192.686321217972</v>
+        <v>993.4120772351107</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>1617.537072786489</v>
+        <v>1347.27868920361</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>827.4326095974558</v>
+        <v>1122.175124713073</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>934.6819040603777</v>
+        <v>1122.175124713072</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>574.0358644560417</v>
+        <v>778.5150842666453</v>
       </c>
       <c r="J177" s="0" t="n">
-        <v>1122.175124713077</v>
+        <v>648.4406446704392</v>
       </c>
       <c r="K177" s="0" t="n">
         <v>1431.934132288387</v>
@@ -53832,34 +53832,34 @@
     </row>
     <row r="178">
       <c r="A178" s="0" t="n">
-        <v>755.1517466819022</v>
+        <v>1306.846682845961</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>710.5074405856158</v>
+        <v>1024.146855805359</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>386.2892485812963</v>
+        <v>463.7772313970403</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>436.3588843297735</v>
+        <v>492.9183937498379</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>1229.586365848419</v>
+        <v>963.5996533139105</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>1568.994577655583</v>
+        <v>1388.961605220032</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>853.0322158641346</v>
+        <v>1088.498505213053</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>906.6319801729237</v>
+        <v>1088.498505213051</v>
       </c>
       <c r="I178" s="0" t="n">
-        <v>591.7957302657497</v>
+        <v>755.1517466819009</v>
       </c>
       <c r="J178" s="0" t="n">
-        <v>1156.893651662228</v>
+        <v>628.980857710273</v>
       </c>
       <c r="K178" s="0" t="n">
         <v>1476.23616916875</v>
@@ -54134,34 +54134,34 @@
     </row>
     <row r="179">
       <c r="A179" s="0" t="n">
-        <v>778.5150842666467</v>
+        <v>1347.278689203612</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>732.4895458562628</v>
+        <v>1055.832525385905</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>374.6966586593379</v>
+        <v>449.859217166842</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>423.2636982136273</v>
+        <v>508.1685986066884</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>1192.686321217972</v>
+        <v>934.681904060378</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>1617.537072786489</v>
+        <v>1347.27868920361</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>827.4326095974559</v>
+        <v>1122.175124713073</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>879.423838100945</v>
+        <v>1122.175124713072</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>574.0358644560418</v>
+        <v>778.5150842666454</v>
       </c>
       <c r="J179" s="0" t="n">
-        <v>1192.686321217978</v>
+        <v>610.1050614540324</v>
       </c>
       <c r="K179" s="0" t="n">
         <v>1431.934132288387</v>
@@ -54436,34 +54436,34 @@
     </row>
     <row r="180">
       <c r="A180" s="0" t="n">
-        <v>802.601250800006</v>
+        <v>1306.846682845961</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>710.5074405856158</v>
+        <v>1024.146855805359</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>363.4519638486006</v>
+        <v>463.7772313970403</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>436.3588843297736</v>
+        <v>492.9183937498379</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>1229.586365848419</v>
+        <v>963.5996533139106</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>1667.581404741493</v>
+        <v>1388.961605220032</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>802.6012508000068</v>
+        <v>1156.893651662225</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>906.6319801729237</v>
+        <v>1088.498505213051</v>
       </c>
       <c r="I180" s="0" t="n">
-        <v>556.8089744983854</v>
+        <v>802.6012508000048</v>
       </c>
       <c r="J180" s="0" t="n">
-        <v>1229.586365848425</v>
+        <v>628.9808577102731</v>
       </c>
       <c r="K180" s="0" t="n">
         <v>1476.23616916875</v>

--- a/output/freight_outward.xlsx
+++ b/output/freight_outward.xlsx
@@ -378,10 +378,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="n">
+        <v>827.432609597449</v>
+      </c>
+      <c r="B1" s="0" t="n">
         <v>778.5150842666409</v>
-      </c>
-      <c r="B1" s="0" t="n">
-        <v>827.432609597449</v>
       </c>
       <c r="C1" s="0" t="n">
         <v>778.5150842666409</v>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="n">
-        <v>802.6012508000001</v>
+        <v>853.0322158641276</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>802.6012508</v>
+        <v>755.1517466818966</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>755.1517466818966</v>
@@ -985,7 +985,7 @@
         <v>827.4326095974491</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>827.432609597449</v>
+        <v>732.4895458562594</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>778.515084266641</v>
@@ -1287,7 +1287,7 @@
         <v>802.6012508000001</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>802.6012508</v>
+        <v>710.5074405856125</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>802.6012508000002</v>
@@ -1586,10 +1586,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
-        <v>827.4326095974491</v>
+        <v>778.515084266641</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>827.432609597449</v>
+        <v>689.1850211150747</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>778.5150842666411</v>
@@ -1888,10 +1888,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="n">
-        <v>802.6012508000001</v>
+        <v>755.1517466818967</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>802.6012508</v>
+        <v>710.5074405856125</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>755.1517466818968</v>
@@ -2190,10 +2190,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="n">
-        <v>778.515084266641</v>
+        <v>778.5150842666411</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>827.432609597449</v>
+        <v>732.4895458562594</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>732.4895458562596</v>
@@ -2492,10 +2492,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>802.6012508000002</v>
+        <v>755.1517466818968</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>802.6012508</v>
+        <v>755.1517466818966</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>755.1517466818968</v>
@@ -2794,10 +2794,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>778.5150842666411</v>
+        <v>732.4895458562596</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>827.432609597449</v>
+        <v>732.4895458562594</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>732.4895458562596</v>
@@ -3099,7 +3099,7 @@
         <v>755.1517466818968</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>802.6012508</v>
+        <v>710.5074405856125</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>710.5074405856127</v>
@@ -3398,10 +3398,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>732.4895458562596</v>
+        <v>778.5150842666412</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>778.5150842666409</v>
+        <v>732.4895458562594</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>732.4895458562596</v>
@@ -3700,7 +3700,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>710.5074405856127</v>
+        <v>755.151746681897</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>755.1517466818966</v>
@@ -4002,10 +4002,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>732.4895458562596</v>
+        <v>778.5150842666413</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>732.4895458562594</v>
+        <v>778.515084266641</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>732.4895458562596</v>
@@ -4304,10 +4304,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>710.5074405856127</v>
+        <v>755.1517466818971</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>755.1517466818966</v>
+        <v>755.1517466818967</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>710.5074405856127</v>
@@ -4606,10 +4606,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>732.4895458562596</v>
+        <v>778.5150842666415</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>732.4895458562594</v>
+        <v>778.5150842666411</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>732.4895458562596</v>
@@ -4908,10 +4908,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>710.5074405856127</v>
+        <v>755.1517466818972</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>755.1517466818966</v>
+        <v>755.1517466818968</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>710.5074405856127</v>
@@ -5210,10 +5210,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>689.185021115075</v>
+        <v>778.5150842666416</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>732.4895458562594</v>
+        <v>732.4895458562596</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>732.4895458562596</v>
@@ -5512,10 +5512,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>668.5024901891285</v>
+        <v>755.1517466818973</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>710.5074405856125</v>
+        <v>710.5074405856127</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>710.5074405856127</v>
@@ -5814,10 +5814,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>689.1850211150751</v>
+        <v>732.4895458562601</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>689.1850211150747</v>
+        <v>732.4895458562596</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>689.185021115075</v>
@@ -6116,10 +6116,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>710.5074405856128</v>
+        <v>710.5074405856132</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>668.5024901891283</v>
+        <v>710.5074405856127</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>668.5024901891285</v>
@@ -6418,10 +6418,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>689.1850211150751</v>
+        <v>689.1850211150754</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>648.4406446704337</v>
+        <v>689.185021115075</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>648.4406446704339</v>
@@ -6720,10 +6720,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>668.5024901891286</v>
+        <v>668.5024901891289</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>628.9808577102676</v>
+        <v>668.5024901891285</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>628.9808577102679</v>
@@ -7022,10 +7022,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>689.1850211150752</v>
+        <v>648.4406446704344</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>648.4406446704338</v>
+        <v>689.1850211150751</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>610.1050614540274</v>
@@ -7324,10 +7324,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>710.5074405856129</v>
+        <v>628.9808577102683</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>628.9808577102677</v>
+        <v>710.5074405856128</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>591.7957302657449</v>
@@ -7626,10 +7626,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>689.1850211150752</v>
+        <v>610.1050614540278</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>648.4406446704339</v>
+        <v>732.4895458562597</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>574.0358644560371</v>
@@ -7928,10 +7928,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>710.5074405856129</v>
+        <v>628.9808577102684</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>628.9808577102679</v>
+        <v>755.151746681897</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>556.8089744983808</v>
@@ -8230,10 +8230,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>689.1850211150752</v>
+        <v>610.1050614540279</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>648.440644670434</v>
+        <v>778.5150842666413</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>574.0358644560372</v>
@@ -8532,10 +8532,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>710.5074405856129</v>
+        <v>591.7957302657454</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>668.5024901891287</v>
+        <v>755.1517466818971</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>591.795730265745</v>
@@ -8834,10 +8834,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>689.1850211150752</v>
+        <v>574.0358644560376</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>689.1850211150753</v>
+        <v>732.4895458562598</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>610.1050614540276</v>
@@ -9136,10 +9136,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>710.5074405856129</v>
+        <v>591.7957302657455</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>668.5024901891288</v>
+        <v>755.1517466818971</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>591.7957302657451</v>
@@ -9438,10 +9438,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>732.48954585626</v>
+        <v>610.1050614540281</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>648.4406446704343</v>
+        <v>732.4895458562598</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>610.1050614540277</v>
@@ -9740,10 +9740,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>755.1517466818972</v>
+        <v>628.9808577102688</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>668.5024901891289</v>
+        <v>710.5074405856129</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>591.7957302657452</v>
@@ -10042,10 +10042,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>778.5150842666416</v>
+        <v>610.1050614540283</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>689.1850211150755</v>
+        <v>689.1850211150752</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>610.1050614540278</v>
@@ -10344,10 +10344,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>802.6012508000008</v>
+        <v>628.9808577102689</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>710.5074405856133</v>
+        <v>668.5024901891287</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>591.7957302657453</v>
@@ -10646,10 +10646,10 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
-        <v>778.5150842666417</v>
+        <v>610.1050614540284</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>732.4895458562603</v>
+        <v>689.1850211150753</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>574.0358644560375</v>
@@ -10948,10 +10948,10 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>802.6012508000009</v>
+        <v>628.980857710269</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>755.1517466818975</v>
+        <v>668.5024901891288</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>556.8089744983813</v>
@@ -11250,10 +11250,10 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
-        <v>778.5150842666418</v>
+        <v>610.1050614540285</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>732.4895458562603</v>
+        <v>648.4406446704343</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>574.0358644560376</v>
@@ -11552,10 +11552,10 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
-        <v>802.601250800001</v>
+        <v>628.9808577102691</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>755.1517466818975</v>
+        <v>628.9808577102682</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>556.8089744983814</v>
@@ -11854,10 +11854,10 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
-        <v>827.4326095974501</v>
+        <v>610.1050614540286</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>778.5150842666419</v>
+        <v>648.4406446704344</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>574.0358644560378</v>
@@ -12156,10 +12156,10 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>802.6012508000011</v>
+        <v>628.9808577102692</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>802.6012508000011</v>
+        <v>628.9808577102683</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>556.8089744983814</v>
@@ -12458,10 +12458,10 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
-        <v>827.4326095974502</v>
+        <v>610.1050614540287</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>778.515084266642</v>
+        <v>648.4406446704345</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>574.0358644560378</v>
@@ -12760,10 +12760,10 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>802.6012508000013</v>
+        <v>591.7957302657461</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>755.1517466818976</v>
+        <v>628.9808577102684</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>556.8089744983814</v>
@@ -13062,10 +13062,10 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
-        <v>827.4326095974503</v>
+        <v>574.0358644560383</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>778.515084266642</v>
+        <v>648.4406446704346</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>540.0990657190604</v>
@@ -13364,10 +13364,10 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
-        <v>853.0322158641291</v>
+        <v>556.808974498382</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>802.6012508000013</v>
+        <v>668.5024901891293</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>523.8906234465693</v>
@@ -13666,10 +13666,10 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
-        <v>827.4326095974504</v>
+        <v>540.0990657190609</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>827.4326095974503</v>
+        <v>648.4406446704347</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>540.0990657190605</v>
@@ -13968,10 +13968,10 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>802.6012508000015</v>
+        <v>523.8906234465699</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>853.0322158641291</v>
+        <v>668.5024901891294</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>523.8906234465694</v>
@@ -14270,10 +14270,10 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
-        <v>827.4326095974506</v>
+        <v>508.168598606686</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>827.4326095974504</v>
+        <v>648.4406446704348</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>540.0990657190606</v>
@@ -14572,10 +14572,10 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>802.6012508000016</v>
+        <v>523.8906234465699</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>802.6012508000015</v>
+        <v>668.5024901891295</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>556.8089744983816</v>
@@ -14874,10 +14874,10 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="n">
-        <v>778.5150842666425</v>
+        <v>540.0990657190611</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>827.4326095974506</v>
+        <v>689.1850211150761</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>540.0990657190606</v>
@@ -15176,10 +15176,10 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="n">
-        <v>755.1517466818981</v>
+        <v>556.8089744983821</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>853.0322158641293</v>
+        <v>710.5074405856139</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>523.8906234465695</v>
@@ -15478,10 +15478,10 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="n">
-        <v>778.5150842666425</v>
+        <v>574.0358644560384</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>879.4238381009397</v>
+        <v>689.1850211150762</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>508.1685986066857</v>
@@ -15780,10 +15780,10 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="n">
-        <v>755.1517466818981</v>
+        <v>591.7957302657463</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>906.6319801729184</v>
+        <v>710.5074405856141</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>492.9183937498353</v>
@@ -16082,10 +16082,10 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="n">
-        <v>732.4895458562609</v>
+        <v>610.1050614540289</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>879.4238381009399</v>
+        <v>732.4895458562611</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>478.1258494977794</v>
@@ -16384,10 +16384,10 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="n">
-        <v>710.5074405856139</v>
+        <v>591.7957302657463</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>853.0322158641295</v>
+        <v>710.5074405856142</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>463.777231397037</v>
@@ -16686,10 +16686,10 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="n">
-        <v>689.1850211150762</v>
+        <v>610.1050614540289</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>879.42383810094</v>
+        <v>689.1850211150764</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>478.1258494977794</v>
@@ -16988,10 +16988,10 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="n">
-        <v>710.5074405856141</v>
+        <v>591.7957302657463</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>906.6319801729186</v>
+        <v>668.50249018913</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>463.7772313970371</v>
@@ -17290,10 +17290,10 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="n">
-        <v>689.1850211150763</v>
+        <v>574.0358644560386</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>934.6819040603726</v>
+        <v>648.4406446704354</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>449.8592171668389</v>
@@ -17592,10 +17592,10 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="n">
-        <v>710.5074405856142</v>
+        <v>556.8089744983822</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>963.599653313905</v>
+        <v>628.9808577102693</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>436.3588843297709</v>
@@ -17894,10 +17894,10 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="n">
-        <v>689.1850211150764</v>
+        <v>574.0358644560386</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>993.4120772351051</v>
+        <v>648.4406446704355</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>449.859217166839</v>
@@ -18196,10 +18196,10 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="n">
-        <v>668.50249018913</v>
+        <v>556.8089744983822</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>1024.146855805355</v>
+        <v>628.9808577102694</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>463.7772313970372</v>
@@ -18498,10 +18498,10 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="n">
-        <v>689.1850211150766</v>
+        <v>540.0990657190612</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>1055.832525385902</v>
+        <v>610.1050614540289</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>449.859217166839</v>
@@ -18800,10 +18800,10 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="n">
-        <v>668.5024901891301</v>
+        <v>523.8906234465701</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>1088.498505213047</v>
+        <v>591.7957302657463</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>463.7772313970373</v>
@@ -19102,10 +19102,10 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="n">
-        <v>689.1850211150767</v>
+        <v>508.1685986066863</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>1122.175124713067</v>
+        <v>610.1050614540289</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>449.8592171668391</v>
@@ -19404,10 +19404,10 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="n">
-        <v>710.5074405856145</v>
+        <v>523.8906234465701</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>1156.893651662218</v>
+        <v>591.7957302657463</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>436.3588843297711</v>
@@ -19706,10 +19706,10 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="n">
-        <v>732.4895458562615</v>
+        <v>508.1685986066863</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>1192.686321217968</v>
+        <v>610.1050614540289</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>423.263698213625</v>
@@ -20008,10 +20008,10 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="n">
-        <v>755.1517466818989</v>
+        <v>523.8906234465701</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>1229.586365848415</v>
+        <v>628.9808577102696</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>410.5615003133139</v>
@@ -20310,10 +20310,10 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="n">
-        <v>732.4895458562617</v>
+        <v>508.1685986066863</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>1192.686321217968</v>
+        <v>610.1050614540291</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>398.2404970020489</v>
@@ -20612,10 +20612,10 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="n">
-        <v>755.151746681899</v>
+        <v>492.9183937498358</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>1229.586365848415</v>
+        <v>628.9808577102697</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>386.2892485812944</v>
@@ -20914,10 +20914,10 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="n">
-        <v>732.4895458562618</v>
+        <v>478.1258494977799</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>1267.628046187687</v>
+        <v>648.4406446704359</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>398.2404970020489</v>
@@ -21216,10 +21216,10 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="n">
-        <v>755.1517466818991</v>
+        <v>463.7772313970376</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>1306.846682845954</v>
+        <v>668.5024901891305</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>410.561500313314</v>
@@ -21518,10 +21518,10 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="n">
-        <v>778.5150842666436</v>
+        <v>449.8592171668394</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>1347.278689203605</v>
+        <v>689.1850211150771</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>423.2636982136252</v>
@@ -21820,10 +21820,10 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="n">
-        <v>802.601250800003</v>
+        <v>436.3588843297715</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>1388.961605220027</v>
+        <v>668.5024901891305</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>410.5615003133141</v>
@@ -22122,10 +22122,10 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="n">
-        <v>827.432609597452</v>
+        <v>423.2636982136253</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>1347.278689203605</v>
+        <v>648.4406446704359</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>398.240497002049</v>
@@ -22424,10 +22424,10 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="n">
-        <v>802.6012508000031</v>
+        <v>410.5615003133142</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>1388.961605220027</v>
+        <v>668.5024901891305</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>386.2892485812946</v>
@@ -22726,10 +22726,10 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="n">
-        <v>778.5150842666438</v>
+        <v>398.2404970020492</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>1431.934132288382</v>
+        <v>689.1850211150771</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>398.2404970020491</v>
@@ -23028,10 +23028,10 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="n">
-        <v>755.1517466818995</v>
+        <v>386.2892485812947</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>1388.961605220027</v>
+        <v>710.507440585615</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>386.2892485812946</v>
@@ -23330,10 +23330,10 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="n">
-        <v>778.515084266644</v>
+        <v>398.2404970020492</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>1347.278689203605</v>
+        <v>689.1850211150772</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>374.6966586593363</v>
@@ -23632,10 +23632,10 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="n">
-        <v>802.6012508000033</v>
+        <v>386.2892485812947</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>1388.961605220027</v>
+        <v>668.5024901891306</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>363.451963848599</v>
@@ -23934,10 +23934,10 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="n">
-        <v>778.5150842666441</v>
+        <v>398.2404970020492</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>1347.278689203605</v>
+        <v>689.1850211150772</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>352.5447237721501</v>
@@ -24236,10 +24236,10 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="n">
-        <v>802.6012508000034</v>
+        <v>386.2892485812947</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>1388.961605220027</v>
+        <v>710.5074405856151</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>363.4519638485991</v>
@@ -24538,10 +24538,10 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="n">
-        <v>827.4326095974525</v>
+        <v>374.6966586593363</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>1431.934132288383</v>
+        <v>732.4895458562621</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>352.5447237721502</v>
@@ -24840,10 +24840,10 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="n">
-        <v>853.0322158641312</v>
+        <v>363.4519638485991</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>1476.236169168745</v>
+        <v>710.5074405856152</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>341.9648113701085</v>
@@ -25142,10 +25142,10 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="n">
-        <v>879.4238381009417</v>
+        <v>374.6966586593364</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>1431.934132288383</v>
+        <v>689.1850211150775</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>352.5447237721502</v>
@@ -25444,10 +25444,10 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="n">
-        <v>853.0322158641312</v>
+        <v>386.2892485812947</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>1388.961605220027</v>
+        <v>668.5024901891309</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>363.4519638485991</v>
@@ -25746,10 +25746,10 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="n">
-        <v>879.4238381009417</v>
+        <v>398.2404970020492</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>1431.934132288383</v>
+        <v>689.1850211150775</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>374.6966586593364</v>
@@ -26048,10 +26048,10 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="n">
-        <v>906.6319801729203</v>
+        <v>386.2892485812947</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>1388.961605220027</v>
+        <v>668.5024901891309</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>363.4519638485992</v>
@@ -26350,10 +26350,10 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="n">
-        <v>934.6819040603743</v>
+        <v>398.2404970020492</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>1347.278689203606</v>
+        <v>689.1850211150775</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>374.6966586593365</v>
@@ -26652,10 +26652,10 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="n">
-        <v>963.5996533139069</v>
+        <v>386.2892485812947</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>1388.961605220028</v>
+        <v>668.5024901891309</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>363.4519638485992</v>
@@ -26954,10 +26954,10 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="n">
-        <v>934.6819040603744</v>
+        <v>398.2404970020492</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>1431.934132288383</v>
+        <v>689.1850211150775</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>352.5447237721503</v>
@@ -27256,10 +27256,10 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="n">
-        <v>963.599653313907</v>
+        <v>410.5615003133143</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>1388.961605220028</v>
+        <v>668.5024901891309</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>341.9648113701086</v>
@@ -27558,10 +27558,10 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="n">
-        <v>934.6819040603746</v>
+        <v>398.2404970020493</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>1431.934132288383</v>
+        <v>689.1850211150775</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>352.5447237721503</v>
@@ -27860,10 +27860,10 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="n">
-        <v>906.6319801729205</v>
+        <v>386.2892485812948</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>1388.961605220028</v>
+        <v>710.5074405856153</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>363.4519638485993</v>
@@ -28162,10 +28162,10 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="n">
-        <v>879.4238381009419</v>
+        <v>374.6966586593364</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>1431.934132288383</v>
+        <v>689.1850211150776</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>352.5447237721504</v>
@@ -28464,10 +28464,10 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="n">
-        <v>853.0322158641314</v>
+        <v>386.2892485812948</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>1388.961605220028</v>
+        <v>710.5074405856154</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>363.4519638485993</v>
@@ -28766,10 +28766,10 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="n">
-        <v>879.4238381009419</v>
+        <v>374.6966586593365</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>1347.278689203606</v>
+        <v>689.1850211150777</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>352.5447237721505</v>
@@ -29068,10 +29068,10 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="n">
-        <v>906.6319801729206</v>
+        <v>386.2892485812949</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>1306.846682845955</v>
+        <v>668.5024901891311</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>341.9648113701087</v>
@@ -29370,10 +29370,10 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="n">
-        <v>934.6819040603748</v>
+        <v>398.2404970020494</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>1347.278689203606</v>
+        <v>648.4406446704364</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>331.7024034969597</v>
@@ -29672,10 +29672,10 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="n">
-        <v>963.5996533139073</v>
+        <v>410.5615003133145</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>1306.846682845955</v>
+        <v>628.9808577102702</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>321.7479718010463</v>
@@ -29974,10 +29974,10 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="n">
-        <v>934.6819040603749</v>
+        <v>423.2636982136256</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>1347.278689203606</v>
+        <v>648.4406446704364</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>312.0922738777675</v>
@@ -30276,10 +30276,10 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="n">
-        <v>963.5996533139074</v>
+        <v>410.5615003133145</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>1306.846682845955</v>
+        <v>668.5024901891311</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>302.7263446882704</v>
@@ -30578,10 +30578,10 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="n">
-        <v>993.4120772351076</v>
+        <v>423.2636982136256</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>1267.628046187689</v>
+        <v>689.1850211150777</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>312.0922738777676</v>
@@ -30880,10 +30880,10 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="n">
-        <v>1024.146855805358</v>
+        <v>436.3588843297718</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>1306.846682845955</v>
+        <v>710.5074405856155</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>302.7263446882704</v>
@@ -31182,10 +31182,10 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="n">
-        <v>993.4120772351079</v>
+        <v>423.2636982136257</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>1267.628046187689</v>
+        <v>732.4895458562626</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>312.0922738777676</v>
@@ -31484,10 +31484,10 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="n">
-        <v>1024.146855805358</v>
+        <v>436.3588843297719</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>1306.846682845955</v>
+        <v>710.5074405856155</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>302.7263446882705</v>
@@ -31786,10 +31786,10 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="n">
-        <v>1055.832525385905</v>
+        <v>423.2636982136257</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>1267.628046187689</v>
+        <v>689.1850211150778</v>
       </c>
       <c r="C105" s="0" t="n">
         <v>293.6414882356686</v>
@@ -32088,10 +32088,10 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="n">
-        <v>1088.49850521305</v>
+        <v>410.5615003133146</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>1229.586365848417</v>
+        <v>710.5074405856157</v>
       </c>
       <c r="C106" s="0" t="n">
         <v>302.7263446882706</v>
@@ -32390,10 +32390,10 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="n">
-        <v>1122.17512471307</v>
+        <v>398.2404970020496</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>1267.628046187689</v>
+        <v>732.4895458562627</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>293.6414882356686</v>
@@ -32692,10 +32692,10 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="n">
-        <v>1088.49850521305</v>
+        <v>410.5615003133146</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>1306.846682845956</v>
+        <v>755.1517466819</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>302.7263446882706</v>
@@ -32994,10 +32994,10 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="n">
-        <v>1122.17512471307</v>
+        <v>398.2404970020496</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>1267.628046187689</v>
+        <v>778.5150842666445</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>293.6414882356687</v>
@@ -33296,10 +33296,10 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="n">
-        <v>1156.893651662222</v>
+        <v>386.2892485812951</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>1229.586365848417</v>
+        <v>802.6012508000039</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>302.7263446882707</v>
@@ -33598,10 +33598,10 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="n">
-        <v>1122.175124713071</v>
+        <v>398.2404970020497</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>1192.68632121797</v>
+        <v>827.4326095974529</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>312.0922738777679</v>
@@ -33900,10 +33900,10 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="n">
-        <v>1088.49850521305</v>
+        <v>386.2892485812952</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>1229.586365848417</v>
+        <v>853.0322158641317</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>321.7479718010467</v>
@@ -34202,10 +34202,10 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="n">
-        <v>1122.175124713071</v>
+        <v>398.2404970020497</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>1267.628046187689</v>
+        <v>879.4238381009422</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>312.0922738777679</v>
@@ -34504,10 +34504,10 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="n">
-        <v>1156.893651662222</v>
+        <v>410.5615003133148</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>1229.586365848417</v>
+        <v>906.631980172921</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>321.7479718010468</v>
@@ -34806,10 +34806,10 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="n">
-        <v>1192.686321217971</v>
+        <v>423.263698213626</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>1267.628046187689</v>
+        <v>879.4238381009424</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>331.7024034969602</v>
@@ -35108,10 +35108,10 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="n">
-        <v>1229.586365848419</v>
+        <v>436.3588843297722</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>1229.586365848417</v>
+        <v>906.6319801729211</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>321.7479718010468</v>
@@ -35410,10 +35410,10 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="n">
-        <v>1192.686321217971</v>
+        <v>449.8592171668402</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>1192.68632121797</v>
+        <v>879.4238381009425</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>331.7024034969603</v>
@@ -35712,10 +35712,10 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="n">
-        <v>1229.586365848419</v>
+        <v>436.3588843297722</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>1229.586365848417</v>
+        <v>906.6319801729212</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>321.7479718010469</v>
@@ -36014,10 +36014,10 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="n">
-        <v>1192.686321217971</v>
+        <v>423.2636982136261</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>1192.68632121797</v>
+        <v>934.6819040603754</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>331.7024034969604</v>
@@ -36316,10 +36316,10 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="n">
-        <v>1156.893651662222</v>
+        <v>436.3588843297723</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>1229.586365848417</v>
+        <v>963.5996533139079</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>341.9648113701094</v>
@@ -36618,10 +36618,10 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="n">
-        <v>1192.686321217971</v>
+        <v>449.8592171668403</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>1192.68632121797</v>
+        <v>993.4120772351081</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>352.5447237721512</v>
@@ -36920,10 +36920,10 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="n">
-        <v>1229.586365848419</v>
+        <v>436.3588843297723</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>1156.893651662221</v>
+        <v>1024.146855805359</v>
       </c>
       <c r="C122" s="0" t="n">
         <v>341.9648113701095</v>
@@ -37222,10 +37222,10 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="n">
-        <v>1267.628046187691</v>
+        <v>423.2636982136261</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>1192.68632121797</v>
+        <v>993.4120772351083</v>
       </c>
       <c r="C123" s="0" t="n">
         <v>352.5447237721513</v>
@@ -37524,10 +37524,10 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="n">
-        <v>1229.586365848419</v>
+        <v>410.561500313315</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>1229.586365848417</v>
+        <v>1024.146855805359</v>
       </c>
       <c r="C124" s="0" t="n">
         <v>341.9648113701095</v>
@@ -37826,10 +37826,10 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="n">
-        <v>1267.628046187691</v>
+        <v>398.2404970020499</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>1267.62804618769</v>
+        <v>993.4120772351084</v>
       </c>
       <c r="C125" s="0" t="n">
         <v>352.5447237721513</v>
@@ -38128,10 +38128,10 @@
     </row>
     <row r="126">
       <c r="A126" s="0" t="n">
-        <v>1306.846682845958</v>
+        <v>386.2892485812954</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>1306.846682845956</v>
+        <v>963.5996533139083</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>363.4519638486003</v>
@@ -38430,10 +38430,10 @@
     </row>
     <row r="127">
       <c r="A127" s="0" t="n">
-        <v>1267.628046187691</v>
+        <v>398.2404970020499</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>1347.278689203607</v>
+        <v>993.4120772351085</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>374.6966586593376</v>
@@ -38732,10 +38732,10 @@
     </row>
     <row r="128">
       <c r="A128" s="0" t="n">
-        <v>1229.586365848419</v>
+        <v>386.2892485812955</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>1306.846682845956</v>
+        <v>1024.146855805359</v>
       </c>
       <c r="C128" s="0" t="n">
         <v>386.289248581296</v>
@@ -39034,10 +39034,10 @@
     </row>
     <row r="129">
       <c r="A129" s="0" t="n">
-        <v>1192.686321217972</v>
+        <v>398.24049700205</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>1347.278689203607</v>
+        <v>993.4120772351087</v>
       </c>
       <c r="C129" s="0" t="n">
         <v>374.6966586593377</v>
@@ -39336,10 +39336,10 @@
     </row>
     <row r="130">
       <c r="A130" s="0" t="n">
-        <v>1156.893651662222</v>
+        <v>386.2892485812955</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>1306.846682845956</v>
+        <v>1024.146855805359</v>
       </c>
       <c r="C130" s="0" t="n">
         <v>363.4519638486004</v>
@@ -39638,10 +39638,10 @@
     </row>
     <row r="131">
       <c r="A131" s="0" t="n">
-        <v>1122.175124713071</v>
+        <v>374.6966586593372</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>1347.278689203607</v>
+        <v>993.4120772351087</v>
       </c>
       <c r="C131" s="0" t="n">
         <v>352.5447237721514</v>
@@ -39940,10 +39940,10 @@
     </row>
     <row r="132">
       <c r="A132" s="0" t="n">
-        <v>1156.893651662222</v>
+        <v>386.2892485812956</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>1388.961605220029</v>
+        <v>1024.146855805359</v>
       </c>
       <c r="C132" s="0" t="n">
         <v>363.4519638486004</v>
@@ -40242,10 +40242,10 @@
     </row>
     <row r="133">
       <c r="A133" s="0" t="n">
-        <v>1192.686321217972</v>
+        <v>374.6966586593372</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>1431.934132288385</v>
+        <v>993.4120772351087</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>352.5447237721515</v>
@@ -40544,10 +40544,10 @@
     </row>
     <row r="134">
       <c r="A134" s="0" t="n">
-        <v>1156.893651662222</v>
+        <v>363.4519638485999</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>1388.961605220029</v>
+        <v>1024.146855805359</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>363.4519638486005</v>
@@ -40846,10 +40846,10 @@
     </row>
     <row r="135">
       <c r="A135" s="0" t="n">
-        <v>1192.686321217972</v>
+        <v>352.544723772151</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>1431.934132288385</v>
+        <v>993.4120772351087</v>
       </c>
       <c r="C135" s="0" t="n">
         <v>374.6966586593379</v>
@@ -41148,10 +41148,10 @@
     </row>
     <row r="136">
       <c r="A136" s="0" t="n">
-        <v>1156.893651662222</v>
+        <v>341.9648113701093</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>1388.961605220029</v>
+        <v>1024.146855805359</v>
       </c>
       <c r="C136" s="0" t="n">
         <v>386.2892485812962</v>
@@ -41450,10 +41450,10 @@
     </row>
     <row r="137">
       <c r="A137" s="0" t="n">
-        <v>1192.686321217972</v>
+        <v>331.7024034969602</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>1347.278689203607</v>
+        <v>993.4120772351087</v>
       </c>
       <c r="C137" s="0" t="n">
         <v>374.6966586593379</v>
@@ -41752,10 +41752,10 @@
     </row>
     <row r="138">
       <c r="A138" s="0" t="n">
-        <v>1229.586365848419</v>
+        <v>341.9648113701093</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>1306.846682845957</v>
+        <v>963.5996533139086</v>
       </c>
       <c r="C138" s="0" t="n">
         <v>386.2892485812962</v>
@@ -42054,10 +42054,10 @@
     </row>
     <row r="139">
       <c r="A139" s="0" t="n">
-        <v>1267.628046187691</v>
+        <v>331.7024034969602</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>1267.62804618769</v>
+        <v>934.6819040603762</v>
       </c>
       <c r="C139" s="0" t="n">
         <v>398.2404970020508</v>
@@ -42356,10 +42356,10 @@
     </row>
     <row r="140">
       <c r="A140" s="0" t="n">
-        <v>1306.846682845958</v>
+        <v>341.9648113701093</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>1306.846682845957</v>
+        <v>963.5996533139087</v>
       </c>
       <c r="C140" s="0" t="n">
         <v>386.2892485812963</v>
@@ -42658,10 +42658,10 @@
     </row>
     <row r="141">
       <c r="A141" s="0" t="n">
-        <v>1347.278689203609</v>
+        <v>331.7024034969602</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>1347.278689203607</v>
+        <v>993.4120772351089</v>
       </c>
       <c r="C141" s="0" t="n">
         <v>398.2404970020509</v>
@@ -42960,10 +42960,10 @@
     </row>
     <row r="142">
       <c r="A142" s="0" t="n">
-        <v>1388.961605220031</v>
+        <v>321.7479718010468</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>1306.846682845957</v>
+        <v>1024.146855805359</v>
       </c>
       <c r="C142" s="0" t="n">
         <v>386.2892485812964</v>
@@ -43262,10 +43262,10 @@
     </row>
     <row r="143">
       <c r="A143" s="0" t="n">
-        <v>1431.934132288387</v>
+        <v>331.7024034969602</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>1347.278689203607</v>
+        <v>993.4120772351089</v>
       </c>
       <c r="C143" s="0" t="n">
         <v>374.696658659338</v>
@@ -43564,10 +43564,10 @@
     </row>
     <row r="144">
       <c r="A144" s="0" t="n">
-        <v>1476.236169168749</v>
+        <v>341.9648113701093</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>1306.846682845957</v>
+        <v>1024.146855805359</v>
       </c>
       <c r="C144" s="0" t="n">
         <v>386.2892485812964</v>
@@ -43866,10 +43866,10 @@
     </row>
     <row r="145">
       <c r="A145" s="0" t="n">
-        <v>1521.908849032957</v>
+        <v>331.7024034969602</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>1267.62804618769</v>
+        <v>993.4120772351089</v>
       </c>
       <c r="C145" s="0" t="n">
         <v>398.2404970020509</v>
@@ -44168,10 +44168,10 @@
     </row>
     <row r="146">
       <c r="A146" s="0" t="n">
-        <v>1476.236169168749</v>
+        <v>341.9648113701093</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>1306.846682845957</v>
+        <v>1024.146855805359</v>
       </c>
       <c r="C146" s="0" t="n">
         <v>386.2892485812964</v>
@@ -44470,10 +44470,10 @@
     </row>
     <row r="147">
       <c r="A147" s="0" t="n">
-        <v>1521.908849032957</v>
+        <v>331.7024034969602</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>1267.62804618769</v>
+        <v>1055.832525385906</v>
       </c>
       <c r="C147" s="0" t="n">
         <v>374.696658659338</v>
@@ -44772,10 +44772,10 @@
     </row>
     <row r="148">
       <c r="A148" s="0" t="n">
-        <v>1476.236169168749</v>
+        <v>321.7479718010468</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>1306.846682845957</v>
+        <v>1024.14685580536</v>
       </c>
       <c r="C148" s="0" t="n">
         <v>386.2892485812964</v>
@@ -45074,10 +45074,10 @@
     </row>
     <row r="149">
       <c r="A149" s="0" t="n">
-        <v>1431.934132288387</v>
+        <v>331.7024034969603</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>1267.62804618769</v>
+        <v>993.4120772351091</v>
       </c>
       <c r="C149" s="0" t="n">
         <v>374.696658659338</v>
@@ -45376,10 +45376,10 @@
     </row>
     <row r="150">
       <c r="A150" s="0" t="n">
-        <v>1388.961605220031</v>
+        <v>321.7479718010469</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>1306.846682845957</v>
+        <v>1024.14685580536</v>
       </c>
       <c r="C150" s="0" t="n">
         <v>386.2892485812964</v>
@@ -45678,10 +45678,10 @@
     </row>
     <row r="151">
       <c r="A151" s="0" t="n">
-        <v>1431.934132288387</v>
+        <v>331.7024034969604</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>1347.278689203607</v>
+        <v>993.4120772351091</v>
       </c>
       <c r="C151" s="0" t="n">
         <v>398.240497002051</v>
@@ -45980,10 +45980,10 @@
     </row>
     <row r="152">
       <c r="A152" s="0" t="n">
-        <v>1476.23616916875</v>
+        <v>321.747971801047</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>1306.846682845957</v>
+        <v>1024.14685580536</v>
       </c>
       <c r="C152" s="0" t="n">
         <v>410.5615003133161</v>
@@ -46282,10 +46282,10 @@
     </row>
     <row r="153">
       <c r="A153" s="0" t="n">
-        <v>1431.934132288387</v>
+        <v>331.7024034969604</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>1267.62804618769</v>
+        <v>993.4120772351091</v>
       </c>
       <c r="C153" s="0" t="n">
         <v>423.2636982136273</v>
@@ -46584,10 +46584,10 @@
     </row>
     <row r="154">
       <c r="A154" s="0" t="n">
-        <v>1388.961605220032</v>
+        <v>321.747971801047</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>1306.846682845957</v>
+        <v>963.599653313909</v>
       </c>
       <c r="C154" s="0" t="n">
         <v>410.5615003133161</v>
@@ -46886,10 +46886,10 @@
     </row>
     <row r="155">
       <c r="A155" s="0" t="n">
-        <v>1431.934132288387</v>
+        <v>312.0922738777682</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>1347.278689203607</v>
+        <v>993.4120772351092</v>
       </c>
       <c r="C155" s="0" t="n">
         <v>423.2636982136273</v>
@@ -47188,10 +47188,10 @@
     </row>
     <row r="156">
       <c r="A156" s="0" t="n">
-        <v>1476.23616916875</v>
+        <v>302.7263446882711</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>1388.961605220029</v>
+        <v>1024.14685580536</v>
       </c>
       <c r="C156" s="0" t="n">
         <v>410.5615003133161</v>
@@ -47490,10 +47490,10 @@
     </row>
     <row r="157">
       <c r="A157" s="0" t="n">
-        <v>1431.934132288387</v>
+        <v>293.6414882356691</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>1431.934132288385</v>
+        <v>1055.832525385906</v>
       </c>
       <c r="C157" s="0" t="n">
         <v>423.2636982136273</v>
@@ -47792,10 +47792,10 @@
     </row>
     <row r="158">
       <c r="A158" s="0" t="n">
-        <v>1388.961605220032</v>
+        <v>284.8292694910584</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>1388.961605220029</v>
+        <v>1088.498505213051</v>
       </c>
       <c r="C158" s="0" t="n">
         <v>410.5615003133161</v>
@@ -48094,10 +48094,10 @@
     </row>
     <row r="159">
       <c r="A159" s="0" t="n">
-        <v>1347.27868920361</v>
+        <v>276.2815065618349</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>1347.278689203608</v>
+        <v>1055.832525385907</v>
       </c>
       <c r="C159" s="0" t="n">
         <v>398.240497002051</v>
@@ -48396,10 +48396,10 @@
     </row>
     <row r="160">
       <c r="A160" s="0" t="n">
-        <v>1388.961605220032</v>
+        <v>284.8292694910585</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>1306.846682845957</v>
+        <v>1088.498505213052</v>
       </c>
       <c r="C160" s="0" t="n">
         <v>386.2892485812965</v>
@@ -48698,10 +48698,10 @@
     </row>
     <row r="161">
       <c r="A161" s="0" t="n">
-        <v>1347.27868920361</v>
+        <v>276.281506561835</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>1267.62804618769</v>
+        <v>1122.175124713072</v>
       </c>
       <c r="C161" s="0" t="n">
         <v>398.240497002051</v>
@@ -49000,10 +49000,10 @@
     </row>
     <row r="162">
       <c r="A162" s="0" t="n">
-        <v>1306.84668284596</v>
+        <v>267.9902630950416</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>1229.586365848418</v>
+        <v>1088.498505213052</v>
       </c>
       <c r="C162" s="0" t="n">
         <v>410.5615003133162</v>
@@ -49302,10 +49302,10 @@
     </row>
     <row r="163">
       <c r="A163" s="0" t="n">
-        <v>1267.628046187693</v>
+        <v>259.9478409086919</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>1192.686321217971</v>
+        <v>1055.832525385907</v>
       </c>
       <c r="C163" s="0" t="n">
         <v>423.2636982136274</v>
@@ -49604,10 +49604,10 @@
     </row>
     <row r="164">
       <c r="A164" s="0" t="n">
-        <v>1229.586365848421</v>
+        <v>267.9902630950416</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>1229.586365848418</v>
+        <v>1024.14685580536</v>
       </c>
       <c r="C164" s="0" t="n">
         <v>436.3588843297736</v>
@@ -49906,10 +49906,10 @@
     </row>
     <row r="165">
       <c r="A165" s="0" t="n">
-        <v>1192.686321217973</v>
+        <v>276.281506561835</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>1192.686321217971</v>
+        <v>993.41207723511</v>
       </c>
       <c r="C165" s="0" t="n">
         <v>423.2636982136274</v>
@@ -50208,10 +50208,10 @@
     </row>
     <row r="166">
       <c r="A166" s="0" t="n">
-        <v>1156.893651662224</v>
+        <v>284.8292694910586</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>1156.893651662222</v>
+        <v>963.5996533139099</v>
       </c>
       <c r="C166" s="0" t="n">
         <v>436.3588843297737</v>
@@ -50510,10 +50510,10 @@
     </row>
     <row r="167">
       <c r="A167" s="0" t="n">
-        <v>1122.175124713073</v>
+        <v>293.6414882356693</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>1122.175124713071</v>
+        <v>993.4120772351101</v>
       </c>
       <c r="C167" s="0" t="n">
         <v>449.8592171668417</v>
@@ -50812,10 +50812,10 @@
     </row>
     <row r="168">
       <c r="A168" s="0" t="n">
-        <v>1156.893651662224</v>
+        <v>302.7263446882713</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>1156.893651662222</v>
+        <v>1024.146855805361</v>
       </c>
       <c r="C168" s="0" t="n">
         <v>436.3588843297737</v>
@@ -51114,10 +51114,10 @@
     </row>
     <row r="169">
       <c r="A169" s="0" t="n">
-        <v>1192.686321217974</v>
+        <v>312.0922738777685</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>1122.175124713071</v>
+        <v>993.4120772351102</v>
       </c>
       <c r="C169" s="0" t="n">
         <v>423.2636982136275</v>
@@ -51416,10 +51416,10 @@
     </row>
     <row r="170">
       <c r="A170" s="0" t="n">
-        <v>1229.586365848421</v>
+        <v>302.7263446882713</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>1156.893651662222</v>
+        <v>963.59965331391</v>
       </c>
       <c r="C170" s="0" t="n">
         <v>436.3588843297738</v>
@@ -51718,10 +51718,10 @@
     </row>
     <row r="171">
       <c r="A171" s="0" t="n">
-        <v>1267.628046187693</v>
+        <v>293.6414882356693</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>1122.175124713071</v>
+        <v>934.6819040603775</v>
       </c>
       <c r="C171" s="0" t="n">
         <v>423.2636982136276</v>
@@ -52020,10 +52020,10 @@
     </row>
     <row r="172">
       <c r="A172" s="0" t="n">
-        <v>1306.84668284596</v>
+        <v>284.8292694910587</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>1088.49850521305</v>
+        <v>963.5996533139102</v>
       </c>
       <c r="C172" s="0" t="n">
         <v>410.5615003133164</v>
@@ -52322,10 +52322,10 @@
     </row>
     <row r="173">
       <c r="A173" s="0" t="n">
-        <v>1267.628046187693</v>
+        <v>293.6414882356694</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>1055.832525385905</v>
+        <v>993.4120772351104</v>
       </c>
       <c r="C173" s="0" t="n">
         <v>423.2636982136276</v>
@@ -52624,10 +52624,10 @@
     </row>
     <row r="174">
       <c r="A174" s="0" t="n">
-        <v>1306.84668284596</v>
+        <v>302.7263446882714</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>1024.146855805359</v>
+        <v>1024.146855805361</v>
       </c>
       <c r="C174" s="0" t="n">
         <v>436.3588843297738</v>
@@ -52926,10 +52926,10 @@
     </row>
     <row r="175">
       <c r="A175" s="0" t="n">
-        <v>1267.628046187694</v>
+        <v>312.0922738777685</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>993.4120772351084</v>
+        <v>993.4120772351105</v>
       </c>
       <c r="C175" s="0" t="n">
         <v>423.2636982136277</v>
@@ -53228,10 +53228,10 @@
     </row>
     <row r="176">
       <c r="A176" s="0" t="n">
-        <v>1229.586365848422</v>
+        <v>302.7263446882714</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>1024.146855805359</v>
+        <v>1024.146855805361</v>
       </c>
       <c r="C176" s="0" t="n">
         <v>436.3588843297739</v>
@@ -53530,10 +53530,10 @@
     </row>
     <row r="177">
       <c r="A177" s="0" t="n">
-        <v>1267.628046187694</v>
+        <v>312.0922738777685</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>993.4120772351084</v>
+        <v>993.4120772351107</v>
       </c>
       <c r="C177" s="0" t="n">
         <v>449.859217166842</v>
@@ -53832,10 +53832,10 @@
     </row>
     <row r="178">
       <c r="A178" s="0" t="n">
-        <v>1306.846682845961</v>
+        <v>302.7263446882714</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>1024.146855805359</v>
+        <v>1024.146855805361</v>
       </c>
       <c r="C178" s="0" t="n">
         <v>463.7772313970403</v>
@@ -54134,10 +54134,10 @@
     </row>
     <row r="179">
       <c r="A179" s="0" t="n">
-        <v>1347.278689203612</v>
+        <v>312.0922738777685</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>1055.832525385905</v>
+        <v>993.4120772351109</v>
       </c>
       <c r="C179" s="0" t="n">
         <v>449.859217166842</v>
@@ -54436,10 +54436,10 @@
     </row>
     <row r="180">
       <c r="A180" s="0" t="n">
-        <v>1306.846682845961</v>
+        <v>302.7263446882714</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>1024.146855805359</v>
+        <v>1024.146855805362</v>
       </c>
       <c r="C180" s="0" t="n">
         <v>463.7772313970403</v>

--- a/output/freight_outward.xlsx
+++ b/output/freight_outward.xlsx
@@ -378,34 +378,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="n">
+        <v>778.5150842666409</v>
+      </c>
+      <c r="B1" s="0" t="n">
         <v>827.432609597449</v>
-      </c>
-      <c r="B1" s="0" t="n">
-        <v>778.5150842666409</v>
       </c>
       <c r="C1" s="0" t="n">
         <v>778.5150842666409</v>
       </c>
       <c r="D1" s="0" t="n">
+        <v>827.432609597449</v>
+      </c>
+      <c r="E1" s="0" t="n">
         <v>778.5150842666409</v>
-      </c>
-      <c r="E1" s="0" t="n">
-        <v>827.432609597449</v>
       </c>
       <c r="F1" s="0" t="n">
         <v>778.5150842666409</v>
       </c>
       <c r="G1" s="0" t="n">
-        <v>827.432609597449</v>
+        <v>778.5150842666409</v>
       </c>
       <c r="H1" s="0" t="n">
         <v>827.432609597449</v>
       </c>
       <c r="I1" s="0" t="n">
-        <v>827.432609597449</v>
+        <v>778.5150842666409</v>
       </c>
       <c r="J1" s="0" t="n">
-        <v>827.432609597449</v>
+        <v>778.5150842666409</v>
       </c>
       <c r="K1" s="0" t="n">
         <v>778.5150842666409</v>
@@ -680,34 +680,34 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="n">
+        <v>802.6012508000001</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>802.6012508</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>802.6012508000001</v>
+      </c>
+      <c r="D2" s="0" t="n">
         <v>853.0322158641276</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="E2" s="0" t="n">
         <v>755.1517466818966</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>755.1517466818966</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>755.1517466818966</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>802.6012508</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>755.1517466818966</v>
       </c>
       <c r="G2" s="0" t="n">
+        <v>755.1517466818966</v>
+      </c>
+      <c r="H2" s="0" t="n">
         <v>853.0322158641276</v>
       </c>
-      <c r="H2" s="0" t="n">
-        <v>802.6012508</v>
-      </c>
       <c r="I2" s="0" t="n">
-        <v>802.6012508</v>
+        <v>755.1517466818966</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>802.6012508</v>
+        <v>802.6012508000001</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>802.6012508000001</v>
@@ -985,31 +985,31 @@
         <v>827.4326095974491</v>
       </c>
       <c r="B3" s="0" t="n">
+        <v>827.432609597449</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>827.4326095974491</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>879.4238381009379</v>
+      </c>
+      <c r="E3" s="0" t="n">
         <v>732.4895458562594</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="F3" s="0" t="n">
         <v>778.515084266641</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="G3" s="0" t="n">
         <v>778.515084266641</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>778.5150842666409</v>
-      </c>
-      <c r="F3" s="0" t="n">
+      <c r="H3" s="0" t="n">
+        <v>879.4238381009379</v>
+      </c>
+      <c r="I3" s="0" t="n">
         <v>732.4895458562594</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="J3" s="0" t="n">
         <v>827.4326095974491</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>827.432609597449</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>827.432609597449</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>827.432609597449</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>778.515084266641</v>
@@ -1284,34 +1284,34 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
+        <v>853.0322158641277</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>853.0322158641276</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <v>802.6012508000001</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="D4" s="0" t="n">
+        <v>853.0322158641276</v>
+      </c>
+      <c r="E4" s="0" t="n">
         <v>710.5074405856125</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>802.6012508000002</v>
-      </c>
-      <c r="D4" s="0" t="n">
+      <c r="F4" s="0" t="n">
         <v>755.1517466818967</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <v>802.6012508000001</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>710.5074405856125</v>
-      </c>
       <c r="G4" s="0" t="n">
-        <v>802.6012508000001</v>
+        <v>755.1517466818967</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>853.0322158641276</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>802.6012508</v>
+        <v>755.1517466818966</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>853.0322158641276</v>
+        <v>802.6012508000001</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>802.6012508000002</v>
@@ -1586,34 +1586,34 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
+        <v>879.423838100938</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>879.4238381009379</v>
+      </c>
+      <c r="C5" s="0" t="n">
         <v>778.515084266641</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>689.1850211150747</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>778.5150842666411</v>
-      </c>
       <c r="D5" s="0" t="n">
+        <v>879.4238381009379</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>732.4895458562594</v>
+      </c>
+      <c r="F5" s="0" t="n">
         <v>732.4895458562595</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <v>827.4326095974491</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>732.4895458562594</v>
-      </c>
       <c r="G5" s="0" t="n">
-        <v>827.4326095974491</v>
+        <v>732.4895458562595</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>879.4238381009379</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>827.432609597449</v>
+        <v>732.4895458562594</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>879.4238381009379</v>
+        <v>778.515084266641</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>778.5150842666411</v>
@@ -1888,34 +1888,34 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="n">
+        <v>853.0322158641277</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>906.6319801729164</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>802.6012508000002</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>906.6319801729164</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>710.5074405856125</v>
+      </c>
+      <c r="F6" s="0" t="n">
         <v>755.1517466818967</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>710.5074405856125</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>755.1517466818968</v>
-      </c>
-      <c r="D6" s="0" t="n">
+      <c r="G6" s="0" t="n">
         <v>710.5074405856126</v>
       </c>
-      <c r="E6" s="0" t="n">
-        <v>802.6012508000001</v>
-      </c>
-      <c r="F6" s="0" t="n">
+      <c r="H6" s="0" t="n">
+        <v>853.0322158641276</v>
+      </c>
+      <c r="I6" s="0" t="n">
         <v>755.1517466818966</v>
       </c>
-      <c r="G6" s="0" t="n">
-        <v>802.6012508000001</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>906.6319801729164</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>802.6012508</v>
-      </c>
       <c r="J6" s="0" t="n">
-        <v>853.0322158641276</v>
+        <v>802.6012508000002</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>755.1517466818968</v>
@@ -2190,34 +2190,34 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="n">
+        <v>827.4326095974492</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>879.4238381009379</v>
+      </c>
+      <c r="C7" s="0" t="n">
         <v>778.5150842666411</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="D7" s="0" t="n">
+        <v>879.4238381009379</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>689.1850211150747</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>778.5150842666411</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>689.1850211150748</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>827.4326095974491</v>
+      </c>
+      <c r="I7" s="0" t="n">
         <v>732.4895458562594</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>732.4895458562596</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>732.4895458562595</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>778.515084266641</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>778.515084266641</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>778.515084266641</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>879.4238381009379</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>778.5150842666409</v>
-      </c>
       <c r="J7" s="0" t="n">
-        <v>827.4326095974491</v>
+        <v>827.4326095974492</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>778.5150842666412</v>
@@ -2492,34 +2492,34 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>755.1517466818968</v>
+        <v>853.0322158641278</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>755.1517466818966</v>
+        <v>906.6319801729164</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>755.1517466818968</v>
+        <v>802.6012508000003</v>
       </c>
       <c r="D8" s="0" t="n">
+        <v>853.0322158641276</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>668.5024901891283</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>802.6012508000003</v>
+      </c>
+      <c r="G8" s="0" t="n">
         <v>710.5074405856126</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <v>802.6012508000002</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>755.1517466818967</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>802.6012508000002</v>
-      </c>
       <c r="H8" s="0" t="n">
-        <v>906.6319801729164</v>
+        <v>802.6012508000001</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>755.1517466818966</v>
+        <v>710.5074405856125</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>802.6012508000001</v>
+        <v>853.0322158641278</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>802.6012508000005</v>
@@ -2794,34 +2794,34 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>732.4895458562596</v>
+        <v>879.4238381009382</v>
       </c>
       <c r="B9" s="0" t="n">
+        <v>879.4238381009379</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>778.5150842666412</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>827.4326095974491</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>689.1850211150748</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>827.4326095974493</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>732.4895458562595</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>827.4326095974491</v>
+      </c>
+      <c r="I9" s="0" t="n">
         <v>732.4895458562594</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>732.4895458562596</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>732.4895458562595</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>778.5150842666411</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>778.5150842666411</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>778.5150842666411</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>934.6819040603704</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>778.515084266641</v>
-      </c>
       <c r="J9" s="0" t="n">
-        <v>827.4326095974491</v>
+        <v>879.4238381009382</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>827.4326095974495</v>
@@ -3096,34 +3096,34 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>755.1517466818968</v>
+        <v>853.0322158641278</v>
       </c>
       <c r="B10" s="0" t="n">
+        <v>853.0322158641276</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>802.6012508000005</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>802.6012508000001</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>668.5024901891284</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>853.0322158641279</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>710.5074405856126</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>853.0322158641277</v>
+      </c>
+      <c r="I10" s="0" t="n">
         <v>710.5074405856125</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>710.5074405856127</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>710.5074405856126</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>802.6012508000003</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>755.1517466818968</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>802.6012508000003</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>906.6319801729164</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>755.1517466818967</v>
-      </c>
       <c r="J10" s="0" t="n">
-        <v>802.6012508000001</v>
+        <v>853.0322158641278</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>853.0322158641281</v>
@@ -3398,34 +3398,34 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>778.5150842666412</v>
+        <v>879.4238381009382</v>
       </c>
       <c r="B11" s="0" t="n">
+        <v>827.4326095974491</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>778.5150842666413</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>827.4326095974491</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>648.4406446704338</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>827.4326095974493</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>689.1850211150748</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>879.423838100938</v>
+      </c>
+      <c r="I11" s="0" t="n">
         <v>732.4895458562594</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <v>732.4895458562596</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>732.4895458562595</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>778.5150842666412</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>732.4895458562596</v>
-      </c>
-      <c r="G11" s="0" t="n">
+      <c r="J11" s="0" t="n">
         <v>827.4326095974493</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>934.6819040603704</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>732.4895458562595</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>827.4326095974491</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>879.4238381009386</v>
@@ -3700,34 +3700,34 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>755.151746681897</v>
+        <v>853.0322158641278</v>
       </c>
       <c r="B12" s="0" t="n">
+        <v>853.0322158641277</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>755.1517466818971</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>853.0322158641277</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>668.5024901891285</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>853.0322158641279</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>710.5074405856126</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>853.0322158641277</v>
+      </c>
+      <c r="I12" s="0" t="n">
         <v>755.1517466818966</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <v>755.1517466818968</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>710.5074405856126</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>755.151746681897</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>755.1517466818968</v>
-      </c>
-      <c r="G12" s="0" t="n">
+      <c r="J12" s="0" t="n">
         <v>853.0322158641279</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>906.6319801729164</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>755.1517466818967</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>802.6012508000001</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>906.6319801729172</v>
@@ -4002,34 +4002,34 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>778.5150842666413</v>
+        <v>827.4326095974493</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>778.515084266641</v>
+        <v>879.423838100938</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>732.4895458562596</v>
+        <v>732.4895458562598</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>689.1850211150748</v>
+        <v>827.4326095974492</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>732.4895458562597</v>
+        <v>689.1850211150751</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>732.4895458562596</v>
+        <v>879.4238381009384</v>
       </c>
       <c r="G13" s="0" t="n">
+        <v>732.4895458562595</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>827.4326095974492</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>732.4895458562594</v>
+      </c>
+      <c r="J13" s="0" t="n">
         <v>827.4326095974493</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>934.6819040603704</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>778.5150842666411</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>827.4326095974491</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>879.4238381009387</v>
@@ -4304,34 +4304,34 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
+        <v>802.6012508000003</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>853.0322158641277</v>
+      </c>
+      <c r="C14" s="0" t="n">
         <v>755.1517466818971</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>755.1517466818967</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>710.5074405856127</v>
-      </c>
       <c r="D14" s="0" t="n">
-        <v>710.5074405856126</v>
+        <v>853.0322158641278</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>710.5074405856128</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>755.1517466818968</v>
+        <v>906.631980172917</v>
       </c>
       <c r="G14" s="0" t="n">
+        <v>755.1517466818967</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>853.0322158641278</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>755.1517466818966</v>
+      </c>
+      <c r="J14" s="0" t="n">
         <v>853.0322158641279</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>906.6319801729164</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>802.6012508000003</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>853.0322158641277</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>906.6319801729173</v>
@@ -4606,34 +4606,34 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>778.5150842666415</v>
+        <v>778.5150842666412</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>778.5150842666411</v>
+        <v>879.423838100938</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>732.4895458562596</v>
+        <v>732.4895458562598</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>689.1850211150748</v>
+        <v>879.4238381009382</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>732.4895458562597</v>
+        <v>689.1850211150751</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>778.5150842666412</v>
+        <v>879.4238381009385</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>879.4238381009384</v>
+        <v>732.4895458562595</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>934.6819040603704</v>
+        <v>827.4326095974493</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>778.5150842666412</v>
+        <v>778.515084266641</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>879.423838100938</v>
+        <v>827.4326095974493</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>934.6819040603714</v>
@@ -4908,34 +4908,34 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>755.1517466818972</v>
+        <v>755.151746681897</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>755.1517466818968</v>
+        <v>853.0322158641277</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>710.5074405856127</v>
+        <v>710.5074405856129</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>710.5074405856126</v>
+        <v>906.6319801729168</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>755.151746681897</v>
+        <v>710.5074405856128</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>755.151746681897</v>
+        <v>853.0322158641281</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>853.032215864128</v>
+        <v>755.1517466818967</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>906.6319801729164</v>
+        <v>802.6012508000003</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>755.151746681897</v>
+        <v>755.1517466818967</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>906.6319801729165</v>
+        <v>853.0322158641279</v>
       </c>
       <c r="K16" s="0" t="n">
         <v>906.6319801729175</v>
@@ -5210,34 +5210,34 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>778.5150842666416</v>
+        <v>778.5150842666413</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>732.4895458562596</v>
+        <v>879.423838100938</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>732.4895458562596</v>
+        <v>689.1850211150752</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>689.1850211150748</v>
+        <v>879.4238381009383</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>778.5150842666413</v>
+        <v>689.1850211150751</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>778.5150842666413</v>
+        <v>879.4238381009386</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>879.4238381009385</v>
+        <v>778.5150842666411</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>879.4238381009379</v>
+        <v>827.4326095974493</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>732.4895458562597</v>
+        <v>778.5150842666411</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>879.423838100938</v>
+        <v>827.4326095974493</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>879.423838100939</v>
@@ -5512,34 +5512,34 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>755.1517466818973</v>
+        <v>802.6012508000006</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>710.5074405856127</v>
+        <v>853.0322158641277</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>710.5074405856127</v>
+        <v>668.5024901891287</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>668.5024901891284</v>
+        <v>853.0322158641279</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>802.6012508000006</v>
+        <v>710.5074405856128</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>755.1517466818971</v>
+        <v>853.0322158641283</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>853.0322158641281</v>
+        <v>802.6012508000003</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>853.0322158641276</v>
+        <v>802.6012508000003</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>710.5074405856128</v>
+        <v>755.1517466818968</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>906.6319801729165</v>
+        <v>802.6012508000003</v>
       </c>
       <c r="K18" s="0" t="n">
         <v>906.6319801729176</v>
@@ -5814,34 +5814,34 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>732.4895458562601</v>
+        <v>778.5150842666415</v>
       </c>
       <c r="B19" s="0" t="n">
+        <v>827.4326095974492</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>648.4406446704342</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>827.4326095974493</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>732.4895458562597</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>827.4326095974496</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>827.4326095974493</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>827.4326095974493</v>
+      </c>
+      <c r="I19" s="0" t="n">
         <v>732.4895458562596</v>
       </c>
-      <c r="C19" s="0" t="n">
-        <v>689.185021115075</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>648.4406446704338</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>778.5150842666415</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>778.5150842666415</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>879.4238381009386</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>827.4326095974491</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <v>732.4895458562597</v>
-      </c>
       <c r="J19" s="0" t="n">
-        <v>879.423838100938</v>
+        <v>827.4326095974493</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>879.4238381009391</v>
@@ -6116,34 +6116,34 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>710.5074405856132</v>
+        <v>802.6012508000007</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>710.5074405856127</v>
+        <v>853.0322158641278</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>668.5024901891285</v>
+        <v>668.5024901891288</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>668.5024901891285</v>
+        <v>853.0322158641279</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>755.1517466818972</v>
+        <v>755.151746681897</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>802.6012508000007</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>853.0322158641283</v>
+        <v>802.6012508000003</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>802.6012508000001</v>
+        <v>853.0322158641279</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>755.151746681897</v>
+        <v>755.1517466818968</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>906.6319801729165</v>
+        <v>802.6012508000003</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>906.6319801729177</v>
@@ -6418,34 +6418,34 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>689.1850211150754</v>
+        <v>778.5150842666416</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>689.185021115075</v>
+        <v>879.4238381009382</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>648.4406446704339</v>
+        <v>648.4406446704343</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>648.4406446704339</v>
+        <v>879.4238381009384</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>732.48954585626</v>
+        <v>732.4895458562597</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>827.4326095974498</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>827.4326095974496</v>
+        <v>778.5150842666412</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>827.4326095974491</v>
+        <v>827.4326095974493</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>732.4895458562597</v>
+        <v>732.4895458562596</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>934.6819040603705</v>
+        <v>827.4326095974493</v>
       </c>
       <c r="K21" s="0" t="n">
         <v>879.4238381009392</v>
@@ -6720,34 +6720,34 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>668.5024901891289</v>
+        <v>755.1517466818973</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>668.5024901891285</v>
+        <v>906.6319801729168</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>628.9808577102679</v>
+        <v>628.9808577102682</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>668.5024901891286</v>
+        <v>906.631980172917</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>755.1517466818972</v>
+        <v>710.5074405856128</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>802.6012508000008</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>853.0322158641283</v>
+        <v>802.6012508000005</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>853.0322158641277</v>
+        <v>802.6012508000003</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>755.151746681897</v>
+        <v>755.1517466818968</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>963.5996533139029</v>
+        <v>853.0322158641279</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>906.6319801729178</v>
@@ -7022,34 +7022,34 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
+        <v>778.5150842666417</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>934.6819040603707</v>
+      </c>
+      <c r="C23" s="0" t="n">
         <v>648.4406446704344</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>689.1850211150751</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>610.1050614540274</v>
-      </c>
       <c r="D23" s="0" t="n">
-        <v>648.440644670434</v>
+        <v>934.681904060371</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>732.48954585626</v>
+        <v>732.4895458562597</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>827.4326095974499</v>
+        <v>778.5150842666417</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>879.4238381009387</v>
+        <v>827.4326095974495</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>879.423838100938</v>
+        <v>778.5150842666412</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>732.4895458562597</v>
+        <v>778.5150842666412</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>993.4120772351029</v>
+        <v>827.4326095974493</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>934.6819040603718</v>
@@ -7324,34 +7324,34 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>628.9808577102683</v>
+        <v>755.1517466818974</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>710.5074405856128</v>
+        <v>963.5996533139031</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>591.7957302657449</v>
+        <v>668.502490189129</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>668.5024901891287</v>
+        <v>963.5996533139034</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>710.507440585613</v>
+        <v>755.151746681897</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>802.6012508000009</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>906.6319801729173</v>
+        <v>853.0322158641281</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>906.6319801729165</v>
+        <v>755.151746681897</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>710.5074405856128</v>
+        <v>755.151746681897</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>963.5996533139029</v>
+        <v>853.0322158641279</v>
       </c>
       <c r="K24" s="0" t="n">
         <v>963.5996533139042</v>
@@ -7626,34 +7626,34 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>610.1050614540278</v>
+        <v>778.5150842666418</v>
       </c>
       <c r="B25" s="0" t="n">
+        <v>934.6819040603708</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>689.1850211150756</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>993.4120772351035</v>
+      </c>
+      <c r="E25" s="0" t="n">
         <v>732.4895458562597</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>574.0358644560371</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>689.1850211150753</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>689.1850211150753</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>827.43260959745</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>879.4238381009388</v>
+        <v>879.4238381009386</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>934.6819040603705</v>
+        <v>778.5150842666413</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>689.1850211150751</v>
+        <v>732.4895458562597</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>993.4120772351029</v>
+        <v>879.4238381009384</v>
       </c>
       <c r="K25" s="0" t="n">
         <v>993.4120772351043</v>
@@ -7928,34 +7928,34 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>628.9808577102684</v>
+        <v>755.1517466818975</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>755.151746681897</v>
+        <v>963.5996533139032</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>556.8089744983808</v>
+        <v>710.5074405856134</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>710.507440585613</v>
+        <v>1024.146855805354</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>668.5024901891288</v>
+        <v>710.5074405856128</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>853.0322158641286</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>906.6319801729175</v>
+        <v>906.6319801729172</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>906.6319801729165</v>
+        <v>802.6012508000006</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>710.5074405856128</v>
+        <v>755.151746681897</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>963.5996533139029</v>
+        <v>906.631980172917</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>1024.146855805355</v>
@@ -8230,34 +8230,34 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>610.1050614540279</v>
+        <v>732.4895458562603</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>778.5150842666413</v>
+        <v>934.6819040603709</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>574.0358644560372</v>
+        <v>732.4895458562604</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>732.4895458562601</v>
+        <v>1055.8325253859</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>648.4406446704343</v>
+        <v>689.1850211150751</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>827.43260959745</v>
+        <v>879.4238381009391</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>879.423838100939</v>
+        <v>879.4238381009387</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>934.6819040603705</v>
+        <v>827.4326095974496</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>689.1850211150751</v>
+        <v>732.4895458562597</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>993.4120772351029</v>
+        <v>934.681904060371</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>993.4120772351046</v>
@@ -8532,34 +8532,34 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>591.7957302657454</v>
+        <v>710.5074405856134</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>755.1517466818971</v>
+        <v>963.5996533139033</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>591.795730265745</v>
+        <v>710.5074405856135</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>755.1517466818973</v>
+        <v>1088.498505213045</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>668.5024901891289</v>
+        <v>668.5024901891286</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>853.0322158641286</v>
+        <v>853.0322158641287</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>906.6319801729176</v>
+        <v>853.0322158641284</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>963.5996533139029</v>
+        <v>853.0322158641283</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>710.5074405856128</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>1024.146855805353</v>
+        <v>963.5996533139034</v>
       </c>
       <c r="K28" s="0" t="n">
         <v>1024.146855805355</v>
@@ -8834,34 +8834,34 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>574.0358644560376</v>
+        <v>689.1850211150756</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>732.4895458562598</v>
+        <v>993.4120772351034</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>610.1050614540276</v>
+        <v>689.1850211150758</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>778.5150842666417</v>
+        <v>1055.8325253859</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>648.4406446704344</v>
+        <v>689.1850211150752</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>879.4238381009391</v>
+        <v>879.4238381009392</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>934.6819040603716</v>
+        <v>879.4238381009388</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>934.6819040603706</v>
+        <v>827.4326095974496</v>
       </c>
       <c r="I29" s="0" t="n">
         <v>732.4895458562597</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>993.412077235103</v>
+        <v>934.6819040603712</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>993.4120772351047</v>
@@ -9136,34 +9136,34 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>591.7957302657455</v>
+        <v>668.5024901891292</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>755.1517466818971</v>
+        <v>963.5996533139034</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>591.7957302657451</v>
+        <v>710.5074405856136</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>755.1517466818974</v>
+        <v>1088.498505213045</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>628.9808577102683</v>
+        <v>710.5074405856129</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>906.6319801729177</v>
+        <v>853.0322158641288</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>906.6319801729177</v>
+        <v>853.0322158641285</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>906.6319801729167</v>
+        <v>853.0322158641283</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>710.5074405856128</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>963.599653313903</v>
+        <v>906.6319801729172</v>
       </c>
       <c r="K30" s="0" t="n">
         <v>963.5996533139047</v>
@@ -9438,34 +9438,34 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>610.1050614540281</v>
+        <v>689.1850211150758</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>732.4895458562598</v>
+        <v>934.6819040603712</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>610.1050614540277</v>
+        <v>689.1850211150759</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>778.5150842666418</v>
+        <v>1055.832525385901</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>610.1050614540278</v>
+        <v>732.48954585626</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>934.6819040603717</v>
+        <v>827.4326095974502</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>934.6819040603717</v>
+        <v>879.423838100939</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>934.6819040603706</v>
+        <v>827.4326095974496</v>
       </c>
       <c r="I31" s="0" t="n">
         <v>689.1850211150751</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>993.4120772351031</v>
+        <v>934.6819040603713</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>993.4120772351048</v>
@@ -9740,34 +9740,34 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>628.9808577102688</v>
+        <v>710.5074405856136</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>710.5074405856129</v>
+        <v>906.6319801729172</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>591.7957302657452</v>
+        <v>710.5074405856137</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>802.601250800001</v>
+        <v>1088.498505213046</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>591.7957302657453</v>
+        <v>710.507440585613</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>906.6319801729178</v>
+        <v>853.0322158641289</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>963.5996533139041</v>
+        <v>853.0322158641286</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>963.599653313903</v>
+        <v>853.0322158641283</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>668.5024901891286</v>
+        <v>710.5074405856128</v>
       </c>
       <c r="J32" s="0" t="n">
-        <v>963.5996533139031</v>
+        <v>906.6319801729173</v>
       </c>
       <c r="K32" s="0" t="n">
         <v>963.5996533139048</v>
@@ -10042,34 +10042,34 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>610.1050614540283</v>
+        <v>732.4895458562606</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>689.1850211150752</v>
+        <v>879.4238381009387</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>610.1050614540278</v>
+        <v>732.4895458562607</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>778.5150842666419</v>
+        <v>1122.175124713066</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>610.1050614540279</v>
+        <v>732.4895458562601</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>879.4238381009393</v>
+        <v>879.4238381009394</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>993.4120772351042</v>
+        <v>879.4238381009391</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>934.6819040603707</v>
+        <v>827.4326095974496</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>648.440644670434</v>
+        <v>732.4895458562597</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>993.4120772351032</v>
+        <v>879.4238381009388</v>
       </c>
       <c r="K33" s="0" t="n">
         <v>934.6819040603724</v>
@@ -10344,34 +10344,34 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>628.9808577102689</v>
+        <v>755.151746681898</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>668.5024901891287</v>
+        <v>906.6319801729173</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>591.7957302657453</v>
+        <v>710.5074405856138</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>755.1517466818975</v>
+        <v>1156.893651662217</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>591.7957302657454</v>
+        <v>710.5074405856132</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>906.6319801729179</v>
+        <v>906.631980172918</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>963.5996533139042</v>
+        <v>906.6319801729177</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>963.5996533139031</v>
+        <v>802.6012508000007</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>668.5024901891287</v>
+        <v>755.151746681897</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>1024.146855805354</v>
+        <v>853.0322158641285</v>
       </c>
       <c r="K34" s="0" t="n">
         <v>906.6319801729185</v>
@@ -10646,34 +10646,34 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
-        <v>610.1050614540284</v>
+        <v>732.4895458562607</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>689.1850211150753</v>
+        <v>934.6819040603714</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>574.0358644560375</v>
+        <v>732.4895458562609</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>778.5150842666419</v>
+        <v>1192.686321217966</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>610.105061454028</v>
+        <v>732.4895458562602</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>934.6819040603719</v>
+        <v>934.6819040603721</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>934.6819040603719</v>
+        <v>879.4238381009392</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>934.6819040603708</v>
+        <v>827.4326095974498</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>689.1850211150753</v>
+        <v>778.5150842666413</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>1055.8325253859</v>
+        <v>827.4326095974499</v>
       </c>
       <c r="K35" s="0" t="n">
         <v>879.42383810094</v>
@@ -10948,34 +10948,34 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>628.980857710269</v>
+        <v>755.1517466818981</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>668.5024901891288</v>
+        <v>906.6319801729175</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>556.8089744983813</v>
+        <v>710.5074405856139</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>755.1517466818975</v>
+        <v>1229.586365848414</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>628.9808577102687</v>
+        <v>710.5074405856133</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>963.5996533139044</v>
+        <v>906.6319801729181</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>906.631980172918</v>
+        <v>853.0322158641288</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>963.5996533139032</v>
+        <v>853.0322158641284</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>710.507440585613</v>
+        <v>755.1517466818971</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>1088.498505213045</v>
+        <v>802.6012508000009</v>
       </c>
       <c r="K36" s="0" t="n">
         <v>906.6319801729186</v>
@@ -11250,34 +11250,34 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
-        <v>610.1050614540285</v>
+        <v>732.4895458562609</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>648.4406446704343</v>
+        <v>879.423838100939</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>574.0358644560376</v>
+        <v>689.1850211150762</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>778.5150842666419</v>
+        <v>1192.686321217967</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>610.1050614540281</v>
+        <v>689.1850211150755</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>934.6819040603721</v>
+        <v>934.6819040603722</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>934.6819040603721</v>
+        <v>827.4326095974502</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>934.6819040603709</v>
+        <v>879.4238381009388</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>689.1850211150753</v>
+        <v>778.5150842666415</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>1122.175124713065</v>
+        <v>778.5150842666418</v>
       </c>
       <c r="K37" s="0" t="n">
         <v>879.4238381009401</v>
@@ -11552,34 +11552,34 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
-        <v>628.9808577102691</v>
+        <v>710.5074405856139</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>628.9808577102682</v>
+        <v>906.6319801729176</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>556.8089744983814</v>
+        <v>668.5024901891297</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>802.6012508000011</v>
+        <v>1156.893651662218</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>591.7957302657456</v>
+        <v>668.502490189129</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>963.5996533139045</v>
+        <v>906.6319801729182</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>963.5996533139045</v>
+        <v>853.0322158641289</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>963.5996533139033</v>
+        <v>853.0322158641285</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>668.5024901891288</v>
+        <v>802.6012508000007</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>1088.498505213045</v>
+        <v>802.601250800001</v>
       </c>
       <c r="K38" s="0" t="n">
         <v>906.6319801729187</v>
@@ -11854,34 +11854,34 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
-        <v>610.1050614540286</v>
+        <v>732.489545856261</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>648.4406446704344</v>
+        <v>879.4238381009391</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>574.0358644560378</v>
+        <v>648.4406446704352</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>827.4326095974502</v>
+        <v>1122.175124713066</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>610.1050614540283</v>
+        <v>689.1850211150756</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>934.6819040603722</v>
+        <v>934.6819040603723</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>934.6819040603722</v>
+        <v>827.4326095974503</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>993.4120772351034</v>
+        <v>879.423838100939</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>689.1850211150754</v>
+        <v>827.4326095974498</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>1122.175124713066</v>
+        <v>827.4326095974501</v>
       </c>
       <c r="K39" s="0" t="n">
         <v>934.6819040603727</v>
@@ -12156,34 +12156,34 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>628.9808577102692</v>
+        <v>755.1517466818983</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>628.9808577102683</v>
+        <v>906.6319801729177</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>556.8089744983814</v>
+        <v>628.9808577102691</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>853.0322158641289</v>
+        <v>1088.498505213046</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>628.9808577102689</v>
+        <v>710.5074405856134</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>906.6319801729182</v>
+        <v>963.5996533139047</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>963.5996533139046</v>
+        <v>802.6012508000014</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>1024.146855805354</v>
+        <v>906.6319801729176</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>668.5024901891289</v>
+        <v>853.0322158641284</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>1088.498505213045</v>
+        <v>853.0322158641288</v>
       </c>
       <c r="K40" s="0" t="n">
         <v>906.6319801729188</v>
@@ -12458,34 +12458,34 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
-        <v>610.1050614540287</v>
+        <v>732.4895458562611</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>648.4406446704345</v>
+        <v>879.4238381009392</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>574.0358644560378</v>
+        <v>610.1050614540286</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>827.4326095974503</v>
+        <v>1055.832525385902</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>648.4406446704351</v>
+        <v>732.4895458562604</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>934.6819040603723</v>
+        <v>993.4120772351048</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>934.6819040603723</v>
+        <v>827.4326095974504</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>993.4120772351037</v>
+        <v>879.4238381009391</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>689.1850211150755</v>
+        <v>827.4326095974498</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>1055.832525385901</v>
+        <v>827.4326095974502</v>
       </c>
       <c r="K41" s="0" t="n">
         <v>934.6819040603729</v>
@@ -12760,34 +12760,34 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>591.7957302657461</v>
+        <v>710.5074405856142</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>628.9808577102684</v>
+        <v>906.6319801729178</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>556.8089744983814</v>
+        <v>628.9808577102692</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>802.6012508000014</v>
+        <v>1024.146855805355</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>668.5024901891297</v>
+        <v>755.1517466818976</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>963.5996533139047</v>
+        <v>1024.146855805355</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>906.6319801729184</v>
+        <v>802.6012508000015</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>963.5996533139037</v>
+        <v>906.6319801729177</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>710.5074405856133</v>
+        <v>853.0322158641284</v>
       </c>
       <c r="J42" s="0" t="n">
-        <v>1088.498505213046</v>
+        <v>802.6012508000013</v>
       </c>
       <c r="K42" s="0" t="n">
         <v>963.5996533139054</v>
@@ -13062,34 +13062,34 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
-        <v>574.0358644560383</v>
+        <v>732.4895458562612</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>648.4406446704346</v>
+        <v>879.4238381009393</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>540.0990657190604</v>
+        <v>648.4406446704354</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>778.5150842666422</v>
+        <v>993.4120772351049</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>689.1850211150763</v>
+        <v>778.515084266642</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>993.4120772351048</v>
+        <v>993.4120772351049</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>934.6819040603724</v>
+        <v>778.5150842666424</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>934.6819040603714</v>
+        <v>879.4238381009392</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>732.4895458562603</v>
+        <v>827.4326095974498</v>
       </c>
       <c r="J43" s="0" t="n">
-        <v>1055.832525385901</v>
+        <v>778.5150842666421</v>
       </c>
       <c r="K43" s="0" t="n">
         <v>993.4120772351055</v>
@@ -13364,34 +13364,34 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
-        <v>556.808974498382</v>
+        <v>710.5074405856143</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>668.5024901891293</v>
+        <v>906.6319801729179</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>523.8906234465693</v>
+        <v>668.5024901891301</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>802.6012508000015</v>
+        <v>1024.146855805355</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>710.5074405856142</v>
+        <v>755.1517466818976</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>963.5996533139048</v>
+        <v>1024.146855805355</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>963.5996533139048</v>
+        <v>802.6012508000016</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>963.5996533139038</v>
+        <v>906.6319801729178</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>710.5074405856134</v>
+        <v>802.6012508000008</v>
       </c>
       <c r="J44" s="0" t="n">
-        <v>1088.498505213046</v>
+        <v>755.1517466818977</v>
       </c>
       <c r="K44" s="0" t="n">
         <v>963.5996533139055</v>
@@ -13666,34 +13666,34 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
-        <v>540.0990657190609</v>
+        <v>732.4895458562613</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>648.4406446704347</v>
+        <v>934.6819040603719</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>540.0990657190605</v>
+        <v>648.4406446704355</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>778.5150842666424</v>
+        <v>993.4120772351049</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>732.4895458562612</v>
+        <v>732.4895458562604</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>934.6819040603724</v>
+        <v>1055.832525385902</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>993.4120772351049</v>
+        <v>778.5150842666425</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>993.4120772351039</v>
+        <v>934.6819040603718</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>732.4895458562604</v>
+        <v>827.4326095974499</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>1055.832525385901</v>
+        <v>732.4895458562605</v>
       </c>
       <c r="K45" s="0" t="n">
         <v>934.6819040603731</v>
@@ -13968,34 +13968,34 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>523.8906234465699</v>
+        <v>755.1517466818987</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>668.5024901891294</v>
+        <v>906.631980172918</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>523.8906234465694</v>
+        <v>668.5024901891302</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>755.151746681898</v>
+        <v>1024.146855805355</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>710.5074405856143</v>
+        <v>710.5074405856135</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>906.6319801729185</v>
+        <v>1024.146855805355</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>963.5996533139049</v>
+        <v>755.1517466818981</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>963.5996533139039</v>
+        <v>963.5996533139042</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>710.5074405856135</v>
+        <v>802.6012508000009</v>
       </c>
       <c r="J46" s="0" t="n">
-        <v>1024.146855805355</v>
+        <v>710.5074405856136</v>
       </c>
       <c r="K46" s="0" t="n">
         <v>906.6319801729192</v>
@@ -14270,34 +14270,34 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
-        <v>508.168598606686</v>
+        <v>778.5150842666432</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>648.4406446704348</v>
+        <v>879.4238381009395</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>540.0990657190606</v>
+        <v>689.1850211150768</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>778.5150842666424</v>
+        <v>993.4120772351049</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>732.4895458562613</v>
+        <v>732.4895458562605</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>934.6819040603725</v>
+        <v>1055.832525385902</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>934.6819040603725</v>
+        <v>778.5150842666425</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>993.412077235104</v>
+        <v>934.6819040603719</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>732.4895458562605</v>
+        <v>827.43260959745</v>
       </c>
       <c r="J47" s="0" t="n">
-        <v>1055.832525385901</v>
+        <v>732.4895458562606</v>
       </c>
       <c r="K47" s="0" t="n">
         <v>879.4238381009407</v>
@@ -14572,34 +14572,34 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>523.8906234465699</v>
+        <v>802.6012508000024</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>668.5024901891295</v>
+        <v>853.0322158641292</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>556.8089744983816</v>
+        <v>668.5024901891303</v>
       </c>
       <c r="D48" s="0" t="n">
+        <v>963.5996533139049</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>710.5074405856136</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>1088.498505213046</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>755.1517466818981</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>906.631980172918</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>853.0322158641286</v>
+      </c>
+      <c r="J48" s="0" t="n">
         <v>755.151746681898</v>
-      </c>
-      <c r="E48" s="0" t="n">
-        <v>755.1517466818987</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>906.6319801729186</v>
-      </c>
-      <c r="G48" s="0" t="n">
-        <v>963.5996533139049</v>
-      </c>
-      <c r="H48" s="0" t="n">
-        <v>963.599653313904</v>
-      </c>
-      <c r="I48" s="0" t="n">
-        <v>755.1517466818977</v>
-      </c>
-      <c r="J48" s="0" t="n">
-        <v>1024.146855805355</v>
       </c>
       <c r="K48" s="0" t="n">
         <v>906.6319801729193</v>
@@ -14874,34 +14874,34 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="n">
-        <v>540.0990657190611</v>
+        <v>778.5150842666432</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>689.1850211150761</v>
+        <v>879.4238381009396</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>540.0990657190606</v>
+        <v>689.1850211150769</v>
       </c>
       <c r="D49" s="0" t="n">
+        <v>934.6819040603725</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>732.4895458562606</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>1122.175124713067</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>732.4895458562609</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>879.4238381009395</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>827.43260959745</v>
+      </c>
+      <c r="J49" s="0" t="n">
         <v>778.5150842666424</v>
-      </c>
-      <c r="E49" s="0" t="n">
-        <v>732.4895458562614</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <v>934.6819040603726</v>
-      </c>
-      <c r="G49" s="0" t="n">
-        <v>993.412077235105</v>
-      </c>
-      <c r="H49" s="0" t="n">
-        <v>993.4120772351041</v>
-      </c>
-      <c r="I49" s="0" t="n">
-        <v>732.4895458562605</v>
-      </c>
-      <c r="J49" s="0" t="n">
-        <v>993.4120772351046</v>
       </c>
       <c r="K49" s="0" t="n">
         <v>934.6819040603733</v>
@@ -15176,34 +15176,34 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="n">
-        <v>556.8089744983821</v>
+        <v>755.1517466818988</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>710.5074405856139</v>
+        <v>853.0322158641293</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>523.8906234465695</v>
+        <v>710.5074405856147</v>
       </c>
       <c r="D50" s="0" t="n">
+        <v>963.5996533139049</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>755.151746681898</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>1156.893651662218</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>755.1517466818982</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>853.0322158641292</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>853.0322158641286</v>
+      </c>
+      <c r="J50" s="0" t="n">
         <v>802.6012508000016</v>
-      </c>
-      <c r="E50" s="0" t="n">
-        <v>710.5074405856145</v>
-      </c>
-      <c r="F50" s="0" t="n">
-        <v>963.599653313905</v>
-      </c>
-      <c r="G50" s="0" t="n">
-        <v>1024.146855805355</v>
-      </c>
-      <c r="H50" s="0" t="n">
-        <v>963.5996533139041</v>
-      </c>
-      <c r="I50" s="0" t="n">
-        <v>755.1517466818977</v>
-      </c>
-      <c r="J50" s="0" t="n">
-        <v>963.5996533139046</v>
       </c>
       <c r="K50" s="0" t="n">
         <v>963.5996533139058</v>
@@ -15478,34 +15478,34 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="n">
-        <v>574.0358644560384</v>
+        <v>778.5150842666433</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>689.1850211150762</v>
+        <v>879.4238381009397</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>508.1685986066857</v>
+        <v>689.185021115077</v>
       </c>
       <c r="D51" s="0" t="n">
+        <v>934.6819040603725</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>732.4895458562607</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>1192.686321217968</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>732.489545856261</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>879.4238381009396</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>827.43260959745</v>
+      </c>
+      <c r="J51" s="0" t="n">
         <v>827.4326095974507</v>
-      </c>
-      <c r="E51" s="0" t="n">
-        <v>732.4895458562615</v>
-      </c>
-      <c r="F51" s="0" t="n">
-        <v>934.6819040603726</v>
-      </c>
-      <c r="G51" s="0" t="n">
-        <v>1055.832525385902</v>
-      </c>
-      <c r="H51" s="0" t="n">
-        <v>934.6819040603718</v>
-      </c>
-      <c r="I51" s="0" t="n">
-        <v>778.5150842666421</v>
-      </c>
-      <c r="J51" s="0" t="n">
-        <v>934.6819040603723</v>
       </c>
       <c r="K51" s="0" t="n">
         <v>993.4120772351059</v>
@@ -15780,34 +15780,34 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="n">
-        <v>591.7957302657463</v>
+        <v>802.6012508000025</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>710.5074405856141</v>
+        <v>906.6319801729184</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>492.9183937498353</v>
+        <v>710.5074405856149</v>
       </c>
       <c r="D52" s="0" t="n">
+        <v>906.6319801729186</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>755.1517466818981</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>1156.893651662218</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>755.1517466818983</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>906.6319801729182</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>802.601250800001</v>
+      </c>
+      <c r="J52" s="0" t="n">
         <v>802.6012508000017</v>
-      </c>
-      <c r="E52" s="0" t="n">
-        <v>710.5074405856146</v>
-      </c>
-      <c r="F52" s="0" t="n">
-        <v>906.6319801729187</v>
-      </c>
-      <c r="G52" s="0" t="n">
-        <v>1088.498505213047</v>
-      </c>
-      <c r="H52" s="0" t="n">
-        <v>906.6319801729179</v>
-      </c>
-      <c r="I52" s="0" t="n">
-        <v>802.6012508000014</v>
-      </c>
-      <c r="J52" s="0" t="n">
-        <v>906.6319801729184</v>
       </c>
       <c r="K52" s="0" t="n">
         <v>963.5996533139059</v>
@@ -16082,34 +16082,34 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="n">
-        <v>610.1050614540289</v>
+        <v>778.5150842666433</v>
       </c>
       <c r="B53" s="0" t="n">
+        <v>879.4238381009399</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>689.1850211150771</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>934.6819040603726</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>732.4895458562609</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>1122.175124713067</v>
+      </c>
+      <c r="G53" s="0" t="n">
         <v>732.4895458562611</v>
       </c>
-      <c r="C53" s="0" t="n">
-        <v>478.1258494977794</v>
-      </c>
-      <c r="D53" s="0" t="n">
-        <v>778.5150842666425</v>
-      </c>
-      <c r="E53" s="0" t="n">
-        <v>732.4895458562617</v>
-      </c>
-      <c r="F53" s="0" t="n">
-        <v>934.6819040603727</v>
-      </c>
-      <c r="G53" s="0" t="n">
-        <v>1122.175124713067</v>
-      </c>
       <c r="H53" s="0" t="n">
-        <v>879.4238381009394</v>
+        <v>934.6819040603723</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>827.4326095974504</v>
+        <v>827.4326095974501</v>
       </c>
       <c r="J53" s="0" t="n">
-        <v>934.6819040603724</v>
+        <v>827.4326095974508</v>
       </c>
       <c r="K53" s="0" t="n">
         <v>934.6819040603735</v>
@@ -16384,34 +16384,34 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="n">
-        <v>591.7957302657463</v>
+        <v>755.1517466818989</v>
       </c>
       <c r="B54" s="0" t="n">
+        <v>853.0322158641295</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>710.507440585615</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>906.6319801729187</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>710.5074405856139</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>1088.498505213047</v>
+      </c>
+      <c r="G54" s="0" t="n">
         <v>710.5074405856142</v>
       </c>
-      <c r="C54" s="0" t="n">
-        <v>463.777231397037</v>
-      </c>
-      <c r="D54" s="0" t="n">
-        <v>755.1517466818981</v>
-      </c>
-      <c r="E54" s="0" t="n">
-        <v>710.5074405856147</v>
-      </c>
-      <c r="F54" s="0" t="n">
-        <v>906.6319801729188</v>
-      </c>
-      <c r="G54" s="0" t="n">
-        <v>1156.893651662218</v>
-      </c>
       <c r="H54" s="0" t="n">
-        <v>853.0322158641291</v>
+        <v>963.5996533139047</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>802.6012508000015</v>
+        <v>853.0322158641288</v>
       </c>
       <c r="J54" s="0" t="n">
-        <v>963.5996533139048</v>
+        <v>802.6012508000018</v>
       </c>
       <c r="K54" s="0" t="n">
         <v>906.6319801729196</v>
@@ -16686,34 +16686,34 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="n">
-        <v>610.1050614540289</v>
+        <v>732.4895458562617</v>
       </c>
       <c r="B55" s="0" t="n">
+        <v>827.4326095974509</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>689.1850211150772</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>879.4238381009402</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>732.489545856261</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>1122.175124713068</v>
+      </c>
+      <c r="G55" s="0" t="n">
         <v>689.1850211150764</v>
       </c>
-      <c r="C55" s="0" t="n">
-        <v>478.1258494977794</v>
-      </c>
-      <c r="D55" s="0" t="n">
-        <v>778.5150842666425</v>
-      </c>
-      <c r="E55" s="0" t="n">
-        <v>732.4895458562618</v>
-      </c>
-      <c r="F55" s="0" t="n">
-        <v>879.4238381009403</v>
-      </c>
-      <c r="G55" s="0" t="n">
-        <v>1192.686321217968</v>
-      </c>
       <c r="H55" s="0" t="n">
-        <v>879.4238381009395</v>
+        <v>934.6819040603724</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>827.4326095974506</v>
+        <v>879.4238381009393</v>
       </c>
       <c r="J55" s="0" t="n">
-        <v>993.4120772351049</v>
+        <v>778.5150842666426</v>
       </c>
       <c r="K55" s="0" t="n">
         <v>879.4238381009411</v>
@@ -16988,34 +16988,34 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="n">
-        <v>591.7957302657463</v>
+        <v>755.151746681899</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>668.50249018913</v>
+        <v>853.0322158641296</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>463.7772313970371</v>
+        <v>710.5074405856151</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>755.1517466818981</v>
+        <v>906.6319801729188</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>710.5074405856149</v>
+        <v>710.5074405856141</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>906.6319801729189</v>
+        <v>1088.498505213047</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>1156.893651662219</v>
+        <v>710.5074405856143</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>853.0322158641292</v>
+        <v>906.6319801729185</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>802.6012508000016</v>
+        <v>853.0322158641289</v>
       </c>
       <c r="J56" s="0" t="n">
-        <v>963.5996533139049</v>
+        <v>802.6012508000018</v>
       </c>
       <c r="K56" s="0" t="n">
         <v>906.6319801729197</v>
@@ -17290,34 +17290,34 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="n">
-        <v>574.0358644560386</v>
+        <v>778.5150842666435</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>648.4406446704354</v>
+        <v>827.432609597451</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>449.8592171668389</v>
+        <v>732.4895458562621</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>778.5150842666425</v>
+        <v>879.4238381009403</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>689.1850211150771</v>
+        <v>732.4895458562611</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>934.681904060373</v>
+        <v>1055.832525385902</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>1122.175124713068</v>
+        <v>689.1850211150766</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>879.4238381009396</v>
+        <v>934.6819040603725</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>778.5150842666425</v>
+        <v>879.4238381009394</v>
       </c>
       <c r="J57" s="0" t="n">
-        <v>934.6819040603725</v>
+        <v>827.4326095974509</v>
       </c>
       <c r="K57" s="0" t="n">
         <v>934.6819040603738</v>
@@ -17592,34 +17592,34 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="n">
-        <v>556.8089744983822</v>
+        <v>755.1517466818991</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>628.9808577102693</v>
+        <v>853.0322158641297</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>436.3588843297709</v>
+        <v>710.5074405856152</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>802.6012508000017</v>
+        <v>853.03221586413</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>710.507440585615</v>
+        <v>755.1517466818984</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>963.5996533139055</v>
+        <v>1088.498505213047</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>1088.498505213047</v>
+        <v>668.5024901891301</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>853.0322158641293</v>
+        <v>906.6319801729186</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>802.6012508000017</v>
+        <v>853.0322158641291</v>
       </c>
       <c r="J58" s="0" t="n">
-        <v>963.5996533139049</v>
+        <v>802.6012508000019</v>
       </c>
       <c r="K58" s="0" t="n">
         <v>963.5996533139063</v>
@@ -17894,34 +17894,34 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="n">
-        <v>574.0358644560386</v>
+        <v>778.5150842666436</v>
       </c>
       <c r="B59" s="0" t="n">
+        <v>827.4326095974511</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>689.1850211150775</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>827.4326095974513</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>778.5150842666428</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>1055.832525385902</v>
+      </c>
+      <c r="G59" s="0" t="n">
         <v>648.4406446704355</v>
       </c>
-      <c r="C59" s="0" t="n">
-        <v>449.859217166839</v>
-      </c>
-      <c r="D59" s="0" t="n">
-        <v>778.5150842666425</v>
-      </c>
-      <c r="E59" s="0" t="n">
-        <v>732.489545856262</v>
-      </c>
-      <c r="F59" s="0" t="n">
-        <v>934.6819040603731</v>
-      </c>
-      <c r="G59" s="0" t="n">
-        <v>1122.175124713068</v>
-      </c>
       <c r="H59" s="0" t="n">
-        <v>879.4238381009397</v>
+        <v>879.4238381009401</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>827.4326095974508</v>
+        <v>827.4326095974504</v>
       </c>
       <c r="J59" s="0" t="n">
-        <v>934.6819040603725</v>
+        <v>827.432609597451</v>
       </c>
       <c r="K59" s="0" t="n">
         <v>993.4120772351064</v>
@@ -18196,34 +18196,34 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="n">
-        <v>556.8089744983822</v>
+        <v>802.601250800003</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>628.9808577102694</v>
+        <v>853.0322158641299</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>463.7772313970372</v>
+        <v>668.5024901891309</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>802.6012508000017</v>
+        <v>802.6012508000024</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>710.5074405856151</v>
+        <v>755.1517466818984</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>906.6319801729192</v>
+        <v>1088.498505213047</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>1156.893651662219</v>
+        <v>668.5024901891302</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>906.6319801729184</v>
+        <v>906.6319801729187</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>802.6012508000018</v>
+        <v>802.6012508000015</v>
       </c>
       <c r="J60" s="0" t="n">
-        <v>906.6319801729186</v>
+        <v>853.0322158641297</v>
       </c>
       <c r="K60" s="0" t="n">
         <v>963.5996533139063</v>
@@ -18498,34 +18498,34 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="n">
-        <v>540.0990657190612</v>
+        <v>778.5150842666437</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>610.1050614540289</v>
+        <v>879.4238381009403</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>449.859217166839</v>
+        <v>648.4406446704362</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>827.4326095974508</v>
+        <v>778.5150842666432</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>732.4895458562621</v>
+        <v>732.4895458562612</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>934.6819040603732</v>
+        <v>1055.832525385902</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>1192.686321217968</v>
+        <v>689.1850211150768</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>934.6819040603724</v>
+        <v>934.6819040603727</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>778.5150842666426</v>
+        <v>827.4326095974506</v>
       </c>
       <c r="J61" s="0" t="n">
-        <v>879.4238381009401</v>
+        <v>827.4326095974511</v>
       </c>
       <c r="K61" s="0" t="n">
         <v>993.4120772351064</v>
@@ -18800,34 +18800,34 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="n">
-        <v>523.8906234465701</v>
+        <v>755.1517466818993</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>591.7957302657463</v>
+        <v>906.6319801729189</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>463.7772313970373</v>
+        <v>628.98085771027</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>802.6012508000018</v>
+        <v>755.1517466818988</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>755.1517466818995</v>
+        <v>710.5074405856143</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>963.5996533139057</v>
+        <v>1088.498505213047</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>1156.893651662219</v>
+        <v>710.5074405856146</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>963.5996533139048</v>
+        <v>963.5996533139052</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>755.1517466818982</v>
+        <v>853.0322158641293</v>
       </c>
       <c r="J62" s="0" t="n">
-        <v>853.0322158641297</v>
+        <v>853.0322158641299</v>
       </c>
       <c r="K62" s="0" t="n">
         <v>1024.146855805357</v>
@@ -19102,34 +19102,34 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="n">
-        <v>508.1685986066863</v>
+        <v>778.5150842666438</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>610.1050614540289</v>
+        <v>934.681904060373</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>449.8592171668391</v>
+        <v>648.4406446704362</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>778.5150842666426</v>
+        <v>732.4895458562615</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>778.515084266644</v>
+        <v>732.4895458562613</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>993.4120772351058</v>
+        <v>1122.175124713068</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>1192.686321217969</v>
+        <v>689.1850211150769</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>993.4120772351049</v>
+        <v>993.4120772351052</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>778.5150842666426</v>
+        <v>827.4326095974507</v>
       </c>
       <c r="J63" s="0" t="n">
-        <v>827.4326095974511</v>
+        <v>879.4238381009403</v>
       </c>
       <c r="K63" s="0" t="n">
         <v>1055.832525385903</v>
@@ -19404,34 +19404,34 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="n">
-        <v>523.8906234465701</v>
+        <v>802.6012508000032</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>591.7957302657463</v>
+        <v>963.5996533139055</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>436.3588843297711</v>
+        <v>668.5024901891309</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>802.6012508000018</v>
+        <v>710.5074405856146</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>755.1517466818996</v>
+        <v>755.1517466818987</v>
       </c>
       <c r="F64" s="0" t="n">
+        <v>1156.893651662219</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>668.5024901891304</v>
+      </c>
+      <c r="H64" s="0" t="n">
         <v>1024.146855805356</v>
       </c>
-      <c r="G64" s="0" t="n">
-        <v>1156.89365166222</v>
-      </c>
-      <c r="H64" s="0" t="n">
-        <v>1024.146855805355</v>
-      </c>
       <c r="I64" s="0" t="n">
-        <v>802.6012508000018</v>
+        <v>802.6012508000017</v>
       </c>
       <c r="J64" s="0" t="n">
-        <v>802.6012508000022</v>
+        <v>853.03221586413</v>
       </c>
       <c r="K64" s="0" t="n">
         <v>1088.498505213048</v>
@@ -19706,34 +19706,34 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="n">
-        <v>508.1685986066863</v>
+        <v>827.4326095974523</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>610.1050614540289</v>
+        <v>934.6819040603731</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>423.263698213625</v>
+        <v>689.1850211150775</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>778.5150842666426</v>
+        <v>689.1850211150769</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>778.5150842666441</v>
+        <v>778.5150842666432</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>993.4120772351058</v>
+        <v>1122.175124713068</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>1192.686321217969</v>
+        <v>648.4406446704357</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>993.4120772351049</v>
+        <v>993.4120772351054</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>827.4326095974509</v>
+        <v>827.4326095974508</v>
       </c>
       <c r="J65" s="0" t="n">
-        <v>827.4326095974512</v>
+        <v>827.4326095974513</v>
       </c>
       <c r="K65" s="0" t="n">
         <v>1122.175124713068</v>
@@ -20008,34 +20008,34 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="n">
-        <v>523.8906234465701</v>
+        <v>802.6012508000033</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>628.9808577102696</v>
+        <v>906.6319801729192</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>410.5615003133139</v>
+        <v>668.5024901891309</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>802.6012508000018</v>
+        <v>710.5074405856147</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>802.6012508000034</v>
+        <v>802.6012508000024</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>963.5996533139058</v>
+        <v>1156.893651662219</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>1156.89365166222</v>
+        <v>668.5024901891304</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>1024.146855805355</v>
+        <v>963.5996533139054</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>802.6012508000019</v>
+        <v>853.0322158641295</v>
       </c>
       <c r="J66" s="0" t="n">
-        <v>853.03221586413</v>
+        <v>853.0322158641301</v>
       </c>
       <c r="K66" s="0" t="n">
         <v>1156.89365166222</v>
@@ -20310,34 +20310,34 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="n">
-        <v>508.1685986066863</v>
+        <v>778.5150842666441</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>610.1050614540291</v>
+        <v>879.4238381009407</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>398.2404970020489</v>
+        <v>648.4406446704362</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>778.5150842666426</v>
+        <v>732.4895458562618</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>778.5150842666442</v>
+        <v>778.5150842666432</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>934.6819040603734</v>
+        <v>1122.175124713068</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>1122.175124713068</v>
+        <v>689.185021115077</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>993.4120772351049</v>
+        <v>934.681904060373</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>778.5150842666427</v>
+        <v>827.4326095974509</v>
       </c>
       <c r="J67" s="0" t="n">
-        <v>879.4238381009404</v>
+        <v>879.4238381009405</v>
       </c>
       <c r="K67" s="0" t="n">
         <v>1192.686321217969</v>
@@ -20612,34 +20612,34 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="n">
-        <v>492.9183937498358</v>
+        <v>802.6012508000034</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>628.9808577102697</v>
+        <v>853.0322158641303</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>386.2892485812944</v>
+        <v>628.98085771027</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>802.6012508000018</v>
+        <v>710.5074405856149</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>802.6012508000035</v>
+        <v>802.6012508000024</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>963.5996533139059</v>
+        <v>1156.89365166222</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>1088.498505213048</v>
+        <v>710.5074405856149</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>963.5996533139049</v>
+        <v>963.5996533139055</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>755.1517466818983</v>
+        <v>853.0322158641296</v>
       </c>
       <c r="J68" s="0" t="n">
-        <v>853.0322158641301</v>
+        <v>906.6319801729192</v>
       </c>
       <c r="K68" s="0" t="n">
         <v>1229.586365848417</v>
@@ -20914,34 +20914,34 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="n">
-        <v>478.1258494977799</v>
+        <v>778.5150842666442</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>648.4406446704359</v>
+        <v>879.4238381009408</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>398.2404970020489</v>
+        <v>610.1050614540295</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>778.5150842666426</v>
+        <v>689.1850211150771</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>778.5150842666443</v>
+        <v>778.5150842666432</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>993.412077235106</v>
+        <v>1192.686321217969</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>1122.175124713069</v>
+        <v>689.1850211150771</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>934.6819040603725</v>
+        <v>934.6819040603731</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>732.4895458562611</v>
+        <v>827.432609597451</v>
       </c>
       <c r="J69" s="0" t="n">
-        <v>827.4326095974515</v>
+        <v>879.4238381009407</v>
       </c>
       <c r="K69" s="0" t="n">
         <v>1192.686321217969</v>
@@ -21216,34 +21216,34 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="n">
-        <v>463.7772313970376</v>
+        <v>755.1517466818998</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>668.5024901891305</v>
+        <v>853.0322158641304</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>410.561500313314</v>
+        <v>628.9808577102701</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>802.6012508000018</v>
+        <v>710.507440585615</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>755.1517466818999</v>
+        <v>802.6012508000024</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>1024.146855805356</v>
+        <v>1229.586365848416</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>1088.498505213048</v>
+        <v>710.507440585615</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>963.5996533139049</v>
+        <v>906.6319801729192</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>710.5074405856142</v>
+        <v>853.0322158641297</v>
       </c>
       <c r="J70" s="0" t="n">
-        <v>853.0322158641302</v>
+        <v>853.0322158641303</v>
       </c>
       <c r="K70" s="0" t="n">
         <v>1156.89365166222</v>
@@ -21518,34 +21518,34 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="n">
-        <v>449.8592171668394</v>
+        <v>732.4895458562626</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>689.1850211150771</v>
+        <v>879.4238381009409</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>423.2636982136252</v>
+        <v>610.1050614540296</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>778.5150842666426</v>
+        <v>732.489545856262</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>732.4895458562627</v>
+        <v>827.4326095974515</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>1055.832525385903</v>
+        <v>1267.628046187688</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>1122.175124713069</v>
+        <v>689.1850211150772</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>993.412077235105</v>
+        <v>879.4238381009407</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>689.1850211150764</v>
+        <v>879.4238381009402</v>
       </c>
       <c r="J71" s="0" t="n">
-        <v>879.4238381009407</v>
+        <v>827.4326095974517</v>
       </c>
       <c r="K71" s="0" t="n">
         <v>1192.686321217969</v>
@@ -21820,34 +21820,34 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="n">
-        <v>436.3588843297715</v>
+        <v>710.5074405856155</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>668.5024901891305</v>
+        <v>906.6319801729195</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>410.5615003133141</v>
+        <v>591.795730265747</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>755.1517466818982</v>
+        <v>710.5074405856151</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>755.1517466819</v>
+        <v>802.6012508000025</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>1024.146855805356</v>
+        <v>1229.586365848417</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>1156.89365166222</v>
+        <v>710.5074405856151</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>963.599653313905</v>
+        <v>853.0322158641303</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>668.50249018913</v>
+        <v>906.6319801729188</v>
       </c>
       <c r="J72" s="0" t="n">
-        <v>853.0322158641303</v>
+        <v>802.6012508000027</v>
       </c>
       <c r="K72" s="0" t="n">
         <v>1156.89365166222</v>
@@ -22122,34 +22122,34 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="n">
-        <v>423.2636982136253</v>
+        <v>732.4895458562626</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>648.4406446704359</v>
+        <v>934.6819040603735</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>398.240497002049</v>
+        <v>610.1050614540296</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>778.5150842666426</v>
+        <v>689.1850211150773</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>732.4895458562628</v>
+        <v>827.4326095974516</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>1055.832525385903</v>
+        <v>1192.686321217969</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>1122.175124713069</v>
+        <v>689.1850211150773</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>934.6819040603726</v>
+        <v>827.4326095974517</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>689.1850211150766</v>
+        <v>934.6819040603729</v>
       </c>
       <c r="J73" s="0" t="n">
-        <v>827.4326095974517</v>
+        <v>827.4326095974518</v>
       </c>
       <c r="K73" s="0" t="n">
         <v>1192.686321217969</v>
@@ -22424,34 +22424,34 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="n">
-        <v>410.5615003133142</v>
+        <v>755.1517466818999</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>668.5024901891305</v>
+        <v>963.5996533139061</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>386.2892485812946</v>
+        <v>591.795730265747</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>755.1517466818982</v>
+        <v>710.5074405856152</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>710.5074405856158</v>
+        <v>802.6012508000026</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>1024.146855805356</v>
+        <v>1156.89365166222</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>1088.498505213048</v>
+        <v>710.5074405856152</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>963.599653313905</v>
+        <v>853.0322158641304</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>710.5074405856144</v>
+        <v>963.5996533139054</v>
       </c>
       <c r="J74" s="0" t="n">
-        <v>802.6012508000027</v>
+        <v>853.0322158641305</v>
       </c>
       <c r="K74" s="0" t="n">
         <v>1229.586365848417</v>
@@ -22726,34 +22726,34 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="n">
-        <v>398.2404970020492</v>
+        <v>778.5150842666444</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>689.1850211150771</v>
+        <v>934.6819040603737</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>398.2404970020491</v>
+        <v>610.1050614540296</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>778.5150842666426</v>
+        <v>689.1850211150775</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>689.185021115078</v>
+        <v>827.4326095974517</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>993.412077235106</v>
+        <v>1192.686321217969</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>1055.832525385904</v>
+        <v>732.4895458562622</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>993.4120772351051</v>
+        <v>879.4238381009409</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>732.4895458562614</v>
+        <v>993.4120772351055</v>
       </c>
       <c r="J75" s="0" t="n">
-        <v>827.4326095974518</v>
+        <v>879.423838100941</v>
       </c>
       <c r="K75" s="0" t="n">
         <v>1267.628046187689</v>
@@ -23028,34 +23028,34 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="n">
-        <v>386.2892485812947</v>
+        <v>802.6012508000038</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>710.507440585615</v>
+        <v>906.6319801729197</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>386.2892485812946</v>
+        <v>628.9808577102702</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>755.1517466818982</v>
+        <v>668.5024901891309</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>668.5024901891314</v>
+        <v>802.6012508000027</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>1024.146855805356</v>
+        <v>1156.89365166222</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>1088.498505213048</v>
+        <v>710.5074405856153</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>963.5996533139052</v>
+        <v>853.0322158641305</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>755.1517466818988</v>
+        <v>963.5996533139055</v>
       </c>
       <c r="J76" s="0" t="n">
-        <v>802.6012508000028</v>
+        <v>853.0322158641306</v>
       </c>
       <c r="K76" s="0" t="n">
         <v>1229.586365848417</v>
@@ -23330,34 +23330,34 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="n">
-        <v>398.2404970020492</v>
+        <v>827.4326095974528</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>689.1850211150772</v>
+        <v>934.6819040603738</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>374.6966586593363</v>
+        <v>648.4406446704364</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>732.489545856261</v>
+        <v>689.1850211150775</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>689.185021115078</v>
+        <v>827.4326095974518</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>1055.832525385903</v>
+        <v>1192.686321217969</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>1055.832525385904</v>
+        <v>732.4895458562623</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>993.4120772351052</v>
+        <v>879.423838100941</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>732.4895458562615</v>
+        <v>934.6819040603731</v>
       </c>
       <c r="J77" s="0" t="n">
-        <v>778.5150842666436</v>
+        <v>827.432609597452</v>
       </c>
       <c r="K77" s="0" t="n">
         <v>1192.686321217969</v>
@@ -23632,34 +23632,34 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="n">
-        <v>386.2892485812947</v>
+        <v>802.6012508000038</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>668.5024901891306</v>
+        <v>906.6319801729198</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>363.451963848599</v>
+        <v>628.9808577102702</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>710.5074405856141</v>
+        <v>668.5024901891309</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>668.5024901891314</v>
+        <v>802.6012508000028</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>1088.498505213048</v>
+        <v>1156.89365166222</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>1088.498505213048</v>
+        <v>710.5074405856153</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>1024.146855805356</v>
+        <v>906.6319801729196</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>755.1517466818989</v>
+        <v>906.6319801729192</v>
       </c>
       <c r="J78" s="0" t="n">
-        <v>802.601250800003</v>
+        <v>853.0322158641308</v>
       </c>
       <c r="K78" s="0" t="n">
         <v>1156.89365166222</v>
@@ -23934,34 +23934,34 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="n">
-        <v>398.2404970020492</v>
+        <v>827.4326095974528</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>689.1850211150772</v>
+        <v>934.6819040603739</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>352.5447237721501</v>
+        <v>610.1050614540297</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>689.1850211150763</v>
+        <v>648.4406446704362</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>689.185021115078</v>
+        <v>827.4326095974519</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>1055.832525385903</v>
+        <v>1122.175124713069</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>1122.175124713069</v>
+        <v>689.1850211150776</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>993.4120772351054</v>
+        <v>934.6819040603737</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>732.4895458562617</v>
+        <v>879.4238381009407</v>
       </c>
       <c r="J79" s="0" t="n">
-        <v>827.432609597452</v>
+        <v>827.4326095974521</v>
       </c>
       <c r="K79" s="0" t="n">
         <v>1122.175124713069</v>
@@ -24236,34 +24236,34 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="n">
-        <v>386.2892485812947</v>
+        <v>853.0322158641316</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>710.5074405856151</v>
+        <v>963.5996533139064</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>363.4519638485991</v>
+        <v>591.7957302657471</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>668.5024901891298</v>
+        <v>628.98085771027</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>710.5074405856159</v>
+        <v>853.0322158641306</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>1024.146855805356</v>
+        <v>1088.498505213048</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>1088.498505213048</v>
+        <v>668.502490189131</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>1024.146855805356</v>
+        <v>906.6319801729197</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>710.5074405856147</v>
+        <v>853.0322158641303</v>
       </c>
       <c r="J80" s="0" t="n">
-        <v>853.0322158641308</v>
+        <v>802.6012508000032</v>
       </c>
       <c r="K80" s="0" t="n">
         <v>1088.498505213048</v>
@@ -24538,34 +24538,34 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="n">
-        <v>374.6966586593363</v>
+        <v>879.4238381009421</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>732.4895458562621</v>
+        <v>993.4120772351065</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>352.5447237721502</v>
+        <v>574.0358644560392</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>648.4406446704353</v>
+        <v>610.1050614540295</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>732.4895458562629</v>
+        <v>827.432609597452</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>1055.832525385903</v>
+        <v>1122.175124713069</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>1055.832525385904</v>
+        <v>689.1850211150776</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>1055.832525385902</v>
+        <v>879.4238381009411</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>689.185021115077</v>
+        <v>827.4326095974517</v>
       </c>
       <c r="J81" s="0" t="n">
-        <v>827.4326095974521</v>
+        <v>827.4326095974523</v>
       </c>
       <c r="K81" s="0" t="n">
         <v>1122.175124713069</v>
@@ -24840,34 +24840,34 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="n">
-        <v>363.4519638485991</v>
+        <v>853.0322158641317</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>710.5074405856152</v>
+        <v>963.5996533139064</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>341.9648113701085</v>
+        <v>591.7957302657471</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>668.50249018913</v>
+        <v>628.9808577102701</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>710.5074405856159</v>
+        <v>802.6012508000031</v>
       </c>
       <c r="F82" s="0" t="n">
         <v>1088.498505213048</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>1088.498505213048</v>
+        <v>668.502490189131</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>1088.498505213047</v>
+        <v>853.0322158641308</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>710.5074405856149</v>
+        <v>802.6012508000027</v>
       </c>
       <c r="J82" s="0" t="n">
-        <v>802.6012508000032</v>
+        <v>802.6012508000033</v>
       </c>
       <c r="K82" s="0" t="n">
         <v>1088.498505213048</v>
@@ -25142,34 +25142,34 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="n">
-        <v>374.6966586593364</v>
+        <v>879.4238381009422</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>689.1850211150775</v>
+        <v>993.4120772351065</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>352.5447237721502</v>
+        <v>574.0358644560392</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>689.1850211150766</v>
+        <v>648.4406446704363</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>689.185021115078</v>
+        <v>827.4326095974521</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>1122.175124713068</v>
+        <v>1122.175124713069</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>1122.175124713069</v>
+        <v>689.1850211150776</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>1055.832525385902</v>
+        <v>827.4326095974521</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>689.1850211150771</v>
+        <v>827.4326095974518</v>
       </c>
       <c r="J83" s="0" t="n">
-        <v>827.4326095974523</v>
+        <v>778.5150842666441</v>
       </c>
       <c r="K83" s="0" t="n">
         <v>1122.175124713069</v>
@@ -25444,34 +25444,34 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="n">
-        <v>386.2892485812947</v>
+        <v>853.0322158641318</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>668.5024901891309</v>
+        <v>1024.146855805357</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>363.4519638485991</v>
+        <v>591.7957302657471</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>668.5024901891301</v>
+        <v>628.9808577102701</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>668.5024901891314</v>
+        <v>802.6012508000032</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>1156.893651662219</v>
+        <v>1156.89365166222</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>1156.89365166222</v>
+        <v>710.5074405856154</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>1088.498505213047</v>
+        <v>853.0322158641309</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>710.507440585615</v>
+        <v>853.0322158641305</v>
       </c>
       <c r="J84" s="0" t="n">
-        <v>802.6012508000033</v>
+        <v>802.6012508000034</v>
       </c>
       <c r="K84" s="0" t="n">
         <v>1156.89365166222</v>
@@ -25746,34 +25746,34 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="n">
-        <v>398.2404970020492</v>
+        <v>879.4238381009424</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>689.1850211150775</v>
+        <v>993.4120772351065</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>374.6966586593364</v>
+        <v>610.1050614540297</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>648.4406446704355</v>
+        <v>610.1050614540296</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>689.185021115078</v>
+        <v>827.4326095974523</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>1122.175124713068</v>
+        <v>1122.175124713069</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>1192.68632121797</v>
+        <v>689.1850211150777</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>1055.832525385902</v>
+        <v>827.4326095974523</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>689.1850211150772</v>
+        <v>879.423838100941</v>
       </c>
       <c r="J85" s="0" t="n">
-        <v>827.4326095974524</v>
+        <v>778.5150842666442</v>
       </c>
       <c r="K85" s="0" t="n">
         <v>1192.68632121797</v>
@@ -26048,34 +26048,34 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="n">
-        <v>386.2892485812947</v>
+        <v>853.0322158641319</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>668.5024901891309</v>
+        <v>1024.146855805357</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>363.4519638485992</v>
+        <v>591.7957302657471</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>668.5024901891302</v>
+        <v>591.795730265747</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>668.5024901891314</v>
+        <v>853.032215864131</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>1088.498505213048</v>
+        <v>1156.89365166222</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>1156.89365166222</v>
+        <v>668.5024901891311</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>1024.146855805356</v>
+        <v>802.6012508000033</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>668.5024901891306</v>
+        <v>906.6319801729196</v>
       </c>
       <c r="J86" s="0" t="n">
-        <v>853.0322158641311</v>
+        <v>802.6012508000035</v>
       </c>
       <c r="K86" s="0" t="n">
         <v>1156.89365166222</v>
@@ -26350,34 +26350,34 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="n">
-        <v>398.2404970020492</v>
+        <v>827.4326095974532</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>689.1850211150775</v>
+        <v>1055.832525385903</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>374.6966586593365</v>
+        <v>610.1050614540297</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>689.1850211150768</v>
+        <v>574.0358644560392</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>689.185021115078</v>
+        <v>827.4326095974524</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>1122.175124713068</v>
+        <v>1122.175124713069</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>1122.175124713069</v>
+        <v>648.4406446704364</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>993.4120772351054</v>
+        <v>827.4326095974524</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>689.1850211150772</v>
+        <v>879.4238381009411</v>
       </c>
       <c r="J87" s="0" t="n">
-        <v>879.4238381009416</v>
+        <v>778.5150842666443</v>
       </c>
       <c r="K87" s="0" t="n">
         <v>1192.68632121797</v>
@@ -26652,34 +26652,34 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="n">
-        <v>386.2892485812947</v>
+        <v>802.6012508000041</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>668.5024901891309</v>
+        <v>1024.146855805357</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>363.4519638485992</v>
+        <v>628.9808577102704</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>668.5024901891303</v>
+        <v>556.8089744983829</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>710.5074405856159</v>
+        <v>802.6012508000033</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>1088.498505213048</v>
+        <v>1088.498505213049</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>1156.89365166222</v>
+        <v>628.9808577102702</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>963.5996533139054</v>
+        <v>802.6012508000033</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>710.5074405856151</v>
+        <v>853.0322158641308</v>
       </c>
       <c r="J88" s="0" t="n">
-        <v>906.6319801729202</v>
+        <v>755.1517466818999</v>
       </c>
       <c r="K88" s="0" t="n">
         <v>1156.89365166222</v>
@@ -26954,34 +26954,34 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="n">
-        <v>398.2404970020492</v>
+        <v>778.5150842666449</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>689.1850211150775</v>
+        <v>1055.832525385903</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>352.5447237721503</v>
+        <v>648.4406446704365</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>648.4406446704357</v>
+        <v>574.0358644560392</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>689.185021115078</v>
+        <v>778.5150842666441</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>1055.832525385903</v>
+        <v>1122.175124713069</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>1122.175124713069</v>
+        <v>648.4406446704364</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>934.681904060373</v>
+        <v>827.4326095974524</v>
       </c>
       <c r="I89" s="0" t="n">
-        <v>689.1850211150773</v>
+        <v>827.4326095974521</v>
       </c>
       <c r="J89" s="0" t="n">
-        <v>934.6819040603742</v>
+        <v>778.5150842666444</v>
       </c>
       <c r="K89" s="0" t="n">
         <v>1122.175124713069</v>
@@ -27256,34 +27256,34 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="n">
-        <v>410.5615003133143</v>
+        <v>802.6012508000042</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>668.5024901891309</v>
+        <v>1088.498505213048</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>341.9648113701086</v>
+        <v>628.9808577102704</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>668.5024901891304</v>
+        <v>556.8089744983829</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>710.5074405856159</v>
+        <v>755.1517466818997</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>1088.498505213048</v>
+        <v>1156.89365166222</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>1088.498505213049</v>
+        <v>668.5024901891311</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>963.5996533139055</v>
+        <v>802.6012508000033</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>710.5074405856152</v>
+        <v>802.6012508000032</v>
       </c>
       <c r="J90" s="0" t="n">
-        <v>963.5996533139067</v>
+        <v>755.1517466819</v>
       </c>
       <c r="K90" s="0" t="n">
         <v>1088.498505213049</v>
@@ -27558,34 +27558,34 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="n">
-        <v>398.2404970020493</v>
+        <v>827.4326095974534</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>689.1850211150775</v>
+        <v>1055.832525385903</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>352.5447237721503</v>
+        <v>610.1050614540299</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>689.185021115077</v>
+        <v>574.0358644560392</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>732.4895458562629</v>
+        <v>732.4895458562625</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>1055.832525385903</v>
+        <v>1192.68632121797</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>1122.175124713069</v>
+        <v>648.4406446704364</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>934.6819040603731</v>
+        <v>778.5150842666441</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>689.1850211150775</v>
+        <v>827.4326095974523</v>
       </c>
       <c r="J91" s="0" t="n">
-        <v>993.4120772351069</v>
+        <v>778.5150842666445</v>
       </c>
       <c r="K91" s="0" t="n">
         <v>1055.832525385904</v>
@@ -27860,34 +27860,34 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="n">
-        <v>386.2892485812948</v>
+        <v>802.6012508000043</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>710.5074405856153</v>
+        <v>1088.498505213048</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>363.4519638485993</v>
+        <v>628.9808577102705</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>668.5024901891305</v>
+        <v>591.7957302657471</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>710.5074405856159</v>
+        <v>710.5074405856154</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>1088.498505213048</v>
+        <v>1229.586365848417</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>1088.498505213049</v>
+        <v>628.9808577102702</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>906.6319801729192</v>
+        <v>802.6012508000034</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>668.5024901891309</v>
+        <v>802.6012508000033</v>
       </c>
       <c r="J92" s="0" t="n">
-        <v>1024.146855805358</v>
+        <v>802.6012508000039</v>
       </c>
       <c r="K92" s="0" t="n">
         <v>1088.498505213049</v>
@@ -28162,34 +28162,34 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="n">
-        <v>374.6966586593364</v>
+        <v>827.4326095974535</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>689.1850211150776</v>
+        <v>1122.175124713068</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>352.5447237721504</v>
+        <v>648.4406446704367</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>648.4406446704359</v>
+        <v>574.0358644560392</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>732.4895458562629</v>
+        <v>732.4895458562625</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>1122.175124713069</v>
+        <v>1267.628046187689</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>1122.175124713069</v>
+        <v>648.4406446704364</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>879.4238381009407</v>
+        <v>827.4326095974525</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>648.4406446704362</v>
+        <v>778.5150842666441</v>
       </c>
       <c r="J93" s="0" t="n">
-        <v>1055.832525385904</v>
+        <v>778.5150842666446</v>
       </c>
       <c r="K93" s="0" t="n">
         <v>1122.175124713069</v>
@@ -28464,34 +28464,34 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="n">
-        <v>386.2892485812948</v>
+        <v>802.6012508000044</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>710.5074405856154</v>
+        <v>1088.498505213048</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>363.4519638485993</v>
+        <v>668.5024901891313</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>628.9808577102697</v>
+        <v>556.8089744983829</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>710.5074405856159</v>
+        <v>755.1517466818998</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>1088.498505213048</v>
+        <v>1306.846682845956</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>1156.893651662221</v>
+        <v>668.5024901891311</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>853.0322158641303</v>
+        <v>853.0322158641312</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>628.98085771027</v>
+        <v>755.1517466818997</v>
       </c>
       <c r="J94" s="0" t="n">
-        <v>1088.498505213049</v>
+        <v>755.1517466819002</v>
       </c>
       <c r="K94" s="0" t="n">
         <v>1088.498505213049</v>
@@ -28766,34 +28766,34 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="n">
-        <v>374.6966586593365</v>
+        <v>827.4326095974536</v>
       </c>
       <c r="B95" s="0" t="n">
+        <v>1055.832525385903</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>689.1850211150779</v>
+      </c>
+      <c r="D95" s="0" t="n">
+        <v>540.0990657190619</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>732.4895458562626</v>
+      </c>
+      <c r="F95" s="0" t="n">
+        <v>1267.628046187689</v>
+      </c>
+      <c r="G95" s="0" t="n">
         <v>689.1850211150777</v>
       </c>
-      <c r="C95" s="0" t="n">
-        <v>352.5447237721505</v>
-      </c>
-      <c r="D95" s="0" t="n">
-        <v>648.4406446704359</v>
-      </c>
-      <c r="E95" s="0" t="n">
-        <v>732.4895458562629</v>
-      </c>
-      <c r="F95" s="0" t="n">
-        <v>1055.832525385903</v>
-      </c>
-      <c r="G95" s="0" t="n">
-        <v>1192.68632121797</v>
-      </c>
       <c r="H95" s="0" t="n">
-        <v>879.4238381009408</v>
+        <v>827.4326095974526</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>648.4406446704362</v>
+        <v>778.5150842666442</v>
       </c>
       <c r="J95" s="0" t="n">
-        <v>1122.175124713069</v>
+        <v>732.489545856263</v>
       </c>
       <c r="K95" s="0" t="n">
         <v>1122.175124713069</v>
@@ -29068,34 +29068,34 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="n">
-        <v>386.2892485812949</v>
+        <v>802.6012508000046</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>668.5024901891311</v>
+        <v>1024.146855805357</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>341.9648113701087</v>
+        <v>710.5074405856158</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>668.5024901891305</v>
+        <v>523.8906234465707</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>710.5074405856159</v>
+        <v>755.1517466818999</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>1088.498505213048</v>
+        <v>1229.586365848417</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>1229.586365848417</v>
+        <v>710.5074405856155</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>906.6319801729194</v>
+        <v>802.6012508000035</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>668.5024901891309</v>
+        <v>802.6012508000035</v>
       </c>
       <c r="J96" s="0" t="n">
-        <v>1156.89365166222</v>
+        <v>710.507440585616</v>
       </c>
       <c r="K96" s="0" t="n">
         <v>1156.89365166222</v>
@@ -29370,34 +29370,34 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="n">
-        <v>398.2404970020494</v>
+        <v>827.4326095974537</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>648.4406446704364</v>
+        <v>993.4120772351067</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>331.7024034969597</v>
+        <v>689.185021115078</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>689.1850211150771</v>
+        <v>508.1685986066868</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>689.185021115078</v>
+        <v>778.5150842666444</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>1122.175124713069</v>
+        <v>1267.62804618769</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>1192.68632121797</v>
+        <v>732.4895458562626</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>934.6819040603734</v>
+        <v>827.4326095974526</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>689.1850211150775</v>
+        <v>827.4326095974526</v>
       </c>
       <c r="J97" s="0" t="n">
-        <v>1192.68632121797</v>
+        <v>689.1850211150781</v>
       </c>
       <c r="K97" s="0" t="n">
         <v>1192.68632121797</v>
@@ -29672,34 +29672,34 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="n">
-        <v>410.5615003133145</v>
+        <v>853.0322158641326</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>628.9808577102702</v>
+        <v>963.5996533139066</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>321.7479718010463</v>
+        <v>710.5074405856159</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>710.507440585615</v>
+        <v>523.8906234465708</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>710.5074405856159</v>
+        <v>755.1517466819</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>1156.89365166222</v>
+        <v>1229.586365848418</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>1229.586365848417</v>
+        <v>710.5074405856155</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>963.5996533139059</v>
+        <v>853.0322158641313</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>710.5074405856153</v>
+        <v>802.6012508000035</v>
       </c>
       <c r="J98" s="0" t="n">
-        <v>1156.89365166222</v>
+        <v>668.5024901891315</v>
       </c>
       <c r="K98" s="0" t="n">
         <v>1156.89365166222</v>
@@ -29974,34 +29974,34 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="n">
-        <v>423.2636982136256</v>
+        <v>879.4238381009432</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>648.4406446704364</v>
+        <v>934.6819040603742</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>312.0922738777675</v>
+        <v>732.4895458562629</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>689.1850211150772</v>
+        <v>540.099065719062</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>689.185021115078</v>
+        <v>732.4895458562628</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>1122.175124713069</v>
+        <v>1267.62804618769</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>1267.62804618769</v>
+        <v>689.1850211150778</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>934.6819040603735</v>
+        <v>827.4326095974527</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>689.1850211150776</v>
+        <v>778.5150842666443</v>
       </c>
       <c r="J99" s="0" t="n">
-        <v>1122.175124713069</v>
+        <v>689.1850211150781</v>
       </c>
       <c r="K99" s="0" t="n">
         <v>1192.68632121797</v>
@@ -30276,34 +30276,34 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="n">
-        <v>410.5615003133145</v>
+        <v>853.0322158641327</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>668.5024901891311</v>
+        <v>906.6319801729202</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>302.7263446882704</v>
+        <v>710.5074405856159</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>668.5024901891306</v>
+        <v>523.8906234465708</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>710.5074405856159</v>
+        <v>755.1517466819001</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>1156.89365166222</v>
+        <v>1229.586365848418</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>1306.846682845956</v>
+        <v>668.5024901891312</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>906.6319801729196</v>
+        <v>853.0322158641314</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>668.502490189131</v>
+        <v>755.1517466818999</v>
       </c>
       <c r="J100" s="0" t="n">
-        <v>1156.893651662221</v>
+        <v>668.5024901891315</v>
       </c>
       <c r="K100" s="0" t="n">
         <v>1229.586365848417</v>
@@ -30578,34 +30578,34 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="n">
-        <v>423.2636982136256</v>
+        <v>827.432609597454</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>689.1850211150777</v>
+        <v>879.4238381009416</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>312.0922738777676</v>
+        <v>732.4895458562629</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>648.440644670436</v>
+        <v>540.099065719062</v>
       </c>
       <c r="E101" s="0" t="n">
         <v>732.4895458562629</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>1122.175124713069</v>
+        <v>1267.62804618769</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>1267.62804618769</v>
+        <v>648.4406446704365</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>879.4238381009411</v>
+        <v>827.4326095974528</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>689.1850211150776</v>
+        <v>732.4895458562627</v>
       </c>
       <c r="J101" s="0" t="n">
-        <v>1192.68632121797</v>
+        <v>689.1850211150781</v>
       </c>
       <c r="K101" s="0" t="n">
         <v>1267.628046187689</v>
@@ -30880,34 +30880,34 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="n">
-        <v>436.3588843297718</v>
+        <v>802.6012508000049</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>710.5074405856155</v>
+        <v>853.0322158641311</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>302.7263446882704</v>
+        <v>710.5074405856159</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>628.9808577102698</v>
+        <v>556.8089744983831</v>
       </c>
       <c r="E102" s="0" t="n">
         <v>710.5074405856159</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>1088.498505213049</v>
+        <v>1229.586365848418</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>1306.846682845956</v>
+        <v>628.9808577102704</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>906.6319801729197</v>
+        <v>802.6012508000038</v>
       </c>
       <c r="I102" s="0" t="n">
-        <v>710.5074405856154</v>
+        <v>755.1517466819</v>
       </c>
       <c r="J102" s="0" t="n">
-        <v>1156.893651662221</v>
+        <v>668.5024901891315</v>
       </c>
       <c r="K102" s="0" t="n">
         <v>1306.846682845956</v>
@@ -31182,34 +31182,34 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="n">
-        <v>423.2636982136257</v>
+        <v>778.5150842666457</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>732.4895458562626</v>
+        <v>879.4238381009416</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>312.0922738777676</v>
+        <v>732.4895458562629</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>610.1050614540293</v>
+        <v>540.0990657190621</v>
       </c>
       <c r="E103" s="0" t="n">
         <v>732.4895458562629</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>1055.832525385904</v>
+        <v>1267.62804618769</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>1267.62804618769</v>
+        <v>648.4406446704365</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>934.6819040603738</v>
+        <v>778.5150842666445</v>
       </c>
       <c r="I103" s="0" t="n">
-        <v>689.1850211150777</v>
+        <v>732.4895458562628</v>
       </c>
       <c r="J103" s="0" t="n">
-        <v>1122.17512471307</v>
+        <v>689.1850211150781</v>
       </c>
       <c r="K103" s="0" t="n">
         <v>1267.628046187689</v>
@@ -31484,34 +31484,34 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="n">
-        <v>436.3588843297719</v>
+        <v>755.1517466819013</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>710.5074405856155</v>
+        <v>853.0322158641311</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>302.7263446882705</v>
+        <v>755.1517466819002</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>628.9808577102699</v>
+        <v>523.8906234465709</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>755.1517466819002</v>
+        <v>710.5074405856159</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>1024.146855805358</v>
+        <v>1306.846682845957</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>1306.846682845956</v>
+        <v>628.9808577102704</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>963.5996533139063</v>
+        <v>802.6012508000039</v>
       </c>
       <c r="I104" s="0" t="n">
-        <v>668.5024901891311</v>
+        <v>755.1517466819001</v>
       </c>
       <c r="J104" s="0" t="n">
-        <v>1156.893651662221</v>
+        <v>710.507440585616</v>
       </c>
       <c r="K104" s="0" t="n">
         <v>1229.586365848417</v>
@@ -31786,34 +31786,34 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="n">
-        <v>423.2636982136257</v>
+        <v>778.5150842666458</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>689.1850211150778</v>
+        <v>879.4238381009416</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>293.6414882356686</v>
+        <v>732.489545856263</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>610.1050614540294</v>
+        <v>508.1685986066871</v>
       </c>
       <c r="E105" s="0" t="n">
+        <v>732.4895458562629</v>
+      </c>
+      <c r="F105" s="0" t="n">
+        <v>1347.278689203608</v>
+      </c>
+      <c r="G105" s="0" t="n">
+        <v>648.4406446704365</v>
+      </c>
+      <c r="H105" s="0" t="n">
+        <v>827.4326095974529</v>
+      </c>
+      <c r="I105" s="0" t="n">
+        <v>778.5150842666446</v>
+      </c>
+      <c r="J105" s="0" t="n">
         <v>732.489545856263</v>
-      </c>
-      <c r="F105" s="0" t="n">
-        <v>1055.832525385904</v>
-      </c>
-      <c r="G105" s="0" t="n">
-        <v>1347.278689203607</v>
-      </c>
-      <c r="H105" s="0" t="n">
-        <v>934.6819040603739</v>
-      </c>
-      <c r="I105" s="0" t="n">
-        <v>648.4406446704364</v>
-      </c>
-      <c r="J105" s="0" t="n">
-        <v>1122.17512471307</v>
       </c>
       <c r="K105" s="0" t="n">
         <v>1192.68632121797</v>
@@ -32088,34 +32088,34 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="n">
-        <v>410.5615003133146</v>
+        <v>802.6012508000051</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>710.5074405856157</v>
+        <v>906.6319801729202</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>302.7263446882706</v>
+        <v>755.1517466819004</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>628.98085771027</v>
+        <v>492.9183937498366</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>710.507440585616</v>
+        <v>755.1517466819002</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>1088.498505213049</v>
+        <v>1306.846682845957</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>1388.961605220029</v>
+        <v>628.9808577102704</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>963.5996533139064</v>
+        <v>853.0322158641317</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>628.9808577102702</v>
+        <v>802.601250800004</v>
       </c>
       <c r="J106" s="0" t="n">
-        <v>1156.893651662221</v>
+        <v>755.1517466819004</v>
       </c>
       <c r="K106" s="0" t="n">
         <v>1156.893651662221</v>
@@ -32390,34 +32390,34 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="n">
-        <v>398.2404970020496</v>
+        <v>778.5150842666459</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>732.4895458562627</v>
+        <v>934.6819040603742</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>293.6414882356686</v>
+        <v>732.4895458562631</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>610.1050614540295</v>
+        <v>478.1258494977807</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>689.1850211150781</v>
+        <v>732.489545856263</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>1055.832525385904</v>
+        <v>1267.62804618769</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>1347.278689203607</v>
+        <v>610.1050614540299</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>993.4120772351065</v>
+        <v>879.4238381009422</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>648.4406446704364</v>
+        <v>778.5150842666447</v>
       </c>
       <c r="J107" s="0" t="n">
-        <v>1192.686321217971</v>
+        <v>732.4895458562631</v>
       </c>
       <c r="K107" s="0" t="n">
         <v>1192.68632121797</v>
@@ -32692,34 +32692,34 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="n">
-        <v>410.5615003133146</v>
+        <v>802.6012508000052</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>755.1517466819</v>
+        <v>963.5996533139067</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>302.7263446882706</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>628.9808577102701</v>
+        <v>492.9183937498367</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>668.5024901891315</v>
+        <v>710.507440585616</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>1024.146855805358</v>
+        <v>1229.586365848418</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>1388.961605220029</v>
+        <v>628.9808577102705</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>963.5996533139064</v>
+        <v>853.0322158641318</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>668.5024901891311</v>
+        <v>802.6012508000041</v>
       </c>
       <c r="J108" s="0" t="n">
-        <v>1229.586365848418</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="K108" s="0" t="n">
         <v>1229.586365848417</v>
@@ -32994,34 +32994,34 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="n">
-        <v>398.2404970020496</v>
+        <v>778.515084266646</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>778.5150842666445</v>
+        <v>993.4120772351069</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>293.6414882356687</v>
+        <v>689.1850211150783</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>648.4406446704363</v>
+        <v>508.1685986066872</v>
       </c>
       <c r="E109" s="0" t="n">
         <v>689.1850211150781</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>1055.832525385904</v>
+        <v>1267.62804618769</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>1347.278689203607</v>
+        <v>648.4406446704367</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>934.681904060374</v>
+        <v>827.4326095974531</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>689.1850211150777</v>
+        <v>827.4326095974532</v>
       </c>
       <c r="J109" s="0" t="n">
-        <v>1192.686321217971</v>
+        <v>732.4895458562631</v>
       </c>
       <c r="K109" s="0" t="n">
         <v>1267.62804618769</v>
@@ -33296,34 +33296,34 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="n">
-        <v>386.2892485812951</v>
+        <v>802.6012508000053</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>802.6012508000039</v>
+        <v>963.5996533139069</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>302.7263446882707</v>
+        <v>668.5024901891317</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>628.9808577102701</v>
+        <v>523.8906234465711</v>
       </c>
       <c r="E110" s="0" t="n">
         <v>668.5024901891315</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>1088.498505213049</v>
+        <v>1229.586365848419</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>1306.846682845956</v>
+        <v>668.5024901891313</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>963.5996533139065</v>
+        <v>802.601250800004</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>710.5074405856155</v>
+        <v>853.0322158641319</v>
       </c>
       <c r="J110" s="0" t="n">
-        <v>1229.586365848418</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="K110" s="0" t="n">
         <v>1306.846682845956</v>
@@ -33598,34 +33598,34 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="n">
-        <v>398.2404970020497</v>
+        <v>778.5150842666461</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>827.4326095974529</v>
+        <v>993.4120772351071</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>312.0922738777679</v>
+        <v>689.1850211150783</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>648.4406446704363</v>
+        <v>508.1685986066873</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>648.4406446704369</v>
+        <v>689.1850211150781</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>1055.832525385904</v>
+        <v>1267.628046187691</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>1347.278689203607</v>
+        <v>648.4406446704367</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>934.6819040603741</v>
+        <v>827.4326095974531</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>689.1850211150778</v>
+        <v>827.4326095974532</v>
       </c>
       <c r="J111" s="0" t="n">
-        <v>1192.686321217971</v>
+        <v>689.1850211150783</v>
       </c>
       <c r="K111" s="0" t="n">
         <v>1267.62804618769</v>
@@ -33900,34 +33900,34 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="n">
-        <v>386.2892485812952</v>
+        <v>755.1517466819016</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>853.0322158641317</v>
+        <v>963.599653313907</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>321.7479718010467</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>628.9808577102701</v>
+        <v>523.8906234465712</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>668.5024901891315</v>
+        <v>710.507440585616</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>1088.498505213049</v>
+        <v>1229.586365848419</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>1306.846682845956</v>
+        <v>668.5024901891313</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>906.6319801729201</v>
+        <v>802.601250800004</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>710.5074405856157</v>
+        <v>802.6012508000041</v>
       </c>
       <c r="J112" s="0" t="n">
-        <v>1229.586365848418</v>
+        <v>668.5024901891317</v>
       </c>
       <c r="K112" s="0" t="n">
         <v>1229.586365848418</v>
@@ -34202,34 +34202,34 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="n">
-        <v>398.2404970020497</v>
+        <v>732.4895458562643</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>879.4238381009422</v>
+        <v>993.4120772351072</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>312.0922738777679</v>
+        <v>689.1850211150783</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>610.1050614540296</v>
+        <v>508.1685986066874</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>648.4406446704369</v>
+        <v>689.1850211150781</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>1055.832525385904</v>
+        <v>1267.628046187691</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>1267.62804618769</v>
+        <v>689.1850211150779</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>934.6819040603741</v>
+        <v>778.5150842666447</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>689.1850211150779</v>
+        <v>827.4326095974532</v>
       </c>
       <c r="J113" s="0" t="n">
-        <v>1192.686321217971</v>
+        <v>648.440644670437</v>
       </c>
       <c r="K113" s="0" t="n">
         <v>1192.68632121797</v>
@@ -34504,34 +34504,34 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="n">
-        <v>410.5615003133148</v>
+        <v>710.5074405856172</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>906.631980172921</v>
+        <v>1024.146855805358</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>321.7479718010468</v>
+        <v>668.5024901891317</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>591.795730265747</v>
+        <v>523.8906234465713</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>628.9808577102707</v>
+        <v>710.507440585616</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>1024.146855805358</v>
+        <v>1229.586365848419</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>1306.846682845956</v>
+        <v>710.5074405856158</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>963.5996533139066</v>
+        <v>802.6012508000041</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>668.5024901891313</v>
+        <v>853.0322158641319</v>
       </c>
       <c r="J114" s="0" t="n">
-        <v>1156.893651662221</v>
+        <v>628.9808577102708</v>
       </c>
       <c r="K114" s="0" t="n">
         <v>1156.893651662221</v>
@@ -34806,34 +34806,34 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="n">
-        <v>423.263698213626</v>
+        <v>732.4895458562644</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>879.4238381009424</v>
+        <v>1055.832525385904</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>331.7024034969602</v>
+        <v>689.1850211150783</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>574.0358644560392</v>
+        <v>508.1685986066875</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>610.1050614540301</v>
+        <v>732.489545856263</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>1055.832525385904</v>
+        <v>1192.686321217972</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>1347.278689203607</v>
+        <v>732.4895458562628</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>993.4120772351068</v>
+        <v>778.5150842666449</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>689.1850211150779</v>
+        <v>879.4238381009425</v>
       </c>
       <c r="J115" s="0" t="n">
-        <v>1122.17512471307</v>
+        <v>648.440644670437</v>
       </c>
       <c r="K115" s="0" t="n">
         <v>1192.68632121797</v>
@@ -35108,34 +35108,34 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="n">
-        <v>436.3588843297722</v>
+        <v>710.5074405856174</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>906.6319801729211</v>
+        <v>1024.146855805358</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>321.7479718010468</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>556.8089744983829</v>
+        <v>523.8906234465713</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>628.9808577102707</v>
+        <v>710.507440585616</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>1088.498505213049</v>
+        <v>1229.586365848419</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>1306.846682845956</v>
+        <v>710.5074405856158</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>1024.146855805357</v>
+        <v>755.1517466819005</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>668.5024901891313</v>
+        <v>853.032215864132</v>
       </c>
       <c r="J116" s="0" t="n">
-        <v>1088.49850521305</v>
+        <v>628.9808577102708</v>
       </c>
       <c r="K116" s="0" t="n">
         <v>1229.586365848418</v>
@@ -35410,34 +35410,34 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="n">
-        <v>449.8592171668402</v>
+        <v>689.1850211150795</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>879.4238381009425</v>
+        <v>993.4120772351076</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>331.7024034969603</v>
+        <v>732.4895458562631</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>540.0990657190619</v>
+        <v>540.0990657190625</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>648.4406446704369</v>
+        <v>689.1850211150781</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>1122.175124713069</v>
+        <v>1267.628046187691</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>1267.62804618769</v>
+        <v>732.4895458562628</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>1055.832525385904</v>
+        <v>732.4895458562631</v>
       </c>
       <c r="I117" s="0" t="n">
-        <v>689.1850211150779</v>
+        <v>879.4238381009426</v>
       </c>
       <c r="J117" s="0" t="n">
-        <v>1055.832525385905</v>
+        <v>648.440644670437</v>
       </c>
       <c r="K117" s="0" t="n">
         <v>1267.62804618769</v>
@@ -35712,34 +35712,34 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="n">
-        <v>436.3588843297722</v>
+        <v>710.5074405856175</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>906.6319801729212</v>
+        <v>1024.146855805358</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>321.7479718010469</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>556.8089744983829</v>
+        <v>556.8089744983837</v>
       </c>
       <c r="E118" s="0" t="n">
         <v>668.5024901891315</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>1088.498505213049</v>
+        <v>1306.846682845958</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>1229.586365848418</v>
+        <v>710.5074405856158</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>1024.146855805357</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>710.5074405856158</v>
+        <v>853.0322158641321</v>
       </c>
       <c r="J118" s="0" t="n">
-        <v>1088.49850521305</v>
+        <v>668.5024901891317</v>
       </c>
       <c r="K118" s="0" t="n">
         <v>1306.846682845957</v>
@@ -36014,34 +36014,34 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="n">
-        <v>423.2636982136261</v>
+        <v>732.4895458562646</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>934.6819040603754</v>
+        <v>1055.832525385905</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>331.7024034969604</v>
+        <v>689.1850211150783</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>540.0990657190619</v>
+        <v>540.0990657190627</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>689.1850211150781</v>
+        <v>648.4406446704369</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>1122.175124713069</v>
+        <v>1267.628046187691</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>1267.62804618769</v>
+        <v>732.4895458562628</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>1055.832525385904</v>
+        <v>732.4895458562631</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>732.4895458562628</v>
+        <v>827.4326095974534</v>
       </c>
       <c r="J119" s="0" t="n">
-        <v>1055.832525385905</v>
+        <v>689.1850211150783</v>
       </c>
       <c r="K119" s="0" t="n">
         <v>1267.62804618769</v>
@@ -36316,34 +36316,34 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="n">
-        <v>436.3588843297723</v>
+        <v>710.5074405856176</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>963.5996533139079</v>
+        <v>1024.146855805358</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>341.9648113701094</v>
+        <v>668.5024901891317</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>523.8906234465707</v>
+        <v>523.8906234465715</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>710.507440585616</v>
+        <v>668.5024901891315</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>1088.498505213049</v>
+        <v>1306.846682845958</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>1229.586365848418</v>
+        <v>755.1517466819001</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>1088.498505213048</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>710.5074405856158</v>
+        <v>853.0322158641321</v>
       </c>
       <c r="J120" s="0" t="n">
-        <v>1024.146855805358</v>
+        <v>668.5024901891317</v>
       </c>
       <c r="K120" s="0" t="n">
         <v>1229.586365848418</v>
@@ -36618,34 +36618,34 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="n">
-        <v>449.8592171668403</v>
+        <v>732.4895458562647</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>993.4120772351081</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>352.5447237721512</v>
+        <v>689.1850211150783</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>508.1685986066868</v>
+        <v>508.1685986066876</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>732.489545856263</v>
+        <v>648.4406446704369</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>1122.175124713069</v>
+        <v>1267.628046187692</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>1267.62804618769</v>
+        <v>778.5150842666446</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>1122.175124713069</v>
+        <v>732.4895458562631</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>689.185021115078</v>
+        <v>827.4326095974534</v>
       </c>
       <c r="J121" s="0" t="n">
-        <v>993.4120772351081</v>
+        <v>689.1850211150783</v>
       </c>
       <c r="K121" s="0" t="n">
         <v>1267.62804618769</v>
@@ -36920,34 +36920,34 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="n">
-        <v>436.3588843297723</v>
+        <v>755.1517466819022</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>1024.146855805359</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>341.9648113701095</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>523.8906234465708</v>
+        <v>523.8906234465715</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>755.1517466819004</v>
+        <v>668.5024901891315</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>1088.498505213049</v>
+        <v>1306.846682845959</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>1306.846682845957</v>
+        <v>755.1517466819002</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>1156.89365166222</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>710.5074405856159</v>
+        <v>802.6012508000043</v>
       </c>
       <c r="J122" s="0" t="n">
-        <v>963.599653313908</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="K122" s="0" t="n">
         <v>1306.846682845957</v>
@@ -37222,34 +37222,34 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="n">
-        <v>423.2636982136261</v>
+        <v>778.5150842666467</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>993.4120772351083</v>
+        <v>1055.832525385905</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>352.5447237721513</v>
+        <v>732.4895458562631</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>540.099065719062</v>
+        <v>508.1685986066876</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>778.5150842666449</v>
+        <v>689.1850211150781</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>1122.175124713069</v>
+        <v>1267.628046187692</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>1267.62804618769</v>
+        <v>778.5150842666447</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>1122.175124713069</v>
+        <v>689.1850211150783</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>689.185021115078</v>
+        <v>778.5150842666451</v>
       </c>
       <c r="J123" s="0" t="n">
-        <v>934.6819040603756</v>
+        <v>689.1850211150783</v>
       </c>
       <c r="K123" s="0" t="n">
         <v>1267.62804618769</v>
@@ -37524,34 +37524,34 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="n">
-        <v>410.561500313315</v>
+        <v>755.1517466819022</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>1024.146855805359</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>341.9648113701095</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>556.8089744983831</v>
+        <v>523.8906234465715</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>802.6012508000042</v>
+        <v>710.507440585616</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>1088.498505213049</v>
+        <v>1306.846682845959</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>1229.586365848418</v>
+        <v>802.6012508000041</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>1156.89365166222</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="I124" s="0" t="n">
-        <v>710.5074405856159</v>
+        <v>802.6012508000044</v>
       </c>
       <c r="J124" s="0" t="n">
-        <v>906.6319801729215</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="K124" s="0" t="n">
         <v>1229.586365848418</v>
@@ -37826,34 +37826,34 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="n">
-        <v>398.2404970020499</v>
+        <v>778.5150842666467</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>993.4120772351084</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>352.5447237721513</v>
+        <v>689.1850211150783</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>540.0990657190621</v>
+        <v>540.0990657190627</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>827.4326095974534</v>
+        <v>732.489545856263</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>1122.175124713069</v>
+        <v>1267.628046187692</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>1192.686321217971</v>
+        <v>827.4326095974532</v>
       </c>
       <c r="H125" s="0" t="n">
-        <v>1122.175124713069</v>
+        <v>689.1850211150783</v>
       </c>
       <c r="I125" s="0" t="n">
-        <v>732.4895458562629</v>
+        <v>778.5150842666452</v>
       </c>
       <c r="J125" s="0" t="n">
-        <v>879.4238381009429</v>
+        <v>732.4895458562631</v>
       </c>
       <c r="K125" s="0" t="n">
         <v>1267.62804618769</v>
@@ -38128,34 +38128,34 @@
     </row>
     <row r="126">
       <c r="A126" s="0" t="n">
-        <v>386.2892485812954</v>
+        <v>755.1517466819022</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>963.5996533139083</v>
+        <v>1024.146855805359</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>363.4519638486003</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>523.8906234465709</v>
+        <v>523.8906234465715</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>853.0322158641321</v>
+        <v>710.507440585616</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>1156.89365166222</v>
+        <v>1306.846682845959</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>1156.893651662221</v>
+        <v>802.6012508000041</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>1088.498505213049</v>
+        <v>668.5024901891317</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>710.5074405856159</v>
+        <v>755.1517466819008</v>
       </c>
       <c r="J126" s="0" t="n">
-        <v>853.0322158641325</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="K126" s="0" t="n">
         <v>1306.846682845957</v>
@@ -38430,34 +38430,34 @@
     </row>
     <row r="127">
       <c r="A127" s="0" t="n">
-        <v>398.2404970020499</v>
+        <v>778.5150842666467</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>993.4120772351085</v>
+        <v>993.4120772351084</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>374.6966586593376</v>
+        <v>732.4895458562631</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>508.1685986066871</v>
+        <v>540.0990657190627</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>827.4326095974534</v>
+        <v>732.489545856263</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>1122.175124713069</v>
+        <v>1267.628046187692</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>1122.17512471307</v>
+        <v>778.5150842666449</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>1122.175124713069</v>
+        <v>648.440644670437</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>732.4895458562629</v>
+        <v>732.4895458562635</v>
       </c>
       <c r="J127" s="0" t="n">
-        <v>879.423838100943</v>
+        <v>732.4895458562631</v>
       </c>
       <c r="K127" s="0" t="n">
         <v>1267.62804618769</v>
@@ -38732,34 +38732,34 @@
     </row>
     <row r="128">
       <c r="A128" s="0" t="n">
-        <v>386.2892485812955</v>
+        <v>802.601250800006</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>1024.146855805359</v>
+        <v>963.5996533139083</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>386.289248581296</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>523.890623446571</v>
+        <v>556.8089744983838</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>802.6012508000043</v>
+        <v>755.1517466819004</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>1088.498505213049</v>
+        <v>1306.846682845959</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>1156.893651662222</v>
+        <v>802.6012508000042</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>1156.893651662221</v>
+        <v>628.9808577102708</v>
       </c>
       <c r="I128" s="0" t="n">
-        <v>710.5074405856159</v>
+        <v>755.1517466819008</v>
       </c>
       <c r="J128" s="0" t="n">
-        <v>906.6319801729218</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="K128" s="0" t="n">
         <v>1306.846682845957</v>
@@ -39034,34 +39034,34 @@
     </row>
     <row r="129">
       <c r="A129" s="0" t="n">
-        <v>398.24049700205</v>
+        <v>778.5150842666467</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>993.4120772351087</v>
+        <v>993.4120772351085</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>374.6966586593377</v>
+        <v>732.4895458562631</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>540.0990657190622</v>
+        <v>574.0358644560403</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>778.5150842666451</v>
+        <v>732.4895458562631</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>1122.175124713069</v>
+        <v>1267.628046187692</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>1122.175124713071</v>
+        <v>827.4326095974534</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>1122.17512471307</v>
+        <v>610.1050614540302</v>
       </c>
       <c r="I129" s="0" t="n">
-        <v>689.185021115078</v>
+        <v>778.5150842666453</v>
       </c>
       <c r="J129" s="0" t="n">
-        <v>879.4238381009432</v>
+        <v>732.4895458562631</v>
       </c>
       <c r="K129" s="0" t="n">
         <v>1267.62804618769</v>
@@ -39336,34 +39336,34 @@
     </row>
     <row r="130">
       <c r="A130" s="0" t="n">
-        <v>386.2892485812955</v>
+        <v>802.601250800006</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>1024.146855805359</v>
+        <v>963.5996533139084</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>363.4519638486004</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>556.8089744983833</v>
+        <v>556.8089744983839</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>802.6012508000044</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>1156.893651662221</v>
+        <v>1306.84668284596</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>1088.49850521305</v>
+        <v>802.6012508000043</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>1088.498505213049</v>
+        <v>628.9808577102708</v>
       </c>
       <c r="I130" s="0" t="n">
-        <v>710.5074405856159</v>
+        <v>755.1517466819009</v>
       </c>
       <c r="J130" s="0" t="n">
-        <v>906.6319801729219</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="K130" s="0" t="n">
         <v>1229.586365848418</v>
@@ -39638,34 +39638,34 @@
     </row>
     <row r="131">
       <c r="A131" s="0" t="n">
-        <v>374.6966586593372</v>
+        <v>827.4326095974552</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>993.4120772351087</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>352.5447237721514</v>
+        <v>732.4895458562631</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>574.0358644560398</v>
+        <v>574.0358644560404</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>827.4326095974536</v>
+        <v>689.1850211150783</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>1122.17512471307</v>
+        <v>1267.628046187693</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>1122.175124713071</v>
+        <v>827.4326095974535</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>1122.17512471307</v>
+        <v>610.1050614540302</v>
       </c>
       <c r="I131" s="0" t="n">
-        <v>689.185021115078</v>
+        <v>732.4895458562636</v>
       </c>
       <c r="J131" s="0" t="n">
-        <v>934.681904060376</v>
+        <v>689.1850211150783</v>
       </c>
       <c r="K131" s="0" t="n">
         <v>1192.686321217971</v>
@@ -39940,34 +39940,34 @@
     </row>
     <row r="132">
       <c r="A132" s="0" t="n">
-        <v>386.2892485812956</v>
+        <v>802.6012508000061</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>1024.146855805359</v>
+        <v>963.5996533139086</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>363.4519638486004</v>
+        <v>755.1517466819005</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>556.8089744983835</v>
+        <v>591.7957302657483</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>853.0322158641324</v>
+        <v>668.5024901891317</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>1088.498505213049</v>
+        <v>1229.586365848421</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>1088.49850521305</v>
+        <v>802.6012508000044</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>1088.498505213049</v>
+        <v>591.7957302657476</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>710.5074405856159</v>
+        <v>755.1517466819009</v>
       </c>
       <c r="J132" s="0" t="n">
-        <v>906.631980172922</v>
+        <v>668.5024901891317</v>
       </c>
       <c r="K132" s="0" t="n">
         <v>1156.893651662222</v>
@@ -40242,34 +40242,34 @@
     </row>
     <row r="133">
       <c r="A133" s="0" t="n">
-        <v>374.6966586593372</v>
+        <v>778.5150842666468</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>993.4120772351087</v>
+        <v>993.4120772351088</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>352.5447237721515</v>
+        <v>732.4895458562631</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>574.0358644560399</v>
+        <v>574.0358644560404</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>879.4238381009429</v>
+        <v>689.1850211150783</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>1122.17512471307</v>
+        <v>1192.686321217973</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>1055.832525385905</v>
+        <v>778.5150842666452</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>1055.832525385904</v>
+        <v>574.0358644560397</v>
       </c>
       <c r="I133" s="0" t="n">
-        <v>732.4895458562629</v>
+        <v>778.5150842666454</v>
       </c>
       <c r="J133" s="0" t="n">
-        <v>934.6819040603762</v>
+        <v>648.440644670437</v>
       </c>
       <c r="K133" s="0" t="n">
         <v>1192.686321217971</v>
@@ -40544,34 +40544,34 @@
     </row>
     <row r="134">
       <c r="A134" s="0" t="n">
-        <v>363.4519638485999</v>
+        <v>755.1517466819023</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>1024.146855805359</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>363.4519638486005</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>556.8089744983836</v>
+        <v>591.7957302657483</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>906.6319801729217</v>
+        <v>668.5024901891317</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>1156.893651662221</v>
+        <v>1229.586365848421</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>1088.49850521305</v>
+        <v>802.6012508000046</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>1024.146855805358</v>
+        <v>556.8089744983833</v>
       </c>
       <c r="I134" s="0" t="n">
-        <v>710.5074405856159</v>
+        <v>755.151746681901</v>
       </c>
       <c r="J134" s="0" t="n">
-        <v>906.6319801729221</v>
+        <v>668.5024901891317</v>
       </c>
       <c r="K134" s="0" t="n">
         <v>1229.586365848418</v>
@@ -40846,34 +40846,34 @@
     </row>
     <row r="135">
       <c r="A135" s="0" t="n">
-        <v>352.544723772151</v>
+        <v>778.5150842666469</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>993.4120772351087</v>
+        <v>993.4120772351089</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>374.6966586593379</v>
+        <v>732.4895458562631</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>540.0990657190625</v>
+        <v>574.0358644560404</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>879.423838100943</v>
+        <v>648.440644670437</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>1192.68632121797</v>
+        <v>1192.686321217974</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>1122.175124713071</v>
+        <v>827.4326095974537</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>1055.832525385905</v>
+        <v>540.0990657190623</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>689.185021115078</v>
+        <v>778.5150842666455</v>
       </c>
       <c r="J135" s="0" t="n">
-        <v>879.4238381009435</v>
+        <v>689.1850211150783</v>
       </c>
       <c r="K135" s="0" t="n">
         <v>1267.62804618769</v>
@@ -41148,34 +41148,34 @@
     </row>
     <row r="136">
       <c r="A136" s="0" t="n">
-        <v>341.9648113701093</v>
+        <v>802.6012508000063</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>1024.146855805359</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>386.2892485812962</v>
+        <v>755.1517466819005</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>556.8089744983837</v>
+        <v>556.808974498384</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>906.6319801729218</v>
+        <v>668.5024901891317</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>1229.586365848418</v>
+        <v>1229.586365848421</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>1156.893651662222</v>
+        <v>853.0322158641326</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>1024.146855805358</v>
+        <v>523.8906234465711</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>710.5074405856159</v>
+        <v>802.6012508000049</v>
       </c>
       <c r="J136" s="0" t="n">
-        <v>906.6319801729222</v>
+        <v>668.5024901891317</v>
       </c>
       <c r="K136" s="0" t="n">
         <v>1229.586365848419</v>
@@ -41450,34 +41450,34 @@
     </row>
     <row r="137">
       <c r="A137" s="0" t="n">
-        <v>331.7024034969602</v>
+        <v>778.5150842666469</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>993.4120772351087</v>
+        <v>993.4120772351089</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>374.6966586593379</v>
+        <v>778.515084266645</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>574.0358644560401</v>
+        <v>540.099065719063</v>
       </c>
       <c r="E137" s="0" t="n">
+        <v>689.1850211150783</v>
+      </c>
+      <c r="F137" s="0" t="n">
+        <v>1192.686321217974</v>
+      </c>
+      <c r="G137" s="0" t="n">
         <v>879.4238381009432</v>
       </c>
-      <c r="F137" s="0" t="n">
-        <v>1192.68632121797</v>
-      </c>
-      <c r="G137" s="0" t="n">
-        <v>1192.686321217971</v>
-      </c>
       <c r="H137" s="0" t="n">
-        <v>1055.832525385905</v>
+        <v>540.0990657190623</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>689.185021115078</v>
+        <v>827.4326095974541</v>
       </c>
       <c r="J137" s="0" t="n">
-        <v>879.4238381009436</v>
+        <v>648.440644670437</v>
       </c>
       <c r="K137" s="0" t="n">
         <v>1192.686321217971</v>
@@ -41752,34 +41752,34 @@
     </row>
     <row r="138">
       <c r="A138" s="0" t="n">
-        <v>341.9648113701093</v>
+        <v>802.6012508000063</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>963.5996533139086</v>
+        <v>1024.146855805359</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>386.2892485812962</v>
+        <v>755.1517466819006</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>556.8089744983838</v>
+        <v>556.8089744983841</v>
       </c>
       <c r="E138" s="0" t="n">
+        <v>668.5024901891317</v>
+      </c>
+      <c r="F138" s="0" t="n">
+        <v>1156.893651662224</v>
+      </c>
+      <c r="G138" s="0" t="n">
         <v>906.6319801729219</v>
       </c>
-      <c r="F138" s="0" t="n">
-        <v>1229.586365848418</v>
-      </c>
-      <c r="G138" s="0" t="n">
-        <v>1229.586365848419</v>
-      </c>
       <c r="H138" s="0" t="n">
-        <v>1088.49850521305</v>
+        <v>556.8089744983835</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>710.5074405856159</v>
+        <v>853.0322158641329</v>
       </c>
       <c r="J138" s="0" t="n">
-        <v>853.0322158641331</v>
+        <v>668.5024901891317</v>
       </c>
       <c r="K138" s="0" t="n">
         <v>1156.893651662222</v>
@@ -42054,34 +42054,34 @@
     </row>
     <row r="139">
       <c r="A139" s="0" t="n">
-        <v>331.7024034969602</v>
+        <v>827.4326095974554</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>934.6819040603762</v>
+        <v>993.4120772351089</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>398.2404970020508</v>
+        <v>732.4895458562632</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>540.0990657190628</v>
+        <v>540.0990657190631</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>879.4238381009433</v>
+        <v>689.1850211150783</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>1192.68632121797</v>
+        <v>1122.175124713073</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>1267.628046187691</v>
+        <v>934.681904060376</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>1122.17512471307</v>
+        <v>574.0358644560399</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>732.4895458562629</v>
+        <v>879.4238381009435</v>
       </c>
       <c r="J139" s="0" t="n">
-        <v>827.4326095974544</v>
+        <v>689.1850211150783</v>
       </c>
       <c r="K139" s="0" t="n">
         <v>1122.175124713071</v>
@@ -42356,34 +42356,34 @@
     </row>
     <row r="140">
       <c r="A140" s="0" t="n">
-        <v>341.9648113701093</v>
+        <v>802.6012508000064</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>963.5996533139087</v>
+        <v>963.5996533139088</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>386.2892485812963</v>
+        <v>710.5074405856162</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>523.8906234465716</v>
+        <v>523.8906234465719</v>
       </c>
       <c r="E140" s="0" t="n">
+        <v>668.5024901891317</v>
+      </c>
+      <c r="F140" s="0" t="n">
+        <v>1088.498505213053</v>
+      </c>
+      <c r="G140" s="0" t="n">
         <v>906.631980172922</v>
       </c>
-      <c r="F140" s="0" t="n">
-        <v>1229.586365848418</v>
-      </c>
-      <c r="G140" s="0" t="n">
-        <v>1306.846682845958</v>
-      </c>
       <c r="H140" s="0" t="n">
-        <v>1088.49850521305</v>
+        <v>591.7957302657478</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>755.1517466819002</v>
+        <v>906.6319801729222</v>
       </c>
       <c r="J140" s="0" t="n">
-        <v>802.6012508000053</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="K140" s="0" t="n">
         <v>1156.893651662222</v>
@@ -42658,34 +42658,34 @@
     </row>
     <row r="141">
       <c r="A141" s="0" t="n">
-        <v>331.7024034969602</v>
+        <v>778.515084266647</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>993.4120772351089</v>
+        <v>934.6819040603763</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>398.2404970020509</v>
+        <v>689.1850211150784</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>508.1685986066877</v>
+        <v>540.0990657190631</v>
       </c>
       <c r="E141" s="0" t="n">
+        <v>689.1850211150783</v>
+      </c>
+      <c r="F141" s="0" t="n">
+        <v>1122.175124713073</v>
+      </c>
+      <c r="G141" s="0" t="n">
         <v>934.6819040603762</v>
       </c>
-      <c r="F141" s="0" t="n">
-        <v>1267.62804618769</v>
-      </c>
-      <c r="G141" s="0" t="n">
-        <v>1267.628046187691</v>
-      </c>
       <c r="H141" s="0" t="n">
-        <v>1122.17512471307</v>
+        <v>574.0358644560399</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>732.489545856263</v>
+        <v>879.4238381009436</v>
       </c>
       <c r="J141" s="0" t="n">
-        <v>778.5150842666461</v>
+        <v>689.1850211150783</v>
       </c>
       <c r="K141" s="0" t="n">
         <v>1192.686321217971</v>
@@ -42960,34 +42960,34 @@
     </row>
     <row r="142">
       <c r="A142" s="0" t="n">
-        <v>321.7479718010468</v>
+        <v>802.6012508000064</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>1024.146855805359</v>
+        <v>906.6319801729222</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>386.2892485812964</v>
+        <v>710.5074405856162</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>523.8906234465716</v>
+        <v>523.8906234465719</v>
       </c>
       <c r="E142" s="0" t="n">
+        <v>710.5074405856161</v>
+      </c>
+      <c r="F142" s="0" t="n">
+        <v>1088.498505213053</v>
+      </c>
+      <c r="G142" s="0" t="n">
         <v>963.5996533139087</v>
       </c>
-      <c r="F142" s="0" t="n">
-        <v>1306.846682845957</v>
-      </c>
-      <c r="G142" s="0" t="n">
-        <v>1306.846682845958</v>
-      </c>
       <c r="H142" s="0" t="n">
-        <v>1088.49850521305</v>
+        <v>556.8089744983836</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>755.1517466819004</v>
+        <v>853.0322158641331</v>
       </c>
       <c r="J142" s="0" t="n">
-        <v>755.1517466819016</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="K142" s="0" t="n">
         <v>1156.893651662222</v>
@@ -43262,34 +43262,34 @@
     </row>
     <row r="143">
       <c r="A143" s="0" t="n">
-        <v>331.7024034969602</v>
+        <v>827.4326095974556</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>993.4120772351089</v>
+        <v>879.4238381009436</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>374.696658659338</v>
+        <v>732.4895458562632</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>508.1685986066877</v>
+        <v>508.168598606688</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>993.4120772351089</v>
+        <v>732.4895458562631</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>1267.62804618769</v>
+        <v>1122.175124713074</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>1267.628046187691</v>
+        <v>934.6819040603762</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>1122.17512471307</v>
+        <v>574.03586445604</v>
       </c>
       <c r="I143" s="0" t="n">
-        <v>732.4895458562631</v>
+        <v>879.4238381009437</v>
       </c>
       <c r="J143" s="0" t="n">
-        <v>732.4895458562643</v>
+        <v>689.1850211150783</v>
       </c>
       <c r="K143" s="0" t="n">
         <v>1192.686321217971</v>
@@ -43564,34 +43564,34 @@
     </row>
     <row r="144">
       <c r="A144" s="0" t="n">
-        <v>341.9648113701093</v>
+        <v>802.6012508000065</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>1024.146855805359</v>
+        <v>853.0322158641331</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>386.2892485812964</v>
+        <v>755.1517466819006</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>492.9183937498372</v>
+        <v>492.9183937498375</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>963.5996533139088</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>1306.846682845957</v>
+        <v>1156.893651662225</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>1229.586365848419</v>
+        <v>963.5996533139087</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>1156.893651662221</v>
+        <v>591.7957302657479</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>710.5074405856161</v>
+        <v>906.6319801729225</v>
       </c>
       <c r="J144" s="0" t="n">
-        <v>755.1517466819017</v>
+        <v>668.5024901891317</v>
       </c>
       <c r="K144" s="0" t="n">
         <v>1229.586365848419</v>
@@ -43866,34 +43866,34 @@
     </row>
     <row r="145">
       <c r="A145" s="0" t="n">
-        <v>331.7024034969602</v>
+        <v>778.5150842666471</v>
       </c>
       <c r="B145" s="0" t="n">
+        <v>827.4326095974544</v>
+      </c>
+      <c r="C145" s="0" t="n">
+        <v>778.5150842666451</v>
+      </c>
+      <c r="D145" s="0" t="n">
+        <v>508.1685986066881</v>
+      </c>
+      <c r="E145" s="0" t="n">
+        <v>732.4895458562631</v>
+      </c>
+      <c r="F145" s="0" t="n">
+        <v>1192.686321217974</v>
+      </c>
+      <c r="G145" s="0" t="n">
         <v>993.4120772351089</v>
       </c>
-      <c r="C145" s="0" t="n">
-        <v>398.2404970020509</v>
-      </c>
-      <c r="D145" s="0" t="n">
-        <v>478.1258494977812</v>
-      </c>
-      <c r="E145" s="0" t="n">
-        <v>934.6819040603763</v>
-      </c>
-      <c r="F145" s="0" t="n">
-        <v>1267.62804618769</v>
-      </c>
-      <c r="G145" s="0" t="n">
-        <v>1192.686321217971</v>
-      </c>
       <c r="H145" s="0" t="n">
-        <v>1192.686321217971</v>
+        <v>610.1050614540306</v>
       </c>
       <c r="I145" s="0" t="n">
-        <v>732.4895458562631</v>
+        <v>879.4238381009438</v>
       </c>
       <c r="J145" s="0" t="n">
-        <v>778.5150842666462</v>
+        <v>648.440644670437</v>
       </c>
       <c r="K145" s="0" t="n">
         <v>1192.686321217971</v>
@@ -44168,34 +44168,34 @@
     </row>
     <row r="146">
       <c r="A146" s="0" t="n">
-        <v>341.9648113701093</v>
+        <v>802.6012508000066</v>
       </c>
       <c r="B146" s="0" t="n">
+        <v>853.0322158641333</v>
+      </c>
+      <c r="C146" s="0" t="n">
+        <v>802.6012508000044</v>
+      </c>
+      <c r="D146" s="0" t="n">
+        <v>492.9183937498376</v>
+      </c>
+      <c r="E146" s="0" t="n">
+        <v>755.1517466819005</v>
+      </c>
+      <c r="F146" s="0" t="n">
+        <v>1156.893651662225</v>
+      </c>
+      <c r="G146" s="0" t="n">
         <v>1024.146855805359</v>
       </c>
-      <c r="C146" s="0" t="n">
-        <v>386.2892485812964</v>
-      </c>
-      <c r="D146" s="0" t="n">
-        <v>492.9183937498373</v>
-      </c>
-      <c r="E146" s="0" t="n">
-        <v>906.6319801729222</v>
-      </c>
-      <c r="F146" s="0" t="n">
-        <v>1306.846682845957</v>
-      </c>
-      <c r="G146" s="0" t="n">
-        <v>1229.586365848419</v>
-      </c>
       <c r="H146" s="0" t="n">
-        <v>1156.893651662221</v>
+        <v>591.795730265748</v>
       </c>
       <c r="I146" s="0" t="n">
-        <v>710.5074405856161</v>
+        <v>906.6319801729226</v>
       </c>
       <c r="J146" s="0" t="n">
-        <v>802.6012508000056</v>
+        <v>668.5024901891317</v>
       </c>
       <c r="K146" s="0" t="n">
         <v>1229.586365848419</v>
@@ -44470,34 +44470,34 @@
     </row>
     <row r="147">
       <c r="A147" s="0" t="n">
-        <v>331.7024034969602</v>
+        <v>778.5150842666472</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>1055.832525385906</v>
+        <v>827.4326095974545</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>374.696658659338</v>
+        <v>827.4326095974536</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>508.1685986066878</v>
+        <v>508.1685986066881</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>879.4238381009436</v>
+        <v>732.4895458562631</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>1347.278689203607</v>
+        <v>1122.175124713074</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>1267.628046187691</v>
+        <v>993.4120772351089</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>1122.17512471307</v>
+        <v>610.1050614540308</v>
       </c>
       <c r="I147" s="0" t="n">
-        <v>732.4895458562631</v>
+        <v>879.423838100944</v>
       </c>
       <c r="J147" s="0" t="n">
-        <v>778.5150842666462</v>
+        <v>689.1850211150783</v>
       </c>
       <c r="K147" s="0" t="n">
         <v>1267.628046187691</v>
@@ -44772,34 +44772,34 @@
     </row>
     <row r="148">
       <c r="A148" s="0" t="n">
-        <v>321.7479718010468</v>
+        <v>755.1517466819028</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>1024.14685580536</v>
+        <v>853.0322158641334</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>386.2892485812964</v>
+        <v>802.6012508000046</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>492.9183937498373</v>
+        <v>492.9183937498377</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>853.0322158641331</v>
+        <v>755.1517466819005</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>1306.846682845957</v>
+        <v>1156.893651662225</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>1229.586365848419</v>
+        <v>963.5996533139088</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>1156.893651662222</v>
+        <v>628.9808577102714</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>710.5074405856161</v>
+        <v>906.6319801729227</v>
       </c>
       <c r="J148" s="0" t="n">
-        <v>755.1517466819017</v>
+        <v>668.5024901891317</v>
       </c>
       <c r="K148" s="0" t="n">
         <v>1306.846682845958</v>
@@ -45074,34 +45074,34 @@
     </row>
     <row r="149">
       <c r="A149" s="0" t="n">
-        <v>331.7024034969603</v>
+        <v>778.5150842666474</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>993.4120772351091</v>
+        <v>879.423838100944</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>374.696658659338</v>
+        <v>827.4326095974537</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>508.1685986066879</v>
+        <v>478.1258494977817</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>879.4238381009437</v>
+        <v>732.4895458562631</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>1267.62804618769</v>
+        <v>1192.686321217975</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>1267.628046187691</v>
+        <v>993.412077235109</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>1192.686321217971</v>
+        <v>648.4406446704377</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>732.4895458562631</v>
+        <v>934.6819040603768</v>
       </c>
       <c r="J149" s="0" t="n">
-        <v>778.5150842666462</v>
+        <v>689.1850211150783</v>
       </c>
       <c r="K149" s="0" t="n">
         <v>1267.628046187691</v>
@@ -45376,34 +45376,34 @@
     </row>
     <row r="150">
       <c r="A150" s="0" t="n">
-        <v>321.7479718010469</v>
+        <v>802.6012508000068</v>
       </c>
       <c r="B150" s="0" t="n">
+        <v>853.0322158641335</v>
+      </c>
+      <c r="C150" s="0" t="n">
+        <v>802.6012508000047</v>
+      </c>
+      <c r="D150" s="0" t="n">
+        <v>492.9183937498377</v>
+      </c>
+      <c r="E150" s="0" t="n">
+        <v>710.5074405856161</v>
+      </c>
+      <c r="F150" s="0" t="n">
+        <v>1229.586365848422</v>
+      </c>
+      <c r="G150" s="0" t="n">
         <v>1024.14685580536</v>
       </c>
-      <c r="C150" s="0" t="n">
-        <v>386.2892485812964</v>
-      </c>
-      <c r="D150" s="0" t="n">
-        <v>492.9183937498374</v>
-      </c>
-      <c r="E150" s="0" t="n">
-        <v>853.0322158641333</v>
-      </c>
-      <c r="F150" s="0" t="n">
-        <v>1306.846682845957</v>
-      </c>
-      <c r="G150" s="0" t="n">
-        <v>1229.586365848419</v>
-      </c>
       <c r="H150" s="0" t="n">
-        <v>1229.586365848418</v>
+        <v>668.5024901891325</v>
       </c>
       <c r="I150" s="0" t="n">
+        <v>906.6319801729228</v>
+      </c>
+      <c r="J150" s="0" t="n">
         <v>710.5074405856161</v>
-      </c>
-      <c r="J150" s="0" t="n">
-        <v>755.1517466819017</v>
       </c>
       <c r="K150" s="0" t="n">
         <v>1306.846682845958</v>
@@ -45678,34 +45678,34 @@
     </row>
     <row r="151">
       <c r="A151" s="0" t="n">
-        <v>331.7024034969604</v>
+        <v>827.432609597456</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>993.4120772351091</v>
+        <v>827.4326095974548</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>398.240497002051</v>
+        <v>778.5150842666454</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>508.1685986066879</v>
+        <v>478.1258494977818</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>879.4238381009438</v>
+        <v>689.1850211150783</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>1267.62804618769</v>
+        <v>1267.628046187694</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>1192.686321217972</v>
+        <v>1055.832525385906</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>1192.686321217971</v>
+        <v>648.4406446704378</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>732.4895458562631</v>
+        <v>934.681904060377</v>
       </c>
       <c r="J151" s="0" t="n">
-        <v>778.5150842666462</v>
+        <v>689.1850211150783</v>
       </c>
       <c r="K151" s="0" t="n">
         <v>1267.628046187691</v>
@@ -45980,34 +45980,34 @@
     </row>
     <row r="152">
       <c r="A152" s="0" t="n">
-        <v>321.747971801047</v>
+        <v>853.0322158641349</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>1024.14685580536</v>
+        <v>802.6012508000057</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>410.5615003133161</v>
+        <v>755.151746681901</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>523.8906234465718</v>
+        <v>492.9183937498378</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>906.6319801729226</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>1229.586365848418</v>
+        <v>1306.846682845961</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>1229.586365848419</v>
+        <v>1088.498505213051</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>1229.586365848418</v>
+        <v>628.9808577102716</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>710.5074405856161</v>
+        <v>906.6319801729229</v>
       </c>
       <c r="J152" s="0" t="n">
-        <v>755.1517466819017</v>
+        <v>668.5024901891317</v>
       </c>
       <c r="K152" s="0" t="n">
         <v>1229.586365848419</v>
@@ -46282,34 +46282,34 @@
     </row>
     <row r="153">
       <c r="A153" s="0" t="n">
-        <v>331.7024034969604</v>
+        <v>827.4326095974561</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>993.4120772351091</v>
+        <v>778.5150842666463</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>423.2636982136273</v>
+        <v>732.4895458562637</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>540.099065719063</v>
+        <v>478.1258494977818</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>934.6819040603767</v>
+        <v>689.1850211150783</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>1267.62804618769</v>
+        <v>1267.628046187695</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>1192.686321217972</v>
+        <v>1055.832525385906</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>1192.686321217971</v>
+        <v>610.105061454031</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>689.1850211150783</v>
+        <v>934.6819040603771</v>
       </c>
       <c r="J153" s="0" t="n">
-        <v>778.5150842666462</v>
+        <v>648.440644670437</v>
       </c>
       <c r="K153" s="0" t="n">
         <v>1267.628046187691</v>
@@ -46584,34 +46584,34 @@
     </row>
     <row r="154">
       <c r="A154" s="0" t="n">
-        <v>321.747971801047</v>
+        <v>853.032215864135</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>963.599653313909</v>
+        <v>755.1517466819018</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>410.5615003133161</v>
+        <v>710.5074405856167</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>523.8906234465718</v>
+        <v>463.7772313970394</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>963.5996533139094</v>
+        <v>668.5024901891317</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>1306.846682845957</v>
+        <v>1306.846682845962</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>1156.893651662223</v>
+        <v>1088.498505213051</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>1156.893651662222</v>
+        <v>591.7957302657484</v>
       </c>
       <c r="I154" s="0" t="n">
+        <v>906.631980172923</v>
+      </c>
+      <c r="J154" s="0" t="n">
         <v>668.5024901891317</v>
-      </c>
-      <c r="J154" s="0" t="n">
-        <v>802.6012508000056</v>
       </c>
       <c r="K154" s="0" t="n">
         <v>1306.846682845958</v>
@@ -46886,34 +46886,34 @@
     </row>
     <row r="155">
       <c r="A155" s="0" t="n">
-        <v>312.0922738777682</v>
+        <v>827.4326095974562</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>993.4120772351092</v>
+        <v>778.5150842666463</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>423.2636982136273</v>
+        <v>689.1850211150788</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>540.099065719063</v>
+        <v>449.8592171668412</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>934.6819040603768</v>
+        <v>648.440644670437</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>1267.62804618769</v>
+        <v>1347.278689203612</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>1192.686321217972</v>
+        <v>1122.175124713072</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>1122.175124713071</v>
+        <v>574.0358644560405</v>
       </c>
       <c r="I155" s="0" t="n">
+        <v>879.4238381009444</v>
+      </c>
+      <c r="J155" s="0" t="n">
         <v>689.1850211150783</v>
-      </c>
-      <c r="J155" s="0" t="n">
-        <v>827.4326095974548</v>
       </c>
       <c r="K155" s="0" t="n">
         <v>1347.278689203608</v>
@@ -47188,34 +47188,34 @@
     </row>
     <row r="156">
       <c r="A156" s="0" t="n">
-        <v>302.7263446882711</v>
+        <v>853.0322158641351</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>1024.14685580536</v>
+        <v>802.6012508000057</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>410.5615003133161</v>
+        <v>710.5074405856167</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>523.8906234465718</v>
+        <v>463.7772313970395</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>906.6319801729228</v>
+        <v>668.5024901891317</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>1229.586365848418</v>
+        <v>1306.846682845962</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>1229.586365848419</v>
+        <v>1088.498505213051</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>1088.49850521305</v>
+        <v>591.7957302657484</v>
       </c>
       <c r="I156" s="0" t="n">
+        <v>853.0322158641339</v>
+      </c>
+      <c r="J156" s="0" t="n">
         <v>668.5024901891317</v>
-      </c>
-      <c r="J156" s="0" t="n">
-        <v>853.0322158641336</v>
       </c>
       <c r="K156" s="0" t="n">
         <v>1388.96160522003</v>
@@ -47490,34 +47490,34 @@
     </row>
     <row r="157">
       <c r="A157" s="0" t="n">
-        <v>293.6414882356691</v>
+        <v>879.4238381009457</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>1055.832525385906</v>
+        <v>827.4326095974549</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>423.2636982136273</v>
+        <v>732.4895458562638</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>508.1685986066879</v>
+        <v>478.1258494977819</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>879.4238381009442</v>
+        <v>689.1850211150783</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>1267.62804618769</v>
+        <v>1347.278689203613</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>1267.628046187691</v>
+        <v>1055.832525385907</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>1055.832525385905</v>
+        <v>574.0358644560405</v>
       </c>
       <c r="I157" s="0" t="n">
+        <v>879.4238381009445</v>
+      </c>
+      <c r="J157" s="0" t="n">
         <v>689.1850211150783</v>
-      </c>
-      <c r="J157" s="0" t="n">
-        <v>879.4238381009442</v>
       </c>
       <c r="K157" s="0" t="n">
         <v>1431.934132288386</v>
@@ -47792,34 +47792,34 @@
     </row>
     <row r="158">
       <c r="A158" s="0" t="n">
-        <v>284.8292694910584</v>
+        <v>853.0322158641351</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>1088.498505213051</v>
+        <v>853.0322158641337</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>410.5615003133161</v>
+        <v>710.5074405856168</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>523.8906234465718</v>
+        <v>492.9183937498379</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>906.6319801729229</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>1306.846682845957</v>
+        <v>1388.961605220035</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>1306.846682845958</v>
+        <v>1088.498505213052</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>1024.146855805359</v>
+        <v>591.7957302657484</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>668.5024901891317</v>
+        <v>853.0322158641341</v>
       </c>
       <c r="J158" s="0" t="n">
-        <v>853.0322158641337</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="K158" s="0" t="n">
         <v>1388.96160522003</v>
@@ -48094,34 +48094,34 @@
     </row>
     <row r="159">
       <c r="A159" s="0" t="n">
-        <v>276.2815065618349</v>
+        <v>827.4326095974563</v>
       </c>
       <c r="B159" s="0" t="n">
+        <v>879.4238381009443</v>
+      </c>
+      <c r="C159" s="0" t="n">
+        <v>689.1850211150789</v>
+      </c>
+      <c r="D159" s="0" t="n">
+        <v>478.125849497782</v>
+      </c>
+      <c r="E159" s="0" t="n">
+        <v>689.1850211150783</v>
+      </c>
+      <c r="F159" s="0" t="n">
+        <v>1347.278689203613</v>
+      </c>
+      <c r="G159" s="0" t="n">
         <v>1055.832525385907</v>
       </c>
-      <c r="C159" s="0" t="n">
-        <v>398.240497002051</v>
-      </c>
-      <c r="D159" s="0" t="n">
-        <v>540.099065719063</v>
-      </c>
-      <c r="E159" s="0" t="n">
-        <v>934.6819040603771</v>
-      </c>
-      <c r="F159" s="0" t="n">
-        <v>1267.62804618769</v>
-      </c>
-      <c r="G159" s="0" t="n">
-        <v>1267.628046187692</v>
-      </c>
       <c r="H159" s="0" t="n">
-        <v>993.4120772351084</v>
+        <v>574.0358644560405</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>648.440644670437</v>
+        <v>879.4238381009446</v>
       </c>
       <c r="J159" s="0" t="n">
-        <v>827.432609597455</v>
+        <v>689.1850211150783</v>
       </c>
       <c r="K159" s="0" t="n">
         <v>1347.278689203609</v>
@@ -48396,34 +48396,34 @@
     </row>
     <row r="160">
       <c r="A160" s="0" t="n">
-        <v>284.8292694910585</v>
+        <v>853.0322158641352</v>
       </c>
       <c r="B160" s="0" t="n">
+        <v>853.0322158641338</v>
+      </c>
+      <c r="C160" s="0" t="n">
+        <v>710.5074405856168</v>
+      </c>
+      <c r="D160" s="0" t="n">
+        <v>463.7772313970396</v>
+      </c>
+      <c r="E160" s="0" t="n">
+        <v>668.5024901891317</v>
+      </c>
+      <c r="F160" s="0" t="n">
+        <v>1306.846682845962</v>
+      </c>
+      <c r="G160" s="0" t="n">
         <v>1088.498505213052</v>
       </c>
-      <c r="C160" s="0" t="n">
-        <v>386.2892485812965</v>
-      </c>
-      <c r="D160" s="0" t="n">
-        <v>556.8089744983841</v>
-      </c>
-      <c r="E160" s="0" t="n">
-        <v>906.631980172923</v>
-      </c>
-      <c r="F160" s="0" t="n">
-        <v>1229.586365848418</v>
-      </c>
-      <c r="G160" s="0" t="n">
-        <v>1306.846682845959</v>
-      </c>
       <c r="H160" s="0" t="n">
-        <v>963.5996533139083</v>
+        <v>591.7957302657484</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>668.5024901891317</v>
+        <v>906.6319801729234</v>
       </c>
       <c r="J160" s="0" t="n">
-        <v>802.6012508000059</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="K160" s="0" t="n">
         <v>1388.96160522003</v>
@@ -48698,34 +48698,34 @@
     </row>
     <row r="161">
       <c r="A161" s="0" t="n">
-        <v>276.281506561835</v>
+        <v>827.4326095974565</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>1122.175124713072</v>
+        <v>879.4238381009444</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>398.240497002051</v>
+        <v>689.1850211150789</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>540.0990657190631</v>
+        <v>478.125849497782</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>934.6819040603772</v>
+        <v>648.440644670437</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>1267.62804618769</v>
+        <v>1267.628046187695</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>1267.628046187692</v>
+        <v>1055.832525385907</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>993.4120772351085</v>
+        <v>610.1050614540311</v>
       </c>
       <c r="I161" s="0" t="n">
-        <v>648.440644670437</v>
+        <v>934.6819040603775</v>
       </c>
       <c r="J161" s="0" t="n">
-        <v>778.5150842666466</v>
+        <v>689.1850211150783</v>
       </c>
       <c r="K161" s="0" t="n">
         <v>1347.278689203609</v>
@@ -49000,34 +49000,34 @@
     </row>
     <row r="162">
       <c r="A162" s="0" t="n">
-        <v>267.9902630950416</v>
+        <v>853.0322158641353</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>1088.498505213052</v>
+        <v>906.6319801729231</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>410.5615003133162</v>
+        <v>668.5024901891323</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>523.8906234465719</v>
+        <v>492.9183937498381</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>963.5996533139098</v>
+        <v>668.5024901891317</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>1229.586365848419</v>
+        <v>1229.586365848423</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>1306.846682845959</v>
+        <v>1024.146855805361</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>1024.146855805359</v>
+        <v>591.7957302657485</v>
       </c>
       <c r="I162" s="0" t="n">
-        <v>668.5024901891317</v>
+        <v>963.5996533139102</v>
       </c>
       <c r="J162" s="0" t="n">
-        <v>755.1517466819021</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="K162" s="0" t="n">
         <v>1388.96160522003</v>
@@ -49302,34 +49302,34 @@
     </row>
     <row r="163">
       <c r="A163" s="0" t="n">
-        <v>259.9478409086919</v>
+        <v>827.4326095974566</v>
       </c>
       <c r="B163" s="0" t="n">
+        <v>879.4238381009445</v>
+      </c>
+      <c r="C163" s="0" t="n">
+        <v>689.1850211150791</v>
+      </c>
+      <c r="D163" s="0" t="n">
+        <v>478.1258494977821</v>
+      </c>
+      <c r="E163" s="0" t="n">
+        <v>689.1850211150783</v>
+      </c>
+      <c r="F163" s="0" t="n">
+        <v>1267.628046187695</v>
+      </c>
+      <c r="G163" s="0" t="n">
         <v>1055.832525385907</v>
       </c>
-      <c r="C163" s="0" t="n">
-        <v>423.2636982136274</v>
-      </c>
-      <c r="D163" s="0" t="n">
-        <v>508.168598606688</v>
-      </c>
-      <c r="E163" s="0" t="n">
-        <v>993.41207723511</v>
-      </c>
-      <c r="F163" s="0" t="n">
-        <v>1267.628046187691</v>
-      </c>
-      <c r="G163" s="0" t="n">
-        <v>1347.27868920361</v>
-      </c>
       <c r="H163" s="0" t="n">
-        <v>1055.832525385906</v>
+        <v>574.0358644560406</v>
       </c>
       <c r="I163" s="0" t="n">
+        <v>993.4120772351104</v>
+      </c>
+      <c r="J163" s="0" t="n">
         <v>689.1850211150783</v>
-      </c>
-      <c r="J163" s="0" t="n">
-        <v>732.4895458562647</v>
       </c>
       <c r="K163" s="0" t="n">
         <v>1347.278689203609</v>
@@ -49604,34 +49604,34 @@
     </row>
     <row r="164">
       <c r="A164" s="0" t="n">
-        <v>267.9902630950416</v>
+        <v>853.0322158641354</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>1024.14685580536</v>
+        <v>906.6319801729232</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>436.3588843297736</v>
+        <v>710.5074405856169</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>523.8906234465719</v>
+        <v>492.9183937498381</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>963.5996533139099</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>1229.586365848419</v>
+        <v>1306.846682845963</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>1388.961605220032</v>
+        <v>1088.498505213052</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>1024.146855805359</v>
+        <v>591.7957302657485</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>668.5024901891317</v>
+        <v>1024.146855805361</v>
       </c>
       <c r="J164" s="0" t="n">
-        <v>755.1517466819022</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="K164" s="0" t="n">
         <v>1388.96160522003</v>
@@ -49906,34 +49906,34 @@
     </row>
     <row r="165">
       <c r="A165" s="0" t="n">
-        <v>276.281506561835</v>
+        <v>879.4238381009461</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>993.41207723511</v>
+        <v>934.6819040603774</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>423.2636982136274</v>
+        <v>689.1850211150791</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>508.168598606688</v>
+        <v>508.1685986066886</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>934.6819040603774</v>
+        <v>732.4895458562631</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>1267.628046187691</v>
+        <v>1347.278689203613</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>1347.27868920361</v>
+        <v>1122.175124713073</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>993.4120772351089</v>
+        <v>574.0358644560406</v>
       </c>
       <c r="I165" s="0" t="n">
+        <v>1055.832525385908</v>
+      </c>
+      <c r="J165" s="0" t="n">
         <v>689.1850211150783</v>
-      </c>
-      <c r="J165" s="0" t="n">
-        <v>732.4895458562648</v>
       </c>
       <c r="K165" s="0" t="n">
         <v>1347.278689203609</v>
@@ -50208,34 +50208,34 @@
     </row>
     <row r="166">
       <c r="A166" s="0" t="n">
-        <v>284.8292694910586</v>
+        <v>853.0322158641355</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>963.5996533139099</v>
+        <v>906.6319801729234</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>436.3588843297737</v>
+        <v>710.5074405856169</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>492.9183937498375</v>
+        <v>523.8906234465726</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>963.59965331391</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>1229.586365848419</v>
+        <v>1388.961605220035</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>1388.961605220032</v>
+        <v>1088.498505213053</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>963.5996533139088</v>
+        <v>591.7957302657485</v>
       </c>
       <c r="I166" s="0" t="n">
+        <v>1024.146855805361</v>
+      </c>
+      <c r="J166" s="0" t="n">
         <v>710.5074405856161</v>
-      </c>
-      <c r="J166" s="0" t="n">
-        <v>755.1517466819023</v>
       </c>
       <c r="K166" s="0" t="n">
         <v>1388.96160522003</v>
@@ -50510,34 +50510,34 @@
     </row>
     <row r="167">
       <c r="A167" s="0" t="n">
-        <v>293.6414882356693</v>
+        <v>879.4238381009462</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>993.4120772351101</v>
+        <v>879.4238381009447</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>449.8592171668417</v>
+        <v>689.1850211150791</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>508.1685986066881</v>
+        <v>540.0990657190639</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>934.6819040603775</v>
+        <v>732.4895458562631</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>1267.628046187691</v>
+        <v>1347.278689203614</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>1431.934132288388</v>
+        <v>1055.832525385908</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>993.412077235109</v>
+        <v>574.0358644560406</v>
       </c>
       <c r="I167" s="0" t="n">
+        <v>1055.832525385908</v>
+      </c>
+      <c r="J167" s="0" t="n">
         <v>732.4895458562631</v>
-      </c>
-      <c r="J167" s="0" t="n">
-        <v>732.489545856265</v>
       </c>
       <c r="K167" s="0" t="n">
         <v>1431.934132288386</v>
@@ -50812,34 +50812,34 @@
     </row>
     <row r="168">
       <c r="A168" s="0" t="n">
-        <v>302.7263446882713</v>
+        <v>853.0322158641357</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>1024.146855805361</v>
+        <v>906.6319801729235</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>436.3588843297737</v>
+        <v>668.5024901891325</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>492.9183937498376</v>
+        <v>523.8906234465727</v>
       </c>
       <c r="E168" s="0" t="n">
-        <v>963.5996533139102</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>1306.846682845958</v>
+        <v>1306.846682845963</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>1388.961605220032</v>
+        <v>1088.498505213053</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>1024.14685580536</v>
+        <v>556.8089744983843</v>
       </c>
       <c r="I168" s="0" t="n">
+        <v>1088.498505213053</v>
+      </c>
+      <c r="J168" s="0" t="n">
         <v>755.1517466819005</v>
-      </c>
-      <c r="J168" s="0" t="n">
-        <v>755.1517466819024</v>
       </c>
       <c r="K168" s="0" t="n">
         <v>1388.961605220031</v>
@@ -51114,34 +51114,34 @@
     </row>
     <row r="169">
       <c r="A169" s="0" t="n">
-        <v>312.0922738777685</v>
+        <v>827.4326095974568</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>993.4120772351102</v>
+        <v>879.4238381009449</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>423.2636982136275</v>
+        <v>689.1850211150792</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>478.1258494977816</v>
+        <v>508.1685986066888</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>993.4120772351104</v>
+        <v>732.4895458562631</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>1347.278689203609</v>
+        <v>1347.278689203614</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>1347.27868920361</v>
+        <v>1122.175124713074</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>993.4120772351091</v>
+        <v>574.0358644560407</v>
       </c>
       <c r="I169" s="0" t="n">
-        <v>778.515084266645</v>
+        <v>1122.175124713074</v>
       </c>
       <c r="J169" s="0" t="n">
-        <v>732.4895458562651</v>
+        <v>732.4895458562631</v>
       </c>
       <c r="K169" s="0" t="n">
         <v>1431.934132288387</v>
@@ -51416,34 +51416,34 @@
     </row>
     <row r="170">
       <c r="A170" s="0" t="n">
-        <v>302.7263446882713</v>
+        <v>802.6012508000076</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>963.59965331391</v>
+        <v>906.6319801729236</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>436.3588843297738</v>
+        <v>710.507440585617</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>463.7772313970393</v>
+        <v>523.8906234465728</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>963.5996533139102</v>
+        <v>755.1517466819005</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>1388.961605220031</v>
+        <v>1388.961605220036</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>1306.84668284596</v>
+        <v>1088.498505213053</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>1024.14685580536</v>
+        <v>556.8089744983844</v>
       </c>
       <c r="I170" s="0" t="n">
-        <v>755.1517466819006</v>
+        <v>1156.893651662225</v>
       </c>
       <c r="J170" s="0" t="n">
-        <v>710.507440585618</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="K170" s="0" t="n">
         <v>1388.961605220031</v>
@@ -51718,34 +51718,34 @@
     </row>
     <row r="171">
       <c r="A171" s="0" t="n">
-        <v>293.6414882356693</v>
+        <v>827.4326095974568</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>934.6819040603775</v>
+        <v>879.4238381009449</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>423.2636982136276</v>
+        <v>689.1850211150792</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>478.1258494977817</v>
+        <v>540.0990657190641</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>993.4120772351104</v>
+        <v>732.4895458562631</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>1347.278689203609</v>
+        <v>1431.934132288392</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>1267.628046187693</v>
+        <v>1122.175124713074</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>1055.832525385906</v>
+        <v>574.0358644560408</v>
       </c>
       <c r="I171" s="0" t="n">
-        <v>732.4895458562632</v>
+        <v>1122.175124713074</v>
       </c>
       <c r="J171" s="0" t="n">
-        <v>689.1850211150802</v>
+        <v>732.4895458562631</v>
       </c>
       <c r="K171" s="0" t="n">
         <v>1347.278689203609</v>
@@ -52020,34 +52020,34 @@
     </row>
     <row r="172">
       <c r="A172" s="0" t="n">
-        <v>284.8292694910587</v>
+        <v>802.6012508000076</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>963.5996533139102</v>
+        <v>906.6319801729236</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>410.5615003133164</v>
+        <v>710.507440585617</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>463.7772313970393</v>
+        <v>556.8089744983853</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>963.5996533139102</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>1306.846682845959</v>
+        <v>1476.236169168754</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>1306.84668284596</v>
+        <v>1156.893651662225</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>1088.498505213051</v>
+        <v>591.7957302657487</v>
       </c>
       <c r="I172" s="0" t="n">
-        <v>755.1517466819006</v>
+        <v>1156.893651662225</v>
       </c>
       <c r="J172" s="0" t="n">
-        <v>668.5024901891336</v>
+        <v>755.1517466819005</v>
       </c>
       <c r="K172" s="0" t="n">
         <v>1306.846682845958</v>
@@ -52322,34 +52322,34 @@
     </row>
     <row r="173">
       <c r="A173" s="0" t="n">
-        <v>293.6414882356694</v>
+        <v>778.5150842666483</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>993.4120772351104</v>
+        <v>879.4238381009449</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>423.2636982136276</v>
+        <v>732.4895458562642</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>478.1258494977818</v>
+        <v>574.0358644560417</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>934.6819040603776</v>
+        <v>732.4895458562631</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>1347.278689203609</v>
+        <v>1521.908849032962</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>1267.628046187693</v>
+        <v>1192.686321217975</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>1055.832525385906</v>
+        <v>574.0358644560408</v>
       </c>
       <c r="I173" s="0" t="n">
-        <v>778.5150842666451</v>
+        <v>1122.175124713074</v>
       </c>
       <c r="J173" s="0" t="n">
-        <v>648.4406446704389</v>
+        <v>732.4895458562631</v>
       </c>
       <c r="K173" s="0" t="n">
         <v>1347.278689203609</v>
@@ -52624,34 +52624,34 @@
     </row>
     <row r="174">
       <c r="A174" s="0" t="n">
-        <v>302.7263446882714</v>
+        <v>755.1517466819038</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>1024.146855805361</v>
+        <v>906.6319801729236</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>436.3588843297738</v>
+        <v>710.5074405856171</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>463.7772313970394</v>
+        <v>556.8089744983853</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>963.5996533139103</v>
+        <v>755.1517466819005</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>1388.961605220032</v>
+        <v>1568.994577655589</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>1229.586365848421</v>
+        <v>1156.893651662225</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>1088.498505213051</v>
+        <v>556.8089744983845</v>
       </c>
       <c r="I174" s="0" t="n">
-        <v>755.1517466819007</v>
+        <v>1156.893651662225</v>
       </c>
       <c r="J174" s="0" t="n">
-        <v>668.5024901891337</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="K174" s="0" t="n">
         <v>1306.846682845959</v>
@@ -52926,34 +52926,34 @@
     </row>
     <row r="175">
       <c r="A175" s="0" t="n">
-        <v>312.0922738777685</v>
+        <v>732.4895458562664</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>993.4120772351105</v>
+        <v>879.4238381009449</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>423.2636982136277</v>
+        <v>732.4895458562643</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>478.1258494977818</v>
+        <v>540.0990657190641</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>993.4120772351105</v>
+        <v>778.515084266645</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>1347.27868920361</v>
+        <v>1617.537072786495</v>
       </c>
       <c r="G175" s="0" t="n">
+        <v>1192.686321217975</v>
+      </c>
+      <c r="H175" s="0" t="n">
+        <v>540.0990657190634</v>
+      </c>
+      <c r="I175" s="0" t="n">
         <v>1192.686321217974</v>
       </c>
-      <c r="H175" s="0" t="n">
-        <v>1122.175124713072</v>
-      </c>
-      <c r="I175" s="0" t="n">
-        <v>778.5150842666452</v>
-      </c>
       <c r="J175" s="0" t="n">
-        <v>648.440644670439</v>
+        <v>732.4895458562631</v>
       </c>
       <c r="K175" s="0" t="n">
         <v>1347.278689203609</v>
@@ -53228,34 +53228,34 @@
     </row>
     <row r="176">
       <c r="A176" s="0" t="n">
-        <v>302.7263446882714</v>
+        <v>755.1517466819039</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>1024.146855805361</v>
+        <v>853.0322158641344</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>436.3588843297739</v>
+        <v>710.5074405856172</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>463.7772313970394</v>
+        <v>556.8089744983853</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>1024.146855805361</v>
+        <v>802.6012508000043</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>1306.846682845959</v>
+        <v>1568.994577655589</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>1156.893651662224</v>
+        <v>1229.586365848422</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>1088.498505213051</v>
+        <v>556.8089744983846</v>
       </c>
       <c r="I176" s="0" t="n">
-        <v>755.1517466819008</v>
+        <v>1156.893651662225</v>
       </c>
       <c r="J176" s="0" t="n">
-        <v>668.5024901891338</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="K176" s="0" t="n">
         <v>1388.961605220032</v>
@@ -53530,34 +53530,34 @@
     </row>
     <row r="177">
       <c r="A177" s="0" t="n">
-        <v>312.0922738777685</v>
+        <v>732.4895458562665</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>993.4120772351107</v>
+        <v>879.423838100945</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>449.859217166842</v>
+        <v>689.1850211150794</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>478.1258494977819</v>
+        <v>574.0358644560417</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>993.4120772351107</v>
+        <v>827.4326095974535</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>1347.27868920361</v>
+        <v>1521.908849032962</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>1122.175124713073</v>
+        <v>1192.686321217975</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>1122.175124713072</v>
+        <v>574.0358644560411</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>778.5150842666453</v>
+        <v>1122.175124713074</v>
       </c>
       <c r="J177" s="0" t="n">
-        <v>648.4406446704392</v>
+        <v>732.4895458562631</v>
       </c>
       <c r="K177" s="0" t="n">
         <v>1431.934132288387</v>
@@ -53832,34 +53832,34 @@
     </row>
     <row r="178">
       <c r="A178" s="0" t="n">
-        <v>302.7263446882714</v>
+        <v>710.5074405856194</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>1024.146855805361</v>
+        <v>906.6319801729237</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>463.7772313970403</v>
+        <v>668.5024901891328</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>492.9183937498379</v>
+        <v>591.7957302657497</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>963.5996533139105</v>
+        <v>853.0322158641322</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>1388.961605220032</v>
+        <v>1568.994577655589</v>
       </c>
       <c r="G178" s="0" t="n">
+        <v>1156.893651662226</v>
+      </c>
+      <c r="H178" s="0" t="n">
+        <v>591.7957302657491</v>
+      </c>
+      <c r="I178" s="0" t="n">
         <v>1088.498505213053</v>
       </c>
-      <c r="H178" s="0" t="n">
-        <v>1088.498505213051</v>
-      </c>
-      <c r="I178" s="0" t="n">
-        <v>755.1517466819009</v>
-      </c>
       <c r="J178" s="0" t="n">
-        <v>628.980857710273</v>
+        <v>755.1517466819005</v>
       </c>
       <c r="K178" s="0" t="n">
         <v>1476.23616916875</v>
@@ -54134,34 +54134,34 @@
     </row>
     <row r="179">
       <c r="A179" s="0" t="n">
-        <v>312.0922738777685</v>
+        <v>732.4895458562665</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>993.4120772351109</v>
+        <v>934.6819040603779</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>449.859217166842</v>
+        <v>689.1850211150795</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>508.1685986066884</v>
+        <v>574.0358644560418</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>934.681904060378</v>
+        <v>879.4238381009428</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>1347.27868920361</v>
+        <v>1617.537072786495</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>1122.175124713073</v>
+        <v>1192.686321217975</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>1122.175124713072</v>
+        <v>610.1050614540318</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>778.5150842666454</v>
+        <v>1122.175124713074</v>
       </c>
       <c r="J179" s="0" t="n">
-        <v>610.1050614540324</v>
+        <v>732.4895458562631</v>
       </c>
       <c r="K179" s="0" t="n">
         <v>1431.934132288387</v>
@@ -54436,34 +54436,34 @@
     </row>
     <row r="180">
       <c r="A180" s="0" t="n">
-        <v>302.7263446882714</v>
+        <v>710.5074405856194</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>1024.146855805362</v>
+        <v>963.5996533139105</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>463.7772313970403</v>
+        <v>668.5024901891329</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>492.9183937498379</v>
+        <v>591.7957302657499</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>963.5996533139106</v>
+        <v>853.0322158641324</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>1388.961605220032</v>
+        <v>1568.99457765559</v>
       </c>
       <c r="G180" s="0" t="n">
+        <v>1156.893651662226</v>
+      </c>
+      <c r="H180" s="0" t="n">
+        <v>628.9808577102725</v>
+      </c>
+      <c r="I180" s="0" t="n">
         <v>1156.893651662225</v>
       </c>
-      <c r="H180" s="0" t="n">
-        <v>1088.498505213051</v>
-      </c>
-      <c r="I180" s="0" t="n">
-        <v>802.6012508000048</v>
-      </c>
       <c r="J180" s="0" t="n">
-        <v>628.9808577102731</v>
+        <v>710.5074405856161</v>
       </c>
       <c r="K180" s="0" t="n">
         <v>1476.23616916875</v>

--- a/output/freight_outward.xlsx
+++ b/output/freight_outward.xlsx
@@ -378,7 +378,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="n">
-        <v>778.5150842666409</v>
+        <v>827.432609597449</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>778.5150842666409</v>
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="n">
-        <v>755.1517466818966</v>
+        <v>853.0322158641276</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>802.6012508000001</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="n">
-        <v>778.515084266641</v>
+        <v>827.4326095974491</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>827.4326095974491</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
-        <v>802.6012508000002</v>
+        <v>802.6012508000001</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>853.0322158641277</v>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
-        <v>827.4326095974492</v>
+        <v>778.515084266641</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>879.423838100938</v>
@@ -1888,7 +1888,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="n">
-        <v>802.6012508000002</v>
+        <v>755.1517466818967</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>906.6319801729165</v>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="n">
-        <v>827.4326095974492</v>
+        <v>732.4895458562595</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>934.6819040603705</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>853.0322158641278</v>
+        <v>710.5074405856126</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>906.6319801729165</v>
@@ -2794,7 +2794,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>879.4238381009382</v>
+        <v>732.4895458562595</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>879.423838100938</v>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>906.6319801729168</v>
+        <v>755.1517466818967</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>853.0322158641277</v>
@@ -3398,7 +3398,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>879.4238381009383</v>
+        <v>778.5150842666411</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>879.423838100938</v>
@@ -3700,7 +3700,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>853.0322158641279</v>
+        <v>802.6012508000003</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>906.6319801729165</v>
@@ -4002,7 +4002,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>827.4326095974493</v>
+        <v>778.5150842666412</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>934.6819040603705</v>
@@ -4304,7 +4304,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>853.0322158641279</v>
+        <v>802.6012508000005</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>906.6319801729165</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>879.4238381009384</v>
+        <v>827.4326095974495</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>934.6819040603705</v>
@@ -4908,7 +4908,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>853.032215864128</v>
+        <v>853.0322158641281</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>906.6319801729165</v>
@@ -5210,7 +5210,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>879.4238381009385</v>
+        <v>827.4326095974495</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>934.6819040603705</v>
@@ -5512,7 +5512,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>853.0322158641281</v>
+        <v>802.6012508000006</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>906.6319801729165</v>
@@ -5814,7 +5814,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>879.4238381009386</v>
+        <v>827.4326095974496</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>934.6819040603705</v>
@@ -6418,7 +6418,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>879.4238381009387</v>
+        <v>827.4326095974496</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>934.6819040603706</v>
@@ -6720,7 +6720,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>853.0322158641284</v>
+        <v>802.6012508000007</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>906.6319801729167</v>
@@ -7626,7 +7626,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>879.4238381009388</v>
+        <v>827.4326095974498</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>993.4120772351031</v>
@@ -7928,7 +7928,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>906.6319801729175</v>
+        <v>853.0322158641284</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>963.5996533139031</v>
@@ -8230,7 +8230,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>934.6819040603715</v>
+        <v>827.4326095974498</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>934.6819040603708</v>
@@ -8532,7 +8532,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>906.6319801729176</v>
+        <v>802.6012508000008</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>906.6319801729169</v>
@@ -8834,7 +8834,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>934.6819040603716</v>
+        <v>827.4326095974499</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>934.6819040603708</v>
@@ -9136,7 +9136,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>963.599653313904</v>
+        <v>802.6012508000009</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>963.5996533139032</v>
@@ -9438,7 +9438,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>934.6819040603717</v>
+        <v>827.43260959745</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>993.4120772351033</v>
@@ -9740,7 +9740,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>906.6319801729178</v>
+        <v>853.0322158641286</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>963.5996533139033</v>
@@ -10042,7 +10042,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>934.6819040603718</v>
+        <v>879.4238381009391</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>993.4120772351034</v>
@@ -10344,7 +10344,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>906.6319801729179</v>
+        <v>853.0322158641287</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>1024.146855805354</v>
@@ -10646,7 +10646,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
-        <v>934.6819040603719</v>
+        <v>879.4238381009392</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1055.8325253859</v>
@@ -10948,7 +10948,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>906.631980172918</v>
+        <v>906.6319801729178</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>1024.146855805354</v>
@@ -11250,7 +11250,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
-        <v>934.6819040603721</v>
+        <v>934.6819040603718</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>993.4120772351037</v>
@@ -11552,7 +11552,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
-        <v>963.5996533139045</v>
+        <v>963.5996533139042</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>963.5996533139037</v>
@@ -11854,7 +11854,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
-        <v>993.4120772351046</v>
+        <v>993.4120772351043</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>993.4120772351038</v>
@@ -12156,7 +12156,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>963.5996533139046</v>
+        <v>1024.146855805355</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>1024.146855805354</v>
@@ -12458,7 +12458,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
-        <v>934.6819040603723</v>
+        <v>1055.832525385901</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>1055.8325253859</v>
@@ -12760,7 +12760,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>906.6319801729184</v>
+        <v>1024.146855805355</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>1024.146855805354</v>
@@ -13062,7 +13062,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
-        <v>879.4238381009399</v>
+        <v>1055.832525385901</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>993.4120772351039</v>
@@ -13364,7 +13364,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
-        <v>853.0322158641295</v>
+        <v>1024.146855805355</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>963.5996533139039</v>
@@ -13666,7 +13666,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
-        <v>879.42383810094</v>
+        <v>1055.832525385901</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>993.412077235104</v>
@@ -13968,7 +13968,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>906.6319801729186</v>
+        <v>1024.146855805355</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>1024.146855805354</v>
@@ -14270,7 +14270,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
-        <v>934.6819040603726</v>
+        <v>993.4120772351046</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>1055.832525385901</v>
@@ -14572,7 +14572,7 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>906.6319801729187</v>
+        <v>1024.146855805355</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>1088.498505213046</v>
@@ -14874,7 +14874,7 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="n">
-        <v>934.6819040603727</v>
+        <v>993.4120772351047</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>1122.175124713066</v>
@@ -15176,7 +15176,7 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="n">
-        <v>963.5996533139052</v>
+        <v>963.5996533139047</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>1088.498505213046</v>
@@ -15478,7 +15478,7 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="n">
-        <v>993.4120772351052</v>
+        <v>993.4120772351048</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>1055.832525385901</v>
@@ -15780,7 +15780,7 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="n">
-        <v>1024.146855805356</v>
+        <v>963.5996533139048</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>1088.498505213046</v>
@@ -16082,7 +16082,7 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="n">
-        <v>1055.832525385902</v>
+        <v>993.4120772351049</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>1055.832525385901</v>
@@ -16384,7 +16384,7 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="n">
-        <v>1088.498505213047</v>
+        <v>963.5996533139049</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>1088.498505213046</v>
@@ -16686,7 +16686,7 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="n">
-        <v>1055.832525385902</v>
+        <v>993.412077235105</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>1122.175124713067</v>
@@ -16988,7 +16988,7 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="n">
-        <v>1088.498505213047</v>
+        <v>1024.146855805355</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>1156.893651662218</v>
@@ -17290,7 +17290,7 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="n">
-        <v>1055.832525385902</v>
+        <v>993.4120772351051</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>1122.175124713067</v>
@@ -17592,7 +17592,7 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="n">
-        <v>1088.498505213047</v>
+        <v>963.5996533139052</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>1156.893651662218</v>
@@ -17894,7 +17894,7 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="n">
-        <v>1055.832525385902</v>
+        <v>993.4120772351052</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>1192.686321217968</v>
@@ -18196,7 +18196,7 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="n">
-        <v>1088.498505213047</v>
+        <v>1024.146855805356</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>1156.893651662218</v>
@@ -18800,7 +18800,7 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="n">
-        <v>1088.498505213047</v>
+        <v>1024.146855805356</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>1156.893651662219</v>
@@ -19102,7 +19102,7 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="n">
-        <v>1122.175124713067</v>
+        <v>1055.832525385902</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>1192.686321217968</v>
@@ -19404,7 +19404,7 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="n">
-        <v>1088.498505213047</v>
+        <v>1024.146855805356</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>1229.586365848415</v>
@@ -20612,7 +20612,7 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="n">
-        <v>1024.146855805356</v>
+        <v>1088.498505213047</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>1388.961605220027</v>
@@ -20914,7 +20914,7 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="n">
-        <v>993.4120772351056</v>
+        <v>1122.175124713067</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>1431.934132288382</v>
@@ -21216,7 +21216,7 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="n">
-        <v>1024.146855805356</v>
+        <v>1088.498505213047</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>1476.236169168745</v>
@@ -21820,7 +21820,7 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="n">
-        <v>1024.146855805356</v>
+        <v>1088.498505213047</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>1476.236169168745</v>
@@ -22122,7 +22122,7 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="n">
-        <v>993.4120772351056</v>
+        <v>1122.175124713068</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>1521.908849032952</v>
@@ -22424,7 +22424,7 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="n">
-        <v>963.5996533139056</v>
+        <v>1088.498505213047</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>1568.994577655579</v>
@@ -22726,7 +22726,7 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="n">
-        <v>934.6819040603732</v>
+        <v>1055.832525385902</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>1521.908849032953</v>
@@ -23028,7 +23028,7 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="n">
-        <v>906.6319801729193</v>
+        <v>1088.498505213047</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>1476.236169168745</v>
@@ -23330,7 +23330,7 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="n">
-        <v>934.6819040603733</v>
+        <v>1122.175124713068</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>1431.934132288383</v>
@@ -23632,7 +23632,7 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="n">
-        <v>906.6319801729194</v>
+        <v>1088.498505213048</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>1388.961605220027</v>
@@ -23934,7 +23934,7 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="n">
-        <v>879.4238381009409</v>
+        <v>1055.832525385903</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>1431.934132288383</v>
@@ -24236,7 +24236,7 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="n">
-        <v>853.0322158641305</v>
+        <v>1088.498505213048</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>1476.236169168746</v>
@@ -24538,7 +24538,7 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="n">
-        <v>879.423838100941</v>
+        <v>1055.832525385903</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>1521.908849032953</v>
@@ -24840,7 +24840,7 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="n">
-        <v>906.6319801729196</v>
+        <v>1024.146855805356</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>1476.236169168746</v>
@@ -25142,7 +25142,7 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="n">
-        <v>879.4238381009411</v>
+        <v>993.412077235106</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>1431.934132288384</v>
@@ -25444,7 +25444,7 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="n">
-        <v>906.6319801729197</v>
+        <v>1024.146855805356</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>1476.236169168746</v>
@@ -25746,7 +25746,7 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="n">
-        <v>934.6819040603738</v>
+        <v>993.412077235106</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>1521.908849032953</v>
@@ -26048,7 +26048,7 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="n">
-        <v>906.6319801729198</v>
+        <v>963.5996533139061</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>1568.994577655581</v>
@@ -26350,7 +26350,7 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="n">
-        <v>879.4238381009412</v>
+        <v>993.4120772351062</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>1617.537072786486</v>
@@ -26652,7 +26652,7 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="n">
-        <v>853.0322158641309</v>
+        <v>963.5996533139062</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>1568.994577655581</v>
@@ -26954,7 +26954,7 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="n">
-        <v>879.4238381009413</v>
+        <v>993.4120772351063</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>1521.908849032954</v>
@@ -27256,7 +27256,7 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="n">
-        <v>853.0322158641309</v>
+        <v>963.5996533139063</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>1568.994577655581</v>
@@ -27558,7 +27558,7 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="n">
-        <v>879.4238381009413</v>
+        <v>993.4120772351064</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>1521.908849032954</v>
@@ -27860,7 +27860,7 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="n">
-        <v>906.63198017292</v>
+        <v>1024.146855805357</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>1476.236169168747</v>
@@ -28162,7 +28162,7 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="n">
-        <v>934.681904060374</v>
+        <v>993.4120772351065</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>1521.908849032954</v>
@@ -28464,7 +28464,7 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="n">
-        <v>906.6319801729201</v>
+        <v>963.5996533139064</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>1568.994577655581</v>
@@ -28766,7 +28766,7 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="n">
-        <v>879.4238381009415</v>
+        <v>993.4120772351065</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>1617.537072786487</v>
@@ -29068,7 +29068,7 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="n">
-        <v>853.032215864131</v>
+        <v>1024.146855805357</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>1667.581404741491</v>
@@ -29370,7 +29370,7 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="n">
-        <v>827.4326095974524</v>
+        <v>993.4120772351065</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>1719.174038248872</v>
@@ -29672,7 +29672,7 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="n">
-        <v>802.6012508000033</v>
+        <v>963.5996533139064</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>1667.581404741491</v>
@@ -29974,7 +29974,7 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="n">
-        <v>827.4326095974524</v>
+        <v>993.4120772351065</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>1617.537072786487</v>
@@ -30276,7 +30276,7 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="n">
-        <v>802.6012508000033</v>
+        <v>1024.146855805357</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>1667.581404741491</v>
@@ -30578,7 +30578,7 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="n">
-        <v>778.5150842666441</v>
+        <v>1055.832525385903</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>1719.174038248872</v>
@@ -30880,7 +30880,7 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="n">
-        <v>802.6012508000034</v>
+        <v>1024.146855805357</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>1667.581404741491</v>
@@ -31182,7 +31182,7 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="n">
-        <v>827.4326095974525</v>
+        <v>993.4120772351065</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>1617.537072786487</v>
@@ -31484,7 +31484,7 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="n">
-        <v>802.6012508000034</v>
+        <v>963.5996533139064</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>1667.581404741491</v>
@@ -31786,7 +31786,7 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="n">
-        <v>778.5150842666442</v>
+        <v>934.681904060374</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>1617.537072786488</v>
@@ -32088,7 +32088,7 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="n">
-        <v>755.1517466818998</v>
+        <v>906.6319801729201</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>1667.581404741492</v>
@@ -32390,7 +32390,7 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="n">
-        <v>778.5150842666443</v>
+        <v>879.4238381009415</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>1719.174038248873</v>
@@ -32692,7 +32692,7 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="n">
-        <v>755.1517466818999</v>
+        <v>853.032215864131</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>1667.581404741492</v>
@@ -32994,7 +32994,7 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="n">
-        <v>732.4895458562627</v>
+        <v>879.4238381009415</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>1617.537072786488</v>
@@ -33296,7 +33296,7 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="n">
-        <v>755.1517466819</v>
+        <v>853.032215864131</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>1568.994577655583</v>
@@ -33598,7 +33598,7 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="n">
-        <v>778.5150842666445</v>
+        <v>827.4326095974524</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>1521.908849032955</v>
@@ -33900,7 +33900,7 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="n">
-        <v>802.6012508000039</v>
+        <v>802.6012508000033</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>1568.994577655583</v>
@@ -34202,7 +34202,7 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="n">
-        <v>778.5150842666446</v>
+        <v>827.4326095974524</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>1521.908849032955</v>
@@ -34504,7 +34504,7 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="n">
-        <v>755.1517466819002</v>
+        <v>853.0322158641311</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>1476.236169168748</v>
@@ -34806,7 +34806,7 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="n">
-        <v>732.489545856263</v>
+        <v>879.4238381009416</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>1431.934132288386</v>
@@ -35108,7 +35108,7 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="n">
-        <v>755.1517466819004</v>
+        <v>906.6319801729202</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>1388.96160522003</v>
@@ -35410,7 +35410,7 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="n">
-        <v>778.5150842666449</v>
+        <v>934.6819040603742</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>1431.934132288386</v>
@@ -35712,7 +35712,7 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="n">
-        <v>802.6012508000042</v>
+        <v>906.6319801729202</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>1476.236169168749</v>
@@ -36014,7 +36014,7 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="n">
-        <v>778.515084266645</v>
+        <v>934.6819040603742</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>1521.908849032956</v>
@@ -36316,7 +36316,7 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="n">
-        <v>755.1517466819006</v>
+        <v>906.6319801729202</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>1476.236169168749</v>
@@ -36618,7 +36618,7 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="n">
-        <v>778.5150842666451</v>
+        <v>879.4238381009416</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>1431.934132288386</v>
@@ -36920,7 +36920,7 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="n">
-        <v>755.1517466819007</v>
+        <v>853.0322158641311</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>1476.236169168749</v>
@@ -37222,7 +37222,7 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="n">
-        <v>732.4895458562634</v>
+        <v>879.4238381009416</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>1431.934132288386</v>
@@ -37524,7 +37524,7 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="n">
-        <v>755.1517466819007</v>
+        <v>853.0322158641311</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>1476.236169168749</v>
@@ -37826,7 +37826,7 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="n">
-        <v>778.5150842666452</v>
+        <v>827.4326095974525</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>1521.908849032956</v>
@@ -38128,7 +38128,7 @@
     </row>
     <row r="126">
       <c r="A126" s="0" t="n">
-        <v>755.1517466819008</v>
+        <v>802.6012508000034</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>1568.994577655583</v>
@@ -38430,7 +38430,7 @@
     </row>
     <row r="127">
       <c r="A127" s="0" t="n">
-        <v>778.5150842666453</v>
+        <v>778.5150842666442</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>1521.908849032956</v>
@@ -38732,7 +38732,7 @@
     </row>
     <row r="128">
       <c r="A128" s="0" t="n">
-        <v>802.6012508000047</v>
+        <v>755.1517466818998</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>1568.994577655583</v>
@@ -39034,7 +39034,7 @@
     </row>
     <row r="129">
       <c r="A129" s="0" t="n">
-        <v>827.4326095974538</v>
+        <v>732.4895458562626</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>1617.537072786489</v>
@@ -39336,7 +39336,7 @@
     </row>
     <row r="130">
       <c r="A130" s="0" t="n">
-        <v>853.0322158641327</v>
+        <v>755.1517466818999</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>1568.994577655583</v>
@@ -39638,7 +39638,7 @@
     </row>
     <row r="131">
       <c r="A131" s="0" t="n">
-        <v>827.432609597454</v>
+        <v>732.4895458562627</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>1521.908849032956</v>
@@ -39940,7 +39940,7 @@
     </row>
     <row r="132">
       <c r="A132" s="0" t="n">
-        <v>802.6012508000049</v>
+        <v>755.1517466819</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>1568.994577655583</v>
@@ -40242,7 +40242,7 @@
     </row>
     <row r="133">
       <c r="A133" s="0" t="n">
-        <v>827.4326095974541</v>
+        <v>778.5150842666445</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>1521.908849032956</v>
@@ -40544,7 +40544,7 @@
     </row>
     <row r="134">
       <c r="A134" s="0" t="n">
-        <v>802.601250800005</v>
+        <v>755.1517466819001</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>1568.994577655583</v>
@@ -40846,7 +40846,7 @@
     </row>
     <row r="135">
       <c r="A135" s="0" t="n">
-        <v>778.5150842666458</v>
+        <v>732.4895458562629</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>1617.537072786489</v>
@@ -41148,7 +41148,7 @@
     </row>
     <row r="136">
       <c r="A136" s="0" t="n">
-        <v>755.1517466819013</v>
+        <v>710.5074405856159</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>1568.994577655583</v>
@@ -41450,7 +41450,7 @@
     </row>
     <row r="137">
       <c r="A137" s="0" t="n">
-        <v>778.5150842666458</v>
+        <v>732.4895458562629</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>1521.908849032956</v>
@@ -41752,7 +41752,7 @@
     </row>
     <row r="138">
       <c r="A138" s="0" t="n">
-        <v>755.1517466819013</v>
+        <v>710.5074405856159</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>1568.994577655583</v>
@@ -42054,7 +42054,7 @@
     </row>
     <row r="139">
       <c r="A139" s="0" t="n">
-        <v>778.5150842666458</v>
+        <v>689.185021115078</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>1617.537072786489</v>
@@ -42356,7 +42356,7 @@
     </row>
     <row r="140">
       <c r="A140" s="0" t="n">
-        <v>755.1517466819013</v>
+        <v>668.5024901891314</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>1667.581404741493</v>
@@ -42658,7 +42658,7 @@
     </row>
     <row r="141">
       <c r="A141" s="0" t="n">
-        <v>732.4895458562639</v>
+        <v>689.185021115078</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>1617.537072786489</v>
@@ -42960,7 +42960,7 @@
     </row>
     <row r="142">
       <c r="A142" s="0" t="n">
-        <v>755.1517466819013</v>
+        <v>668.5024901891314</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>1667.581404741493</v>
@@ -43262,7 +43262,7 @@
     </row>
     <row r="143">
       <c r="A143" s="0" t="n">
-        <v>778.5150842666458</v>
+        <v>689.185021115078</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>1617.537072786489</v>
@@ -43564,7 +43564,7 @@
     </row>
     <row r="144">
       <c r="A144" s="0" t="n">
-        <v>802.6012508000051</v>
+        <v>668.5024901891314</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>1667.581404741493</v>
@@ -43866,7 +43866,7 @@
     </row>
     <row r="145">
       <c r="A145" s="0" t="n">
-        <v>778.5150842666459</v>
+        <v>689.185021115078</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>1617.537072786489</v>
@@ -44168,7 +44168,7 @@
     </row>
     <row r="146">
       <c r="A146" s="0" t="n">
-        <v>755.1517466819014</v>
+        <v>668.5024901891314</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>1667.581404741494</v>
@@ -44470,7 +44470,7 @@
     </row>
     <row r="147">
       <c r="A147" s="0" t="n">
-        <v>732.489545856264</v>
+        <v>689.185021115078</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>1617.53707278649</v>
@@ -44772,7 +44772,7 @@
     </row>
     <row r="148">
       <c r="A148" s="0" t="n">
-        <v>710.507440585617</v>
+        <v>668.5024901891314</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>1667.581404741494</v>
@@ -45074,7 +45074,7 @@
     </row>
     <row r="149">
       <c r="A149" s="0" t="n">
-        <v>732.4895458562642</v>
+        <v>648.4406446704368</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>1617.53707278649</v>
@@ -45376,7 +45376,7 @@
     </row>
     <row r="150">
       <c r="A150" s="0" t="n">
-        <v>710.5074405856171</v>
+        <v>668.5024901891314</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>1568.994577655584</v>
@@ -45678,7 +45678,7 @@
     </row>
     <row r="151">
       <c r="A151" s="0" t="n">
-        <v>732.4895458562643</v>
+        <v>689.185021115078</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>1521.908849032957</v>
@@ -45980,7 +45980,7 @@
     </row>
     <row r="152">
       <c r="A152" s="0" t="n">
-        <v>755.1517466819017</v>
+        <v>710.5074405856159</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>1568.994577655585</v>
@@ -46282,7 +46282,7 @@
     </row>
     <row r="153">
       <c r="A153" s="0" t="n">
-        <v>732.4895458562644</v>
+        <v>689.185021115078</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>1521.908849032958</v>
@@ -46584,7 +46584,7 @@
     </row>
     <row r="154">
       <c r="A154" s="0" t="n">
-        <v>755.1517466819018</v>
+        <v>710.5074405856159</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>1476.23616916875</v>
@@ -46886,7 +46886,7 @@
     </row>
     <row r="155">
       <c r="A155" s="0" t="n">
-        <v>732.4895458562645</v>
+        <v>732.4895458562629</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>1521.908849032958</v>
@@ -47188,7 +47188,7 @@
     </row>
     <row r="156">
       <c r="A156" s="0" t="n">
-        <v>755.151746681902</v>
+        <v>755.1517466819002</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>1568.994577655585</v>
@@ -47490,7 +47490,7 @@
     </row>
     <row r="157">
       <c r="A157" s="0" t="n">
-        <v>778.5150842666465</v>
+        <v>732.489545856263</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>1521.908849032958</v>
@@ -47792,7 +47792,7 @@
     </row>
     <row r="158">
       <c r="A158" s="0" t="n">
-        <v>802.6012508000058</v>
+        <v>710.507440585616</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>1476.23616916875</v>
@@ -48094,7 +48094,7 @@
     </row>
     <row r="159">
       <c r="A159" s="0" t="n">
-        <v>827.432609597455</v>
+        <v>732.489545856263</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>1521.908849032958</v>
@@ -48396,7 +48396,7 @@
     </row>
     <row r="160">
       <c r="A160" s="0" t="n">
-        <v>853.0322158641338</v>
+        <v>755.1517466819004</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>1568.994577655585</v>
@@ -48698,7 +48698,7 @@
     </row>
     <row r="161">
       <c r="A161" s="0" t="n">
-        <v>827.4326095974551</v>
+        <v>732.4895458562631</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>1521.908849032958</v>
@@ -49000,7 +49000,7 @@
     </row>
     <row r="162">
       <c r="A162" s="0" t="n">
-        <v>853.0322158641339</v>
+        <v>755.1517466819005</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>1568.994577655585</v>
@@ -49302,7 +49302,7 @@
     </row>
     <row r="163">
       <c r="A163" s="0" t="n">
-        <v>827.4326095974552</v>
+        <v>732.4895458562631</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>1521.908849032958</v>
@@ -49604,7 +49604,7 @@
     </row>
     <row r="164">
       <c r="A164" s="0" t="n">
-        <v>802.6012508000061</v>
+        <v>755.1517466819005</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>1476.236169168751</v>
@@ -49906,7 +49906,7 @@
     </row>
     <row r="165">
       <c r="A165" s="0" t="n">
-        <v>778.5150842666468</v>
+        <v>778.515084266645</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>1521.908849032958</v>
@@ -50208,7 +50208,7 @@
     </row>
     <row r="166">
       <c r="A166" s="0" t="n">
-        <v>802.6012508000061</v>
+        <v>802.6012508000043</v>
       </c>
       <c r="B166" s="0" t="n">
         <v>1568.994577655586</v>
@@ -50510,7 +50510,7 @@
     </row>
     <row r="167">
       <c r="A167" s="0" t="n">
-        <v>778.5150842666468</v>
+        <v>827.4326095974535</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>1521.908849032958</v>
@@ -50812,7 +50812,7 @@
     </row>
     <row r="168">
       <c r="A168" s="0" t="n">
-        <v>802.6012508000061</v>
+        <v>853.0322158641322</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>1476.236169168751</v>
@@ -51114,7 +51114,7 @@
     </row>
     <row r="169">
       <c r="A169" s="0" t="n">
-        <v>778.5150842666468</v>
+        <v>827.4326095974535</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>1431.934132288389</v>
@@ -51416,7 +51416,7 @@
     </row>
     <row r="170">
       <c r="A170" s="0" t="n">
-        <v>755.1517466819023</v>
+        <v>802.6012508000044</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>1388.961605220033</v>
@@ -51718,7 +51718,7 @@
     </row>
     <row r="171">
       <c r="A171" s="0" t="n">
-        <v>732.489545856265</v>
+        <v>827.4326095974536</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>1347.278689203611</v>
@@ -52020,7 +52020,7 @@
     </row>
     <row r="172">
       <c r="A172" s="0" t="n">
-        <v>755.1517466819024</v>
+        <v>802.6012508000046</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>1388.961605220033</v>
@@ -52322,7 +52322,7 @@
     </row>
     <row r="173">
       <c r="A173" s="0" t="n">
-        <v>732.4895458562651</v>
+        <v>778.5150842666453</v>
       </c>
       <c r="B173" s="0" t="n">
         <v>1431.934132288389</v>
@@ -52624,7 +52624,7 @@
     </row>
     <row r="174">
       <c r="A174" s="0" t="n">
-        <v>755.1517466819025</v>
+        <v>755.1517466819009</v>
       </c>
       <c r="B174" s="0" t="n">
         <v>1476.236169168752</v>
@@ -52926,7 +52926,7 @@
     </row>
     <row r="175">
       <c r="A175" s="0" t="n">
-        <v>732.4895458562652</v>
+        <v>778.5150842666454</v>
       </c>
       <c r="B175" s="0" t="n">
         <v>1431.934132288389</v>
@@ -53228,7 +53228,7 @@
     </row>
     <row r="176">
       <c r="A176" s="0" t="n">
-        <v>755.1517466819026</v>
+        <v>755.151746681901</v>
       </c>
       <c r="B176" s="0" t="n">
         <v>1476.236169168752</v>
@@ -53530,7 +53530,7 @@
     </row>
     <row r="177">
       <c r="A177" s="0" t="n">
-        <v>732.4895458562653</v>
+        <v>778.5150842666455</v>
       </c>
       <c r="B177" s="0" t="n">
         <v>1431.934132288389</v>
@@ -53832,7 +53832,7 @@
     </row>
     <row r="178">
       <c r="A178" s="0" t="n">
-        <v>710.5074405856183</v>
+        <v>755.1517466819012</v>
       </c>
       <c r="B178" s="0" t="n">
         <v>1476.236169168752</v>
@@ -54134,7 +54134,7 @@
     </row>
     <row r="179">
       <c r="A179" s="0" t="n">
-        <v>689.1850211150804</v>
+        <v>732.4895458562638</v>
       </c>
       <c r="B179" s="0" t="n">
         <v>1521.90884903296</v>
@@ -54436,7 +54436,7 @@
     </row>
     <row r="180">
       <c r="A180" s="0" t="n">
-        <v>710.5074405856184</v>
+        <v>710.5074405856168</v>
       </c>
       <c r="B180" s="0" t="n">
         <v>1476.236169168752</v>
